--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -424,11 +424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238823296"/>
-        <c:axId val="187937152"/>
+        <c:axId val="171721088"/>
+        <c:axId val="171722624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238823296"/>
+        <c:axId val="171721088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,12 +437,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187937152"/>
+        <c:crossAx val="171722624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187937152"/>
+        <c:axId val="171722624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238823296"/>
+        <c:crossAx val="171721088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -796,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,1305 +850,1309 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B2" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F2" s="2">
-        <v>31.2</v>
+        <v>26.3</v>
       </c>
       <c r="G2" s="2">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="H2" s="2">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="I2" s="2">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="J2" s="2">
-        <v>18.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K2" s="2">
-        <v>9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43024</v>
+        <v>43038</v>
       </c>
       <c r="B3" s="1">
-        <v>43037</v>
+        <v>43042</v>
       </c>
       <c r="C3">
-        <v>1500</v>
+        <v>1233</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
         <v>6.3</v>
       </c>
+      <c r="F3" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10.4</v>
+      </c>
       <c r="H3" s="2">
-        <v>10.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I3" s="2">
-        <v>13.9</v>
+        <v>14.6</v>
       </c>
       <c r="J3" s="2">
-        <v>18.2</v>
+        <v>20.6</v>
       </c>
       <c r="K3" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L3" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M3" s="6"/>
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43031</v>
+        <v>43035</v>
       </c>
       <c r="B4" s="1">
-        <v>43034</v>
+        <v>43039</v>
       </c>
       <c r="C4">
         <v>1000</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="F4" s="2">
-        <v>26.4</v>
+        <v>31.2</v>
       </c>
       <c r="G4" s="2">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="H4" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2">
-        <v>15.1</v>
+        <v>12.2</v>
       </c>
       <c r="J4" s="2">
-        <v>19.600000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="K4" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M4" s="6"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43024</v>
       </c>
       <c r="B5" s="1">
-        <v>43029</v>
+        <v>43037</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="F5" s="2">
-        <v>24.6</v>
-      </c>
-      <c r="G5" s="2">
-        <v>12.1</v>
+        <v>6.3</v>
       </c>
       <c r="H5" s="2">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="I5" s="2">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="J5" s="2">
-        <v>19.2</v>
+        <v>18.2</v>
       </c>
       <c r="K5" s="2">
-        <v>10.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L5" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B6" s="1">
-        <v>43027</v>
+        <v>43034</v>
       </c>
       <c r="C6">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="F6" s="2">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="G6" s="2">
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H6" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="J6" s="2">
-        <v>16.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K6" s="2">
-        <v>7.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B7" s="1">
-        <v>43017</v>
+        <v>43029</v>
       </c>
       <c r="C7">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F7" s="2">
-        <v>31.8</v>
+        <v>24.6</v>
       </c>
       <c r="G7" s="2">
-        <v>8.1</v>
+        <v>12.1</v>
       </c>
       <c r="H7" s="2">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="I7" s="2">
-        <v>9.5</v>
+        <v>13.1</v>
       </c>
       <c r="J7" s="2">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="K7" s="2">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42996</v>
+        <v>43024</v>
       </c>
       <c r="B8" s="1">
-        <v>43000</v>
+        <v>43027</v>
       </c>
       <c r="C8">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="F8" s="2">
-        <v>25.1</v>
+        <v>28.1</v>
       </c>
       <c r="G8" s="2">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2">
-        <v>13.7</v>
+        <v>14.5</v>
       </c>
       <c r="J8" s="2">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="K8" s="2">
-        <v>10.8</v>
+        <v>7.5</v>
       </c>
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42990</v>
+        <v>43012</v>
       </c>
       <c r="B9" s="1">
-        <v>42993</v>
+        <v>43017</v>
       </c>
       <c r="C9">
         <v>800</v>
       </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="H9" s="2">
         <v>12</v>
       </c>
-      <c r="E9" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="F9" s="2">
-        <v>24.7</v>
-      </c>
-      <c r="G9" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="H9" s="2">
-        <v>12.2</v>
-      </c>
       <c r="I9" s="2">
-        <v>14.8</v>
+        <v>9.5</v>
       </c>
       <c r="J9" s="2">
-        <v>17.399999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="K9" s="2">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42975</v>
+        <v>42996</v>
       </c>
       <c r="B10" s="1">
-        <v>42979</v>
+        <v>43000</v>
       </c>
       <c r="C10">
-        <v>700</v>
+        <v>1255</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="F10" s="2">
-        <v>28</v>
+        <v>25.1</v>
       </c>
       <c r="G10" s="2">
         <v>12.7</v>
       </c>
       <c r="H10" s="2">
-        <v>10.4</v>
+        <v>11.6</v>
       </c>
       <c r="I10" s="2">
-        <v>10.1</v>
+        <v>13.7</v>
       </c>
       <c r="J10" s="2">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="K10" s="2">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>42951</v>
+        <v>42990</v>
       </c>
       <c r="B11" s="1">
-        <v>42958</v>
+        <v>42993</v>
       </c>
       <c r="C11">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="F11" s="2">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="G11" s="2">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="H11" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="I11" s="2">
-        <v>13.9</v>
+        <v>14.8</v>
       </c>
       <c r="J11" s="2">
-        <v>17.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K11" s="2">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42912</v>
+        <v>42975</v>
       </c>
       <c r="B12" s="1">
-        <v>42927</v>
+        <v>42979</v>
       </c>
       <c r="C12">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>5.4</v>
+        <v>6.8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2">
+        <v>12.7</v>
       </c>
       <c r="H12" s="2">
-        <v>12.4</v>
+        <v>10.4</v>
       </c>
       <c r="I12" s="2">
-        <v>14.3</v>
+        <v>10.1</v>
       </c>
       <c r="J12" s="2">
-        <v>15.4</v>
+        <v>17.7</v>
       </c>
       <c r="K12" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L12" s="3">
-        <v>39.299999999999997</v>
+        <v>10.5</v>
       </c>
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>42800</v>
+        <v>42951</v>
       </c>
       <c r="B13" s="1">
-        <v>42815</v>
+        <v>42958</v>
       </c>
       <c r="C13">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
-        <v>5.9</v>
+        <v>6.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>13.9</v>
       </c>
       <c r="H13" s="2">
-        <v>15.3</v>
+        <v>12.1</v>
       </c>
       <c r="I13" s="2">
-        <v>12.3</v>
+        <v>13.9</v>
       </c>
       <c r="J13" s="2">
-        <v>16.100000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="K13" s="2">
-        <v>10</v>
-      </c>
-      <c r="L13" s="3">
-        <v>37</v>
+        <v>9.5</v>
       </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42737</v>
+        <v>42912</v>
       </c>
       <c r="B14" s="1">
-        <v>42740</v>
+        <v>42927</v>
       </c>
       <c r="C14">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F14" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>17.899999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="H14" s="2">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="I14" s="2">
-        <v>11.4</v>
+        <v>14.3</v>
       </c>
       <c r="J14" s="2">
-        <v>16.600000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K14" s="2">
         <v>9.8000000000000007</v>
       </c>
+      <c r="L14" s="3">
+        <v>39.299999999999997</v>
+      </c>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42720</v>
+        <v>42800</v>
       </c>
       <c r="B15" s="1">
-        <v>42727</v>
+        <v>42815</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>14.8</v>
+        <v>5.9</v>
       </c>
       <c r="H15" s="2">
-        <v>11.9</v>
+        <v>15.3</v>
       </c>
       <c r="I15" s="2">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="J15" s="2">
-        <v>16.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
+        <v>37</v>
       </c>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42716</v>
+        <v>42737</v>
       </c>
       <c r="B16" s="1">
-        <v>42721</v>
+        <v>42740</v>
       </c>
       <c r="C16">
-        <v>1047</v>
+        <v>601</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F16" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>17.899999999999999</v>
       </c>
       <c r="H16" s="2">
-        <v>12.2</v>
+        <v>10.7</v>
       </c>
       <c r="I16" s="2">
-        <v>13.8</v>
+        <v>11.4</v>
       </c>
       <c r="J16" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K16" s="2">
-        <v>9</v>
-      </c>
-      <c r="L16" s="3">
-        <v>37.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B17" s="1">
-        <v>42718</v>
+        <v>42727</v>
       </c>
       <c r="C17">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="F17" s="2">
-        <v>30.7</v>
+        <v>24.1</v>
       </c>
       <c r="G17" s="2">
-        <v>11.5</v>
+        <v>14.8</v>
       </c>
       <c r="H17" s="2">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="I17" s="2">
-        <v>14.4</v>
+        <v>12.1</v>
       </c>
       <c r="J17" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K17" s="2">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B18" s="1">
-        <v>42677</v>
+        <v>42721</v>
       </c>
       <c r="C18">
-        <v>1500</v>
+        <v>1047</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2">
-        <v>15.4</v>
+        <v>12.2</v>
       </c>
       <c r="I18" s="2">
-        <v>11.7</v>
+        <v>13.8</v>
       </c>
       <c r="J18" s="2">
-        <v>15.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K18" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" s="3">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42584</v>
+        <v>42716</v>
       </c>
       <c r="B19" s="1">
-        <v>42588</v>
+        <v>42718</v>
       </c>
       <c r="C19">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="F19" s="2">
-        <v>20.3</v>
+        <v>30.7</v>
       </c>
       <c r="G19" s="2">
-        <v>17.2</v>
+        <v>11.5</v>
       </c>
       <c r="H19" s="2">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="I19" s="2">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="J19" s="2">
-        <v>16.7</v>
+        <v>13.5</v>
       </c>
       <c r="K19" s="2">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B20" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C20">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="H20" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I20" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J20" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K20" s="2">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="L20" s="3">
-        <v>36</v>
+        <v>37.4</v>
       </c>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B21" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C21">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2">
-        <v>5.2</v>
+        <v>7.5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>17.2</v>
       </c>
       <c r="H21" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I21" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J21" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K21" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L21" s="3">
-        <v>38.200000000000003</v>
+        <v>9.1</v>
       </c>
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42534</v>
+        <v>42584</v>
       </c>
       <c r="B22" s="1">
-        <v>42537</v>
+        <v>42588</v>
       </c>
       <c r="C22">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F22" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>19.399999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H22" s="2">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="I22" s="2">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="J22" s="2">
-        <v>15.8</v>
+        <v>16.7</v>
       </c>
       <c r="K22" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>36</v>
       </c>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42478</v>
+        <v>42549</v>
       </c>
       <c r="B23" s="1">
-        <v>42482</v>
+        <v>42564</v>
       </c>
       <c r="C23">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="F23" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="G23" s="2">
-        <v>13.3</v>
+        <v>5.2</v>
       </c>
       <c r="H23" s="2">
-        <v>12.3</v>
+        <v>16.8</v>
       </c>
       <c r="I23" s="2">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="J23" s="2">
-        <v>16.2</v>
+        <v>14.8</v>
       </c>
       <c r="K23" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L23" s="3">
+        <v>38.200000000000003</v>
       </c>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42422</v>
+        <v>42534</v>
       </c>
       <c r="B24" s="1">
-        <v>42437</v>
+        <v>42537</v>
       </c>
       <c r="C24">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2">
-        <v>7.5</v>
+        <v>3.6</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>19.399999999999999</v>
       </c>
       <c r="H24" s="2">
-        <v>17.899999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="I24" s="2">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="J24" s="2">
-        <v>16.7</v>
+        <v>15.8</v>
       </c>
       <c r="K24" s="2">
-        <v>7</v>
-      </c>
-      <c r="L24" s="3">
-        <v>35.799999999999997</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42366</v>
+        <v>42478</v>
       </c>
       <c r="B25" s="1">
-        <v>42369</v>
+        <v>42482</v>
       </c>
       <c r="C25">
-        <v>1255</v>
+        <v>1600</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2">
-        <v>8.9</v>
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G25" s="2">
+        <v>13.3</v>
       </c>
       <c r="H25" s="2">
-        <v>9.5</v>
+        <v>12.3</v>
       </c>
       <c r="I25" s="2">
-        <v>12.1</v>
+        <v>13.7</v>
       </c>
       <c r="J25" s="2">
-        <v>21.2</v>
+        <v>16.2</v>
       </c>
       <c r="K25" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="L25" s="3">
-        <v>35.6</v>
+        <v>9.1</v>
       </c>
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42338</v>
+        <v>42422</v>
       </c>
       <c r="B26" s="1">
-        <v>42341</v>
+        <v>42437</v>
       </c>
       <c r="C26">
-        <v>504</v>
+        <v>1500</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F26" s="2">
-        <v>24</v>
-      </c>
-      <c r="G26" s="2">
-        <v>12.6</v>
+        <v>7.5</v>
       </c>
       <c r="H26" s="2">
-        <v>7.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I26" s="2">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="J26" s="2">
-        <v>23.5</v>
+        <v>16.7</v>
       </c>
       <c r="K26" s="2">
-        <v>7.2</v>
+        <v>7</v>
+      </c>
+      <c r="L26" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42328</v>
+        <v>42366</v>
       </c>
       <c r="B27" s="1">
-        <v>42335</v>
+        <v>42369</v>
       </c>
       <c r="C27">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E27" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F27" s="2">
-        <v>21.1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>15.9</v>
+        <v>8.9</v>
       </c>
       <c r="H27" s="2">
-        <v>8.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="I27" s="2">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="J27" s="2">
-        <v>19.899999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="K27" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
+      </c>
+      <c r="L27" s="3">
+        <v>35.6</v>
       </c>
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B28" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C28">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2">
-        <v>9</v>
+        <v>11.8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2">
+        <v>12.6</v>
       </c>
       <c r="H28" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="I28" s="2">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="J28" s="2">
-        <v>19.7</v>
+        <v>23.5</v>
       </c>
       <c r="K28" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L28" s="3">
-        <v>37.6</v>
+        <v>7.2</v>
       </c>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B29" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C29">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F29" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>15.9</v>
       </c>
       <c r="H29" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I29" s="2">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
       <c r="J29" s="2">
-        <v>21.1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K29" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>38.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42303</v>
+        <v>42328</v>
       </c>
       <c r="B30" s="1">
-        <v>42308</v>
+        <v>42335</v>
       </c>
       <c r="C30">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E30" s="2">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2">
-        <v>7.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I30" s="2">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="J30" s="2">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="K30" s="2">
         <v>8.6999999999999993</v>
       </c>
       <c r="L30" s="3">
-        <v>36.4</v>
+        <v>37.6</v>
       </c>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42282</v>
+        <v>42324</v>
       </c>
       <c r="B31" s="1">
-        <v>42304</v>
+        <v>42331</v>
       </c>
       <c r="C31">
-        <v>2000</v>
+        <v>1050</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="H31" s="2">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="I31" s="2">
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
       <c r="J31" s="2">
-        <v>18</v>
+        <v>21.1</v>
       </c>
       <c r="K31" s="2">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L31" s="3">
-        <v>39.799999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42274</v>
+        <v>42303</v>
       </c>
       <c r="B32" s="1">
-        <v>42274</v>
+        <v>42308</v>
       </c>
       <c r="C32">
-        <v>4130196</v>
+        <v>1255</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2">
-        <v>8.2100000000000009</v>
+        <v>8.6</v>
       </c>
       <c r="H32" s="2">
-        <v>8.94</v>
+        <v>7.6</v>
       </c>
       <c r="I32" s="2">
-        <v>12.72</v>
+        <v>13</v>
       </c>
       <c r="J32" s="2">
-        <v>17.899999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="K32" s="2">
-        <v>8.49</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L32" s="3">
-        <v>39.590000000000003</v>
+        <v>36.4</v>
       </c>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42268</v>
+        <v>42282</v>
       </c>
       <c r="B33" s="1">
-        <v>42268</v>
+        <v>42304</v>
       </c>
       <c r="C33">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="J33" s="2">
+        <v>18</v>
+      </c>
+      <c r="K33" s="2">
         <v>7</v>
       </c>
-      <c r="H33" s="2">
-        <v>12</v>
-      </c>
-      <c r="I33" s="2">
-        <v>12</v>
-      </c>
-      <c r="J33" s="2">
-        <v>13</v>
-      </c>
-      <c r="K33" s="2">
-        <v>11</v>
-      </c>
       <c r="L33" s="3">
-        <v>41</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42261</v>
+        <v>42274</v>
       </c>
       <c r="B34" s="1">
-        <v>42272</v>
+        <v>42274</v>
       </c>
       <c r="C34">
-        <v>3000</v>
+        <v>4130196</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E34" s="2">
-        <v>8</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H34" s="2">
-        <v>9.5</v>
+        <v>8.94</v>
       </c>
       <c r="I34" s="2">
-        <v>13.5</v>
+        <v>12.72</v>
       </c>
       <c r="J34" s="2">
-        <v>14.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K34" s="2">
-        <v>9</v>
+        <v>8.49</v>
       </c>
       <c r="L34" s="3">
-        <v>40</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42257</v>
+        <v>42268</v>
       </c>
       <c r="B35" s="1">
-        <v>42264</v>
+        <v>42268</v>
       </c>
       <c r="C35">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E35" s="2">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H35" s="2">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="I35" s="2">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="J35" s="2">
-        <v>15.4</v>
+        <v>13</v>
       </c>
       <c r="K35" s="2">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="L35" s="3">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="B36" s="1">
-        <v>42266</v>
+        <v>42272</v>
       </c>
       <c r="C36">
-        <v>1255</v>
+        <v>3000</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="H36" s="2">
-        <v>12.4</v>
+        <v>9.5</v>
       </c>
       <c r="I36" s="2">
-        <v>12.1</v>
+        <v>13.5</v>
       </c>
       <c r="J36" s="2">
-        <v>15.3</v>
+        <v>14.5</v>
       </c>
       <c r="K36" s="2">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="L36" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42263</v>
+        <v>42257</v>
       </c>
       <c r="B37" s="1">
         <v>42264</v>
       </c>
       <c r="C37">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="H37" s="2">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="I37" s="2">
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
       <c r="J37" s="2">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="K37" s="2">
-        <v>9.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L37" s="3">
-        <v>40.5</v>
+        <v>40.1</v>
       </c>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42261</v>
+        <v>42258</v>
       </c>
       <c r="B38" s="1">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="C38">
-        <v>1100</v>
+        <v>1255</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2">
         <v>6.2</v>
       </c>
       <c r="H38" s="2">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="I38" s="2">
         <v>12.1</v>
       </c>
       <c r="J38" s="2">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="K38" s="2">
         <v>9.9</v>
       </c>
       <c r="L38" s="3">
-        <v>38.799999999999997</v>
+        <v>38</v>
       </c>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B39" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C39">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E39" s="2">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="H39" s="2">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="I39" s="2">
-        <v>11.9</v>
+        <v>10.8</v>
       </c>
       <c r="J39" s="2">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="K39" s="2">
-        <v>10.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L39" s="3">
-        <v>40.700000000000003</v>
+        <v>40.5</v>
       </c>
       <c r="M39" s="6"/>
     </row>
@@ -2157,31 +2161,31 @@
         <v>42261</v>
       </c>
       <c r="B40" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C40">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H40" s="2">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
       <c r="I40" s="2">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="J40" s="2">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="K40" s="2">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="L40" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M40" s="6"/>
     </row>
@@ -2190,31 +2194,31 @@
         <v>42261</v>
       </c>
       <c r="B41" s="1">
-        <v>42263</v>
+        <v>42265</v>
       </c>
       <c r="C41">
-        <v>1717</v>
+        <v>800</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H41" s="2">
-        <v>11.4</v>
+        <v>10.3</v>
       </c>
       <c r="I41" s="2">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="J41" s="2">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="K41" s="2">
-        <v>7.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L41" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M41" s="6"/>
     </row>
@@ -2223,31 +2227,31 @@
         <v>42261</v>
       </c>
       <c r="B42" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C42">
-        <v>1157</v>
+        <v>1000</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E42" s="2">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="H42" s="2">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
       <c r="I42" s="2">
-        <v>7.5</v>
+        <v>10.1</v>
       </c>
       <c r="J42" s="2">
-        <v>18.3</v>
+        <v>14.4</v>
       </c>
       <c r="K42" s="2">
-        <v>11.9</v>
+        <v>10.6</v>
       </c>
       <c r="L42" s="3">
-        <v>42.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M42" s="6"/>
     </row>
@@ -2259,468 +2263,534 @@
         <v>42263</v>
       </c>
       <c r="C43">
-        <v>1000</v>
+        <v>1717</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="2">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="H43" s="2">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="I43" s="2">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="J43" s="2">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K43" s="2">
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="L43" s="3">
-        <v>39.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B44" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C44">
-        <v>1255</v>
+        <v>1157</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="H44" s="2">
-        <v>12.7</v>
+        <v>10.4</v>
       </c>
       <c r="I44" s="2">
-        <v>11.4</v>
+        <v>7.5</v>
       </c>
       <c r="J44" s="2">
-        <v>16.5</v>
+        <v>18.3</v>
       </c>
       <c r="K44" s="2">
-        <v>9.4</v>
+        <v>11.9</v>
       </c>
       <c r="L44" s="3">
-        <v>37.6</v>
+        <v>42.4</v>
       </c>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42248</v>
+        <v>42261</v>
       </c>
       <c r="B45" s="1">
-        <v>42255</v>
+        <v>42263</v>
       </c>
       <c r="C45">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="2">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H45" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I45" s="2">
-        <v>11.1</v>
+        <v>13.2</v>
       </c>
       <c r="J45" s="2">
-        <v>13.4</v>
+        <v>15</v>
       </c>
       <c r="K45" s="2">
-        <v>10.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="L45" s="3">
-        <v>38.299999999999997</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="B46" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C46">
-        <v>750</v>
+        <v>1255</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="H46" s="2">
-        <v>10.199999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="I46" s="2">
-        <v>12.6</v>
+        <v>11.4</v>
       </c>
       <c r="J46" s="2">
-        <v>11.6</v>
+        <v>16.5</v>
       </c>
       <c r="K46" s="2">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="L46" s="3">
-        <v>42.1</v>
+        <v>37.6</v>
       </c>
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42246</v>
+        <v>42248</v>
       </c>
       <c r="B47" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C47">
-        <v>2999</v>
+        <v>1200</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47" s="2">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="H47" s="2">
-        <v>13.9</v>
+        <v>11.4</v>
       </c>
       <c r="I47" s="2">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="J47" s="2">
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="K47" s="2">
-        <v>9.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L47" s="3">
-        <v>38.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42247</v>
+        <v>42250</v>
       </c>
       <c r="B48" s="1">
-        <v>42250</v>
+        <v>42255</v>
       </c>
       <c r="C48">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E48" s="2">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="H48" s="2">
-        <v>12.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I48" s="2">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
       <c r="J48" s="2">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="K48" s="2">
-        <v>9.8000000000000007</v>
+        <v>11.5</v>
       </c>
       <c r="L48" s="3">
-        <v>39.4</v>
+        <v>42.1</v>
       </c>
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B49" s="1">
-        <v>42249</v>
+        <v>42251</v>
       </c>
       <c r="C49">
-        <v>800</v>
+        <v>2999</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H49" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I49" s="2">
-        <v>10.3</v>
+        <v>12.2</v>
       </c>
       <c r="J49" s="2">
-        <v>19.899999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="K49" s="2">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="L49" s="3">
-        <v>38.799999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B50" s="1">
         <v>42250</v>
       </c>
       <c r="C50">
-        <v>1221</v>
+        <v>1400</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E50" s="2">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H50" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I50" s="2">
-        <v>9.5</v>
+        <v>11.1</v>
       </c>
       <c r="J50" s="2">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="K50" s="2">
-        <v>11.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L50" s="3">
-        <v>43.5</v>
+        <v>39.4</v>
       </c>
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42233</v>
+        <v>42247</v>
       </c>
       <c r="B51" s="1">
-        <v>42238</v>
+        <v>42249</v>
       </c>
       <c r="C51">
-        <v>955</v>
+        <v>800</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E51" s="2">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="H51" s="2">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="I51" s="2">
-        <v>11.7</v>
+        <v>10.3</v>
       </c>
       <c r="J51" s="2">
-        <v>17.899999999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K51" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="L51" s="3">
-        <v>36.299999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42201</v>
+        <v>42248</v>
       </c>
       <c r="B52" s="1">
-        <v>42208</v>
+        <v>42250</v>
       </c>
       <c r="C52">
-        <v>1255</v>
+        <v>1221</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E52" s="2">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="H52" s="2">
-        <v>12.8</v>
+        <v>11.5</v>
       </c>
       <c r="I52" s="2">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="J52" s="2">
-        <v>19.100000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="K52" s="2">
-        <v>8.1999999999999993</v>
+        <v>11.8</v>
       </c>
       <c r="L52" s="3">
-        <v>35.799999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42191</v>
+        <v>42233</v>
       </c>
       <c r="B53" s="1">
-        <v>42194</v>
+        <v>42238</v>
       </c>
       <c r="C53">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E53" s="2">
-        <v>7</v>
-      </c>
-      <c r="F53" s="2">
-        <v>15</v>
-      </c>
-      <c r="G53" s="2">
-        <v>22</v>
+        <v>4.7</v>
       </c>
       <c r="H53" s="2">
-        <v>16.5</v>
+        <v>12.3</v>
       </c>
       <c r="I53" s="2">
-        <v>9.6</v>
+        <v>11.7</v>
       </c>
       <c r="J53" s="2">
-        <v>16</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K53" s="2">
-        <v>7.3</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L53" s="3">
+        <v>36.299999999999997</v>
       </c>
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42186</v>
+        <v>42201</v>
       </c>
       <c r="B54" s="1">
-        <v>42188</v>
+        <v>42208</v>
       </c>
       <c r="C54">
-        <v>820</v>
+        <v>1255</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="H54" s="2">
-        <v>20</v>
+        <v>12.8</v>
       </c>
       <c r="I54" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J54" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K54" s="2">
-        <v>9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L54" s="3">
-        <v>32</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42202</v>
+        <v>42191</v>
       </c>
       <c r="B55" s="1">
-        <v>42206</v>
+        <v>42194</v>
       </c>
       <c r="C55">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="F55" s="2">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="G55" s="2">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H55" s="2">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="I55" s="2">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="J55" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K55" s="2">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42188</v>
+      </c>
+      <c r="C56">
+        <v>820</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="2">
+        <v>8</v>
+      </c>
+      <c r="H56" s="2">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2">
+        <v>9</v>
+      </c>
+      <c r="J56" s="2">
+        <v>16</v>
+      </c>
+      <c r="K56" s="2">
+        <v>9</v>
+      </c>
+      <c r="L56" s="3">
+        <v>32</v>
+      </c>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C57">
+        <v>800</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F57" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G57" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>18</v>
+      </c>
+      <c r="I57" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J57" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>42121</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B58" s="1">
         <v>42123</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <v>1000</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E58" s="2">
         <v>7.9</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F58" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G58" s="2">
         <v>22.6</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H58" s="2">
         <v>12.9</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I58" s="2">
         <v>9.9</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J58" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K58" s="2">
         <v>6.4</v>
       </c>
-      <c r="M56" s="6"/>
+      <c r="M58" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2797,7 +2867,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>IF(C3=0,"",ROUND((Hoja1!A4+Hoja1!B4)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C3=0,"",ROUND((Hoja1!A6+Hoja1!B6)/2,0)-Hoja1!$B$34)</f>
         <v>759</v>
       </c>
       <c r="B3" t="e">
@@ -2805,43 +2875,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C3">
-        <f>Hoja1!C4</f>
+        <f>Hoja1!C6</f>
         <v>1000</v>
       </c>
       <c r="D3">
-        <f>IF(OR(Hoja1!E4="",Hoja1!E$32=""),"",Hoja1!E4-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E6="",Hoja1!E$34=""),"",Hoja1!E6-Hoja1!E$34)</f>
         <v>-1.910000000000001</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(OR(Hoja1!F4="",Hoja1!F$32=""),"",Hoja1!F4-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F6="",Hoja1!F$34=""),"",Hoja1!F6-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F3" t="str">
-        <f>IF(OR(Hoja1!G4="",Hoja1!G$32=""),"",Hoja1!G4-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G6="",Hoja1!G$34=""),"",Hoja1!G6-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G3">
-        <f>IF(OR(Hoja1!H4="",Hoja1!H$32=""),"",Hoja1!H4-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H6="",Hoja1!H$34=""),"",Hoja1!H6-Hoja1!H$34)</f>
         <v>2.0600000000000005</v>
       </c>
       <c r="H3">
-        <f>IF(OR(Hoja1!I4="",Hoja1!I$32=""),"",Hoja1!I4-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I6="",Hoja1!I$34=""),"",Hoja1!I6-Hoja1!I$34)</f>
         <v>2.379999999999999</v>
       </c>
       <c r="I3">
-        <f>IF(OR(Hoja1!J4="",Hoja1!J$32=""),"",Hoja1!J4-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J6="",Hoja1!J$34=""),"",Hoja1!J6-Hoja1!J$34)</f>
         <v>1.7000000000000028</v>
       </c>
       <c r="J3">
-        <f>IF(OR(Hoja1!K4="",Hoja1!K$32=""),"",Hoja1!K4-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K6="",Hoja1!K$34=""),"",Hoja1!K6-Hoja1!K$34)</f>
         <v>0.20999999999999908</v>
       </c>
       <c r="K3" t="str">
-        <f>IF(OR(Hoja1!L4="",Hoja1!L$32=""),"",Hoja1!L4-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L6="",Hoja1!L$34=""),"",Hoja1!L6-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L3">
-        <f>(100-SUM(Hoja1!E3:L3))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E5:L5))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-1.0500000000000114</v>
       </c>
       <c r="N3" s="5" t="e">
@@ -2855,7 +2925,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>IF(C4=0,"",ROUND((Hoja1!A5+Hoja1!B5)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C4=0,"",ROUND((Hoja1!A7+Hoja1!B7)/2,0)-Hoja1!$B$34)</f>
         <v>753</v>
       </c>
       <c r="B4" t="e">
@@ -2863,43 +2933,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C4">
-        <f>Hoja1!C5</f>
+        <f>Hoja1!C7</f>
         <v>1000</v>
       </c>
       <c r="D4">
-        <f>IF(OR(Hoja1!E5="",Hoja1!E$32=""),"",Hoja1!E5-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E7="",Hoja1!E$34=""),"",Hoja1!E7-Hoja1!E$34)</f>
         <v>-2.6100000000000012</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(OR(Hoja1!F5="",Hoja1!F$32=""),"",Hoja1!F5-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F7="",Hoja1!F$34=""),"",Hoja1!F7-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F4" t="str">
-        <f>IF(OR(Hoja1!G5="",Hoja1!G$32=""),"",Hoja1!G5-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G7="",Hoja1!G$34=""),"",Hoja1!G7-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G4">
-        <f>IF(OR(Hoja1!H5="",Hoja1!H$32=""),"",Hoja1!H5-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H7="",Hoja1!H$34=""),"",Hoja1!H7-Hoja1!H$34)</f>
         <v>2.4600000000000009</v>
       </c>
       <c r="H4">
-        <f>IF(OR(Hoja1!I5="",Hoja1!I$32=""),"",Hoja1!I5-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I7="",Hoja1!I$34=""),"",Hoja1!I7-Hoja1!I$34)</f>
         <v>0.37999999999999901</v>
       </c>
       <c r="I4">
-        <f>IF(OR(Hoja1!J5="",Hoja1!J$32=""),"",Hoja1!J5-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J7="",Hoja1!J$34=""),"",Hoja1!J7-Hoja1!J$34)</f>
         <v>1.3000000000000007</v>
       </c>
       <c r="J4">
-        <f>IF(OR(Hoja1!K5="",Hoja1!K$32=""),"",Hoja1!K5-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K7="",Hoja1!K$34=""),"",Hoja1!K7-Hoja1!K$34)</f>
         <v>2.0099999999999998</v>
       </c>
       <c r="K4" t="str">
-        <f>IF(OR(Hoja1!L5="",Hoja1!L$32=""),"",Hoja1!L5-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L7="",Hoja1!L$34=""),"",Hoja1!L7-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L4">
-        <f>(100-SUM(Hoja1!E4:L4))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E6:L6))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-1.0499999999999972</v>
       </c>
       <c r="N4" s="5" t="e">
@@ -2913,7 +2983,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>IF(C5=0,"",ROUND((Hoja1!A6+Hoja1!B6)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C5=0,"",ROUND((Hoja1!A8+Hoja1!B8)/2,0)-Hoja1!$B$34)</f>
         <v>752</v>
       </c>
       <c r="B5" t="e">
@@ -2921,43 +2991,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C5">
-        <f>Hoja1!C6</f>
+        <f>Hoja1!C8</f>
         <v>800</v>
       </c>
       <c r="D5">
-        <f>IF(OR(Hoja1!E6="",Hoja1!E$32=""),"",Hoja1!E6-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E8="",Hoja1!E$34=""),"",Hoja1!E8-Hoja1!E$34)</f>
         <v>-0.41000000000000103</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(OR(Hoja1!F6="",Hoja1!F$32=""),"",Hoja1!F6-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F8="",Hoja1!F$34=""),"",Hoja1!F8-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F5" t="str">
-        <f>IF(OR(Hoja1!G6="",Hoja1!G$32=""),"",Hoja1!G6-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G8="",Hoja1!G$34=""),"",Hoja1!G8-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G5">
-        <f>IF(OR(Hoja1!H6="",Hoja1!H$32=""),"",Hoja1!H6-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H8="",Hoja1!H$34=""),"",Hoja1!H8-Hoja1!H$34)</f>
         <v>6.0000000000000497E-2</v>
       </c>
       <c r="H5">
-        <f>IF(OR(Hoja1!I6="",Hoja1!I$32=""),"",Hoja1!I6-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I8="",Hoja1!I$34=""),"",Hoja1!I8-Hoja1!I$34)</f>
         <v>1.7799999999999994</v>
       </c>
       <c r="I5">
-        <f>IF(OR(Hoja1!J6="",Hoja1!J$32=""),"",Hoja1!J6-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J8="",Hoja1!J$34=""),"",Hoja1!J8-Hoja1!J$34)</f>
         <v>-1.0999999999999979</v>
       </c>
       <c r="J5">
-        <f>IF(OR(Hoja1!K6="",Hoja1!K$32=""),"",Hoja1!K6-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K8="",Hoja1!K$34=""),"",Hoja1!K8-Hoja1!K$34)</f>
         <v>-0.99000000000000021</v>
       </c>
       <c r="K5" t="str">
-        <f>IF(OR(Hoja1!L6="",Hoja1!L$32=""),"",Hoja1!L6-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L8="",Hoja1!L$34=""),"",Hoja1!L8-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L5">
-        <f>(100-SUM(Hoja1!E5:L5))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E7:L7))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.65000000000000568</v>
       </c>
       <c r="N5" s="5" t="e">
@@ -2971,7 +3041,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>IF(C6=0,"",ROUND((Hoja1!A7+Hoja1!B7)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C6=0,"",ROUND((Hoja1!A9+Hoja1!B9)/2,0)-Hoja1!$B$34)</f>
         <v>741</v>
       </c>
       <c r="B6" t="e">
@@ -2979,43 +3049,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C6">
-        <f>Hoja1!C7</f>
+        <f>Hoja1!C9</f>
         <v>800</v>
       </c>
       <c r="D6">
-        <f>IF(OR(Hoja1!E7="",Hoja1!E$32=""),"",Hoja1!E7-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E9="",Hoja1!E$34=""),"",Hoja1!E9-Hoja1!E$34)</f>
         <v>-1.910000000000001</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(OR(Hoja1!F7="",Hoja1!F$32=""),"",Hoja1!F7-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F9="",Hoja1!F$34=""),"",Hoja1!F9-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F6" t="str">
-        <f>IF(OR(Hoja1!G7="",Hoja1!G$32=""),"",Hoja1!G7-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G9="",Hoja1!G$34=""),"",Hoja1!G9-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G6">
-        <f>IF(OR(Hoja1!H7="",Hoja1!H$32=""),"",Hoja1!H7-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H9="",Hoja1!H$34=""),"",Hoja1!H9-Hoja1!H$34)</f>
         <v>3.0600000000000005</v>
       </c>
       <c r="H6">
-        <f>IF(OR(Hoja1!I7="",Hoja1!I$32=""),"",Hoja1!I7-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I9="",Hoja1!I$34=""),"",Hoja1!I9-Hoja1!I$34)</f>
         <v>-3.2200000000000006</v>
       </c>
       <c r="I6">
-        <f>IF(OR(Hoja1!J7="",Hoja1!J$32=""),"",Hoja1!J7-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J9="",Hoja1!J$34=""),"",Hoja1!J9-Hoja1!J$34)</f>
         <v>0.40000000000000213</v>
       </c>
       <c r="J6">
-        <f>IF(OR(Hoja1!K7="",Hoja1!K$32=""),"",Hoja1!K7-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K9="",Hoja1!K$34=""),"",Hoja1!K9-Hoja1!K$34)</f>
         <v>1.6099999999999994</v>
       </c>
       <c r="K6" t="str">
-        <f>IF(OR(Hoja1!L7="",Hoja1!L$32=""),"",Hoja1!L7-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L9="",Hoja1!L$34=""),"",Hoja1!L9-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L6">
-        <f>(100-SUM(Hoja1!E6:L6))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E8:L8))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.14999999999999147</v>
       </c>
       <c r="N6" s="5" t="e">
@@ -3029,7 +3099,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>IF(C7=0,"",ROUND((Hoja1!A8+Hoja1!B8)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C7=0,"",ROUND((Hoja1!A10+Hoja1!B10)/2,0)-Hoja1!$B$34)</f>
         <v>724</v>
       </c>
       <c r="B7" t="e">
@@ -3037,43 +3107,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C7">
-        <f>Hoja1!C8</f>
+        <f>Hoja1!C10</f>
         <v>1255</v>
       </c>
       <c r="D7">
-        <f>IF(OR(Hoja1!E8="",Hoja1!E$32=""),"",Hoja1!E8-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E10="",Hoja1!E$34=""),"",Hoja1!E10-Hoja1!E$34)</f>
         <v>-2.6100000000000012</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(OR(Hoja1!F8="",Hoja1!F$32=""),"",Hoja1!F8-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F10="",Hoja1!F$34=""),"",Hoja1!F10-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F7" t="str">
-        <f>IF(OR(Hoja1!G8="",Hoja1!G$32=""),"",Hoja1!G8-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G10="",Hoja1!G$34=""),"",Hoja1!G10-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G7">
-        <f>IF(OR(Hoja1!H8="",Hoja1!H$32=""),"",Hoja1!H8-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H10="",Hoja1!H$34=""),"",Hoja1!H10-Hoja1!H$34)</f>
         <v>2.66</v>
       </c>
       <c r="H7">
-        <f>IF(OR(Hoja1!I8="",Hoja1!I$32=""),"",Hoja1!I8-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I10="",Hoja1!I$34=""),"",Hoja1!I10-Hoja1!I$34)</f>
         <v>0.97999999999999865</v>
       </c>
       <c r="I7">
-        <f>IF(OR(Hoja1!J8="",Hoja1!J$32=""),"",Hoja1!J8-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J10="",Hoja1!J$34=""),"",Hoja1!J10-Hoja1!J$34)</f>
         <v>-0.69999999999999929</v>
       </c>
       <c r="J7">
-        <f>IF(OR(Hoja1!K8="",Hoja1!K$32=""),"",Hoja1!K8-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K10="",Hoja1!K$34=""),"",Hoja1!K10-Hoja1!K$34)</f>
         <v>2.3100000000000005</v>
       </c>
       <c r="K7" t="str">
-        <f>IF(OR(Hoja1!L8="",Hoja1!L$32=""),"",Hoja1!L8-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L10="",Hoja1!L$34=""),"",Hoja1!L10-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L7">
-        <f>(100-SUM(Hoja1!E7:L7))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E9:L9))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.25</v>
       </c>
       <c r="N7" s="5" t="e">
@@ -3087,7 +3157,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>IF(C8=0,"",ROUND((Hoja1!A9+Hoja1!B9)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C8=0,"",ROUND((Hoja1!A11+Hoja1!B11)/2,0)-Hoja1!$B$34)</f>
         <v>718</v>
       </c>
       <c r="B8" t="e">
@@ -3095,43 +3165,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C8">
-        <f>Hoja1!C9</f>
+        <f>Hoja1!C11</f>
         <v>800</v>
       </c>
       <c r="D8">
-        <f>IF(OR(Hoja1!E9="",Hoja1!E$32=""),"",Hoja1!E9-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E11="",Hoja1!E$34=""),"",Hoja1!E11-Hoja1!E$34)</f>
         <v>-2.3100000000000005</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(OR(Hoja1!F9="",Hoja1!F$32=""),"",Hoja1!F9-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F11="",Hoja1!F$34=""),"",Hoja1!F11-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F8" t="str">
-        <f>IF(OR(Hoja1!G9="",Hoja1!G$32=""),"",Hoja1!G9-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G11="",Hoja1!G$34=""),"",Hoja1!G11-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G8">
-        <f>IF(OR(Hoja1!H9="",Hoja1!H$32=""),"",Hoja1!H9-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H11="",Hoja1!H$34=""),"",Hoja1!H11-Hoja1!H$34)</f>
         <v>3.26</v>
       </c>
       <c r="H8">
-        <f>IF(OR(Hoja1!I9="",Hoja1!I$32=""),"",Hoja1!I9-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I11="",Hoja1!I$34=""),"",Hoja1!I11-Hoja1!I$34)</f>
         <v>2.08</v>
       </c>
       <c r="I8">
-        <f>IF(OR(Hoja1!J9="",Hoja1!J$32=""),"",Hoja1!J9-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J11="",Hoja1!J$34=""),"",Hoja1!J11-Hoja1!J$34)</f>
         <v>-0.5</v>
       </c>
       <c r="J8">
-        <f>IF(OR(Hoja1!K9="",Hoja1!K$32=""),"",Hoja1!K9-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K11="",Hoja1!K$34=""),"",Hoja1!K11-Hoja1!K$34)</f>
         <v>0.91000000000000014</v>
       </c>
       <c r="K8" t="str">
-        <f>IF(OR(Hoja1!L9="",Hoja1!L$32=""),"",Hoja1!L9-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L11="",Hoja1!L$34=""),"",Hoja1!L11-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L8">
-        <f>(100-SUM(Hoja1!E8:L8))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E10:L10))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.85000000000000853</v>
       </c>
       <c r="N8" s="5" t="e">
@@ -3145,7 +3215,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>IF(C9=0,"",ROUND((Hoja1!A10+Hoja1!B10)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C9=0,"",ROUND((Hoja1!A12+Hoja1!B12)/2,0)-Hoja1!$B$34)</f>
         <v>703</v>
       </c>
       <c r="B9" t="e">
@@ -3153,43 +3223,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9">
-        <f>Hoja1!C10</f>
+        <f>Hoja1!C12</f>
         <v>700</v>
       </c>
       <c r="D9">
-        <f>IF(OR(Hoja1!E10="",Hoja1!E$32=""),"",Hoja1!E10-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E12="",Hoja1!E$34=""),"",Hoja1!E12-Hoja1!E$34)</f>
         <v>-1.410000000000001</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(OR(Hoja1!F10="",Hoja1!F$32=""),"",Hoja1!F10-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F12="",Hoja1!F$34=""),"",Hoja1!F12-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F9" t="str">
-        <f>IF(OR(Hoja1!G10="",Hoja1!G$32=""),"",Hoja1!G10-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G12="",Hoja1!G$34=""),"",Hoja1!G12-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G9">
-        <f>IF(OR(Hoja1!H10="",Hoja1!H$32=""),"",Hoja1!H10-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H12="",Hoja1!H$34=""),"",Hoja1!H12-Hoja1!H$34)</f>
         <v>1.4600000000000009</v>
       </c>
       <c r="H9">
-        <f>IF(OR(Hoja1!I10="",Hoja1!I$32=""),"",Hoja1!I10-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I12="",Hoja1!I$34=""),"",Hoja1!I12-Hoja1!I$34)</f>
         <v>-2.620000000000001</v>
       </c>
       <c r="I9">
-        <f>IF(OR(Hoja1!J10="",Hoja1!J$32=""),"",Hoja1!J10-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J12="",Hoja1!J$34=""),"",Hoja1!J12-Hoja1!J$34)</f>
         <v>-0.19999999999999929</v>
       </c>
       <c r="J9">
-        <f>IF(OR(Hoja1!K10="",Hoja1!K$32=""),"",Hoja1!K10-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K12="",Hoja1!K$34=""),"",Hoja1!K12-Hoja1!K$34)</f>
         <v>2.0099999999999998</v>
       </c>
       <c r="K9" t="str">
-        <f>IF(OR(Hoja1!L10="",Hoja1!L$32=""),"",Hoja1!L10-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L12="",Hoja1!L$34=""),"",Hoja1!L12-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L9">
-        <f>(100-SUM(Hoja1!E9:L9))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E11:L11))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-2.1500000000000057</v>
       </c>
       <c r="N9" s="5" t="e">
@@ -3203,7 +3273,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>IF(C10=0,"",ROUND((Hoja1!A11+Hoja1!B11)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C10=0,"",ROUND((Hoja1!A13+Hoja1!B13)/2,0)-Hoja1!$B$34)</f>
         <v>681</v>
       </c>
       <c r="B10" t="e">
@@ -3211,43 +3281,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C10">
-        <f>Hoja1!C11</f>
+        <f>Hoja1!C13</f>
         <v>1255</v>
       </c>
       <c r="D10">
-        <f>IF(OR(Hoja1!E11="",Hoja1!E$32=""),"",Hoja1!E11-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E13="",Hoja1!E$34=""),"",Hoja1!E13-Hoja1!E$34)</f>
         <v>-1.7100000000000009</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(OR(Hoja1!F11="",Hoja1!F$32=""),"",Hoja1!F11-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F13="",Hoja1!F$34=""),"",Hoja1!F13-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F10" t="str">
-        <f>IF(OR(Hoja1!G11="",Hoja1!G$32=""),"",Hoja1!G11-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G13="",Hoja1!G$34=""),"",Hoja1!G13-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G10">
-        <f>IF(OR(Hoja1!H11="",Hoja1!H$32=""),"",Hoja1!H11-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H13="",Hoja1!H$34=""),"",Hoja1!H13-Hoja1!H$34)</f>
         <v>3.16</v>
       </c>
       <c r="H10">
-        <f>IF(OR(Hoja1!I11="",Hoja1!I$32=""),"",Hoja1!I11-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I13="",Hoja1!I$34=""),"",Hoja1!I13-Hoja1!I$34)</f>
         <v>1.1799999999999997</v>
       </c>
       <c r="I10">
-        <f>IF(OR(Hoja1!J11="",Hoja1!J$32=""),"",Hoja1!J11-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J13="",Hoja1!J$34=""),"",Hoja1!J13-Hoja1!J$34)</f>
         <v>-0.39999999999999858</v>
       </c>
       <c r="J10">
-        <f>IF(OR(Hoja1!K11="",Hoja1!K$32=""),"",Hoja1!K11-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K13="",Hoja1!K$34=""),"",Hoja1!K13-Hoja1!K$34)</f>
         <v>1.0099999999999998</v>
       </c>
       <c r="K10" t="str">
-        <f>IF(OR(Hoja1!L11="",Hoja1!L$32=""),"",Hoja1!L11-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L13="",Hoja1!L$34=""),"",Hoja1!L13-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L10">
-        <f>(100-SUM(Hoja1!E10:L10))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E12:L12))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.35000000000000853</v>
       </c>
       <c r="N10" s="5" t="e">
@@ -3261,7 +3331,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>IF(C11=0,"",ROUND((Hoja1!A12+Hoja1!B12)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C11=0,"",ROUND((Hoja1!A14+Hoja1!B14)/2,0)-Hoja1!$B$34)</f>
         <v>646</v>
       </c>
       <c r="B11" t="str">
@@ -3269,43 +3339,43 @@
         <v>5.4090055512642</v>
       </c>
       <c r="C11">
-        <f>Hoja1!C12</f>
+        <f>Hoja1!C14</f>
         <v>1500</v>
       </c>
       <c r="D11">
-        <f>IF(OR(Hoja1!E12="",Hoja1!E$32=""),"",Hoja1!E12-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E14="",Hoja1!E$34=""),"",Hoja1!E14-Hoja1!E$34)</f>
         <v>-2.8100000000000005</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(OR(Hoja1!F12="",Hoja1!F$32=""),"",Hoja1!F12-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F14="",Hoja1!F$34=""),"",Hoja1!F14-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F11" t="str">
-        <f>IF(OR(Hoja1!G12="",Hoja1!G$32=""),"",Hoja1!G12-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G14="",Hoja1!G$34=""),"",Hoja1!G14-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G11">
-        <f>IF(OR(Hoja1!H12="",Hoja1!H$32=""),"",Hoja1!H12-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H14="",Hoja1!H$34=""),"",Hoja1!H14-Hoja1!H$34)</f>
         <v>3.4600000000000009</v>
       </c>
       <c r="H11">
-        <f>IF(OR(Hoja1!I12="",Hoja1!I$32=""),"",Hoja1!I12-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I14="",Hoja1!I$34=""),"",Hoja1!I14-Hoja1!I$34)</f>
         <v>1.58</v>
       </c>
       <c r="I11">
-        <f>IF(OR(Hoja1!J12="",Hoja1!J$32=""),"",Hoja1!J12-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J14="",Hoja1!J$34=""),"",Hoja1!J14-Hoja1!J$34)</f>
         <v>-2.4999999999999982</v>
       </c>
       <c r="J11">
-        <f>IF(OR(Hoja1!K12="",Hoja1!K$32=""),"",Hoja1!K12-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K14="",Hoja1!K$34=""),"",Hoja1!K14-Hoja1!K$34)</f>
         <v>1.3100000000000005</v>
       </c>
       <c r="K11">
-        <f>IF(OR(Hoja1!L12="",Hoja1!L$32=""),"",Hoja1!L12-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L14="",Hoja1!L$34=""),"",Hoja1!L14-Hoja1!L$34)</f>
         <v>-0.29000000000000625</v>
       </c>
       <c r="L11">
-        <f>(100-SUM(Hoja1!E11:L11))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E13:L13))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-1.4500000000000028</v>
       </c>
       <c r="N11" s="5">
@@ -3319,7 +3389,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>IF(C12=0,"",ROUND((Hoja1!A13+Hoja1!B13)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C12=0,"",ROUND((Hoja1!A15+Hoja1!B15)/2,0)-Hoja1!$B$34)</f>
         <v>534</v>
       </c>
       <c r="B12" t="str">
@@ -3327,43 +3397,43 @@
         <v>6.5790055512642</v>
       </c>
       <c r="C12">
-        <f>Hoja1!C13</f>
+        <f>Hoja1!C15</f>
         <v>1500</v>
       </c>
       <c r="D12">
-        <f>IF(OR(Hoja1!E13="",Hoja1!E$32=""),"",Hoja1!E13-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E15="",Hoja1!E$34=""),"",Hoja1!E15-Hoja1!E$34)</f>
         <v>-2.3100000000000005</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(OR(Hoja1!F13="",Hoja1!F$32=""),"",Hoja1!F13-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F15="",Hoja1!F$34=""),"",Hoja1!F15-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F12" t="str">
-        <f>IF(OR(Hoja1!G13="",Hoja1!G$32=""),"",Hoja1!G13-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G15="",Hoja1!G$34=""),"",Hoja1!G15-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G12">
-        <f>IF(OR(Hoja1!H13="",Hoja1!H$32=""),"",Hoja1!H13-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H15="",Hoja1!H$34=""),"",Hoja1!H15-Hoja1!H$34)</f>
         <v>6.3600000000000012</v>
       </c>
       <c r="H12">
-        <f>IF(OR(Hoja1!I13="",Hoja1!I$32=""),"",Hoja1!I13-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I15="",Hoja1!I$34=""),"",Hoja1!I15-Hoja1!I$34)</f>
         <v>-0.41999999999999993</v>
       </c>
       <c r="I12">
-        <f>IF(OR(Hoja1!J13="",Hoja1!J$32=""),"",Hoja1!J13-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J15="",Hoja1!J$34=""),"",Hoja1!J15-Hoja1!J$34)</f>
         <v>-1.7999999999999972</v>
       </c>
       <c r="J12">
-        <f>IF(OR(Hoja1!K13="",Hoja1!K$32=""),"",Hoja1!K13-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K15="",Hoja1!K$34=""),"",Hoja1!K15-Hoja1!K$34)</f>
         <v>1.5099999999999998</v>
       </c>
       <c r="K12">
-        <f>IF(OR(Hoja1!L13="",Hoja1!L$32=""),"",Hoja1!L13-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L15="",Hoja1!L$34=""),"",Hoja1!L15-Hoja1!L$34)</f>
         <v>-2.5900000000000034</v>
       </c>
       <c r="L12">
-        <f>(100-SUM(Hoja1!E12:L12))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E14:L14))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.75</v>
       </c>
       <c r="N12" s="5">
@@ -3377,7 +3447,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>IF(C13=0,"",ROUND((Hoja1!A14+Hoja1!B14)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C13=0,"",ROUND((Hoja1!A16+Hoja1!B16)/2,0)-Hoja1!$B$34)</f>
         <v>465</v>
       </c>
       <c r="B13" t="e">
@@ -3385,43 +3455,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13">
-        <f>Hoja1!C14</f>
+        <f>Hoja1!C16</f>
         <v>601</v>
       </c>
       <c r="D13">
-        <f>IF(OR(Hoja1!E14="",Hoja1!E$32=""),"",Hoja1!E14-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E16="",Hoja1!E$34=""),"",Hoja1!E16-Hoja1!E$34)</f>
         <v>-3.3100000000000005</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(OR(Hoja1!F14="",Hoja1!F$32=""),"",Hoja1!F14-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F16="",Hoja1!F$34=""),"",Hoja1!F16-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F13" t="str">
-        <f>IF(OR(Hoja1!G14="",Hoja1!G$32=""),"",Hoja1!G14-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G16="",Hoja1!G$34=""),"",Hoja1!G16-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G13">
-        <f>IF(OR(Hoja1!H14="",Hoja1!H$32=""),"",Hoja1!H14-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H16="",Hoja1!H$34=""),"",Hoja1!H16-Hoja1!H$34)</f>
         <v>1.7599999999999998</v>
       </c>
       <c r="H13">
-        <f>IF(OR(Hoja1!I14="",Hoja1!I$32=""),"",Hoja1!I14-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I16="",Hoja1!I$34=""),"",Hoja1!I16-Hoja1!I$34)</f>
         <v>-1.3200000000000003</v>
       </c>
       <c r="I13">
-        <f>IF(OR(Hoja1!J14="",Hoja1!J$32=""),"",Hoja1!J14-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J16="",Hoja1!J$34=""),"",Hoja1!J16-Hoja1!J$34)</f>
         <v>-1.2999999999999972</v>
       </c>
       <c r="J13">
-        <f>IF(OR(Hoja1!K14="",Hoja1!K$32=""),"",Hoja1!K14-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K16="",Hoja1!K$34=""),"",Hoja1!K16-Hoja1!K$34)</f>
         <v>1.3100000000000005</v>
       </c>
       <c r="K13" t="str">
-        <f>IF(OR(Hoja1!L14="",Hoja1!L$32=""),"",Hoja1!L14-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L16="",Hoja1!L$34=""),"",Hoja1!L16-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L13">
-        <f>(100-SUM(Hoja1!E13:L13))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E15:L15))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.75</v>
       </c>
       <c r="N13" s="5" t="e">
@@ -3435,7 +3505,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>IF(C14=0,"",ROUND((Hoja1!A15+Hoja1!B15)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C14=0,"",ROUND((Hoja1!A17+Hoja1!B17)/2,0)-Hoja1!$B$34)</f>
         <v>450</v>
       </c>
       <c r="B14" t="e">
@@ -3443,43 +3513,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C14">
-        <f>Hoja1!C15</f>
+        <f>Hoja1!C17</f>
         <v>1000</v>
       </c>
       <c r="D14">
-        <f>IF(OR(Hoja1!E15="",Hoja1!E$32=""),"",Hoja1!E15-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E17="",Hoja1!E$34=""),"",Hoja1!E17-Hoja1!E$34)</f>
         <v>-1.0100000000000007</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(OR(Hoja1!F15="",Hoja1!F$32=""),"",Hoja1!F15-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F17="",Hoja1!F$34=""),"",Hoja1!F17-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F14" t="str">
-        <f>IF(OR(Hoja1!G15="",Hoja1!G$32=""),"",Hoja1!G15-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G17="",Hoja1!G$34=""),"",Hoja1!G17-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G14">
-        <f>IF(OR(Hoja1!H15="",Hoja1!H$32=""),"",Hoja1!H15-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H17="",Hoja1!H$34=""),"",Hoja1!H17-Hoja1!H$34)</f>
         <v>2.9600000000000009</v>
       </c>
       <c r="H14">
-        <f>IF(OR(Hoja1!I15="",Hoja1!I$32=""),"",Hoja1!I15-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I17="",Hoja1!I$34=""),"",Hoja1!I17-Hoja1!I$34)</f>
         <v>-0.62000000000000099</v>
       </c>
       <c r="I14">
-        <f>IF(OR(Hoja1!J15="",Hoja1!J$32=""),"",Hoja1!J15-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J17="",Hoja1!J$34=""),"",Hoja1!J17-Hoja1!J$34)</f>
         <v>-1</v>
       </c>
       <c r="J14">
-        <f>IF(OR(Hoja1!K15="",Hoja1!K$32=""),"",Hoja1!K15-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K17="",Hoja1!K$34=""),"",Hoja1!K17-Hoja1!K$34)</f>
         <v>0.60999999999999943</v>
       </c>
       <c r="K14" t="str">
-        <f>IF(OR(Hoja1!L15="",Hoja1!L$32=""),"",Hoja1!L15-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L17="",Hoja1!L$34=""),"",Hoja1!L17-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L14">
-        <f>(100-SUM(Hoja1!E14:L14))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E16:L16))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.54999999999999716</v>
       </c>
       <c r="N14" s="5" t="e">
@@ -3493,7 +3563,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>IF(C15=0,"",ROUND((Hoja1!A16+Hoja1!B16)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C15=0,"",ROUND((Hoja1!A18+Hoja1!B18)/2,0)-Hoja1!$B$34)</f>
         <v>445</v>
       </c>
       <c r="B15" t="str">
@@ -3501,43 +3571,43 @@
         <v>3.60475743196147</v>
       </c>
       <c r="C15">
-        <f>Hoja1!C16</f>
+        <f>Hoja1!C18</f>
         <v>1047</v>
       </c>
       <c r="D15">
-        <f>IF(OR(Hoja1!E16="",Hoja1!E$32=""),"",Hoja1!E16-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E18="",Hoja1!E$34=""),"",Hoja1!E18-Hoja1!E$34)</f>
         <v>-2.2100000000000009</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(OR(Hoja1!F16="",Hoja1!F$32=""),"",Hoja1!F16-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F18="",Hoja1!F$34=""),"",Hoja1!F18-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f>IF(OR(Hoja1!G16="",Hoja1!G$32=""),"",Hoja1!G16-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G18="",Hoja1!G$34=""),"",Hoja1!G18-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G15">
-        <f>IF(OR(Hoja1!H16="",Hoja1!H$32=""),"",Hoja1!H16-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H18="",Hoja1!H$34=""),"",Hoja1!H18-Hoja1!H$34)</f>
         <v>3.26</v>
       </c>
       <c r="H15">
-        <f>IF(OR(Hoja1!I16="",Hoja1!I$32=""),"",Hoja1!I16-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I18="",Hoja1!I$34=""),"",Hoja1!I18-Hoja1!I$34)</f>
         <v>1.08</v>
       </c>
       <c r="I15">
-        <f>IF(OR(Hoja1!J16="",Hoja1!J$32=""),"",Hoja1!J16-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J18="",Hoja1!J$34=""),"",Hoja1!J18-Hoja1!J$34)</f>
         <v>-1</v>
       </c>
       <c r="J15">
-        <f>IF(OR(Hoja1!K16="",Hoja1!K$32=""),"",Hoja1!K16-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K18="",Hoja1!K$34=""),"",Hoja1!K18-Hoja1!K$34)</f>
         <v>0.50999999999999979</v>
       </c>
       <c r="K15">
-        <f>IF(OR(Hoja1!L16="",Hoja1!L$32=""),"",Hoja1!L16-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L18="",Hoja1!L$34=""),"",Hoja1!L18-Hoja1!L$34)</f>
         <v>-1.990000000000002</v>
       </c>
       <c r="L15">
-        <f>(100-SUM(Hoja1!E15:L15))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E17:L17))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.25</v>
       </c>
       <c r="N15" s="5">
@@ -3551,7 +3621,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f>IF(C16=0,"",ROUND((Hoja1!A17+Hoja1!B17)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C16=0,"",ROUND((Hoja1!A19+Hoja1!B19)/2,0)-Hoja1!$B$34)</f>
         <v>443</v>
       </c>
       <c r="B16" t="e">
@@ -3559,43 +3629,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C16">
-        <f>Hoja1!C17</f>
+        <f>Hoja1!C19</f>
         <v>800</v>
       </c>
       <c r="D16">
-        <f>IF(OR(Hoja1!E17="",Hoja1!E$32=""),"",Hoja1!E17-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E19="",Hoja1!E$34=""),"",Hoja1!E19-Hoja1!E$34)</f>
         <v>-3.0100000000000007</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(OR(Hoja1!F17="",Hoja1!F$32=""),"",Hoja1!F17-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F19="",Hoja1!F$34=""),"",Hoja1!F19-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F16" t="str">
-        <f>IF(OR(Hoja1!G17="",Hoja1!G$32=""),"",Hoja1!G17-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G19="",Hoja1!G$34=""),"",Hoja1!G19-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G16">
-        <f>IF(OR(Hoja1!H17="",Hoja1!H$32=""),"",Hoja1!H17-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H19="",Hoja1!H$34=""),"",Hoja1!H19-Hoja1!H$34)</f>
         <v>3.3600000000000012</v>
       </c>
       <c r="H16">
-        <f>IF(OR(Hoja1!I17="",Hoja1!I$32=""),"",Hoja1!I17-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I19="",Hoja1!I$34=""),"",Hoja1!I19-Hoja1!I$34)</f>
         <v>1.6799999999999997</v>
       </c>
       <c r="I16">
-        <f>IF(OR(Hoja1!J17="",Hoja1!J$32=""),"",Hoja1!J17-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J19="",Hoja1!J$34=""),"",Hoja1!J19-Hoja1!J$34)</f>
         <v>-4.3999999999999986</v>
       </c>
       <c r="J16">
-        <f>IF(OR(Hoja1!K17="",Hoja1!K$32=""),"",Hoja1!K17-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K19="",Hoja1!K$34=""),"",Hoja1!K19-Hoja1!K$34)</f>
         <v>-0.39000000000000057</v>
       </c>
       <c r="K16" t="str">
-        <f>IF(OR(Hoja1!L17="",Hoja1!L$32=""),"",Hoja1!L17-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L19="",Hoja1!L$34=""),"",Hoja1!L19-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L16">
-        <f>(100-SUM(Hoja1!E16:L16))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E18:L18))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.34999999999999432</v>
       </c>
       <c r="N16" s="5" t="e">
@@ -3609,7 +3679,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f>IF(C17=0,"",ROUND((Hoja1!A18+Hoja1!B18)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C17=0,"",ROUND((Hoja1!A20+Hoja1!B20)/2,0)-Hoja1!$B$34)</f>
         <v>395</v>
       </c>
       <c r="B17" t="str">
@@ -3617,43 +3687,43 @@
         <v>6.97900555126419</v>
       </c>
       <c r="C17">
-        <f>Hoja1!C18</f>
+        <f>Hoja1!C20</f>
         <v>1500</v>
       </c>
       <c r="D17">
-        <f>IF(OR(Hoja1!E18="",Hoja1!E$32=""),"",Hoja1!E18-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E20="",Hoja1!E$34=""),"",Hoja1!E20-Hoja1!E$34)</f>
         <v>-3.0100000000000007</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(OR(Hoja1!F18="",Hoja1!F$32=""),"",Hoja1!F18-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F20="",Hoja1!F$34=""),"",Hoja1!F20-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f>IF(OR(Hoja1!G18="",Hoja1!G$32=""),"",Hoja1!G18-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G20="",Hoja1!G$34=""),"",Hoja1!G20-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G17">
-        <f>IF(OR(Hoja1!H18="",Hoja1!H$32=""),"",Hoja1!H18-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H20="",Hoja1!H$34=""),"",Hoja1!H20-Hoja1!H$34)</f>
         <v>6.4600000000000009</v>
       </c>
       <c r="H17">
-        <f>IF(OR(Hoja1!I18="",Hoja1!I$32=""),"",Hoja1!I18-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I20="",Hoja1!I$34=""),"",Hoja1!I20-Hoja1!I$34)</f>
         <v>-1.0200000000000014</v>
       </c>
       <c r="I17">
-        <f>IF(OR(Hoja1!J18="",Hoja1!J$32=""),"",Hoja1!J18-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J20="",Hoja1!J$34=""),"",Hoja1!J20-Hoja1!J$34)</f>
         <v>-2.1999999999999993</v>
       </c>
       <c r="J17">
-        <f>IF(OR(Hoja1!K18="",Hoja1!K$32=""),"",Hoja1!K18-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K20="",Hoja1!K$34=""),"",Hoja1!K20-Hoja1!K$34)</f>
         <v>1.5099999999999998</v>
       </c>
       <c r="K17">
-        <f>IF(OR(Hoja1!L18="",Hoja1!L$32=""),"",Hoja1!L18-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L20="",Hoja1!L$34=""),"",Hoja1!L20-Hoja1!L$34)</f>
         <v>-2.1900000000000048</v>
       </c>
       <c r="L17">
-        <f>(100-SUM(Hoja1!E17:L17))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E19:L19))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.14999999999999147</v>
       </c>
       <c r="N17" s="5">
@@ -3667,7 +3737,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f>IF(C18=0,"",ROUND((Hoja1!A19+Hoja1!B19)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C18=0,"",ROUND((Hoja1!A21+Hoja1!B21)/2,0)-Hoja1!$B$34)</f>
         <v>312</v>
       </c>
       <c r="B18" t="e">
@@ -3675,43 +3745,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C18">
-        <f>Hoja1!C19</f>
+        <f>Hoja1!C21</f>
         <v>1255</v>
       </c>
       <c r="D18">
-        <f>IF(OR(Hoja1!E19="",Hoja1!E$32=""),"",Hoja1!E19-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E21="",Hoja1!E$34=""),"",Hoja1!E21-Hoja1!E$34)</f>
         <v>-0.71000000000000085</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(OR(Hoja1!F19="",Hoja1!F$32=""),"",Hoja1!F19-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F21="",Hoja1!F$34=""),"",Hoja1!F21-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F18" t="str">
-        <f>IF(OR(Hoja1!G19="",Hoja1!G$32=""),"",Hoja1!G19-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G21="",Hoja1!G$34=""),"",Hoja1!G21-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G18">
-        <f>IF(OR(Hoja1!H19="",Hoja1!H$32=""),"",Hoja1!H19-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H21="",Hoja1!H$34=""),"",Hoja1!H21-Hoja1!H$34)</f>
         <v>4.9600000000000009</v>
       </c>
       <c r="H18">
-        <f>IF(OR(Hoja1!I19="",Hoja1!I$32=""),"",Hoja1!I19-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I21="",Hoja1!I$34=""),"",Hoja1!I21-Hoja1!I$34)</f>
         <v>-0.41999999999999993</v>
       </c>
       <c r="I18">
-        <f>IF(OR(Hoja1!J19="",Hoja1!J$32=""),"",Hoja1!J19-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J21="",Hoja1!J$34=""),"",Hoja1!J21-Hoja1!J$34)</f>
         <v>-1.1999999999999993</v>
       </c>
       <c r="J18">
-        <f>IF(OR(Hoja1!K19="",Hoja1!K$32=""),"",Hoja1!K19-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K21="",Hoja1!K$34=""),"",Hoja1!K21-Hoja1!K$34)</f>
         <v>0.60999999999999943</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(OR(Hoja1!L19="",Hoja1!L$32=""),"",Hoja1!L19-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L21="",Hoja1!L$34=""),"",Hoja1!L21-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L18">
-        <f>(100-SUM(Hoja1!E18:L18))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E20:L20))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.44999999999998863</v>
       </c>
       <c r="N18" s="5" t="e">
@@ -3725,7 +3795,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f>IF(C19=0,"",ROUND((Hoja1!A20+Hoja1!B20)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C19=0,"",ROUND((Hoja1!A22+Hoja1!B22)/2,0)-Hoja1!$B$34)</f>
         <v>312</v>
       </c>
       <c r="B19" t="str">
@@ -3733,43 +3803,43 @@
         <v>4.80860640765591</v>
       </c>
       <c r="C19">
-        <f>Hoja1!C20</f>
+        <f>Hoja1!C22</f>
         <v>1255</v>
       </c>
       <c r="D19">
-        <f>IF(OR(Hoja1!E20="",Hoja1!E$32=""),"",Hoja1!E20-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E22="",Hoja1!E$34=""),"",Hoja1!E22-Hoja1!E$34)</f>
         <v>-0.51000000000000068</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(OR(Hoja1!F20="",Hoja1!F$32=""),"",Hoja1!F20-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F22="",Hoja1!F$34=""),"",Hoja1!F22-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f>IF(OR(Hoja1!G20="",Hoja1!G$32=""),"",Hoja1!G20-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G22="",Hoja1!G$34=""),"",Hoja1!G22-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G19">
-        <f>IF(OR(Hoja1!H20="",Hoja1!H$32=""),"",Hoja1!H20-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H22="",Hoja1!H$34=""),"",Hoja1!H22-Hoja1!H$34)</f>
         <v>4.9600000000000009</v>
       </c>
       <c r="H19">
-        <f>IF(OR(Hoja1!I20="",Hoja1!I$32=""),"",Hoja1!I20-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I22="",Hoja1!I$34=""),"",Hoja1!I22-Hoja1!I$34)</f>
         <v>-0.41999999999999993</v>
       </c>
       <c r="I19">
-        <f>IF(OR(Hoja1!J20="",Hoja1!J$32=""),"",Hoja1!J20-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J22="",Hoja1!J$34=""),"",Hoja1!J22-Hoja1!J$34)</f>
         <v>-1.1999999999999993</v>
       </c>
       <c r="J19">
-        <f>IF(OR(Hoja1!K20="",Hoja1!K$32=""),"",Hoja1!K20-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K22="",Hoja1!K$34=""),"",Hoja1!K22-Hoja1!K$34)</f>
         <v>0.60999999999999943</v>
       </c>
       <c r="K19">
-        <f>IF(OR(Hoja1!L20="",Hoja1!L$32=""),"",Hoja1!L20-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L22="",Hoja1!L$34=""),"",Hoja1!L22-Hoja1!L$34)</f>
         <v>-3.5900000000000034</v>
       </c>
       <c r="L19">
-        <f>(100-SUM(Hoja1!E19:L19))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E21:L21))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-1.1500000000000057</v>
       </c>
       <c r="N19" s="5">
@@ -3783,7 +3853,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f>IF(C20=0,"",ROUND((Hoja1!A21+Hoja1!B21)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C20=0,"",ROUND((Hoja1!A23+Hoja1!B23)/2,0)-Hoja1!$B$34)</f>
         <v>283</v>
       </c>
       <c r="B20" t="str">
@@ -3791,43 +3861,43 @@
         <v>6.65900555126418</v>
       </c>
       <c r="C20">
-        <f>Hoja1!C21</f>
+        <f>Hoja1!C23</f>
         <v>1500</v>
       </c>
       <c r="D20">
-        <f>IF(OR(Hoja1!E21="",Hoja1!E$32=""),"",Hoja1!E21-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E23="",Hoja1!E$34=""),"",Hoja1!E23-Hoja1!E$34)</f>
         <v>-3.0100000000000007</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(OR(Hoja1!F21="",Hoja1!F$32=""),"",Hoja1!F21-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F23="",Hoja1!F$34=""),"",Hoja1!F23-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F20" t="str">
-        <f>IF(OR(Hoja1!G21="",Hoja1!G$32=""),"",Hoja1!G21-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G23="",Hoja1!G$34=""),"",Hoja1!G23-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G20">
-        <f>IF(OR(Hoja1!H21="",Hoja1!H$32=""),"",Hoja1!H21-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H23="",Hoja1!H$34=""),"",Hoja1!H23-Hoja1!H$34)</f>
         <v>7.8600000000000012</v>
       </c>
       <c r="H20">
-        <f>IF(OR(Hoja1!I21="",Hoja1!I$32=""),"",Hoja1!I21-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I23="",Hoja1!I$34=""),"",Hoja1!I23-Hoja1!I$34)</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="I20">
-        <f>IF(OR(Hoja1!J21="",Hoja1!J$32=""),"",Hoja1!J21-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J23="",Hoja1!J$34=""),"",Hoja1!J23-Hoja1!J$34)</f>
         <v>-3.0999999999999979</v>
       </c>
       <c r="J20">
-        <f>IF(OR(Hoja1!K21="",Hoja1!K$32=""),"",Hoja1!K21-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K23="",Hoja1!K$34=""),"",Hoja1!K23-Hoja1!K$34)</f>
         <v>0.3100000000000005</v>
       </c>
       <c r="K20">
-        <f>IF(OR(Hoja1!L21="",Hoja1!L$32=""),"",Hoja1!L21-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L23="",Hoja1!L$34=""),"",Hoja1!L23-Hoja1!L$34)</f>
         <v>-1.3900000000000006</v>
       </c>
       <c r="L20">
-        <f>(100-SUM(Hoja1!E20:L20))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E22:L22))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.14999999999997726</v>
       </c>
       <c r="N20" s="5">
@@ -3841,7 +3911,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f>IF(C21=0,"",ROUND((Hoja1!A22+Hoja1!B22)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C21=0,"",ROUND((Hoja1!A24+Hoja1!B24)/2,0)-Hoja1!$B$34)</f>
         <v>262</v>
       </c>
       <c r="B21" t="e">
@@ -3849,43 +3919,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C21">
-        <f>Hoja1!C22</f>
+        <f>Hoja1!C24</f>
         <v>800</v>
       </c>
       <c r="D21">
-        <f>IF(OR(Hoja1!E22="",Hoja1!E$32=""),"",Hoja1!E22-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E24="",Hoja1!E$34=""),"",Hoja1!E24-Hoja1!E$34)</f>
         <v>-4.6100000000000012</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(OR(Hoja1!F22="",Hoja1!F$32=""),"",Hoja1!F22-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F24="",Hoja1!F$34=""),"",Hoja1!F24-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F21" t="str">
-        <f>IF(OR(Hoja1!G22="",Hoja1!G$32=""),"",Hoja1!G22-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G24="",Hoja1!G$34=""),"",Hoja1!G24-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G21">
-        <f>IF(OR(Hoja1!H22="",Hoja1!H$32=""),"",Hoja1!H22-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H24="",Hoja1!H$34=""),"",Hoja1!H24-Hoja1!H$34)</f>
         <v>5.16</v>
       </c>
       <c r="H21">
-        <f>IF(OR(Hoja1!I22="",Hoja1!I$32=""),"",Hoja1!I22-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I24="",Hoja1!I$34=""),"",Hoja1!I24-Hoja1!I$34)</f>
         <v>0.27999999999999936</v>
       </c>
       <c r="I21">
-        <f>IF(OR(Hoja1!J22="",Hoja1!J$32=""),"",Hoja1!J22-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J24="",Hoja1!J$34=""),"",Hoja1!J24-Hoja1!J$34)</f>
         <v>-2.0999999999999979</v>
       </c>
       <c r="J21">
-        <f>IF(OR(Hoja1!K22="",Hoja1!K$32=""),"",Hoja1!K22-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K24="",Hoja1!K$34=""),"",Hoja1!K24-Hoja1!K$34)</f>
         <v>0.3100000000000005</v>
       </c>
       <c r="K21" t="str">
-        <f>IF(OR(Hoja1!L22="",Hoja1!L$32=""),"",Hoja1!L22-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L24="",Hoja1!L$34=""),"",Hoja1!L24-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L21">
-        <f>(100-SUM(Hoja1!E21:L21))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E23:L23))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.75</v>
       </c>
       <c r="N21" s="5" t="e">
@@ -3899,7 +3969,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f>IF(C22=0,"",ROUND((Hoja1!A23+Hoja1!B23)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C22=0,"",ROUND((Hoja1!A25+Hoja1!B25)/2,0)-Hoja1!$B$34)</f>
         <v>206</v>
       </c>
       <c r="B22" t="e">
@@ -3907,43 +3977,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C22">
-        <f>Hoja1!C23</f>
+        <f>Hoja1!C25</f>
         <v>1600</v>
       </c>
       <c r="D22">
-        <f>IF(OR(Hoja1!E23="",Hoja1!E$32=""),"",Hoja1!E23-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E25="",Hoja1!E$34=""),"",Hoja1!E25-Hoja1!E$34)</f>
         <v>-1.7100000000000009</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(OR(Hoja1!F23="",Hoja1!F$32=""),"",Hoja1!F23-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F25="",Hoja1!F$34=""),"",Hoja1!F25-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F22" t="str">
-        <f>IF(OR(Hoja1!G23="",Hoja1!G$32=""),"",Hoja1!G23-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G25="",Hoja1!G$34=""),"",Hoja1!G25-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G22">
-        <f>IF(OR(Hoja1!H23="",Hoja1!H$32=""),"",Hoja1!H23-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H25="",Hoja1!H$34=""),"",Hoja1!H25-Hoja1!H$34)</f>
         <v>3.3600000000000012</v>
       </c>
       <c r="H22">
-        <f>IF(OR(Hoja1!I23="",Hoja1!I$32=""),"",Hoja1!I23-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I25="",Hoja1!I$34=""),"",Hoja1!I25-Hoja1!I$34)</f>
         <v>0.97999999999999865</v>
       </c>
       <c r="I22">
-        <f>IF(OR(Hoja1!J23="",Hoja1!J$32=""),"",Hoja1!J23-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J25="",Hoja1!J$34=""),"",Hoja1!J25-Hoja1!J$34)</f>
         <v>-1.6999999999999993</v>
       </c>
       <c r="J22">
-        <f>IF(OR(Hoja1!K23="",Hoja1!K$32=""),"",Hoja1!K23-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K25="",Hoja1!K$34=""),"",Hoja1!K25-Hoja1!K$34)</f>
         <v>0.60999999999999943</v>
       </c>
       <c r="K22" t="str">
-        <f>IF(OR(Hoja1!L23="",Hoja1!L$32=""),"",Hoja1!L23-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L25="",Hoja1!L$34=""),"",Hoja1!L25-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L22">
-        <f>(100-SUM(Hoja1!E22:L22))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E24:L24))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.34999999999999432</v>
       </c>
       <c r="N22" s="5" t="e">
@@ -3957,7 +4027,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f>IF(C23=0,"",ROUND((Hoja1!A24+Hoja1!B24)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C23=0,"",ROUND((Hoja1!A26+Hoja1!B26)/2,0)-Hoja1!$B$34)</f>
         <v>156</v>
       </c>
       <c r="B23" t="str">
@@ -3965,43 +4035,43 @@
         <v>7.4690055512642</v>
       </c>
       <c r="C23">
-        <f>Hoja1!C24</f>
+        <f>Hoja1!C26</f>
         <v>1500</v>
       </c>
       <c r="D23">
-        <f>IF(OR(Hoja1!E24="",Hoja1!E$32=""),"",Hoja1!E24-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E26="",Hoja1!E$34=""),"",Hoja1!E26-Hoja1!E$34)</f>
         <v>-0.71000000000000085</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(OR(Hoja1!F24="",Hoja1!F$32=""),"",Hoja1!F24-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F26="",Hoja1!F$34=""),"",Hoja1!F26-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F23" t="str">
-        <f>IF(OR(Hoja1!G24="",Hoja1!G$32=""),"",Hoja1!G24-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G26="",Hoja1!G$34=""),"",Hoja1!G26-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G23">
-        <f>IF(OR(Hoja1!H24="",Hoja1!H$32=""),"",Hoja1!H24-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H26="",Hoja1!H$34=""),"",Hoja1!H26-Hoja1!H$34)</f>
         <v>8.9599999999999991</v>
       </c>
       <c r="H23">
-        <f>IF(OR(Hoja1!I24="",Hoja1!I$32=""),"",Hoja1!I24-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I26="",Hoja1!I$34=""),"",Hoja1!I26-Hoja1!I$34)</f>
         <v>-0.52000000000000135</v>
       </c>
       <c r="I23">
-        <f>IF(OR(Hoja1!J24="",Hoja1!J$32=""),"",Hoja1!J24-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J26="",Hoja1!J$34=""),"",Hoja1!J26-Hoja1!J$34)</f>
         <v>-1.1999999999999993</v>
       </c>
       <c r="J23">
-        <f>IF(OR(Hoja1!K24="",Hoja1!K$32=""),"",Hoja1!K24-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K26="",Hoja1!K$34=""),"",Hoja1!K26-Hoja1!K$34)</f>
         <v>-1.4900000000000002</v>
       </c>
       <c r="K23">
-        <f>IF(OR(Hoja1!L24="",Hoja1!L$32=""),"",Hoja1!L24-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L26="",Hoja1!L$34=""),"",Hoja1!L26-Hoja1!L$34)</f>
         <v>-3.7900000000000063</v>
       </c>
       <c r="L23">
-        <f>(100-SUM(Hoja1!E23:L23))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E25:L25))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.85000000000000853</v>
       </c>
       <c r="N23" s="5">
@@ -4015,7 +4085,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f>IF(C24=0,"",ROUND((Hoja1!A25+Hoja1!B25)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C24=0,"",ROUND((Hoja1!A27+Hoja1!B27)/2,0)-Hoja1!$B$34)</f>
         <v>94</v>
       </c>
       <c r="B24" t="str">
@@ -4023,43 +4093,43 @@
         <v>3.83860640765591</v>
       </c>
       <c r="C24">
-        <f>Hoja1!C25</f>
+        <f>Hoja1!C27</f>
         <v>1255</v>
       </c>
       <c r="D24">
-        <f>IF(OR(Hoja1!E25="",Hoja1!E$32=""),"",Hoja1!E25-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E27="",Hoja1!E$34=""),"",Hoja1!E27-Hoja1!E$34)</f>
         <v>0.6899999999999995</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(OR(Hoja1!F25="",Hoja1!F$32=""),"",Hoja1!F25-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F27="",Hoja1!F$34=""),"",Hoja1!F27-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F24" t="str">
-        <f>IF(OR(Hoja1!G25="",Hoja1!G$32=""),"",Hoja1!G25-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G27="",Hoja1!G$34=""),"",Hoja1!G27-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G24">
-        <f>IF(OR(Hoja1!H25="",Hoja1!H$32=""),"",Hoja1!H25-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H27="",Hoja1!H$34=""),"",Hoja1!H27-Hoja1!H$34)</f>
         <v>0.5600000000000005</v>
       </c>
       <c r="H24">
-        <f>IF(OR(Hoja1!I25="",Hoja1!I$32=""),"",Hoja1!I25-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I27="",Hoja1!I$34=""),"",Hoja1!I27-Hoja1!I$34)</f>
         <v>-0.62000000000000099</v>
       </c>
       <c r="I24">
-        <f>IF(OR(Hoja1!J25="",Hoja1!J$32=""),"",Hoja1!J25-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J27="",Hoja1!J$34=""),"",Hoja1!J27-Hoja1!J$34)</f>
         <v>3.3000000000000007</v>
       </c>
       <c r="J24">
-        <f>IF(OR(Hoja1!K25="",Hoja1!K$32=""),"",Hoja1!K25-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K27="",Hoja1!K$34=""),"",Hoja1!K27-Hoja1!K$34)</f>
         <v>-8.9999999999999858E-2</v>
       </c>
       <c r="K24">
-        <f>IF(OR(Hoja1!L25="",Hoja1!L$32=""),"",Hoja1!L25-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L27="",Hoja1!L$34=""),"",Hoja1!L27-Hoja1!L$34)</f>
         <v>-3.990000000000002</v>
       </c>
       <c r="L24">
-        <f>(100-SUM(Hoja1!E24:L24))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E26:L26))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-1.25</v>
       </c>
       <c r="N24" s="5">
@@ -4073,7 +4143,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f>IF(C25=0,"",ROUND((Hoja1!A26+Hoja1!B26)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C25=0,"",ROUND((Hoja1!A28+Hoja1!B28)/2,0)-Hoja1!$B$34)</f>
         <v>66</v>
       </c>
       <c r="B25" t="e">
@@ -4081,43 +4151,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C25">
-        <f>Hoja1!C26</f>
+        <f>Hoja1!C28</f>
         <v>504</v>
       </c>
       <c r="D25">
-        <f>IF(OR(Hoja1!E26="",Hoja1!E$32=""),"",Hoja1!E26-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E28="",Hoja1!E$34=""),"",Hoja1!E28-Hoja1!E$34)</f>
         <v>3.59</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(OR(Hoja1!F26="",Hoja1!F$32=""),"",Hoja1!F26-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F28="",Hoja1!F$34=""),"",Hoja1!F28-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F25" t="str">
-        <f>IF(OR(Hoja1!G26="",Hoja1!G$32=""),"",Hoja1!G26-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G28="",Hoja1!G$34=""),"",Hoja1!G28-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G25">
-        <f>IF(OR(Hoja1!H26="",Hoja1!H$32=""),"",Hoja1!H26-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H28="",Hoja1!H$34=""),"",Hoja1!H28-Hoja1!H$34)</f>
         <v>-1.5399999999999991</v>
       </c>
       <c r="H25">
-        <f>IF(OR(Hoja1!I26="",Hoja1!I$32=""),"",Hoja1!I26-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I28="",Hoja1!I$34=""),"",Hoja1!I28-Hoja1!I$34)</f>
         <v>0.27999999999999936</v>
       </c>
       <c r="I25">
-        <f>IF(OR(Hoja1!J26="",Hoja1!J$32=""),"",Hoja1!J26-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J28="",Hoja1!J$34=""),"",Hoja1!J28-Hoja1!J$34)</f>
         <v>5.6000000000000014</v>
       </c>
       <c r="J25">
-        <f>IF(OR(Hoja1!K26="",Hoja1!K$32=""),"",Hoja1!K26-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K28="",Hoja1!K$34=""),"",Hoja1!K28-Hoja1!K$34)</f>
         <v>-1.29</v>
       </c>
       <c r="K25" t="str">
-        <f>IF(OR(Hoja1!L26="",Hoja1!L$32=""),"",Hoja1!L26-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L28="",Hoja1!L$34=""),"",Hoja1!L28-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L25">
-        <f>(100-SUM(Hoja1!E25:L25))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E27:L27))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.14999999999999147</v>
       </c>
       <c r="N25" s="5" t="e">
@@ -4131,7 +4201,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f>IF(C26=0,"",ROUND((Hoja1!A27+Hoja1!B27)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C26=0,"",ROUND((Hoja1!A29+Hoja1!B29)/2,0)-Hoja1!$B$34)</f>
         <v>58</v>
       </c>
       <c r="B26" t="e">
@@ -4139,43 +4209,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C26">
-        <f>Hoja1!C27</f>
+        <f>Hoja1!C29</f>
         <v>1000</v>
       </c>
       <c r="D26">
-        <f>IF(OR(Hoja1!E27="",Hoja1!E$32=""),"",Hoja1!E27-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E29="",Hoja1!E$34=""),"",Hoja1!E29-Hoja1!E$34)</f>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(OR(Hoja1!F27="",Hoja1!F$32=""),"",Hoja1!F27-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F29="",Hoja1!F$34=""),"",Hoja1!F29-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F26" t="str">
-        <f>IF(OR(Hoja1!G27="",Hoja1!G$32=""),"",Hoja1!G27-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G29="",Hoja1!G$34=""),"",Hoja1!G29-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G26">
-        <f>IF(OR(Hoja1!H27="",Hoja1!H$32=""),"",Hoja1!H27-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H29="",Hoja1!H$34=""),"",Hoja1!H29-Hoja1!H$34)</f>
         <v>-0.24000000000000021</v>
       </c>
       <c r="H26">
-        <f>IF(OR(Hoja1!I27="",Hoja1!I$32=""),"",Hoja1!I27-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I29="",Hoja1!I$34=""),"",Hoja1!I29-Hoja1!I$34)</f>
         <v>0.77999999999999936</v>
       </c>
       <c r="I26">
-        <f>IF(OR(Hoja1!J27="",Hoja1!J$32=""),"",Hoja1!J27-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J29="",Hoja1!J$34=""),"",Hoja1!J29-Hoja1!J$34)</f>
         <v>2</v>
       </c>
       <c r="J26">
-        <f>IF(OR(Hoja1!K27="",Hoja1!K$32=""),"",Hoja1!K27-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K29="",Hoja1!K$34=""),"",Hoja1!K29-Hoja1!K$34)</f>
         <v>-0.1899999999999995</v>
       </c>
       <c r="K26" t="str">
-        <f>IF(OR(Hoja1!L27="",Hoja1!L$32=""),"",Hoja1!L27-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L29="",Hoja1!L$34=""),"",Hoja1!L29-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L26">
-        <f>(100-SUM(Hoja1!E26:L26))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E28:L28))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-3.6500000000000057</v>
       </c>
       <c r="N26" s="5" t="e">
@@ -4189,7 +4259,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f>IF(C27=0,"",ROUND((Hoja1!A28+Hoja1!B28)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C27=0,"",ROUND((Hoja1!A30+Hoja1!B30)/2,0)-Hoja1!$B$34)</f>
         <v>58</v>
       </c>
       <c r="B27" t="str">
@@ -4197,43 +4267,43 @@
         <v>1.39886116991581</v>
       </c>
       <c r="C27">
-        <f>Hoja1!C28</f>
+        <f>Hoja1!C30</f>
         <v>1000</v>
       </c>
       <c r="D27">
-        <f>IF(OR(Hoja1!E28="",Hoja1!E$32=""),"",Hoja1!E28-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E30="",Hoja1!E$34=""),"",Hoja1!E30-Hoja1!E$34)</f>
         <v>0.78999999999999915</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(OR(Hoja1!F28="",Hoja1!F$32=""),"",Hoja1!F28-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F30="",Hoja1!F$34=""),"",Hoja1!F30-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F27" t="str">
-        <f>IF(OR(Hoja1!G28="",Hoja1!G$32=""),"",Hoja1!G28-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G30="",Hoja1!G$34=""),"",Hoja1!G30-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G27">
-        <f>IF(OR(Hoja1!H28="",Hoja1!H$32=""),"",Hoja1!H28-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H30="",Hoja1!H$34=""),"",Hoja1!H30-Hoja1!H$34)</f>
         <v>-0.63999999999999879</v>
       </c>
       <c r="H27">
-        <f>IF(OR(Hoja1!I28="",Hoja1!I$32=""),"",Hoja1!I28-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I30="",Hoja1!I$34=""),"",Hoja1!I30-Hoja1!I$34)</f>
         <v>0.37999999999999901</v>
       </c>
       <c r="I27">
-        <f>IF(OR(Hoja1!J28="",Hoja1!J$32=""),"",Hoja1!J28-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J30="",Hoja1!J$34=""),"",Hoja1!J30-Hoja1!J$34)</f>
         <v>1.8000000000000007</v>
       </c>
       <c r="J27">
-        <f>IF(OR(Hoja1!K28="",Hoja1!K$32=""),"",Hoja1!K28-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K30="",Hoja1!K$34=""),"",Hoja1!K30-Hoja1!K$34)</f>
         <v>0.20999999999999908</v>
       </c>
       <c r="K27">
-        <f>IF(OR(Hoja1!L28="",Hoja1!L$32=""),"",Hoja1!L28-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L30="",Hoja1!L$34=""),"",Hoja1!L30-Hoja1!L$34)</f>
         <v>-1.990000000000002</v>
       </c>
       <c r="L27">
-        <f>(100-SUM(Hoja1!E27:L27))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E29:L29))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.14999999999999147</v>
       </c>
       <c r="N27" s="5">
@@ -4247,7 +4317,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f>IF(C28=0,"",ROUND((Hoja1!A29+Hoja1!B29)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C28=0,"",ROUND((Hoja1!A31+Hoja1!B31)/2,0)-Hoja1!$B$34)</f>
         <v>54</v>
       </c>
       <c r="B28" t="str">
@@ -4255,43 +4325,43 @@
         <v>1.95696650037909</v>
       </c>
       <c r="C28">
-        <f>Hoja1!C29</f>
+        <f>Hoja1!C31</f>
         <v>1050</v>
       </c>
       <c r="D28">
-        <f>IF(OR(Hoja1!E29="",Hoja1!E$32=""),"",Hoja1!E29-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E31="",Hoja1!E$34=""),"",Hoja1!E31-Hoja1!E$34)</f>
         <v>0.28999999999999915</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(OR(Hoja1!F29="",Hoja1!F$32=""),"",Hoja1!F29-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F31="",Hoja1!F$34=""),"",Hoja1!F31-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F28" t="str">
-        <f>IF(OR(Hoja1!G29="",Hoja1!G$32=""),"",Hoja1!G29-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G31="",Hoja1!G$34=""),"",Hoja1!G31-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G28">
-        <f>IF(OR(Hoja1!H29="",Hoja1!H$32=""),"",Hoja1!H29-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H31="",Hoja1!H$34=""),"",Hoja1!H31-Hoja1!H$34)</f>
         <v>6.0000000000000497E-2</v>
       </c>
       <c r="H28">
-        <f>IF(OR(Hoja1!I29="",Hoja1!I$32=""),"",Hoja1!I29-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I31="",Hoja1!I$34=""),"",Hoja1!I31-Hoja1!I$34)</f>
         <v>-0.32000000000000028</v>
       </c>
       <c r="I28">
-        <f>IF(OR(Hoja1!J29="",Hoja1!J$32=""),"",Hoja1!J29-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J31="",Hoja1!J$34=""),"",Hoja1!J31-Hoja1!J$34)</f>
         <v>3.2000000000000028</v>
       </c>
       <c r="J28">
-        <f>IF(OR(Hoja1!K29="",Hoja1!K$32=""),"",Hoja1!K29-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K31="",Hoja1!K$34=""),"",Hoja1!K31-Hoja1!K$34)</f>
         <v>-1.0899999999999999</v>
       </c>
       <c r="K28">
-        <f>IF(OR(Hoja1!L29="",Hoja1!L$32=""),"",Hoja1!L29-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L31="",Hoja1!L$34=""),"",Hoja1!L31-Hoja1!L$34)</f>
         <v>-1.490000000000002</v>
       </c>
       <c r="L28">
-        <f>(100-SUM(Hoja1!E28:L28))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E30:L30))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.55000000000001137</v>
       </c>
       <c r="N28" s="5">
@@ -4305,7 +4375,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f>IF(C29=0,"",ROUND((Hoja1!A30+Hoja1!B30)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C29=0,"",ROUND((Hoja1!A32+Hoja1!B32)/2,0)-Hoja1!$B$34)</f>
         <v>32</v>
       </c>
       <c r="B29" t="str">
@@ -4313,43 +4383,43 @@
         <v>3.11860640765591</v>
       </c>
       <c r="C29">
-        <f>Hoja1!C30</f>
+        <f>Hoja1!C32</f>
         <v>1255</v>
       </c>
       <c r="D29">
-        <f>IF(OR(Hoja1!E30="",Hoja1!E$32=""),"",Hoja1!E30-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E32="",Hoja1!E$34=""),"",Hoja1!E32-Hoja1!E$34)</f>
         <v>0.38999999999999879</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(OR(Hoja1!F30="",Hoja1!F$32=""),"",Hoja1!F30-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F32="",Hoja1!F$34=""),"",Hoja1!F32-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F29" t="str">
-        <f>IF(OR(Hoja1!G30="",Hoja1!G$32=""),"",Hoja1!G30-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G32="",Hoja1!G$34=""),"",Hoja1!G32-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G29">
-        <f>IF(OR(Hoja1!H30="",Hoja1!H$32=""),"",Hoja1!H30-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H32="",Hoja1!H$34=""),"",Hoja1!H32-Hoja1!H$34)</f>
         <v>-1.3399999999999999</v>
       </c>
       <c r="H29">
-        <f>IF(OR(Hoja1!I30="",Hoja1!I$32=""),"",Hoja1!I30-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I32="",Hoja1!I$34=""),"",Hoja1!I32-Hoja1!I$34)</f>
         <v>0.27999999999999936</v>
       </c>
       <c r="I29">
-        <f>IF(OR(Hoja1!J30="",Hoja1!J$32=""),"",Hoja1!J30-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J32="",Hoja1!J$34=""),"",Hoja1!J32-Hoja1!J$34)</f>
         <v>3</v>
       </c>
       <c r="J29">
-        <f>IF(OR(Hoja1!K30="",Hoja1!K$32=""),"",Hoja1!K30-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K32="",Hoja1!K$34=""),"",Hoja1!K32-Hoja1!K$34)</f>
         <v>0.20999999999999908</v>
       </c>
       <c r="K29">
-        <f>IF(OR(Hoja1!L30="",Hoja1!L$32=""),"",Hoja1!L30-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L32="",Hoja1!L$34=""),"",Hoja1!L32-Hoja1!L$34)</f>
         <v>-3.1900000000000048</v>
       </c>
       <c r="L29">
-        <f>(100-SUM(Hoja1!E29:L29))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E31:L31))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.65000000000000568</v>
       </c>
       <c r="N29" s="5">
@@ -4363,7 +4433,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f>IF(C30=0,"",ROUND((Hoja1!A31+Hoja1!B31)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C30=0,"",ROUND((Hoja1!A33+Hoja1!B33)/2,0)-Hoja1!$B$34)</f>
         <v>19</v>
       </c>
       <c r="B30" t="str">
@@ -4371,43 +4441,43 @@
         <v>2.79196601125011</v>
       </c>
       <c r="C30">
-        <f>Hoja1!C31</f>
+        <f>Hoja1!C33</f>
         <v>2000</v>
       </c>
       <c r="D30">
-        <f>IF(OR(Hoja1!E31="",Hoja1!E$32=""),"",Hoja1!E31-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E33="",Hoja1!E$34=""),"",Hoja1!E33-Hoja1!E$34)</f>
         <v>2.8899999999999988</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(OR(Hoja1!F31="",Hoja1!F$32=""),"",Hoja1!F31-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F33="",Hoja1!F$34=""),"",Hoja1!F33-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F30" t="str">
-        <f>IF(OR(Hoja1!G31="",Hoja1!G$32=""),"",Hoja1!G31-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G33="",Hoja1!G$34=""),"",Hoja1!G33-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G30">
-        <f>IF(OR(Hoja1!H31="",Hoja1!H$32=""),"",Hoja1!H31-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H33="",Hoja1!H$34=""),"",Hoja1!H33-Hoja1!H$34)</f>
         <v>0.36000000000000121</v>
       </c>
       <c r="H30">
-        <f>IF(OR(Hoja1!I31="",Hoja1!I$32=""),"",Hoja1!I31-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I33="",Hoja1!I$34=""),"",Hoja1!I33-Hoja1!I$34)</f>
         <v>-2.120000000000001</v>
       </c>
       <c r="I30">
-        <f>IF(OR(Hoja1!J31="",Hoja1!J$32=""),"",Hoja1!J31-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J33="",Hoja1!J$34=""),"",Hoja1!J33-Hoja1!J$34)</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="J30">
-        <f>IF(OR(Hoja1!K31="",Hoja1!K$32=""),"",Hoja1!K31-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K33="",Hoja1!K$34=""),"",Hoja1!K33-Hoja1!K$34)</f>
         <v>-1.4900000000000002</v>
       </c>
       <c r="K30">
-        <f>IF(OR(Hoja1!L31="",Hoja1!L$32=""),"",Hoja1!L31-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L33="",Hoja1!L$34=""),"",Hoja1!L33-Hoja1!L$34)</f>
         <v>0.20999999999999375</v>
       </c>
       <c r="L30">
-        <f>(100-SUM(Hoja1!E30:L30))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E32:L32))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.65000000000000568</v>
       </c>
       <c r="N30" s="5">
@@ -4421,7 +4491,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f>IF(C31=0,"",ROUND((Hoja1!A32+Hoja1!B32)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C31=0,"",ROUND((Hoja1!A34+Hoja1!B34)/2,0)-Hoja1!$B$34)</f>
         <v>0</v>
       </c>
       <c r="B31" t="str">
@@ -4429,43 +4499,43 @@
         <v>0.000397192223254982</v>
       </c>
       <c r="C31">
-        <f>Hoja1!C32</f>
+        <f>Hoja1!C34</f>
         <v>4130196</v>
       </c>
       <c r="D31">
-        <f>IF(OR(Hoja1!E32="",Hoja1!E$32=""),"",Hoja1!E32-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E34="",Hoja1!E$34=""),"",Hoja1!E34-Hoja1!E$34)</f>
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(OR(Hoja1!F32="",Hoja1!F$32=""),"",Hoja1!F32-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F34="",Hoja1!F$34=""),"",Hoja1!F34-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F31" t="str">
-        <f>IF(OR(Hoja1!G32="",Hoja1!G$32=""),"",Hoja1!G32-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G34="",Hoja1!G$34=""),"",Hoja1!G34-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G31">
-        <f>IF(OR(Hoja1!H32="",Hoja1!H$32=""),"",Hoja1!H32-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H34="",Hoja1!H$34=""),"",Hoja1!H34-Hoja1!H$34)</f>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>IF(OR(Hoja1!I32="",Hoja1!I$32=""),"",Hoja1!I32-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I34="",Hoja1!I$34=""),"",Hoja1!I34-Hoja1!I$34)</f>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>IF(OR(Hoja1!J32="",Hoja1!J$32=""),"",Hoja1!J32-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J34="",Hoja1!J$34=""),"",Hoja1!J34-Hoja1!J$34)</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>IF(OR(Hoja1!K32="",Hoja1!K$32=""),"",Hoja1!K32-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K34="",Hoja1!K$34=""),"",Hoja1!K34-Hoja1!K$34)</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>IF(OR(Hoja1!L32="",Hoja1!L$32=""),"",Hoja1!L32-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L34="",Hoja1!L$34=""),"",Hoja1!L34-Hoja1!L$34)</f>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>(100-SUM(Hoja1!E31:L31))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E33:L33))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="N31" s="5">
@@ -4479,7 +4549,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f>IF(C32=0,"",ROUND((Hoja1!A33+Hoja1!B33)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C32=0,"",ROUND((Hoja1!A35+Hoja1!B35)/2,0)-Hoja1!$B$34)</f>
         <v>-6</v>
       </c>
       <c r="B32" t="str">
@@ -4487,43 +4557,43 @@
         <v>5.46162432702593</v>
       </c>
       <c r="C32">
-        <f>Hoja1!C33</f>
+        <f>Hoja1!C35</f>
         <v>1200</v>
       </c>
       <c r="D32">
-        <f>IF(OR(Hoja1!E33="",Hoja1!E$32=""),"",Hoja1!E33-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E35="",Hoja1!E$34=""),"",Hoja1!E35-Hoja1!E$34)</f>
         <v>-1.2100000000000009</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(OR(Hoja1!F33="",Hoja1!F$32=""),"",Hoja1!F33-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F35="",Hoja1!F$34=""),"",Hoja1!F35-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F32" t="str">
-        <f>IF(OR(Hoja1!G33="",Hoja1!G$32=""),"",Hoja1!G33-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G35="",Hoja1!G$34=""),"",Hoja1!G35-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G32">
-        <f>IF(OR(Hoja1!H33="",Hoja1!H$32=""),"",Hoja1!H33-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H35="",Hoja1!H$34=""),"",Hoja1!H35-Hoja1!H$34)</f>
         <v>3.0600000000000005</v>
       </c>
       <c r="H32">
-        <f>IF(OR(Hoja1!I33="",Hoja1!I$32=""),"",Hoja1!I33-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I35="",Hoja1!I$34=""),"",Hoja1!I35-Hoja1!I$34)</f>
         <v>-0.72000000000000064</v>
       </c>
       <c r="I32">
-        <f>IF(OR(Hoja1!J33="",Hoja1!J$32=""),"",Hoja1!J33-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J35="",Hoja1!J$34=""),"",Hoja1!J35-Hoja1!J$34)</f>
         <v>-4.8999999999999986</v>
       </c>
       <c r="J32">
-        <f>IF(OR(Hoja1!K33="",Hoja1!K$32=""),"",Hoja1!K33-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K35="",Hoja1!K$34=""),"",Hoja1!K35-Hoja1!K$34)</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="K32">
-        <f>IF(OR(Hoja1!L33="",Hoja1!L$32=""),"",Hoja1!L33-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L35="",Hoja1!L$34=""),"",Hoja1!L35-Hoja1!L$34)</f>
         <v>1.4099999999999966</v>
       </c>
       <c r="L32">
-        <f>(100-SUM(Hoja1!E32:L32))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E34:L34))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0</v>
       </c>
       <c r="N32" s="5">
@@ -4537,7 +4607,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f>IF(C33=0,"",ROUND((Hoja1!A34+Hoja1!B34)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C33=0,"",ROUND((Hoja1!A36+Hoja1!B36)/2,0)-Hoja1!$B$34)</f>
         <v>-7</v>
       </c>
       <c r="B33" t="str">
@@ -4545,43 +4615,43 @@
         <v>2.09712907082472</v>
       </c>
       <c r="C33">
-        <f>Hoja1!C34</f>
+        <f>Hoja1!C36</f>
         <v>3000</v>
       </c>
       <c r="D33">
-        <f>IF(OR(Hoja1!E34="",Hoja1!E$32=""),"",Hoja1!E34-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E36="",Hoja1!E$34=""),"",Hoja1!E36-Hoja1!E$34)</f>
         <v>-0.21000000000000085</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(OR(Hoja1!F34="",Hoja1!F$32=""),"",Hoja1!F34-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F36="",Hoja1!F$34=""),"",Hoja1!F36-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f>IF(OR(Hoja1!G34="",Hoja1!G$32=""),"",Hoja1!G34-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G36="",Hoja1!G$34=""),"",Hoja1!G36-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G33">
-        <f>IF(OR(Hoja1!H34="",Hoja1!H$32=""),"",Hoja1!H34-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H36="",Hoja1!H$34=""),"",Hoja1!H36-Hoja1!H$34)</f>
         <v>0.5600000000000005</v>
       </c>
       <c r="H33">
-        <f>IF(OR(Hoja1!I34="",Hoja1!I$32=""),"",Hoja1!I34-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I36="",Hoja1!I$34=""),"",Hoja1!I36-Hoja1!I$34)</f>
         <v>0.77999999999999936</v>
       </c>
       <c r="I33">
-        <f>IF(OR(Hoja1!J34="",Hoja1!J$32=""),"",Hoja1!J34-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J36="",Hoja1!J$34=""),"",Hoja1!J36-Hoja1!J$34)</f>
         <v>-3.3999999999999986</v>
       </c>
       <c r="J33">
-        <f>IF(OR(Hoja1!K34="",Hoja1!K$32=""),"",Hoja1!K34-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K36="",Hoja1!K$34=""),"",Hoja1!K36-Hoja1!K$34)</f>
         <v>0.50999999999999979</v>
       </c>
       <c r="K33">
-        <f>IF(OR(Hoja1!L34="",Hoja1!L$32=""),"",Hoja1!L34-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L36="",Hoja1!L$34=""),"",Hoja1!L36-Hoja1!L$34)</f>
         <v>0.40999999999999659</v>
       </c>
       <c r="L33">
-        <f>(100-SUM(Hoja1!E33:L33))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E35:L35))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.15000000000000568</v>
       </c>
       <c r="N33" s="5">
@@ -4595,7 +4665,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f>IF(C34=0,"",ROUND((Hoja1!A35+Hoja1!B35)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C34=0,"",ROUND((Hoja1!A37+Hoja1!B37)/2,0)-Hoja1!$B$34)</f>
         <v>-13</v>
       </c>
       <c r="B34" t="str">
@@ -4603,43 +4673,43 @@
         <v>3.14886116991581</v>
       </c>
       <c r="C34">
-        <f>Hoja1!C35</f>
+        <f>Hoja1!C37</f>
         <v>1000</v>
       </c>
       <c r="D34">
-        <f>IF(OR(Hoja1!E35="",Hoja1!E$32=""),"",Hoja1!E35-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E37="",Hoja1!E$34=""),"",Hoja1!E37-Hoja1!E$34)</f>
         <v>-0.11000000000000121</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(OR(Hoja1!F35="",Hoja1!F$32=""),"",Hoja1!F35-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F37="",Hoja1!F$34=""),"",Hoja1!F37-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F34" t="str">
-        <f>IF(OR(Hoja1!G35="",Hoja1!G$32=""),"",Hoja1!G35-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G37="",Hoja1!G$34=""),"",Hoja1!G37-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G34">
-        <f>IF(OR(Hoja1!H35="",Hoja1!H$32=""),"",Hoja1!H35-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H37="",Hoja1!H$34=""),"",Hoja1!H37-Hoja1!H$34)</f>
         <v>3.66</v>
       </c>
       <c r="H34">
-        <f>IF(OR(Hoja1!I35="",Hoja1!I$32=""),"",Hoja1!I35-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I37="",Hoja1!I$34=""),"",Hoja1!I37-Hoja1!I$34)</f>
         <v>-1.0200000000000014</v>
       </c>
       <c r="I34">
-        <f>IF(OR(Hoja1!J35="",Hoja1!J$32=""),"",Hoja1!J35-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J37="",Hoja1!J$34=""),"",Hoja1!J37-Hoja1!J$34)</f>
         <v>-2.4999999999999982</v>
       </c>
       <c r="J34">
-        <f>IF(OR(Hoja1!K35="",Hoja1!K$32=""),"",Hoja1!K35-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K37="",Hoja1!K$34=""),"",Hoja1!K37-Hoja1!K$34)</f>
         <v>0.3100000000000005</v>
       </c>
       <c r="K34">
-        <f>IF(OR(Hoja1!L35="",Hoja1!L$32=""),"",Hoja1!L35-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L37="",Hoja1!L$34=""),"",Hoja1!L37-Hoja1!L$34)</f>
         <v>0.50999999999999801</v>
       </c>
       <c r="L34">
-        <f>(100-SUM(Hoja1!E34:L34))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E36:L36))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>1.3499999999999943</v>
       </c>
       <c r="N34" s="5">
@@ -4653,7 +4723,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f>IF(C35=0,"",ROUND((Hoja1!A36+Hoja1!B36)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C35=0,"",ROUND((Hoja1!A38+Hoja1!B38)/2,0)-Hoja1!$B$34)</f>
         <v>-12</v>
       </c>
       <c r="B35" t="str">
@@ -4661,43 +4731,43 @@
         <v>4.85860640765591</v>
       </c>
       <c r="C35">
-        <f>Hoja1!C36</f>
+        <f>Hoja1!C38</f>
         <v>1255</v>
       </c>
       <c r="D35">
-        <f>IF(OR(Hoja1!E36="",Hoja1!E$32=""),"",Hoja1!E36-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E38="",Hoja1!E$34=""),"",Hoja1!E38-Hoja1!E$34)</f>
         <v>-2.0100000000000007</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(OR(Hoja1!F36="",Hoja1!F$32=""),"",Hoja1!F36-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F38="",Hoja1!F$34=""),"",Hoja1!F38-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F35" t="str">
-        <f>IF(OR(Hoja1!G36="",Hoja1!G$32=""),"",Hoja1!G36-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G38="",Hoja1!G$34=""),"",Hoja1!G38-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G35">
-        <f>IF(OR(Hoja1!H36="",Hoja1!H$32=""),"",Hoja1!H36-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H38="",Hoja1!H$34=""),"",Hoja1!H38-Hoja1!H$34)</f>
         <v>3.4600000000000009</v>
       </c>
       <c r="H35">
-        <f>IF(OR(Hoja1!I36="",Hoja1!I$32=""),"",Hoja1!I36-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I38="",Hoja1!I$34=""),"",Hoja1!I38-Hoja1!I$34)</f>
         <v>-0.62000000000000099</v>
       </c>
       <c r="I35">
-        <f>IF(OR(Hoja1!J36="",Hoja1!J$32=""),"",Hoja1!J36-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J38="",Hoja1!J$34=""),"",Hoja1!J38-Hoja1!J$34)</f>
         <v>-2.5999999999999979</v>
       </c>
       <c r="J35">
-        <f>IF(OR(Hoja1!K36="",Hoja1!K$32=""),"",Hoja1!K36-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K38="",Hoja1!K$34=""),"",Hoja1!K38-Hoja1!K$34)</f>
         <v>1.4100000000000001</v>
       </c>
       <c r="K35">
-        <f>IF(OR(Hoja1!L36="",Hoja1!L$32=""),"",Hoja1!L36-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L38="",Hoja1!L$34=""),"",Hoja1!L38-Hoja1!L$34)</f>
         <v>-1.5900000000000034</v>
       </c>
       <c r="L35">
-        <f>(100-SUM(Hoja1!E35:L35))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E37:L37))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.84999999999999432</v>
       </c>
       <c r="N35" s="5">
@@ -4711,7 +4781,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f>IF(C36=0,"",ROUND((Hoja1!A37+Hoja1!B37)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C36=0,"",ROUND((Hoja1!A39+Hoja1!B39)/2,0)-Hoja1!$B$34)</f>
         <v>-10</v>
       </c>
       <c r="B36" t="str">
@@ -4719,43 +4789,43 @@
         <v>4.74369379043787</v>
       </c>
       <c r="C36">
-        <f>Hoja1!C37</f>
+        <f>Hoja1!C39</f>
         <v>1400</v>
       </c>
       <c r="D36">
-        <f>IF(OR(Hoja1!E37="",Hoja1!E$32=""),"",Hoja1!E37-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E39="",Hoja1!E$34=""),"",Hoja1!E39-Hoja1!E$34)</f>
         <v>-0.91000000000000103</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(OR(Hoja1!F37="",Hoja1!F$32=""),"",Hoja1!F37-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F39="",Hoja1!F$34=""),"",Hoja1!F39-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f>IF(OR(Hoja1!G37="",Hoja1!G$32=""),"",Hoja1!G37-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G39="",Hoja1!G$34=""),"",Hoja1!G39-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G36">
-        <f>IF(OR(Hoja1!H37="",Hoja1!H$32=""),"",Hoja1!H37-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H39="",Hoja1!H$34=""),"",Hoja1!H39-Hoja1!H$34)</f>
         <v>2.2599999999999998</v>
       </c>
       <c r="H36">
-        <f>IF(OR(Hoja1!I37="",Hoja1!I$32=""),"",Hoja1!I37-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I39="",Hoja1!I$34=""),"",Hoja1!I39-Hoja1!I$34)</f>
         <v>-1.92</v>
       </c>
       <c r="I36">
-        <f>IF(OR(Hoja1!J37="",Hoja1!J$32=""),"",Hoja1!J37-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J39="",Hoja1!J$34=""),"",Hoja1!J39-Hoja1!J$34)</f>
         <v>-3.0999999999999979</v>
       </c>
       <c r="J36">
-        <f>IF(OR(Hoja1!K37="",Hoja1!K$32=""),"",Hoja1!K37-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K39="",Hoja1!K$34=""),"",Hoja1!K39-Hoja1!K$34)</f>
         <v>1.1099999999999994</v>
       </c>
       <c r="K36">
-        <f>IF(OR(Hoja1!L37="",Hoja1!L$32=""),"",Hoja1!L37-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L39="",Hoja1!L$34=""),"",Hoja1!L39-Hoja1!L$34)</f>
         <v>0.90999999999999659</v>
       </c>
       <c r="L36">
-        <f>(100-SUM(Hoja1!E36:L36))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E38:L38))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>1.9499999999999886</v>
       </c>
       <c r="N36" s="5">
@@ -4769,7 +4839,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f>IF(C37=0,"",ROUND((Hoja1!A38+Hoja1!B38)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C37=0,"",ROUND((Hoja1!A40+Hoja1!B40)/2,0)-Hoja1!$B$34)</f>
         <v>-11</v>
       </c>
       <c r="B37" t="str">
@@ -4777,43 +4847,43 @@
         <v>5.21244327711118</v>
       </c>
       <c r="C37">
-        <f>Hoja1!C38</f>
+        <f>Hoja1!C40</f>
         <v>1100</v>
       </c>
       <c r="D37">
-        <f>IF(OR(Hoja1!E38="",Hoja1!E$32=""),"",Hoja1!E38-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E40="",Hoja1!E$34=""),"",Hoja1!E40-Hoja1!E$34)</f>
         <v>-2.0100000000000007</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(OR(Hoja1!F38="",Hoja1!F$32=""),"",Hoja1!F38-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F40="",Hoja1!F$34=""),"",Hoja1!F40-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F37" t="str">
-        <f>IF(OR(Hoja1!G38="",Hoja1!G$32=""),"",Hoja1!G38-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G40="",Hoja1!G$34=""),"",Hoja1!G40-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G37">
-        <f>IF(OR(Hoja1!H38="",Hoja1!H$32=""),"",Hoja1!H38-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H40="",Hoja1!H$34=""),"",Hoja1!H40-Hoja1!H$34)</f>
         <v>3.66</v>
       </c>
       <c r="H37">
-        <f>IF(OR(Hoja1!I38="",Hoja1!I$32=""),"",Hoja1!I38-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I40="",Hoja1!I$34=""),"",Hoja1!I40-Hoja1!I$34)</f>
         <v>-0.62000000000000099</v>
       </c>
       <c r="I37">
-        <f>IF(OR(Hoja1!J38="",Hoja1!J$32=""),"",Hoja1!J38-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J40="",Hoja1!J$34=""),"",Hoja1!J40-Hoja1!J$34)</f>
         <v>-3.2999999999999989</v>
       </c>
       <c r="J37">
-        <f>IF(OR(Hoja1!K38="",Hoja1!K$32=""),"",Hoja1!K38-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K40="",Hoja1!K$34=""),"",Hoja1!K40-Hoja1!K$34)</f>
         <v>1.4100000000000001</v>
       </c>
       <c r="K37">
-        <f>IF(OR(Hoja1!L38="",Hoja1!L$32=""),"",Hoja1!L38-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L40="",Hoja1!L$34=""),"",Hoja1!L40-Hoja1!L$34)</f>
         <v>-0.79000000000000625</v>
       </c>
       <c r="L37">
-        <f>(100-SUM(Hoja1!E37:L37))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E39:L39))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>1.6499999999999915</v>
       </c>
       <c r="N37" s="5">
@@ -4827,7 +4897,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f>IF(C38=0,"",ROUND((Hoja1!A39+Hoja1!B39)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C38=0,"",ROUND((Hoja1!A41+Hoja1!B41)/2,0)-Hoja1!$B$34)</f>
         <v>-11</v>
       </c>
       <c r="B38" t="str">
@@ -4835,43 +4905,43 @@
         <v>4.36223304703363</v>
       </c>
       <c r="C38">
-        <f>Hoja1!C39</f>
+        <f>Hoja1!C41</f>
         <v>800</v>
       </c>
       <c r="D38">
-        <f>IF(OR(Hoja1!E39="",Hoja1!E$32=""),"",Hoja1!E39-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E41="",Hoja1!E$34=""),"",Hoja1!E41-Hoja1!E$34)</f>
         <v>-1.8100000000000005</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(OR(Hoja1!F39="",Hoja1!F$32=""),"",Hoja1!F39-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F41="",Hoja1!F$34=""),"",Hoja1!F41-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F38" t="str">
-        <f>IF(OR(Hoja1!G39="",Hoja1!G$32=""),"",Hoja1!G39-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G41="",Hoja1!G$34=""),"",Hoja1!G41-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G38">
-        <f>IF(OR(Hoja1!H39="",Hoja1!H$32=""),"",Hoja1!H39-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H41="",Hoja1!H$34=""),"",Hoja1!H41-Hoja1!H$34)</f>
         <v>1.3600000000000012</v>
       </c>
       <c r="H38">
-        <f>IF(OR(Hoja1!I39="",Hoja1!I$32=""),"",Hoja1!I39-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I41="",Hoja1!I$34=""),"",Hoja1!I41-Hoja1!I$34)</f>
         <v>-0.82000000000000028</v>
       </c>
       <c r="I38">
-        <f>IF(OR(Hoja1!J39="",Hoja1!J$32=""),"",Hoja1!J39-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J41="",Hoja1!J$34=""),"",Hoja1!J41-Hoja1!J$34)</f>
         <v>-3.7999999999999989</v>
       </c>
       <c r="J38">
-        <f>IF(OR(Hoja1!K39="",Hoja1!K$32=""),"",Hoja1!K39-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K41="",Hoja1!K$34=""),"",Hoja1!K41-Hoja1!K$34)</f>
         <v>1.7099999999999991</v>
       </c>
       <c r="K38">
-        <f>IF(OR(Hoja1!L39="",Hoja1!L$32=""),"",Hoja1!L39-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L41="",Hoja1!L$34=""),"",Hoja1!L41-Hoja1!L$34)</f>
         <v>1.1099999999999994</v>
       </c>
       <c r="L38">
-        <f>(100-SUM(Hoja1!E38:L38))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E40:L40))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>1.6500000000000057</v>
       </c>
       <c r="N38" s="5">
@@ -4885,7 +4955,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f>IF(C39=0,"",ROUND((Hoja1!A40+Hoja1!B40)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C39=0,"",ROUND((Hoja1!A42+Hoja1!B42)/2,0)-Hoja1!$B$34)</f>
         <v>-11</v>
       </c>
       <c r="B39" t="str">
@@ -4893,43 +4963,43 @@
         <v>6.1988611699158</v>
       </c>
       <c r="C39">
-        <f>Hoja1!C40</f>
+        <f>Hoja1!C42</f>
         <v>1000</v>
       </c>
       <c r="D39">
-        <f>IF(OR(Hoja1!E40="",Hoja1!E$32=""),"",Hoja1!E40-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E42="",Hoja1!E$34=""),"",Hoja1!E42-Hoja1!E$34)</f>
         <v>-1.8100000000000005</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(OR(Hoja1!F40="",Hoja1!F$32=""),"",Hoja1!F40-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F42="",Hoja1!F$34=""),"",Hoja1!F42-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F39" t="str">
-        <f>IF(OR(Hoja1!G40="",Hoja1!G$32=""),"",Hoja1!G40-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G42="",Hoja1!G$34=""),"",Hoja1!G42-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G39">
-        <f>IF(OR(Hoja1!H40="",Hoja1!H$32=""),"",Hoja1!H40-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H42="",Hoja1!H$34=""),"",Hoja1!H42-Hoja1!H$34)</f>
         <v>2.16</v>
       </c>
       <c r="H39">
-        <f>IF(OR(Hoja1!I40="",Hoja1!I$32=""),"",Hoja1!I40-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I42="",Hoja1!I$34=""),"",Hoja1!I42-Hoja1!I$34)</f>
         <v>-2.620000000000001</v>
       </c>
       <c r="I39">
-        <f>IF(OR(Hoja1!J40="",Hoja1!J$32=""),"",Hoja1!J40-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J42="",Hoja1!J$34=""),"",Hoja1!J42-Hoja1!J$34)</f>
         <v>-3.4999999999999982</v>
       </c>
       <c r="J39">
-        <f>IF(OR(Hoja1!K40="",Hoja1!K$32=""),"",Hoja1!K40-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K42="",Hoja1!K$34=""),"",Hoja1!K42-Hoja1!K$34)</f>
         <v>2.1099999999999994</v>
       </c>
       <c r="K39">
-        <f>IF(OR(Hoja1!L40="",Hoja1!L$32=""),"",Hoja1!L40-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L42="",Hoja1!L$34=""),"",Hoja1!L42-Hoja1!L$34)</f>
         <v>1.1099999999999994</v>
       </c>
       <c r="L39">
-        <f>(100-SUM(Hoja1!E39:L39))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E41:L41))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>2.2499999999999858</v>
       </c>
       <c r="N39" s="5">
@@ -4943,7 +5013,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f>IF(C40=0,"",ROUND((Hoja1!A41+Hoja1!B41)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C40=0,"",ROUND((Hoja1!A43+Hoja1!B43)/2,0)-Hoja1!$B$34)</f>
         <v>-12</v>
       </c>
       <c r="B40" t="str">
@@ -4951,43 +5021,43 @@
         <v>4.80334016569011</v>
       </c>
       <c r="C40">
-        <f>Hoja1!C41</f>
+        <f>Hoja1!C43</f>
         <v>1717</v>
       </c>
       <c r="D40">
-        <f>IF(OR(Hoja1!E41="",Hoja1!E$32=""),"",Hoja1!E41-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E43="",Hoja1!E$34=""),"",Hoja1!E43-Hoja1!E$34)</f>
         <v>0.1899999999999995</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(OR(Hoja1!F41="",Hoja1!F$32=""),"",Hoja1!F41-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F43="",Hoja1!F$34=""),"",Hoja1!F43-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F40" t="str">
-        <f>IF(OR(Hoja1!G41="",Hoja1!G$32=""),"",Hoja1!G41-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G43="",Hoja1!G$34=""),"",Hoja1!G43-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G40">
-        <f>IF(OR(Hoja1!H41="",Hoja1!H$32=""),"",Hoja1!H41-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H43="",Hoja1!H$34=""),"",Hoja1!H43-Hoja1!H$34)</f>
         <v>2.4600000000000009</v>
       </c>
       <c r="H40">
-        <f>IF(OR(Hoja1!I41="",Hoja1!I$32=""),"",Hoja1!I41-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I43="",Hoja1!I$34=""),"",Hoja1!I43-Hoja1!I$34)</f>
         <v>-1.0200000000000014</v>
       </c>
       <c r="I40">
-        <f>IF(OR(Hoja1!J41="",Hoja1!J$32=""),"",Hoja1!J41-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J43="",Hoja1!J$34=""),"",Hoja1!J43-Hoja1!J$34)</f>
         <v>-2.9999999999999982</v>
       </c>
       <c r="J40">
-        <f>IF(OR(Hoja1!K41="",Hoja1!K$32=""),"",Hoja1!K41-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K43="",Hoja1!K$34=""),"",Hoja1!K43-Hoja1!K$34)</f>
         <v>-1.1900000000000004</v>
       </c>
       <c r="K40">
-        <f>IF(OR(Hoja1!L41="",Hoja1!L$32=""),"",Hoja1!L41-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L43="",Hoja1!L$34=""),"",Hoja1!L43-Hoja1!L$34)</f>
         <v>1.6099999999999994</v>
       </c>
       <c r="L40">
-        <f>(100-SUM(Hoja1!E40:L40))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E42:L42))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>2.5499999999999829</v>
       </c>
       <c r="N40" s="5">
@@ -5001,7 +5071,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f>IF(C41=0,"",ROUND((Hoja1!A42+Hoja1!B42)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C41=0,"",ROUND((Hoja1!A44+Hoja1!B44)/2,0)-Hoja1!$B$34)</f>
         <v>-12</v>
       </c>
       <c r="B41" t="str">
@@ -5009,43 +5079,43 @@
         <v>6.01004741990536</v>
       </c>
       <c r="C41">
-        <f>Hoja1!C42</f>
+        <f>Hoja1!C44</f>
         <v>1157</v>
       </c>
       <c r="D41">
-        <f>IF(OR(Hoja1!E42="",Hoja1!E$32=""),"",Hoja1!E42-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E44="",Hoja1!E$34=""),"",Hoja1!E44-Hoja1!E$34)</f>
         <v>-0.71000000000000085</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(OR(Hoja1!F42="",Hoja1!F$32=""),"",Hoja1!F42-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F44="",Hoja1!F$34=""),"",Hoja1!F44-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F41" t="str">
-        <f>IF(OR(Hoja1!G42="",Hoja1!G$32=""),"",Hoja1!G42-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G44="",Hoja1!G$34=""),"",Hoja1!G44-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G41">
-        <f>IF(OR(Hoja1!H42="",Hoja1!H$32=""),"",Hoja1!H42-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H44="",Hoja1!H$34=""),"",Hoja1!H44-Hoja1!H$34)</f>
         <v>1.4600000000000009</v>
       </c>
       <c r="H41">
-        <f>IF(OR(Hoja1!I42="",Hoja1!I$32=""),"",Hoja1!I42-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I44="",Hoja1!I$34=""),"",Hoja1!I44-Hoja1!I$34)</f>
         <v>-5.2200000000000006</v>
       </c>
       <c r="I41">
-        <f>IF(OR(Hoja1!J42="",Hoja1!J$32=""),"",Hoja1!J42-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J44="",Hoja1!J$34=""),"",Hoja1!J44-Hoja1!J$34)</f>
         <v>0.40000000000000213</v>
       </c>
       <c r="J41">
-        <f>IF(OR(Hoja1!K42="",Hoja1!K$32=""),"",Hoja1!K42-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K44="",Hoja1!K$34=""),"",Hoja1!K44-Hoja1!K$34)</f>
         <v>3.41</v>
       </c>
       <c r="K41">
-        <f>IF(OR(Hoja1!L42="",Hoja1!L$32=""),"",Hoja1!L42-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L44="",Hoja1!L$34=""),"",Hoja1!L44-Hoja1!L$34)</f>
         <v>2.8099999999999952</v>
       </c>
       <c r="L41">
-        <f>(100-SUM(Hoja1!E41:L41))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E43:L43))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.94999999999998863</v>
       </c>
       <c r="N41" s="5">
@@ -5059,7 +5129,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f>IF(C42=0,"",ROUND((Hoja1!A43+Hoja1!B43)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C42=0,"",ROUND((Hoja1!A45+Hoja1!B45)/2,0)-Hoja1!$B$34)</f>
         <v>-12</v>
       </c>
       <c r="B42" t="str">
@@ -5067,43 +5137,43 @@
         <v>3.56886116991581</v>
       </c>
       <c r="C42">
-        <f>Hoja1!C43</f>
+        <f>Hoja1!C45</f>
         <v>1000</v>
       </c>
       <c r="D42">
-        <f>IF(OR(Hoja1!E43="",Hoja1!E$32=""),"",Hoja1!E43-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E45="",Hoja1!E$34=""),"",Hoja1!E45-Hoja1!E$34)</f>
         <v>-1.8100000000000005</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(OR(Hoja1!F43="",Hoja1!F$32=""),"",Hoja1!F43-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F45="",Hoja1!F$34=""),"",Hoja1!F45-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f>IF(OR(Hoja1!G43="",Hoja1!G$32=""),"",Hoja1!G43-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G45="",Hoja1!G$34=""),"",Hoja1!G45-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G42">
-        <f>IF(OR(Hoja1!H43="",Hoja1!H$32=""),"",Hoja1!H43-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H45="",Hoja1!H$34=""),"",Hoja1!H45-Hoja1!H$34)</f>
         <v>2.16</v>
       </c>
       <c r="H42">
-        <f>IF(OR(Hoja1!I43="",Hoja1!I$32=""),"",Hoja1!I43-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I45="",Hoja1!I$34=""),"",Hoja1!I45-Hoja1!I$34)</f>
         <v>0.47999999999999865</v>
       </c>
       <c r="I42">
-        <f>IF(OR(Hoja1!J43="",Hoja1!J$32=""),"",Hoja1!J43-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J45="",Hoja1!J$34=""),"",Hoja1!J45-Hoja1!J$34)</f>
         <v>-2.8999999999999986</v>
       </c>
       <c r="J42">
-        <f>IF(OR(Hoja1!K43="",Hoja1!K$32=""),"",Hoja1!K43-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K45="",Hoja1!K$34=""),"",Hoja1!K45-Hoja1!K$34)</f>
         <v>0.41000000000000014</v>
       </c>
       <c r="K42">
-        <f>IF(OR(Hoja1!L43="",Hoja1!L$32=""),"",Hoja1!L43-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L45="",Hoja1!L$34=""),"",Hoja1!L45-Hoja1!L$34)</f>
         <v>-0.39000000000000057</v>
       </c>
       <c r="L42">
-        <f>(100-SUM(Hoja1!E42:L42))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E44:L44))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-2.1500000000000057</v>
       </c>
       <c r="N42" s="5">
@@ -5117,7 +5187,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f>IF(C43=0,"",ROUND((Hoja1!A44+Hoja1!B44)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C43=0,"",ROUND((Hoja1!A46+Hoja1!B46)/2,0)-Hoja1!$B$34)</f>
         <v>-16</v>
       </c>
       <c r="B43" t="str">
@@ -5125,43 +5195,43 @@
         <v>5.8086064076559</v>
       </c>
       <c r="C43">
-        <f>Hoja1!C44</f>
+        <f>Hoja1!C46</f>
         <v>1255</v>
       </c>
       <c r="D43">
-        <f>IF(OR(Hoja1!E44="",Hoja1!E$32=""),"",Hoja1!E44-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E46="",Hoja1!E$34=""),"",Hoja1!E46-Hoja1!E$34)</f>
         <v>-3.0100000000000007</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(OR(Hoja1!F44="",Hoja1!F$32=""),"",Hoja1!F44-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F46="",Hoja1!F$34=""),"",Hoja1!F46-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F43" t="str">
-        <f>IF(OR(Hoja1!G44="",Hoja1!G$32=""),"",Hoja1!G44-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G46="",Hoja1!G$34=""),"",Hoja1!G46-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G43">
-        <f>IF(OR(Hoja1!H44="",Hoja1!H$32=""),"",Hoja1!H44-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H46="",Hoja1!H$34=""),"",Hoja1!H46-Hoja1!H$34)</f>
         <v>3.76</v>
       </c>
       <c r="H43">
-        <f>IF(OR(Hoja1!I44="",Hoja1!I$32=""),"",Hoja1!I44-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I46="",Hoja1!I$34=""),"",Hoja1!I46-Hoja1!I$34)</f>
         <v>-1.3200000000000003</v>
       </c>
       <c r="I43">
-        <f>IF(OR(Hoja1!J44="",Hoja1!J$32=""),"",Hoja1!J44-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J46="",Hoja1!J$34=""),"",Hoja1!J46-Hoja1!J$34)</f>
         <v>-1.3999999999999986</v>
       </c>
       <c r="J43">
-        <f>IF(OR(Hoja1!K44="",Hoja1!K$32=""),"",Hoja1!K44-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K46="",Hoja1!K$34=""),"",Hoja1!K46-Hoja1!K$34)</f>
         <v>0.91000000000000014</v>
       </c>
       <c r="K43">
-        <f>IF(OR(Hoja1!L44="",Hoja1!L$32=""),"",Hoja1!L44-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L46="",Hoja1!L$34=""),"",Hoja1!L46-Hoja1!L$34)</f>
         <v>-1.990000000000002</v>
       </c>
       <c r="L43">
-        <f>(100-SUM(Hoja1!E43:L43))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E45:L45))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>2.0499999999999829</v>
       </c>
       <c r="N43" s="5">
@@ -5175,7 +5245,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f>IF(C44=0,"",ROUND((Hoja1!A45+Hoja1!B45)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C44=0,"",ROUND((Hoja1!A47+Hoja1!B47)/2,0)-Hoja1!$B$34)</f>
         <v>-22</v>
       </c>
       <c r="B44" t="str">
@@ -5183,43 +5253,43 @@
         <v>6.37662432702594</v>
       </c>
       <c r="C44">
-        <f>Hoja1!C45</f>
+        <f>Hoja1!C47</f>
         <v>1200</v>
       </c>
       <c r="D44">
-        <f>IF(OR(Hoja1!E45="",Hoja1!E$32=""),"",Hoja1!E45-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E47="",Hoja1!E$34=""),"",Hoja1!E47-Hoja1!E$34)</f>
         <v>-1.0100000000000007</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(OR(Hoja1!F45="",Hoja1!F$32=""),"",Hoja1!F45-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F47="",Hoja1!F$34=""),"",Hoja1!F47-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F44" t="str">
-        <f>IF(OR(Hoja1!G45="",Hoja1!G$32=""),"",Hoja1!G45-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G47="",Hoja1!G$34=""),"",Hoja1!G47-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G44">
-        <f>IF(OR(Hoja1!H45="",Hoja1!H$32=""),"",Hoja1!H45-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H47="",Hoja1!H$34=""),"",Hoja1!H47-Hoja1!H$34)</f>
         <v>2.4600000000000009</v>
       </c>
       <c r="H44">
-        <f>IF(OR(Hoja1!I45="",Hoja1!I$32=""),"",Hoja1!I45-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I47="",Hoja1!I$34=""),"",Hoja1!I47-Hoja1!I$34)</f>
         <v>-1.620000000000001</v>
       </c>
       <c r="I44">
-        <f>IF(OR(Hoja1!J45="",Hoja1!J$32=""),"",Hoja1!J45-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J47="",Hoja1!J$34=""),"",Hoja1!J47-Hoja1!J$34)</f>
         <v>-4.4999999999999982</v>
       </c>
       <c r="J44">
-        <f>IF(OR(Hoja1!K45="",Hoja1!K$32=""),"",Hoja1!K45-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K47="",Hoja1!K$34=""),"",Hoja1!K47-Hoja1!K$34)</f>
         <v>1.7099999999999991</v>
       </c>
       <c r="K44">
-        <f>IF(OR(Hoja1!L45="",Hoja1!L$32=""),"",Hoja1!L45-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L47="",Hoja1!L$34=""),"",Hoja1!L47-Hoja1!L$34)</f>
         <v>-1.2900000000000063</v>
       </c>
       <c r="L44">
-        <f>(100-SUM(Hoja1!E44:L44))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E46:L46))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>3.0499999999999972</v>
       </c>
       <c r="N44" s="5">
@@ -5233,7 +5303,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f>IF(C45=0,"",ROUND((Hoja1!A46+Hoja1!B46)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C45=0,"",ROUND((Hoja1!A48+Hoja1!B48)/2,0)-Hoja1!$B$34)</f>
         <v>-21</v>
       </c>
       <c r="B45" t="str">
@@ -5241,43 +5311,43 @@
         <v>7.30425814164944</v>
       </c>
       <c r="C45">
-        <f>Hoja1!C46</f>
+        <f>Hoja1!C48</f>
         <v>750</v>
       </c>
       <c r="D45">
-        <f>IF(OR(Hoja1!E46="",Hoja1!E$32=""),"",Hoja1!E46-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E48="",Hoja1!E$34=""),"",Hoja1!E48-Hoja1!E$34)</f>
         <v>-0.8100000000000005</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(OR(Hoja1!F46="",Hoja1!F$32=""),"",Hoja1!F46-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F48="",Hoja1!F$34=""),"",Hoja1!F48-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F45" t="str">
-        <f>IF(OR(Hoja1!G46="",Hoja1!G$32=""),"",Hoja1!G46-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G48="",Hoja1!G$34=""),"",Hoja1!G48-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G45">
-        <f>IF(OR(Hoja1!H46="",Hoja1!H$32=""),"",Hoja1!H46-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H48="",Hoja1!H$34=""),"",Hoja1!H48-Hoja1!H$34)</f>
         <v>1.2599999999999998</v>
       </c>
       <c r="H45">
-        <f>IF(OR(Hoja1!I46="",Hoja1!I$32=""),"",Hoja1!I46-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I48="",Hoja1!I$34=""),"",Hoja1!I48-Hoja1!I$34)</f>
         <v>-0.12000000000000099</v>
       </c>
       <c r="I45">
-        <f>IF(OR(Hoja1!J46="",Hoja1!J$32=""),"",Hoja1!J46-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J48="",Hoja1!J$34=""),"",Hoja1!J48-Hoja1!J$34)</f>
         <v>-6.2999999999999989</v>
       </c>
       <c r="J45">
-        <f>IF(OR(Hoja1!K46="",Hoja1!K$32=""),"",Hoja1!K46-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K48="",Hoja1!K$34=""),"",Hoja1!K48-Hoja1!K$34)</f>
         <v>3.01</v>
       </c>
       <c r="K45">
-        <f>IF(OR(Hoja1!L46="",Hoja1!L$32=""),"",Hoja1!L46-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L48="",Hoja1!L$34=""),"",Hoja1!L48-Hoja1!L$34)</f>
         <v>2.509999999999998</v>
       </c>
       <c r="L45">
-        <f>(100-SUM(Hoja1!E45:L45))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E47:L47))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>4.25</v>
       </c>
       <c r="N45" s="5">
@@ -5291,7 +5361,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f>IF(C46=0,"",ROUND((Hoja1!A47+Hoja1!B47)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C46=0,"",ROUND((Hoja1!A49+Hoja1!B49)/2,0)-Hoja1!$B$34)</f>
         <v>-25</v>
       </c>
       <c r="B46" t="str">
@@ -5299,43 +5369,43 @@
         <v>5.956976887623</v>
       </c>
       <c r="C46">
-        <f>Hoja1!C47</f>
+        <f>Hoja1!C49</f>
         <v>2999</v>
       </c>
       <c r="D46">
-        <f>IF(OR(Hoja1!E47="",Hoja1!E$32=""),"",Hoja1!E47-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E49="",Hoja1!E$34=""),"",Hoja1!E49-Hoja1!E$34)</f>
         <v>-2.3100000000000005</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(OR(Hoja1!F47="",Hoja1!F$32=""),"",Hoja1!F47-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F49="",Hoja1!F$34=""),"",Hoja1!F49-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F46" t="str">
-        <f>IF(OR(Hoja1!G47="",Hoja1!G$32=""),"",Hoja1!G47-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G49="",Hoja1!G$34=""),"",Hoja1!G49-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G46">
-        <f>IF(OR(Hoja1!H47="",Hoja1!H$32=""),"",Hoja1!H47-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H49="",Hoja1!H$34=""),"",Hoja1!H49-Hoja1!H$34)</f>
         <v>4.9600000000000009</v>
       </c>
       <c r="H46">
-        <f>IF(OR(Hoja1!I47="",Hoja1!I$32=""),"",Hoja1!I47-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I49="",Hoja1!I$34=""),"",Hoja1!I49-Hoja1!I$34)</f>
         <v>-0.52000000000000135</v>
       </c>
       <c r="I46">
-        <f>IF(OR(Hoja1!J47="",Hoja1!J$32=""),"",Hoja1!J47-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J49="",Hoja1!J$34=""),"",Hoja1!J49-Hoja1!J$34)</f>
         <v>-3.0999999999999979</v>
       </c>
       <c r="J46">
-        <f>IF(OR(Hoja1!K47="",Hoja1!K$32=""),"",Hoja1!K47-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K49="",Hoja1!K$34=""),"",Hoja1!K49-Hoja1!K$34)</f>
         <v>0.91000000000000014</v>
       </c>
       <c r="K46">
-        <f>IF(OR(Hoja1!L47="",Hoja1!L$32=""),"",Hoja1!L47-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L49="",Hoja1!L$34=""),"",Hoja1!L49-Hoja1!L$34)</f>
         <v>-1.490000000000002</v>
       </c>
       <c r="L46">
-        <f>(100-SUM(Hoja1!E46:L46))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E48:L48))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.44999999999998863</v>
       </c>
       <c r="N46" s="5">
@@ -5349,7 +5419,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f>IF(C47=0,"",ROUND((Hoja1!A48+Hoja1!B48)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C47=0,"",ROUND((Hoja1!A50+Hoja1!B50)/2,0)-Hoja1!$B$34)</f>
         <v>-25</v>
       </c>
       <c r="B47" t="str">
@@ -5357,43 +5427,43 @@
         <v>6.08369379043788</v>
       </c>
       <c r="C47">
-        <f>Hoja1!C48</f>
+        <f>Hoja1!C50</f>
         <v>1400</v>
       </c>
       <c r="D47">
-        <f>IF(OR(Hoja1!E48="",Hoja1!E$32=""),"",Hoja1!E48-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E50="",Hoja1!E$34=""),"",Hoja1!E50-Hoja1!E$34)</f>
         <v>-1.5100000000000007</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(OR(Hoja1!F48="",Hoja1!F$32=""),"",Hoja1!F48-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F50="",Hoja1!F$34=""),"",Hoja1!F50-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F47" t="str">
-        <f>IF(OR(Hoja1!G48="",Hoja1!G$32=""),"",Hoja1!G48-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G50="",Hoja1!G$34=""),"",Hoja1!G50-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G47">
-        <f>IF(OR(Hoja1!H48="",Hoja1!H$32=""),"",Hoja1!H48-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H50="",Hoja1!H$34=""),"",Hoja1!H50-Hoja1!H$34)</f>
         <v>3.4600000000000009</v>
       </c>
       <c r="H47">
-        <f>IF(OR(Hoja1!I48="",Hoja1!I$32=""),"",Hoja1!I48-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I50="",Hoja1!I$34=""),"",Hoja1!I50-Hoja1!I$34)</f>
         <v>-1.620000000000001</v>
       </c>
       <c r="I47">
-        <f>IF(OR(Hoja1!J48="",Hoja1!J$32=""),"",Hoja1!J48-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J50="",Hoja1!J$34=""),"",Hoja1!J50-Hoja1!J$34)</f>
         <v>-5.1999999999999993</v>
       </c>
       <c r="J47">
-        <f>IF(OR(Hoja1!K48="",Hoja1!K$32=""),"",Hoja1!K48-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K50="",Hoja1!K$34=""),"",Hoja1!K50-Hoja1!K$34)</f>
         <v>1.3100000000000005</v>
       </c>
       <c r="K47">
-        <f>IF(OR(Hoja1!L48="",Hoja1!L$32=""),"",Hoja1!L48-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L50="",Hoja1!L$34=""),"",Hoja1!L50-Hoja1!L$34)</f>
         <v>-0.19000000000000483</v>
       </c>
       <c r="L47">
-        <f>(100-SUM(Hoja1!E47:L47))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E49:L49))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>1.5499999999999972</v>
       </c>
       <c r="N47" s="5">
@@ -5407,7 +5477,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f>IF(C48=0,"",ROUND((Hoja1!A49+Hoja1!B49)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C48=0,"",ROUND((Hoja1!A51+Hoja1!B51)/2,0)-Hoja1!$B$34)</f>
         <v>-26</v>
       </c>
       <c r="B48" t="str">
@@ -5415,43 +5485,43 @@
         <v>5.84223304703363</v>
       </c>
       <c r="C48">
-        <f>Hoja1!C49</f>
+        <f>Hoja1!C51</f>
         <v>800</v>
       </c>
       <c r="D48">
-        <f>IF(OR(Hoja1!E49="",Hoja1!E$32=""),"",Hoja1!E49-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E51="",Hoja1!E$34=""),"",Hoja1!E51-Hoja1!E$34)</f>
         <v>-2.2100000000000009</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(OR(Hoja1!F49="",Hoja1!F$32=""),"",Hoja1!F49-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F51="",Hoja1!F$34=""),"",Hoja1!F51-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F48" t="str">
-        <f>IF(OR(Hoja1!G49="",Hoja1!G$32=""),"",Hoja1!G49-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G51="",Hoja1!G$34=""),"",Hoja1!G51-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G48">
-        <f>IF(OR(Hoja1!H49="",Hoja1!H$32=""),"",Hoja1!H49-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H51="",Hoja1!H$34=""),"",Hoja1!H51-Hoja1!H$34)</f>
         <v>3.4600000000000009</v>
       </c>
       <c r="H48">
-        <f>IF(OR(Hoja1!I49="",Hoja1!I$32=""),"",Hoja1!I49-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I51="",Hoja1!I$34=""),"",Hoja1!I51-Hoja1!I$34)</f>
         <v>-2.42</v>
       </c>
       <c r="I48">
-        <f>IF(OR(Hoja1!J49="",Hoja1!J$32=""),"",Hoja1!J49-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J51="",Hoja1!J$34=""),"",Hoja1!J51-Hoja1!J$34)</f>
         <v>2</v>
       </c>
       <c r="J48">
-        <f>IF(OR(Hoja1!K49="",Hoja1!K$32=""),"",Hoja1!K49-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K51="",Hoja1!K$34=""),"",Hoja1!K51-Hoja1!K$34)</f>
         <v>-0.58999999999999986</v>
       </c>
       <c r="K48">
-        <f>IF(OR(Hoja1!L49="",Hoja1!L$32=""),"",Hoja1!L49-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L51="",Hoja1!L$34=""),"",Hoja1!L51-Hoja1!L$34)</f>
         <v>-0.79000000000000625</v>
       </c>
       <c r="L48">
-        <f>(100-SUM(Hoja1!E48:L48))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E50:L50))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>3.75</v>
       </c>
       <c r="N48" s="5">
@@ -5465,7 +5535,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f>IF(C49=0,"",ROUND((Hoja1!A50+Hoja1!B50)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C49=0,"",ROUND((Hoja1!A52+Hoja1!B52)/2,0)-Hoja1!$B$34)</f>
         <v>-25</v>
       </c>
       <c r="B49" t="str">
@@ -5473,43 +5543,43 @@
         <v>8.34909048241965</v>
       </c>
       <c r="C49">
-        <f>Hoja1!C50</f>
+        <f>Hoja1!C52</f>
         <v>1221</v>
       </c>
       <c r="D49">
-        <f>IF(OR(Hoja1!E50="",Hoja1!E$32=""),"",Hoja1!E50-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E52="",Hoja1!E$34=""),"",Hoja1!E52-Hoja1!E$34)</f>
         <v>-0.71000000000000085</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(OR(Hoja1!F50="",Hoja1!F$32=""),"",Hoja1!F50-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F52="",Hoja1!F$34=""),"",Hoja1!F52-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F49" t="str">
-        <f>IF(OR(Hoja1!G50="",Hoja1!G$32=""),"",Hoja1!G50-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G52="",Hoja1!G$34=""),"",Hoja1!G52-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G49">
-        <f>IF(OR(Hoja1!H50="",Hoja1!H$32=""),"",Hoja1!H50-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H52="",Hoja1!H$34=""),"",Hoja1!H52-Hoja1!H$34)</f>
         <v>2.5600000000000005</v>
       </c>
       <c r="H49">
-        <f>IF(OR(Hoja1!I50="",Hoja1!I$32=""),"",Hoja1!I50-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I52="",Hoja1!I$34=""),"",Hoja1!I52-Hoja1!I$34)</f>
         <v>-3.2200000000000006</v>
       </c>
       <c r="I49">
-        <f>IF(OR(Hoja1!J50="",Hoja1!J$32=""),"",Hoja1!J50-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J52="",Hoja1!J$34=""),"",Hoja1!J52-Hoja1!J$34)</f>
         <v>-5.2999999999999989</v>
       </c>
       <c r="J49">
-        <f>IF(OR(Hoja1!K50="",Hoja1!K$32=""),"",Hoja1!K50-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K52="",Hoja1!K$34=""),"",Hoja1!K52-Hoja1!K$34)</f>
         <v>3.3100000000000005</v>
       </c>
       <c r="K49">
-        <f>IF(OR(Hoja1!L50="",Hoja1!L$32=""),"",Hoja1!L50-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L52="",Hoja1!L$34=""),"",Hoja1!L52-Hoja1!L$34)</f>
         <v>3.9099999999999966</v>
       </c>
       <c r="L49">
-        <f>(100-SUM(Hoja1!E49:L49))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E51:L51))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>0.55000000000001137</v>
       </c>
       <c r="N49" s="5">
@@ -5523,7 +5593,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f>IF(C50=0,"",ROUND((Hoja1!A51+Hoja1!B51)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C50=0,"",ROUND((Hoja1!A53+Hoja1!B53)/2,0)-Hoja1!$B$34)</f>
         <v>-38</v>
       </c>
       <c r="B50" t="str">
@@ -5531,43 +5601,43 @@
         <v>4.65203799577358</v>
       </c>
       <c r="C50">
-        <f>Hoja1!C51</f>
+        <f>Hoja1!C53</f>
         <v>955</v>
       </c>
       <c r="D50">
-        <f>IF(OR(Hoja1!E51="",Hoja1!E$32=""),"",Hoja1!E51-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E53="",Hoja1!E$34=""),"",Hoja1!E53-Hoja1!E$34)</f>
         <v>-3.5100000000000007</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(OR(Hoja1!F51="",Hoja1!F$32=""),"",Hoja1!F51-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F53="",Hoja1!F$34=""),"",Hoja1!F53-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F50" t="str">
-        <f>IF(OR(Hoja1!G51="",Hoja1!G$32=""),"",Hoja1!G51-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G53="",Hoja1!G$34=""),"",Hoja1!G53-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G50">
-        <f>IF(OR(Hoja1!H51="",Hoja1!H$32=""),"",Hoja1!H51-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H53="",Hoja1!H$34=""),"",Hoja1!H53-Hoja1!H$34)</f>
         <v>3.3600000000000012</v>
       </c>
       <c r="H50">
-        <f>IF(OR(Hoja1!I51="",Hoja1!I$32=""),"",Hoja1!I51-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I53="",Hoja1!I$34=""),"",Hoja1!I53-Hoja1!I$34)</f>
         <v>-1.0200000000000014</v>
       </c>
       <c r="I50">
-        <f>IF(OR(Hoja1!J51="",Hoja1!J$32=""),"",Hoja1!J51-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J53="",Hoja1!J$34=""),"",Hoja1!J53-Hoja1!J$34)</f>
         <v>0</v>
       </c>
       <c r="J50">
-        <f>IF(OR(Hoja1!K51="",Hoja1!K$32=""),"",Hoja1!K51-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K53="",Hoja1!K$34=""),"",Hoja1!K53-Hoja1!K$34)</f>
         <v>0.8100000000000005</v>
       </c>
       <c r="K50">
-        <f>IF(OR(Hoja1!L51="",Hoja1!L$32=""),"",Hoja1!L51-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L53="",Hoja1!L$34=""),"",Hoja1!L53-Hoja1!L$34)</f>
         <v>-3.2900000000000063</v>
       </c>
       <c r="L50">
-        <f>(100-SUM(Hoja1!E50:L50))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E52:L52))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>-0.55000000000001137</v>
       </c>
       <c r="N50" s="5">
@@ -5581,7 +5651,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f>IF(C51=0,"",ROUND((Hoja1!A52+Hoja1!B52)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C51=0,"",ROUND((Hoja1!A54+Hoja1!B54)/2,0)-Hoja1!$B$34)</f>
         <v>-69</v>
       </c>
       <c r="B51" t="str">
@@ -5589,43 +5659,43 @@
         <v>7.34860640765592</v>
       </c>
       <c r="C51">
-        <f>Hoja1!C52</f>
+        <f>Hoja1!C54</f>
         <v>1255</v>
       </c>
       <c r="D51">
-        <f>IF(OR(Hoja1!E52="",Hoja1!E$32=""),"",Hoja1!E52-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E54="",Hoja1!E$34=""),"",Hoja1!E54-Hoja1!E$34)</f>
         <v>-4.0100000000000007</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(OR(Hoja1!F52="",Hoja1!F$32=""),"",Hoja1!F52-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F54="",Hoja1!F$34=""),"",Hoja1!F54-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F51" t="str">
-        <f>IF(OR(Hoja1!G52="",Hoja1!G$32=""),"",Hoja1!G52-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G54="",Hoja1!G$34=""),"",Hoja1!G54-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G51">
-        <f>IF(OR(Hoja1!H52="",Hoja1!H$32=""),"",Hoja1!H52-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H54="",Hoja1!H$34=""),"",Hoja1!H54-Hoja1!H$34)</f>
         <v>3.8600000000000012</v>
       </c>
       <c r="H51">
-        <f>IF(OR(Hoja1!I52="",Hoja1!I$32=""),"",Hoja1!I52-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I54="",Hoja1!I$34=""),"",Hoja1!I54-Hoja1!I$34)</f>
         <v>-0.72000000000000064</v>
       </c>
       <c r="I51">
-        <f>IF(OR(Hoja1!J52="",Hoja1!J$32=""),"",Hoja1!J52-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J54="",Hoja1!J$34=""),"",Hoja1!J54-Hoja1!J$34)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="J51">
-        <f>IF(OR(Hoja1!K52="",Hoja1!K$32=""),"",Hoja1!K52-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K54="",Hoja1!K$34=""),"",Hoja1!K54-Hoja1!K$34)</f>
         <v>-0.29000000000000092</v>
       </c>
       <c r="K51">
-        <f>IF(OR(Hoja1!L52="",Hoja1!L$32=""),"",Hoja1!L52-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L54="",Hoja1!L$34=""),"",Hoja1!L54-Hoja1!L$34)</f>
         <v>-3.7900000000000063</v>
       </c>
       <c r="L51">
-        <f>(100-SUM(Hoja1!E51:L51))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E53:L53))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>3.6500000000000057</v>
       </c>
       <c r="N51" s="5">
@@ -5639,7 +5709,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f>IF(C52=0,"",ROUND((Hoja1!A53+Hoja1!B53)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C52=0,"",ROUND((Hoja1!A55+Hoja1!B55)/2,0)-Hoja1!$B$34)</f>
         <v>-81</v>
       </c>
       <c r="B52" t="e">
@@ -5647,43 +5717,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C52">
-        <f>Hoja1!C53</f>
+        <f>Hoja1!C55</f>
         <v>1000</v>
       </c>
       <c r="D52">
-        <f>IF(OR(Hoja1!E53="",Hoja1!E$32=""),"",Hoja1!E53-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E55="",Hoja1!E$34=""),"",Hoja1!E55-Hoja1!E$34)</f>
         <v>-1.2100000000000009</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(OR(Hoja1!F53="",Hoja1!F$32=""),"",Hoja1!F53-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F55="",Hoja1!F$34=""),"",Hoja1!F55-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F52" t="str">
-        <f>IF(OR(Hoja1!G53="",Hoja1!G$32=""),"",Hoja1!G53-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G55="",Hoja1!G$34=""),"",Hoja1!G55-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G52">
-        <f>IF(OR(Hoja1!H53="",Hoja1!H$32=""),"",Hoja1!H53-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H55="",Hoja1!H$34=""),"",Hoja1!H55-Hoja1!H$34)</f>
         <v>7.5600000000000005</v>
       </c>
       <c r="H52">
-        <f>IF(OR(Hoja1!I53="",Hoja1!I$32=""),"",Hoja1!I53-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I55="",Hoja1!I$34=""),"",Hoja1!I55-Hoja1!I$34)</f>
         <v>-3.120000000000001</v>
       </c>
       <c r="I52">
-        <f>IF(OR(Hoja1!J53="",Hoja1!J$32=""),"",Hoja1!J53-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J55="",Hoja1!J$34=""),"",Hoja1!J55-Hoja1!J$34)</f>
         <v>-1.8999999999999986</v>
       </c>
       <c r="J52">
-        <f>IF(OR(Hoja1!K53="",Hoja1!K$32=""),"",Hoja1!K53-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K55="",Hoja1!K$34=""),"",Hoja1!K55-Hoja1!K$34)</f>
         <v>-1.1900000000000004</v>
       </c>
       <c r="K52" t="str">
-        <f>IF(OR(Hoja1!L53="",Hoja1!L$32=""),"",Hoja1!L53-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L55="",Hoja1!L$34=""),"",Hoja1!L55-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L52">
-        <f>(100-SUM(Hoja1!E52:L52))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E54:L54))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>3.75</v>
       </c>
       <c r="N52" s="5" t="e">
@@ -5697,7 +5767,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f>IF(C53=0,"",ROUND((Hoja1!A54+Hoja1!B54)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C53=0,"",ROUND((Hoja1!A56+Hoja1!B56)/2,0)-Hoja1!$B$34)</f>
         <v>-87</v>
       </c>
       <c r="B53" t="str">
@@ -5705,43 +5775,43 @@
         <v>11.9739242605761</v>
       </c>
       <c r="C53">
-        <f>Hoja1!C54</f>
+        <f>Hoja1!C56</f>
         <v>820</v>
       </c>
       <c r="D53">
-        <f>IF(OR(Hoja1!E54="",Hoja1!E$32=""),"",Hoja1!E54-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E56="",Hoja1!E$34=""),"",Hoja1!E56-Hoja1!E$34)</f>
         <v>-0.21000000000000085</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(OR(Hoja1!F54="",Hoja1!F$32=""),"",Hoja1!F54-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F56="",Hoja1!F$34=""),"",Hoja1!F56-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F53" t="str">
-        <f>IF(OR(Hoja1!G54="",Hoja1!G$32=""),"",Hoja1!G54-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G56="",Hoja1!G$34=""),"",Hoja1!G56-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G53">
-        <f>IF(OR(Hoja1!H54="",Hoja1!H$32=""),"",Hoja1!H54-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H56="",Hoja1!H$34=""),"",Hoja1!H56-Hoja1!H$34)</f>
         <v>11.06</v>
       </c>
       <c r="H53">
-        <f>IF(OR(Hoja1!I54="",Hoja1!I$32=""),"",Hoja1!I54-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I56="",Hoja1!I$34=""),"",Hoja1!I56-Hoja1!I$34)</f>
         <v>-3.7200000000000006</v>
       </c>
       <c r="I53">
-        <f>IF(OR(Hoja1!J54="",Hoja1!J$32=""),"",Hoja1!J54-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J56="",Hoja1!J$34=""),"",Hoja1!J56-Hoja1!J$34)</f>
         <v>-1.8999999999999986</v>
       </c>
       <c r="J53">
-        <f>IF(OR(Hoja1!K54="",Hoja1!K$32=""),"",Hoja1!K54-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K56="",Hoja1!K$34=""),"",Hoja1!K56-Hoja1!K$34)</f>
         <v>0.50999999999999979</v>
       </c>
       <c r="K53">
-        <f>IF(OR(Hoja1!L54="",Hoja1!L$32=""),"",Hoja1!L54-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L56="",Hoja1!L$34=""),"",Hoja1!L56-Hoja1!L$34)</f>
         <v>-7.5900000000000034</v>
       </c>
       <c r="L53">
-        <f>(100-SUM(Hoja1!E53:L53))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E55:L55))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>2.4500000000000028</v>
       </c>
       <c r="N53" s="5">
@@ -5755,7 +5825,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f>IF(C54=0,"",ROUND((Hoja1!A55+Hoja1!B55)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C54=0,"",ROUND((Hoja1!A57+Hoja1!B57)/2,0)-Hoja1!$B$34)</f>
         <v>-70</v>
       </c>
       <c r="B54" t="e">
@@ -5763,43 +5833,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C54">
-        <f>Hoja1!C55</f>
+        <f>Hoja1!C57</f>
         <v>800</v>
       </c>
       <c r="D54">
-        <f>IF(OR(Hoja1!E55="",Hoja1!E$32=""),"",Hoja1!E55-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E57="",Hoja1!E$34=""),"",Hoja1!E57-Hoja1!E$34)</f>
         <v>1.1899999999999995</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(OR(Hoja1!F55="",Hoja1!F$32=""),"",Hoja1!F55-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F57="",Hoja1!F$34=""),"",Hoja1!F57-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F54" t="str">
-        <f>IF(OR(Hoja1!G55="",Hoja1!G$32=""),"",Hoja1!G55-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G57="",Hoja1!G$34=""),"",Hoja1!G57-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G54">
-        <f>IF(OR(Hoja1!H55="",Hoja1!H$32=""),"",Hoja1!H55-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H57="",Hoja1!H$34=""),"",Hoja1!H57-Hoja1!H$34)</f>
         <v>9.06</v>
       </c>
       <c r="H54">
-        <f>IF(OR(Hoja1!I55="",Hoja1!I$32=""),"",Hoja1!I55-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I57="",Hoja1!I$34=""),"",Hoja1!I57-Hoja1!I$34)</f>
         <v>-4.9200000000000008</v>
       </c>
       <c r="I54">
-        <f>IF(OR(Hoja1!J55="",Hoja1!J$32=""),"",Hoja1!J55-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J57="",Hoja1!J$34=""),"",Hoja1!J57-Hoja1!J$34)</f>
         <v>-2.7999999999999989</v>
       </c>
       <c r="J54">
-        <f>IF(OR(Hoja1!K55="",Hoja1!K$32=""),"",Hoja1!K55-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K57="",Hoja1!K$34=""),"",Hoja1!K57-Hoja1!K$34)</f>
         <v>-2.59</v>
       </c>
       <c r="K54" t="str">
-        <f>IF(OR(Hoja1!L55="",Hoja1!L$32=""),"",Hoja1!L55-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L57="",Hoja1!L$34=""),"",Hoja1!L57-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L54">
-        <f>(100-SUM(Hoja1!E54:L54))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E56:L56))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>1.8499999999999943</v>
       </c>
       <c r="N54" s="5" t="e">
@@ -5813,7 +5883,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f>IF(C55=0,"",ROUND((Hoja1!A56+Hoja1!B56)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C55=0,"",ROUND((Hoja1!A58+Hoja1!B58)/2,0)-Hoja1!$B$34)</f>
         <v>-152</v>
       </c>
       <c r="B55" t="e">
@@ -5821,43 +5891,43 @@
         <v>#VALUE!</v>
       </c>
       <c r="C55">
-        <f>Hoja1!C56</f>
+        <f>Hoja1!C58</f>
         <v>1000</v>
       </c>
       <c r="D55">
-        <f>IF(OR(Hoja1!E56="",Hoja1!E$32=""),"",Hoja1!E56-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E58="",Hoja1!E$34=""),"",Hoja1!E58-Hoja1!E$34)</f>
         <v>-0.3100000000000005</v>
       </c>
       <c r="E55" t="str">
-        <f>IF(OR(Hoja1!F56="",Hoja1!F$32=""),"",Hoja1!F56-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F58="",Hoja1!F$34=""),"",Hoja1!F58-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F55" t="str">
-        <f>IF(OR(Hoja1!G56="",Hoja1!G$32=""),"",Hoja1!G56-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G58="",Hoja1!G$34=""),"",Hoja1!G58-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G55">
-        <f>IF(OR(Hoja1!H56="",Hoja1!H$32=""),"",Hoja1!H56-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H58="",Hoja1!H$34=""),"",Hoja1!H58-Hoja1!H$34)</f>
         <v>3.9600000000000009</v>
       </c>
       <c r="H55">
-        <f>IF(OR(Hoja1!I56="",Hoja1!I$32=""),"",Hoja1!I56-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I58="",Hoja1!I$34=""),"",Hoja1!I58-Hoja1!I$34)</f>
         <v>-2.8200000000000003</v>
       </c>
       <c r="I55">
-        <f>IF(OR(Hoja1!J56="",Hoja1!J$32=""),"",Hoja1!J56-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J58="",Hoja1!J$34=""),"",Hoja1!J58-Hoja1!J$34)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="J55">
-        <f>IF(OR(Hoja1!K56="",Hoja1!K$32=""),"",Hoja1!K56-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K58="",Hoja1!K$34=""),"",Hoja1!K58-Hoja1!K$34)</f>
         <v>-2.09</v>
       </c>
       <c r="K55" t="str">
-        <f>IF(OR(Hoja1!L56="",Hoja1!L$32=""),"",Hoja1!L56-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L58="",Hoja1!L$34=""),"",Hoja1!L58-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="L55">
-        <f>(100-SUM(Hoja1!E55:L55))-(100-SUM(Hoja1!E$32:L$32))</f>
+        <f>(100-SUM(Hoja1!E57:L57))-(100-SUM(Hoja1!E$34:L$34))</f>
         <v>2.7499999999999858</v>
       </c>
       <c r="N55" s="5" t="e">
@@ -5871,7 +5941,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f>IF(C56=0,"",ROUND((Hoja1!A57+Hoja1!B57)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C56=0,"",ROUND((Hoja1!A59+Hoja1!B59)/2,0)-Hoja1!$B$34)</f>
         <v/>
       </c>
       <c r="B56" t="e">
@@ -5879,39 +5949,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="C56">
-        <f>Hoja1!C57</f>
+        <f>Hoja1!C59</f>
         <v>0</v>
       </c>
       <c r="D56" t="str">
-        <f>IF(OR(Hoja1!E57="",Hoja1!E$32=""),"",Hoja1!E57-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E59="",Hoja1!E$34=""),"",Hoja1!E59-Hoja1!E$34)</f>
         <v/>
       </c>
       <c r="E56" t="str">
-        <f>IF(OR(Hoja1!F57="",Hoja1!F$32=""),"",Hoja1!F57-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F59="",Hoja1!F$34=""),"",Hoja1!F59-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F56" t="str">
-        <f>IF(OR(Hoja1!G57="",Hoja1!G$32=""),"",Hoja1!G57-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G59="",Hoja1!G$34=""),"",Hoja1!G59-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G56" t="str">
-        <f>IF(OR(Hoja1!H57="",Hoja1!H$32=""),"",Hoja1!H57-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H59="",Hoja1!H$34=""),"",Hoja1!H59-Hoja1!H$34)</f>
         <v/>
       </c>
       <c r="H56" t="str">
-        <f>IF(OR(Hoja1!I57="",Hoja1!I$32=""),"",Hoja1!I57-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I59="",Hoja1!I$34=""),"",Hoja1!I59-Hoja1!I$34)</f>
         <v/>
       </c>
       <c r="I56" t="str">
-        <f>IF(OR(Hoja1!J57="",Hoja1!J$32=""),"",Hoja1!J57-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J59="",Hoja1!J$34=""),"",Hoja1!J59-Hoja1!J$34)</f>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f>IF(OR(Hoja1!K57="",Hoja1!K$32=""),"",Hoja1!K57-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K59="",Hoja1!K$34=""),"",Hoja1!K59-Hoja1!K$34)</f>
         <v/>
       </c>
       <c r="K56" t="str">
-        <f>IF(OR(Hoja1!L57="",Hoja1!L$32=""),"",Hoja1!L57-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L59="",Hoja1!L$34=""),"",Hoja1!L59-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="N56" s="5" t="e">
@@ -5925,7 +5995,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f>IF(C57=0,"",ROUND((Hoja1!A58+Hoja1!B58)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C57=0,"",ROUND((Hoja1!A60+Hoja1!B60)/2,0)-Hoja1!$B$34)</f>
         <v/>
       </c>
       <c r="B57" t="e">
@@ -5933,39 +6003,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="C57">
-        <f>Hoja1!C58</f>
+        <f>Hoja1!C60</f>
         <v>0</v>
       </c>
       <c r="D57" t="str">
-        <f>IF(OR(Hoja1!E58="",Hoja1!E$32=""),"",Hoja1!E58-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E60="",Hoja1!E$34=""),"",Hoja1!E60-Hoja1!E$34)</f>
         <v/>
       </c>
       <c r="E57" t="str">
-        <f>IF(OR(Hoja1!F58="",Hoja1!F$32=""),"",Hoja1!F58-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F60="",Hoja1!F$34=""),"",Hoja1!F60-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F57" t="str">
-        <f>IF(OR(Hoja1!G58="",Hoja1!G$32=""),"",Hoja1!G58-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G60="",Hoja1!G$34=""),"",Hoja1!G60-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G57" t="str">
-        <f>IF(OR(Hoja1!H58="",Hoja1!H$32=""),"",Hoja1!H58-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H60="",Hoja1!H$34=""),"",Hoja1!H60-Hoja1!H$34)</f>
         <v/>
       </c>
       <c r="H57" t="str">
-        <f>IF(OR(Hoja1!I58="",Hoja1!I$32=""),"",Hoja1!I58-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I60="",Hoja1!I$34=""),"",Hoja1!I60-Hoja1!I$34)</f>
         <v/>
       </c>
       <c r="I57" t="str">
-        <f>IF(OR(Hoja1!J58="",Hoja1!J$32=""),"",Hoja1!J58-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J60="",Hoja1!J$34=""),"",Hoja1!J60-Hoja1!J$34)</f>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f>IF(OR(Hoja1!K58="",Hoja1!K$32=""),"",Hoja1!K58-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K60="",Hoja1!K$34=""),"",Hoja1!K60-Hoja1!K$34)</f>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f>IF(OR(Hoja1!L58="",Hoja1!L$32=""),"",Hoja1!L58-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L60="",Hoja1!L$34=""),"",Hoja1!L60-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="N57" s="5" t="e">
@@ -5979,7 +6049,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f>IF(C58=0,"",ROUND((Hoja1!A59+Hoja1!B59)/2,0)-Hoja1!$B$32)</f>
+        <f>IF(C58=0,"",ROUND((Hoja1!A61+Hoja1!B61)/2,0)-Hoja1!$B$34)</f>
         <v/>
       </c>
       <c r="B58" t="e">
@@ -5987,39 +6057,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="C58">
-        <f>Hoja1!C59</f>
+        <f>Hoja1!C61</f>
         <v>0</v>
       </c>
       <c r="D58" t="str">
-        <f>IF(OR(Hoja1!E59="",Hoja1!E$32=""),"",Hoja1!E59-Hoja1!E$32)</f>
+        <f>IF(OR(Hoja1!E61="",Hoja1!E$34=""),"",Hoja1!E61-Hoja1!E$34)</f>
         <v/>
       </c>
       <c r="E58" t="str">
-        <f>IF(OR(Hoja1!F59="",Hoja1!F$32=""),"",Hoja1!F59-Hoja1!F$32)</f>
+        <f>IF(OR(Hoja1!F61="",Hoja1!F$34=""),"",Hoja1!F61-Hoja1!F$34)</f>
         <v/>
       </c>
       <c r="F58" t="str">
-        <f>IF(OR(Hoja1!G59="",Hoja1!G$32=""),"",Hoja1!G59-Hoja1!G$32)</f>
+        <f>IF(OR(Hoja1!G61="",Hoja1!G$34=""),"",Hoja1!G61-Hoja1!G$34)</f>
         <v/>
       </c>
       <c r="G58" t="str">
-        <f>IF(OR(Hoja1!H59="",Hoja1!H$32=""),"",Hoja1!H59-Hoja1!H$32)</f>
+        <f>IF(OR(Hoja1!H61="",Hoja1!H$34=""),"",Hoja1!H61-Hoja1!H$34)</f>
         <v/>
       </c>
       <c r="H58" t="str">
-        <f>IF(OR(Hoja1!I59="",Hoja1!I$32=""),"",Hoja1!I59-Hoja1!I$32)</f>
+        <f>IF(OR(Hoja1!I61="",Hoja1!I$34=""),"",Hoja1!I61-Hoja1!I$34)</f>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f>IF(OR(Hoja1!J59="",Hoja1!J$32=""),"",Hoja1!J59-Hoja1!J$32)</f>
+        <f>IF(OR(Hoja1!J61="",Hoja1!J$34=""),"",Hoja1!J61-Hoja1!J$34)</f>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f>IF(OR(Hoja1!K59="",Hoja1!K$32=""),"",Hoja1!K59-Hoja1!K$32)</f>
+        <f>IF(OR(Hoja1!K61="",Hoja1!K$34=""),"",Hoja1!K61-Hoja1!K$34)</f>
         <v/>
       </c>
       <c r="K58" t="str">
-        <f>IF(OR(Hoja1!L59="",Hoja1!L$32=""),"",Hoja1!L59-Hoja1!L$32)</f>
+        <f>IF(OR(Hoja1!L61="",Hoja1!L$34=""),"",Hoja1!L61-Hoja1!L$34)</f>
         <v/>
       </c>
       <c r="N58" s="5" t="e">

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alu.00000\Dropbox\Graficas\EstimacionesCataluna\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28515" windowHeight="12090"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -171,6 +176,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -218,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +259,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,37 +558,37 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43054</v>
+        <v>43066</v>
       </c>
       <c r="B2" s="1">
-        <v>43057</v>
+        <v>43069</v>
       </c>
       <c r="C2">
         <v>800</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2">
-        <v>23.9</v>
+        <v>23.1</v>
       </c>
       <c r="G2" s="2">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="I2" s="2">
-        <v>18.100000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="J2" s="2">
-        <v>18.600000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="K2" s="2">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -554,327 +596,324 @@
         <v>43052</v>
       </c>
       <c r="B3" s="1">
-        <v>43055</v>
+        <v>43062</v>
       </c>
       <c r="C3">
-        <v>801</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F3" s="2">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="G3" s="2">
-        <v>16.7</v>
+        <v>13.6</v>
       </c>
       <c r="H3" s="2">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="I3" s="2">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="J3" s="2">
-        <v>22.3</v>
+        <v>20.9</v>
       </c>
       <c r="K3" s="2">
-        <v>7.8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43038</v>
+        <v>43059</v>
       </c>
       <c r="B4" s="1">
-        <v>43042</v>
+        <v>43061</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F4" s="2">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="G4" s="2">
-        <v>10.7</v>
+        <v>13.6</v>
       </c>
       <c r="H4" s="2">
-        <v>10.4</v>
+        <v>6.7</v>
       </c>
       <c r="I4" s="2">
-        <v>13.6</v>
+        <v>14.9</v>
       </c>
       <c r="J4" s="2">
-        <v>19.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K4" s="2">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43038</v>
+        <v>43054</v>
       </c>
       <c r="B5" s="1">
-        <v>43042</v>
+        <v>43057</v>
       </c>
       <c r="C5">
-        <v>1233</v>
+        <v>800</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>6.3</v>
       </c>
       <c r="F5" s="2">
-        <v>29.3</v>
+        <v>23.9</v>
       </c>
       <c r="G5" s="2">
-        <v>10.4</v>
+        <v>16.5</v>
       </c>
       <c r="H5" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="I5" s="2">
-        <v>14.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>20.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K5" s="2">
-        <v>8.6999999999999993</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43035</v>
+        <v>43052</v>
       </c>
       <c r="B6" s="1">
-        <v>43039</v>
+        <v>43055</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="F6" s="2">
-        <v>31.2</v>
+        <v>23.1</v>
       </c>
       <c r="G6" s="2">
-        <v>10.1</v>
+        <v>16.7</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="I6" s="2">
-        <v>12.2</v>
+        <v>15.1</v>
       </c>
       <c r="J6" s="2">
-        <v>18.3</v>
+        <v>22.3</v>
       </c>
       <c r="K6" s="2">
-        <v>9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43024</v>
+        <v>43038</v>
       </c>
       <c r="B7" s="1">
-        <v>43037</v>
+        <v>43042</v>
       </c>
       <c r="C7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
         <v>6.3</v>
       </c>
+      <c r="F7" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10.7</v>
+      </c>
       <c r="H7" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K7" s="2">
         <v>10.5</v>
       </c>
-      <c r="I7" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="J7" s="2">
-        <v>18.2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L7" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43031</v>
+        <v>43038</v>
       </c>
       <c r="B8" s="1">
-        <v>43034</v>
+        <v>43042</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>6.3</v>
       </c>
       <c r="F8" s="2">
-        <v>26.4</v>
+        <v>29.3</v>
       </c>
       <c r="G8" s="2">
-        <v>9.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="H8" s="2">
-        <v>11</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I8" s="2">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="J8" s="2">
-        <v>19.600000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="K8" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43024</v>
+        <v>43035</v>
       </c>
       <c r="B9" s="1">
-        <v>43029</v>
+        <v>43039</v>
       </c>
       <c r="C9">
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F9" s="2">
-        <v>24.6</v>
+        <v>31.2</v>
       </c>
       <c r="G9" s="2">
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="H9" s="2">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="J9" s="2">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="K9" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="M9" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43024</v>
       </c>
       <c r="B10" s="1">
-        <v>43027</v>
+        <v>43037</v>
       </c>
       <c r="C10">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>28.1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>12</v>
+        <v>6.3</v>
       </c>
       <c r="H10" s="2">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I10" s="2">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="J10" s="2">
-        <v>16.8</v>
+        <v>18.2</v>
       </c>
       <c r="K10" s="2">
-        <v>7.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L10" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43012</v>
+        <v>43031</v>
       </c>
       <c r="B11" s="1">
-        <v>43017</v>
+        <v>43034</v>
       </c>
       <c r="C11">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
         <v>6.3</v>
       </c>
       <c r="F11" s="2">
-        <v>31.8</v>
+        <v>26.4</v>
       </c>
       <c r="G11" s="2">
-        <v>8.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H11" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2">
-        <v>9.5</v>
+        <v>15.1</v>
       </c>
       <c r="J11" s="2">
-        <v>18.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>10.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42996</v>
+        <v>43024</v>
       </c>
       <c r="B12" s="1">
-        <v>43000</v>
+        <v>43029</v>
       </c>
       <c r="C12">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -883,103 +922,103 @@
         <v>5.6</v>
       </c>
       <c r="F12" s="2">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="G12" s="2">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="H12" s="2">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="I12" s="2">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
       <c r="J12" s="2">
-        <v>17.2</v>
+        <v>19.2</v>
       </c>
       <c r="K12" s="2">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>42990</v>
+        <v>43024</v>
       </c>
       <c r="B13" s="1">
-        <v>42993</v>
+        <v>43027</v>
       </c>
       <c r="C13">
         <v>800</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="F13" s="2">
-        <v>24.7</v>
+        <v>28.1</v>
       </c>
       <c r="G13" s="2">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="H13" s="2">
-        <v>12.2</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="J13" s="2">
-        <v>17.399999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="K13" s="2">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42975</v>
+        <v>43012</v>
       </c>
       <c r="B14" s="1">
-        <v>42979</v>
+        <v>43017</v>
       </c>
       <c r="C14">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="2">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="F14" s="2">
-        <v>28</v>
+        <v>31.8</v>
       </c>
       <c r="G14" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H14" s="2">
-        <v>10.4</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="K14" s="2">
         <v>10.1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>17.7</v>
-      </c>
-      <c r="K14" s="2">
-        <v>10.5</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42951</v>
+        <v>42996</v>
       </c>
       <c r="B15" s="1">
-        <v>42958</v>
+        <v>43000</v>
       </c>
       <c r="C15">
         <v>1255</v>
@@ -988,343 +1027,349 @@
         <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="F15" s="2">
-        <v>23.9</v>
+        <v>25.1</v>
       </c>
       <c r="G15" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H15" s="2">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="I15" s="2">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="J15" s="2">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="K15" s="2">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42912</v>
+        <v>42990</v>
       </c>
       <c r="B16" s="1">
-        <v>42927</v>
+        <v>42993</v>
       </c>
       <c r="C16">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2">
-        <v>5.4</v>
+        <v>5.9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>13.6</v>
       </c>
       <c r="H16" s="2">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="I16" s="2">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="J16" s="2">
-        <v>15.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K16" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L16" s="3">
-        <v>39.299999999999997</v>
+        <v>9.4</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42800</v>
+        <v>42975</v>
       </c>
       <c r="B17" s="1">
-        <v>42815</v>
+        <v>42979</v>
       </c>
       <c r="C17">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2">
-        <v>5.9</v>
+        <v>6.8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12.7</v>
       </c>
       <c r="H17" s="2">
-        <v>15.3</v>
+        <v>10.4</v>
       </c>
       <c r="I17" s="2">
-        <v>12.3</v>
+        <v>10.1</v>
       </c>
       <c r="J17" s="2">
-        <v>16.100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="K17" s="2">
-        <v>10</v>
-      </c>
-      <c r="L17" s="3">
-        <v>37</v>
+        <v>10.5</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42737</v>
+        <v>42951</v>
       </c>
       <c r="B18" s="1">
-        <v>42740</v>
+        <v>42958</v>
       </c>
       <c r="C18">
-        <v>601</v>
+        <v>1255</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2">
-        <v>4.9000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="F18" s="2">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="G18" s="2">
-        <v>17.899999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="H18" s="2">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="I18" s="2">
-        <v>11.4</v>
+        <v>13.9</v>
       </c>
       <c r="J18" s="2">
-        <v>16.600000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="K18" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42720</v>
+        <v>42912</v>
       </c>
       <c r="B19" s="1">
-        <v>42727</v>
+        <v>42927</v>
       </c>
       <c r="C19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>14.8</v>
+        <v>5.4</v>
       </c>
       <c r="H19" s="2">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="I19" s="2">
-        <v>12.1</v>
+        <v>14.3</v>
       </c>
       <c r="J19" s="2">
-        <v>16.899999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="K19" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L19" s="3">
+        <v>39.299999999999997</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42716</v>
+        <v>42800</v>
       </c>
       <c r="B20" s="1">
-        <v>42721</v>
+        <v>42815</v>
       </c>
       <c r="C20">
-        <v>1047</v>
+        <v>1500</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H20" s="2">
-        <v>12.2</v>
+        <v>15.3</v>
       </c>
       <c r="I20" s="2">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="J20" s="2">
-        <v>16.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K20" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" s="3">
-        <v>37.6</v>
+        <v>37</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42716</v>
+        <v>42737</v>
       </c>
       <c r="B21" s="1">
-        <v>42718</v>
+        <v>42740</v>
       </c>
       <c r="C21">
-        <v>800</v>
+        <v>601</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F21" s="2">
-        <v>30.7</v>
+        <v>25.1</v>
       </c>
       <c r="G21" s="2">
-        <v>11.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H21" s="2">
-        <v>12.3</v>
+        <v>10.7</v>
       </c>
       <c r="I21" s="2">
-        <v>14.4</v>
+        <v>11.4</v>
       </c>
       <c r="J21" s="2">
-        <v>13.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K21" s="2">
-        <v>8.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42660</v>
+        <v>42720</v>
       </c>
       <c r="B22" s="1">
-        <v>42677</v>
+        <v>42727</v>
       </c>
       <c r="C22">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
-        <v>5.2</v>
+        <v>7.2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>14.8</v>
       </c>
       <c r="H22" s="2">
-        <v>15.4</v>
+        <v>11.9</v>
       </c>
       <c r="I22" s="2">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="J22" s="2">
-        <v>15.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K22" s="2">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3">
-        <v>37.4</v>
+        <v>9.1</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42584</v>
+        <v>42716</v>
       </c>
       <c r="B23" s="1">
-        <v>42588</v>
+        <v>42721</v>
       </c>
       <c r="C23">
-        <v>1255</v>
+        <v>1047</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F23" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G23" s="2">
-        <v>17.2</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="I23" s="2">
-        <v>12.3</v>
+        <v>13.8</v>
       </c>
       <c r="J23" s="2">
-        <v>16.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K23" s="2">
-        <v>9.1</v>
+        <v>9</v>
+      </c>
+      <c r="L23" s="3">
+        <v>37.6</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42584</v>
+        <v>42716</v>
       </c>
       <c r="B24" s="1">
-        <v>42588</v>
+        <v>42718</v>
       </c>
       <c r="C24">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
-        <v>7.7</v>
+        <v>5.2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G24" s="2">
+        <v>11.5</v>
       </c>
       <c r="H24" s="2">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="I24" s="2">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="J24" s="2">
-        <v>16.7</v>
+        <v>13.5</v>
       </c>
       <c r="K24" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>36</v>
+        <v>8.1</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42549</v>
+        <v>42660</v>
       </c>
       <c r="B25" s="1">
-        <v>42564</v>
+        <v>42677</v>
       </c>
       <c r="C25">
         <v>1500</v>
@@ -1336,658 +1381,661 @@
         <v>5.2</v>
       </c>
       <c r="H25" s="2">
-        <v>16.8</v>
+        <v>15.4</v>
       </c>
       <c r="I25" s="2">
-        <v>12.8</v>
+        <v>11.7</v>
       </c>
       <c r="J25" s="2">
-        <v>14.8</v>
+        <v>15.7</v>
       </c>
       <c r="K25" s="2">
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="L25" s="3">
-        <v>38.200000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42534</v>
+        <v>42584</v>
       </c>
       <c r="B26" s="1">
-        <v>42537</v>
+        <v>42588</v>
       </c>
       <c r="C26">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="F26" s="2">
-        <v>21.5</v>
+        <v>20.3</v>
       </c>
       <c r="G26" s="2">
-        <v>19.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="H26" s="2">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="I26" s="2">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="J26" s="2">
-        <v>15.8</v>
+        <v>16.7</v>
       </c>
       <c r="K26" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42478</v>
+        <v>42584</v>
       </c>
       <c r="B27" s="1">
-        <v>42482</v>
+        <v>42588</v>
       </c>
       <c r="C27">
-        <v>1600</v>
+        <v>1255</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="G27" s="2">
-        <v>13.3</v>
+        <v>7.7</v>
       </c>
       <c r="H27" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="I27" s="2">
         <v>12.3</v>
       </c>
-      <c r="I27" s="2">
-        <v>13.7</v>
-      </c>
       <c r="J27" s="2">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="K27" s="2">
         <v>9.1</v>
       </c>
+      <c r="L27" s="3">
+        <v>36</v>
+      </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42422</v>
+        <v>42549</v>
       </c>
       <c r="B28" s="1">
-        <v>42437</v>
+        <v>42564</v>
       </c>
       <c r="C28">
         <v>1500</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="H28" s="2">
-        <v>17.899999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="I28" s="2">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="J28" s="2">
-        <v>16.7</v>
+        <v>14.8</v>
       </c>
       <c r="K28" s="2">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L28" s="3">
-        <v>35.799999999999997</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42366</v>
+        <v>42534</v>
       </c>
       <c r="B29" s="1">
-        <v>42369</v>
+        <v>42537</v>
       </c>
       <c r="C29">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>8.9</v>
+        <v>3.6</v>
+      </c>
+      <c r="F29" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>19.399999999999999</v>
       </c>
       <c r="H29" s="2">
-        <v>9.5</v>
+        <v>14.1</v>
       </c>
       <c r="I29" s="2">
-        <v>12.1</v>
+        <v>13</v>
       </c>
       <c r="J29" s="2">
-        <v>21.2</v>
+        <v>15.8</v>
       </c>
       <c r="K29" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>35.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42338</v>
+        <v>42478</v>
       </c>
       <c r="B30" s="1">
-        <v>42341</v>
+        <v>42482</v>
       </c>
       <c r="C30">
-        <v>504</v>
+        <v>1600</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2">
-        <v>11.8</v>
+        <v>6.5</v>
       </c>
       <c r="F30" s="2">
-        <v>24</v>
+        <v>25.6</v>
       </c>
       <c r="G30" s="2">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="H30" s="2">
-        <v>7.4</v>
+        <v>12.3</v>
       </c>
       <c r="I30" s="2">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="J30" s="2">
-        <v>23.5</v>
+        <v>16.2</v>
       </c>
       <c r="K30" s="2">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42328</v>
+        <v>42422</v>
       </c>
       <c r="B31" s="1">
-        <v>42335</v>
+        <v>42437</v>
       </c>
       <c r="C31">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F31" s="2">
-        <v>21.1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>15.9</v>
+        <v>7.5</v>
       </c>
       <c r="H31" s="2">
-        <v>8.6999999999999993</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I31" s="2">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="J31" s="2">
-        <v>19.899999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="K31" s="2">
-        <v>8.3000000000000007</v>
+        <v>7</v>
+      </c>
+      <c r="L31" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42328</v>
+        <v>42366</v>
       </c>
       <c r="B32" s="1">
-        <v>42335</v>
+        <v>42369</v>
       </c>
       <c r="C32">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="H32" s="2">
-        <v>8.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="I32" s="2">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="J32" s="2">
-        <v>19.7</v>
+        <v>21.2</v>
       </c>
       <c r="K32" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="L32" s="3">
-        <v>37.6</v>
+        <v>35.6</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42324</v>
+        <v>42338</v>
       </c>
       <c r="B33" s="1">
-        <v>42331</v>
+        <v>42341</v>
       </c>
       <c r="C33">
-        <v>1050</v>
+        <v>504</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="2">
-        <v>8.5</v>
+        <v>11.8</v>
+      </c>
+      <c r="F33" s="2">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2">
+        <v>12.6</v>
       </c>
       <c r="H33" s="2">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="I33" s="2">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="J33" s="2">
-        <v>21.1</v>
+        <v>23.5</v>
       </c>
       <c r="K33" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="L33" s="3">
-        <v>38.1</v>
+        <v>7.2</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42303</v>
+        <v>42328</v>
       </c>
       <c r="B34" s="1">
-        <v>42308</v>
+        <v>42335</v>
       </c>
       <c r="C34">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E34" s="2">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F34" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>15.9</v>
       </c>
       <c r="H34" s="2">
-        <v>7.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I34" s="2">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J34" s="2">
-        <v>20.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K34" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L34" s="3">
-        <v>36.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42282</v>
+        <v>42328</v>
       </c>
       <c r="B35" s="1">
-        <v>42304</v>
+        <v>42335</v>
       </c>
       <c r="C35">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E35" s="2">
-        <v>11.1</v>
+        <v>9</v>
       </c>
       <c r="H35" s="2">
-        <v>9.3000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I35" s="2">
-        <v>10.6</v>
+        <v>13.1</v>
       </c>
       <c r="J35" s="2">
-        <v>18</v>
+        <v>19.7</v>
       </c>
       <c r="K35" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L35" s="3">
-        <v>39.799999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42274</v>
+        <v>42324</v>
       </c>
       <c r="B36" s="1">
-        <v>42274</v>
+        <v>42331</v>
       </c>
       <c r="C36">
-        <v>4130196</v>
+        <v>1050</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2">
-        <v>8.2100000000000009</v>
+        <v>8.5</v>
       </c>
       <c r="H36" s="2">
-        <v>8.94</v>
+        <v>9</v>
       </c>
       <c r="I36" s="2">
-        <v>12.72</v>
+        <v>12.4</v>
       </c>
       <c r="J36" s="2">
-        <v>17.899999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="K36" s="2">
-        <v>8.49</v>
+        <v>7.4</v>
       </c>
       <c r="L36" s="3">
-        <v>39.590000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42268</v>
+        <v>42303</v>
       </c>
       <c r="B37" s="1">
-        <v>42268</v>
+        <v>42308</v>
       </c>
       <c r="C37">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="H37" s="2">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="I37" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J37" s="2">
-        <v>13</v>
+        <v>20.9</v>
       </c>
       <c r="K37" s="2">
-        <v>11</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L37" s="3">
-        <v>41</v>
+        <v>36.4</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42261</v>
+        <v>42282</v>
       </c>
       <c r="B38" s="1">
-        <v>42272</v>
+        <v>42304</v>
       </c>
       <c r="C38">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2">
-        <v>8</v>
+        <v>11.1</v>
       </c>
       <c r="H38" s="2">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I38" s="2">
-        <v>13.5</v>
+        <v>10.6</v>
       </c>
       <c r="J38" s="2">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="K38" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L38" s="3">
-        <v>40</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42257</v>
+        <v>42274</v>
       </c>
       <c r="B39" s="1">
-        <v>42264</v>
+        <v>42274</v>
       </c>
       <c r="C39">
-        <v>1000</v>
+        <v>4130196</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E39" s="2">
-        <v>8.1</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H39" s="2">
-        <v>12.6</v>
+        <v>8.94</v>
       </c>
       <c r="I39" s="2">
-        <v>11.7</v>
+        <v>12.72</v>
       </c>
       <c r="J39" s="2">
-        <v>15.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K39" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.49</v>
       </c>
       <c r="L39" s="3">
-        <v>40.1</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42258</v>
+        <v>42268</v>
       </c>
       <c r="B40" s="1">
-        <v>42266</v>
+        <v>42268</v>
       </c>
       <c r="C40">
-        <v>1255</v>
+        <v>1200</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E40" s="2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="H40" s="2">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="I40" s="2">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="J40" s="2">
-        <v>15.3</v>
+        <v>13</v>
       </c>
       <c r="K40" s="2">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="L40" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42263</v>
+        <v>42261</v>
       </c>
       <c r="B41" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C41">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="H41" s="2">
-        <v>11.2</v>
+        <v>9.5</v>
       </c>
       <c r="I41" s="2">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="J41" s="2">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="K41" s="2">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="L41" s="3">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42261</v>
+        <v>42257</v>
       </c>
       <c r="B42" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C42">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E42" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H42" s="2">
         <v>12.6</v>
       </c>
       <c r="I42" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J42" s="2">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="K42" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L42" s="3">
-        <v>38.799999999999997</v>
+        <v>40.1</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42261</v>
+        <v>42258</v>
       </c>
       <c r="B43" s="1">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="C43">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H43" s="2">
-        <v>10.3</v>
+        <v>12.4</v>
       </c>
       <c r="I43" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J43" s="2">
-        <v>14.1</v>
+        <v>15.3</v>
       </c>
       <c r="K43" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L43" s="3">
-        <v>40.700000000000003</v>
+        <v>38</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B44" s="1">
         <v>42264</v>
       </c>
       <c r="C44">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E44" s="2">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="H44" s="2">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="I44" s="2">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="J44" s="2">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="K44" s="2">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="L44" s="3">
-        <v>40.700000000000003</v>
+        <v>40.5</v>
       </c>
       <c r="M44" s="4"/>
     </row>
@@ -1996,31 +2044,31 @@
         <v>42261</v>
       </c>
       <c r="B45" s="1">
-        <v>42263</v>
+        <v>42265</v>
       </c>
       <c r="C45">
-        <v>1717</v>
+        <v>1100</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E45" s="2">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="H45" s="2">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
       <c r="I45" s="2">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="J45" s="2">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="K45" s="2">
-        <v>7.3</v>
+        <v>9.9</v>
       </c>
       <c r="L45" s="3">
-        <v>41.2</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M45" s="4"/>
     </row>
@@ -2029,31 +2077,31 @@
         <v>42261</v>
       </c>
       <c r="B46" s="1">
-        <v>42263</v>
+        <v>42265</v>
       </c>
       <c r="C46">
-        <v>1157</v>
+        <v>800</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="H46" s="2">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="I46" s="2">
-        <v>7.5</v>
+        <v>11.9</v>
       </c>
       <c r="J46" s="2">
-        <v>18.3</v>
+        <v>14.1</v>
       </c>
       <c r="K46" s="2">
-        <v>11.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L46" s="3">
-        <v>42.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M46" s="4"/>
     </row>
@@ -2062,13 +2110,13 @@
         <v>42261</v>
       </c>
       <c r="B47" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C47">
         <v>1000</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E47" s="2">
         <v>6.4</v>
@@ -2077,427 +2125,421 @@
         <v>11.1</v>
       </c>
       <c r="I47" s="2">
-        <v>13.2</v>
+        <v>10.1</v>
       </c>
       <c r="J47" s="2">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="K47" s="2">
-        <v>8.9</v>
+        <v>10.6</v>
       </c>
       <c r="L47" s="3">
-        <v>39.200000000000003</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B48" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C48">
-        <v>1255</v>
+        <v>1717</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E48" s="2">
-        <v>5.2</v>
+        <v>8.4</v>
       </c>
       <c r="H48" s="2">
-        <v>12.7</v>
+        <v>11.4</v>
       </c>
       <c r="I48" s="2">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="J48" s="2">
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
       <c r="K48" s="2">
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="L48" s="3">
-        <v>37.6</v>
+        <v>41.2</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42248</v>
+        <v>42261</v>
       </c>
       <c r="B49" s="1">
-        <v>42255</v>
+        <v>42263</v>
       </c>
       <c r="C49">
-        <v>1200</v>
+        <v>1157</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E49" s="2">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="H49" s="2">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="I49" s="2">
-        <v>11.1</v>
+        <v>7.5</v>
       </c>
       <c r="J49" s="2">
-        <v>13.4</v>
+        <v>18.3</v>
       </c>
       <c r="K49" s="2">
-        <v>10.199999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="L49" s="3">
-        <v>38.299999999999997</v>
+        <v>42.4</v>
       </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42250</v>
+        <v>42261</v>
       </c>
       <c r="B50" s="1">
-        <v>42255</v>
+        <v>42263</v>
       </c>
       <c r="C50">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E50" s="2">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="H50" s="2">
-        <v>10.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="I50" s="2">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="J50" s="2">
-        <v>11.6</v>
+        <v>15</v>
       </c>
       <c r="K50" s="2">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
       <c r="L50" s="3">
-        <v>42.1</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42246</v>
+        <v>42254</v>
       </c>
       <c r="B51" s="1">
-        <v>42251</v>
+        <v>42262</v>
       </c>
       <c r="C51">
-        <v>2999</v>
+        <v>1255</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E51" s="2">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="H51" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="I51" s="2">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="J51" s="2">
-        <v>14.8</v>
+        <v>16.5</v>
       </c>
       <c r="K51" s="2">
         <v>9.4</v>
       </c>
       <c r="L51" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42247</v>
+        <v>42248</v>
       </c>
       <c r="B52" s="1">
-        <v>42250</v>
+        <v>42255</v>
       </c>
       <c r="C52">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E52" s="2">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H52" s="2">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="I52" s="2">
         <v>11.1</v>
       </c>
       <c r="J52" s="2">
-        <v>12.7</v>
+        <v>13.4</v>
       </c>
       <c r="K52" s="2">
-        <v>9.8000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L52" s="3">
-        <v>39.4</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42247</v>
+        <v>42250</v>
       </c>
       <c r="B53" s="1">
-        <v>42249</v>
+        <v>42255</v>
       </c>
       <c r="C53">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E53" s="2">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="H53" s="2">
-        <v>12.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I53" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="J53" s="2">
-        <v>19.899999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="K53" s="2">
-        <v>7.9</v>
+        <v>11.5</v>
       </c>
       <c r="L53" s="3">
-        <v>38.799999999999997</v>
+        <v>42.1</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42248</v>
+        <v>42246</v>
       </c>
       <c r="B54" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C54">
-        <v>1221</v>
+        <v>2999</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="2">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="H54" s="2">
-        <v>11.5</v>
+        <v>13.9</v>
       </c>
       <c r="I54" s="2">
-        <v>9.5</v>
+        <v>12.2</v>
       </c>
       <c r="J54" s="2">
-        <v>12.6</v>
+        <v>14.8</v>
       </c>
       <c r="K54" s="2">
-        <v>11.8</v>
+        <v>9.4</v>
       </c>
       <c r="L54" s="3">
-        <v>43.5</v>
+        <v>38.1</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42233</v>
+        <v>42247</v>
       </c>
       <c r="B55" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C55">
-        <v>955</v>
+        <v>1400</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E55" s="2">
-        <v>4.7</v>
+        <v>6.7</v>
       </c>
       <c r="H55" s="2">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="I55" s="2">
-        <v>11.7</v>
+        <v>11.1</v>
       </c>
       <c r="J55" s="2">
-        <v>17.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K55" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L55" s="3">
-        <v>36.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42201</v>
+        <v>42247</v>
       </c>
       <c r="B56" s="1">
-        <v>42208</v>
+        <v>42249</v>
       </c>
       <c r="C56">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E56" s="2">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H56" s="2">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="I56" s="2">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="J56" s="2">
-        <v>19.100000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K56" s="2">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="L56" s="3">
-        <v>35.799999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42191</v>
+        <v>42248</v>
       </c>
       <c r="B57" s="1">
-        <v>42194</v>
+        <v>42250</v>
       </c>
       <c r="C57">
-        <v>1000</v>
+        <v>1221</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E57" s="2">
-        <v>7</v>
-      </c>
-      <c r="F57" s="2">
-        <v>15</v>
-      </c>
-      <c r="G57" s="2">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="H57" s="2">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="I57" s="2">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="J57" s="2">
-        <v>16</v>
+        <v>12.6</v>
       </c>
       <c r="K57" s="2">
-        <v>7.3</v>
+        <v>11.8</v>
+      </c>
+      <c r="L57" s="3">
+        <v>43.5</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42186</v>
+        <v>42233</v>
       </c>
       <c r="B58" s="1">
-        <v>42188</v>
+        <v>42238</v>
       </c>
       <c r="C58">
-        <v>820</v>
+        <v>955</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E58" s="2">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="H58" s="2">
-        <v>20</v>
+        <v>12.3</v>
       </c>
       <c r="I58" s="2">
-        <v>9</v>
+        <v>11.7</v>
       </c>
       <c r="J58" s="2">
-        <v>16</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K58" s="2">
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L58" s="3">
-        <v>32</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42202</v>
+        <v>42201</v>
       </c>
       <c r="B59" s="1">
-        <v>42206</v>
+        <v>42208</v>
       </c>
       <c r="C59">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H59" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="I59" s="2">
         <v>12</v>
       </c>
-      <c r="E59" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F59" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G59" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="H59" s="2">
-        <v>18</v>
-      </c>
-      <c r="I59" s="2">
-        <v>7.8</v>
-      </c>
       <c r="J59" s="2">
-        <v>15.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K59" s="2">
-        <v>5.9</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L59" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42121</v>
+        <v>42191</v>
       </c>
       <c r="B60" s="1">
-        <v>42123</v>
+        <v>42194</v>
       </c>
       <c r="C60">
         <v>1000</v>
@@ -2506,27 +2548,132 @@
         <v>23</v>
       </c>
       <c r="E60" s="2">
+        <v>7</v>
+      </c>
+      <c r="F60" s="2">
+        <v>15</v>
+      </c>
+      <c r="G60" s="2">
+        <v>22</v>
+      </c>
+      <c r="H60" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="I60" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="J60" s="2">
+        <v>16</v>
+      </c>
+      <c r="K60" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B61" s="1">
+        <v>42188</v>
+      </c>
+      <c r="C61">
+        <v>820</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="2">
+        <v>8</v>
+      </c>
+      <c r="H61" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" s="2">
+        <v>9</v>
+      </c>
+      <c r="J61" s="2">
+        <v>16</v>
+      </c>
+      <c r="K61" s="2">
+        <v>9</v>
+      </c>
+      <c r="L61" s="3">
+        <v>32</v>
+      </c>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B62" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C62">
+        <v>800</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F62" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>18</v>
+      </c>
+      <c r="I62" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J62" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>42121</v>
+      </c>
+      <c r="B63" s="1">
+        <v>42123</v>
+      </c>
+      <c r="C63">
+        <v>1000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="2">
         <v>7.9</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F63" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G63" s="2">
         <v>22.6</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H63" s="2">
         <v>12.9</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I63" s="2">
         <v>9.9</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J63" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K63" s="2">
         <v>6.4</v>
       </c>
-      <c r="M60" s="4"/>
+      <c r="M63" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -503,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,177 +593,177 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43052</v>
+        <v>43062</v>
       </c>
       <c r="B3" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="F3" s="2">
-        <v>24.1</v>
+        <v>20.8</v>
       </c>
       <c r="G3" s="2">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I3" s="2">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2">
-        <v>20.9</v>
+        <v>22.5</v>
       </c>
       <c r="K3" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43059</v>
+        <v>43052</v>
       </c>
       <c r="B4" s="1">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="C4">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F4" s="2">
-        <v>26.5</v>
+        <v>24.1</v>
       </c>
       <c r="G4" s="2">
         <v>13.6</v>
       </c>
       <c r="H4" s="2">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="I4" s="2">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="J4" s="2">
-        <v>25.3</v>
+        <v>20.9</v>
       </c>
       <c r="K4" s="2">
-        <v>5.8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43054</v>
+        <v>43059</v>
       </c>
       <c r="B5" s="1">
-        <v>43057</v>
+        <v>43061</v>
       </c>
       <c r="C5">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F5" s="2">
-        <v>23.9</v>
+        <v>26.5</v>
       </c>
       <c r="G5" s="2">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="H5" s="2">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="I5" s="2">
-        <v>18.100000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="J5" s="2">
-        <v>18.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K5" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43052</v>
+        <v>43054</v>
       </c>
       <c r="B6" s="1">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="C6">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F6" s="2">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="G6" s="2">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="H6" s="2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I6" s="2">
-        <v>15.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J6" s="2">
-        <v>22.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K6" s="2">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="B7" s="1">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F7" s="2">
-        <v>26.3</v>
+        <v>23.1</v>
       </c>
       <c r="G7" s="2">
-        <v>10.7</v>
+        <v>16.7</v>
       </c>
       <c r="H7" s="2">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="I7" s="2">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="J7" s="2">
-        <v>19.600000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="K7" s="2">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -774,170 +774,169 @@
         <v>43042</v>
       </c>
       <c r="C8">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>6.3</v>
       </c>
       <c r="F8" s="2">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="G8" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H8" s="2">
         <v>10.4</v>
       </c>
-      <c r="H8" s="2">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="I8" s="2">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="J8" s="2">
-        <v>20.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K8" s="2">
-        <v>8.6999999999999993</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B9" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F9" s="2">
-        <v>31.2</v>
+        <v>29.3</v>
       </c>
       <c r="G9" s="2">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="H9" s="2">
-        <v>10</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I9" s="2">
-        <v>12.2</v>
+        <v>14.6</v>
       </c>
       <c r="J9" s="2">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="K9" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43024</v>
+        <v>43035</v>
       </c>
       <c r="B10" s="1">
-        <v>43037</v>
+        <v>43039</v>
       </c>
       <c r="C10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10.1</v>
       </c>
       <c r="H10" s="2">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="J10" s="2">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="K10" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L10" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M10" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="B11" s="1">
-        <v>43034</v>
+        <v>43037</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
         <v>6.3</v>
       </c>
-      <c r="F11" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="G11" s="2">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H11" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I11" s="2">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="J11" s="2">
-        <v>19.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K11" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L11" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B12" s="1">
-        <v>43029</v>
+        <v>43034</v>
       </c>
       <c r="C12">
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F12" s="2">
-        <v>24.6</v>
+        <v>26.4</v>
       </c>
       <c r="G12" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H12" s="2">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J12" s="2">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K12" s="2">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M12" s="4"/>
     </row>
@@ -946,256 +945,259 @@
         <v>43024</v>
       </c>
       <c r="B13" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="C13">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="F13" s="2">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="G13" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H13" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I13" s="2">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="J13" s="2">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="K13" s="2">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B14" s="1">
-        <v>43017</v>
+        <v>43027</v>
       </c>
       <c r="C14">
         <v>800</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="F14" s="2">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="G14" s="2">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H14" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="J14" s="2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="K14" s="2">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42996</v>
+        <v>43012</v>
       </c>
       <c r="B15" s="1">
-        <v>43000</v>
+        <v>43017</v>
       </c>
       <c r="C15">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F15" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G15" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H15" s="2">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2">
-        <v>13.7</v>
+        <v>9.5</v>
       </c>
       <c r="J15" s="2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K15" s="2">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42990</v>
+        <v>42996</v>
       </c>
       <c r="B16" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="C16">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F16" s="2">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="G16" s="2">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="H16" s="2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I16" s="2">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="J16" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K16" s="2">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42975</v>
+        <v>42990</v>
       </c>
       <c r="B17" s="1">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="C17">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="F17" s="2">
-        <v>28</v>
+        <v>24.7</v>
       </c>
       <c r="G17" s="2">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H17" s="2">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="I17" s="2">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="J17" s="2">
-        <v>17.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K17" s="2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B18" s="1">
-        <v>42958</v>
+        <v>42979</v>
       </c>
       <c r="C18">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F18" s="2">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G18" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H18" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="I18" s="2">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="J18" s="2">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="K18" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42912</v>
+        <v>42951</v>
       </c>
       <c r="B19" s="1">
-        <v>42927</v>
+        <v>42958</v>
       </c>
       <c r="C19">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2">
-        <v>5.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G19" s="2">
+        <v>13.9</v>
       </c>
       <c r="H19" s="2">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="I19" s="2">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J19" s="2">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="K19" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L19" s="3">
-        <v>39.299999999999997</v>
+        <v>9.5</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42800</v>
+        <v>42912</v>
       </c>
       <c r="B20" s="1">
-        <v>42815</v>
+        <v>42927</v>
       </c>
       <c r="C20">
         <v>1500</v>
@@ -1204,127 +1206,127 @@
         <v>16</v>
       </c>
       <c r="E20" s="2">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H20" s="2">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="I20" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J20" s="2">
-        <v>16.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K20" s="2">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L20" s="3">
-        <v>37</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42737</v>
+        <v>42800</v>
       </c>
       <c r="B21" s="1">
-        <v>42740</v>
+        <v>42815</v>
       </c>
       <c r="C21">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F21" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H21" s="2">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="I21" s="2">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J21" s="2">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K21" s="2">
-        <v>9.8000000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
+        <v>37</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42720</v>
+        <v>42737</v>
       </c>
       <c r="B22" s="1">
-        <v>42727</v>
+        <v>42740</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>7.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F22" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G22" s="2">
-        <v>14.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H22" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I22" s="2">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="J22" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K22" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B23" s="1">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="C23">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2">
-        <v>6</v>
+        <v>7.2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>14.8</v>
       </c>
       <c r="H23" s="2">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I23" s="2">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="J23" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="K23" s="2">
-        <v>9</v>
-      </c>
-      <c r="L23" s="3">
-        <v>37.6</v>
+        <v>9.1</v>
       </c>
       <c r="M23" s="4"/>
     </row>
@@ -1333,103 +1335,100 @@
         <v>42716</v>
       </c>
       <c r="B24" s="1">
-        <v>42718</v>
+        <v>42721</v>
       </c>
       <c r="C24">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="G24" s="2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I24" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="J24" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>8.1</v>
+        <v>9</v>
+      </c>
+      <c r="L24" s="3">
+        <v>37.6</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B25" s="1">
-        <v>42677</v>
+        <v>42718</v>
       </c>
       <c r="C25">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E25" s="2">
         <v>5.2</v>
       </c>
+      <c r="F25" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G25" s="2">
+        <v>11.5</v>
+      </c>
       <c r="H25" s="2">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="I25" s="2">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="J25" s="2">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="K25" s="2">
-        <v>10</v>
-      </c>
-      <c r="L25" s="3">
-        <v>37.4</v>
+        <v>8.1</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B26" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C26">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G26" s="2">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="H26" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I26" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J26" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K26" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L26" s="3">
+        <v>37.4</v>
       </c>
       <c r="M26" s="4"/>
     </row>
@@ -1447,7 +1446,13 @@
         <v>14</v>
       </c>
       <c r="E27" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>17.2</v>
       </c>
       <c r="H27" s="2">
         <v>13.9</v>
@@ -1461,251 +1466,245 @@
       <c r="K27" s="2">
         <v>9.1</v>
       </c>
-      <c r="L27" s="3">
-        <v>36</v>
-      </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B28" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C28">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="H28" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I28" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J28" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K28" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="L28" s="3">
-        <v>38.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42534</v>
+        <v>42549</v>
       </c>
       <c r="B29" s="1">
-        <v>42537</v>
+        <v>42564</v>
       </c>
       <c r="C29">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F29" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>19.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H29" s="2">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="I29" s="2">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="J29" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K29" s="2">
         <v>8.8000000000000007</v>
       </c>
+      <c r="L29" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="B30" s="1">
-        <v>42482</v>
+        <v>42537</v>
       </c>
       <c r="C30">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F30" s="2">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="G30" s="2">
-        <v>13.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H30" s="2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="I30" s="2">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="J30" s="2">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="K30" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="B31" s="1">
-        <v>42437</v>
+        <v>42482</v>
       </c>
       <c r="C31">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G31" s="2">
+        <v>13.3</v>
       </c>
       <c r="H31" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I31" s="2">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="J31" s="2">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="K31" s="2">
-        <v>7</v>
-      </c>
-      <c r="L31" s="3">
-        <v>35.799999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="B32" s="1">
-        <v>42369</v>
+        <v>42437</v>
       </c>
       <c r="C32">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H32" s="2">
-        <v>9.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I32" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="J32" s="2">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="K32" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L32" s="3">
-        <v>35.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42338</v>
+        <v>42366</v>
       </c>
       <c r="B33" s="1">
-        <v>42341</v>
+        <v>42369</v>
       </c>
       <c r="C33">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F33" s="2">
-        <v>24</v>
-      </c>
-      <c r="G33" s="2">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
       <c r="H33" s="2">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I33" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J33" s="2">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="K33" s="2">
-        <v>7.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="L33" s="3">
+        <v>35.6</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B34" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C34">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="F34" s="2">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="G34" s="2">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="H34" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="I34" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J34" s="2">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="K34" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="M34" s="4"/>
     </row>
@@ -1723,352 +1722,355 @@
         <v>23</v>
       </c>
       <c r="E35" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F35" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>15.9</v>
       </c>
       <c r="H35" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I35" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J35" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K35" s="2">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="I35" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="K35" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L35" s="3">
-        <v>37.6</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B36" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C36">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I36" s="2">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="J36" s="2">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="K36" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L36" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42303</v>
+        <v>42324</v>
       </c>
       <c r="B37" s="1">
-        <v>42308</v>
+        <v>42331</v>
       </c>
       <c r="C37">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H37" s="2">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I37" s="2">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="J37" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K37" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="L37" s="3">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42282</v>
+        <v>42303</v>
       </c>
       <c r="B38" s="1">
-        <v>42304</v>
+        <v>42308</v>
       </c>
       <c r="C38">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="H38" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I38" s="2">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="J38" s="2">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="K38" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L38" s="3">
-        <v>39.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42274</v>
+        <v>42282</v>
       </c>
       <c r="B39" s="1">
-        <v>42274</v>
+        <v>42304</v>
       </c>
       <c r="C39">
-        <v>4130196</v>
+        <v>2000</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2">
-        <v>8.2100000000000009</v>
+        <v>11.1</v>
       </c>
       <c r="H39" s="2">
-        <v>8.94</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I39" s="2">
-        <v>12.72</v>
+        <v>10.6</v>
       </c>
       <c r="J39" s="2">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="K39" s="2">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="L39" s="3">
-        <v>39.590000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="B40" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="C40">
-        <v>1200</v>
+        <v>4130196</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="2">
-        <v>7</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H40" s="2">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="I40" s="2">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="J40" s="2">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K40" s="2">
-        <v>11</v>
+        <v>8.49</v>
       </c>
       <c r="L40" s="3">
-        <v>41</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B41" s="1">
-        <v>42272</v>
+        <v>42268</v>
       </c>
       <c r="C41">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7</v>
+      </c>
+      <c r="H41" s="2">
+        <v>12</v>
+      </c>
+      <c r="I41" s="2">
+        <v>12</v>
+      </c>
+      <c r="J41" s="2">
         <v>13</v>
       </c>
-      <c r="E41" s="2">
-        <v>8</v>
-      </c>
-      <c r="H41" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="I41" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J41" s="2">
-        <v>14.5</v>
-      </c>
       <c r="K41" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L41" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42257</v>
+        <v>42261</v>
       </c>
       <c r="B42" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C42">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H42" s="2">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="I42" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J42" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="K42" s="2">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="L42" s="3">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42258</v>
+        <v>42257</v>
       </c>
       <c r="B43" s="1">
-        <v>42266</v>
+        <v>42264</v>
       </c>
       <c r="C43">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E43" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H43" s="2">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="I43" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J43" s="2">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="K43" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L43" s="3">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42263</v>
+        <v>42258</v>
       </c>
       <c r="B44" s="1">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="C44">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="H44" s="2">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="I44" s="2">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="J44" s="2">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="K44" s="2">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="L44" s="3">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B45" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C45">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H45" s="2">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="I45" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="J45" s="2">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K45" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="L45" s="3">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="M45" s="4"/>
     </row>
@@ -2080,28 +2082,28 @@
         <v>42265</v>
       </c>
       <c r="C46">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E46" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H46" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="I46" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J46" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="K46" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L46" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M46" s="4"/>
     </row>
@@ -2110,28 +2112,28 @@
         <v>42261</v>
       </c>
       <c r="B47" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C47">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E47" s="2">
         <v>6.4</v>
       </c>
       <c r="H47" s="2">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="I47" s="2">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="J47" s="2">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K47" s="2">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L47" s="3">
         <v>40.700000000000003</v>
@@ -2143,31 +2145,31 @@
         <v>42261</v>
       </c>
       <c r="B48" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C48">
-        <v>1717</v>
+        <v>1000</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E48" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H48" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I48" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="J48" s="2">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="K48" s="2">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="L48" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M48" s="4"/>
     </row>
@@ -2179,28 +2181,28 @@
         <v>42263</v>
       </c>
       <c r="C49">
-        <v>1157</v>
+        <v>1717</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E49" s="2">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H49" s="2">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I49" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J49" s="2">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="K49" s="2">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="L49" s="3">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="M49" s="4"/>
     </row>
@@ -2212,193 +2214,193 @@
         <v>42263</v>
       </c>
       <c r="C50">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E50" s="2">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H50" s="2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="I50" s="2">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="J50" s="2">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="K50" s="2">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="L50" s="3">
-        <v>39.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B51" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C51">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E51" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H51" s="2">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="I51" s="2">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="J51" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="K51" s="2">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="L51" s="3">
-        <v>37.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42248</v>
+        <v>42254</v>
       </c>
       <c r="B52" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C52">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H52" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I52" s="2">
         <v>11.4</v>
       </c>
-      <c r="I52" s="2">
-        <v>11.1</v>
-      </c>
       <c r="J52" s="2">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="K52" s="2">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L52" s="3">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42250</v>
+        <v>42248</v>
       </c>
       <c r="B53" s="1">
         <v>42255</v>
       </c>
       <c r="C53">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H53" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="I53" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="K53" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I53" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J53" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K53" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L53" s="3">
-        <v>42.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42246</v>
+        <v>42250</v>
       </c>
       <c r="B54" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C54">
-        <v>2999</v>
+        <v>750</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H54" s="2">
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I54" s="2">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J54" s="2">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="K54" s="2">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L54" s="3">
-        <v>38.1</v>
+        <v>42.1</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B55" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C55">
-        <v>1400</v>
+        <v>2999</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E55" s="2">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H55" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I55" s="2">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J55" s="2">
-        <v>12.7</v>
+        <v>14.8</v>
       </c>
       <c r="K55" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L55" s="3">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="M55" s="4"/>
     </row>
@@ -2407,273 +2409,306 @@
         <v>42247</v>
       </c>
       <c r="B56" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="C56">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E56" s="2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H56" s="2">
         <v>12.4</v>
       </c>
       <c r="I56" s="2">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="J56" s="2">
-        <v>19.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K56" s="2">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L56" s="3">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B57" s="1">
-        <v>42250</v>
+        <v>42249</v>
       </c>
       <c r="C57">
-        <v>1221</v>
+        <v>800</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E57" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H57" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I57" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="J57" s="2">
-        <v>12.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K57" s="2">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="L57" s="3">
-        <v>43.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42233</v>
+        <v>42248</v>
       </c>
       <c r="B58" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C58">
-        <v>955</v>
+        <v>1221</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E58" s="2">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H58" s="2">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I58" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J58" s="2">
-        <v>17.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K58" s="2">
-        <v>9.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L58" s="3">
-        <v>36.299999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42201</v>
+        <v>42233</v>
       </c>
       <c r="B59" s="1">
-        <v>42208</v>
+        <v>42238</v>
       </c>
       <c r="C59">
-        <v>1255</v>
+        <v>955</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H59" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="I59" s="2">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="J59" s="2">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K59" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L59" s="3">
-        <v>35.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42191</v>
+        <v>42201</v>
       </c>
       <c r="B60" s="1">
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="C60">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2">
-        <v>7</v>
-      </c>
-      <c r="F60" s="2">
-        <v>15</v>
-      </c>
-      <c r="G60" s="2">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="H60" s="2">
-        <v>16.5</v>
+        <v>12.8</v>
       </c>
       <c r="I60" s="2">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J60" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K60" s="2">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L60" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42186</v>
+        <v>42191</v>
       </c>
       <c r="B61" s="1">
-        <v>42188</v>
+        <v>42194</v>
       </c>
       <c r="C61">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E61" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F61" s="2">
+        <v>15</v>
+      </c>
+      <c r="G61" s="2">
+        <v>22</v>
       </c>
       <c r="H61" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I61" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J61" s="2">
         <v>16</v>
       </c>
       <c r="K61" s="2">
-        <v>9</v>
-      </c>
-      <c r="L61" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42202</v>
+        <v>42186</v>
       </c>
       <c r="B62" s="1">
-        <v>42206</v>
+        <v>42188</v>
       </c>
       <c r="C62">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E62" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F62" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G62" s="2">
-        <v>23.1</v>
+        <v>8</v>
       </c>
       <c r="H62" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" s="2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J62" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K62" s="2">
-        <v>5.9</v>
+        <v>9</v>
+      </c>
+      <c r="L62" s="3">
+        <v>32</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B63" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C63">
+        <v>800</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F63" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G63" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>18</v>
+      </c>
+      <c r="I63" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J63" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>42121</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B64" s="1">
         <v>42123</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>1000</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E64" s="2">
         <v>7.9</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F64" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G64" s="2">
         <v>22.6</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H64" s="2">
         <v>12.9</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I64" s="2">
         <v>9.9</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J64" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K64" s="2">
         <v>6.4</v>
       </c>
-      <c r="M63" s="4"/>
+      <c r="M64" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,34 +558,34 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43066</v>
+        <v>43070</v>
       </c>
       <c r="B2" s="1">
-        <v>43069</v>
+        <v>43074</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F2" s="2">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2">
-        <v>19</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H2" s="2">
-        <v>6.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I2" s="2">
-        <v>15.2</v>
+        <v>13.5</v>
       </c>
       <c r="J2" s="2">
-        <v>20.5</v>
+        <v>22.8</v>
       </c>
       <c r="K2" s="2">
         <v>6.2</v>
@@ -593,212 +593,212 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="B3" s="1">
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="C3">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2">
-        <v>20.8</v>
+        <v>23.1</v>
       </c>
       <c r="G3" s="2">
-        <v>16.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="I3" s="2">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="J3" s="2">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="K3" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43052</v>
+        <v>43062</v>
       </c>
       <c r="B4" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="F4" s="2">
-        <v>24.1</v>
+        <v>20.8</v>
       </c>
       <c r="G4" s="2">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H4" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I4" s="2">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2">
-        <v>20.9</v>
+        <v>22.5</v>
       </c>
       <c r="K4" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43059</v>
+        <v>43052</v>
       </c>
       <c r="B5" s="1">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="C5">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F5" s="2">
-        <v>26.5</v>
+        <v>24.1</v>
       </c>
       <c r="G5" s="2">
         <v>13.6</v>
       </c>
       <c r="H5" s="2">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="I5" s="2">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="J5" s="2">
-        <v>25.3</v>
+        <v>20.9</v>
       </c>
       <c r="K5" s="2">
-        <v>5.8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43054</v>
+        <v>43059</v>
       </c>
       <c r="B6" s="1">
-        <v>43057</v>
+        <v>43061</v>
       </c>
       <c r="C6">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F6" s="2">
-        <v>23.9</v>
+        <v>26.5</v>
       </c>
       <c r="G6" s="2">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="H6" s="2">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="I6" s="2">
-        <v>18.100000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="J6" s="2">
-        <v>18.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K6" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43052</v>
+        <v>43054</v>
       </c>
       <c r="B7" s="1">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="C7">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F7" s="2">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="G7" s="2">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="H7" s="2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I7" s="2">
-        <v>15.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>22.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K7" s="2">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="B8" s="1">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F8" s="2">
-        <v>26.3</v>
+        <v>23.1</v>
       </c>
       <c r="G8" s="2">
-        <v>10.7</v>
+        <v>16.7</v>
       </c>
       <c r="H8" s="2">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="I8" s="2">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="J8" s="2">
-        <v>19.600000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="K8" s="2">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -809,170 +809,169 @@
         <v>43042</v>
       </c>
       <c r="C9">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>6.3</v>
       </c>
       <c r="F9" s="2">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="G9" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H9" s="2">
         <v>10.4</v>
       </c>
-      <c r="H9" s="2">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="I9" s="2">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="J9" s="2">
-        <v>20.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>8.6999999999999993</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B10" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F10" s="2">
-        <v>31.2</v>
+        <v>29.3</v>
       </c>
       <c r="G10" s="2">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="H10" s="2">
-        <v>10</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I10" s="2">
-        <v>12.2</v>
+        <v>14.6</v>
       </c>
       <c r="J10" s="2">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="K10" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43024</v>
+        <v>43035</v>
       </c>
       <c r="B11" s="1">
-        <v>43037</v>
+        <v>43039</v>
       </c>
       <c r="C11">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10.1</v>
       </c>
       <c r="H11" s="2">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I11" s="2">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="J11" s="2">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="K11" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L11" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M11" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="B12" s="1">
-        <v>43034</v>
+        <v>43037</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2">
         <v>6.3</v>
       </c>
-      <c r="F12" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H12" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I12" s="2">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="J12" s="2">
-        <v>19.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K12" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L12" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B13" s="1">
-        <v>43029</v>
+        <v>43034</v>
       </c>
       <c r="C13">
         <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F13" s="2">
-        <v>24.6</v>
+        <v>26.4</v>
       </c>
       <c r="G13" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H13" s="2">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J13" s="2">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K13" s="2">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M13" s="4"/>
     </row>
@@ -981,256 +980,259 @@
         <v>43024</v>
       </c>
       <c r="B14" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="C14">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="F14" s="2">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="G14" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H14" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I14" s="2">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="J14" s="2">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="K14" s="2">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B15" s="1">
-        <v>43017</v>
+        <v>43027</v>
       </c>
       <c r="C15">
         <v>800</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="F15" s="2">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="G15" s="2">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="J15" s="2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="K15" s="2">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42996</v>
+        <v>43012</v>
       </c>
       <c r="B16" s="1">
-        <v>43000</v>
+        <v>43017</v>
       </c>
       <c r="C16">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F16" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G16" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H16" s="2">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2">
-        <v>13.7</v>
+        <v>9.5</v>
       </c>
       <c r="J16" s="2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K16" s="2">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42990</v>
+        <v>42996</v>
       </c>
       <c r="B17" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="C17">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F17" s="2">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="G17" s="2">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="H17" s="2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I17" s="2">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="J17" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K17" s="2">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42975</v>
+        <v>42990</v>
       </c>
       <c r="B18" s="1">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="C18">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="F18" s="2">
-        <v>28</v>
+        <v>24.7</v>
       </c>
       <c r="G18" s="2">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H18" s="2">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="I18" s="2">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="J18" s="2">
-        <v>17.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K18" s="2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B19" s="1">
-        <v>42958</v>
+        <v>42979</v>
       </c>
       <c r="C19">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F19" s="2">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G19" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H19" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="I19" s="2">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="J19" s="2">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="K19" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42912</v>
+        <v>42951</v>
       </c>
       <c r="B20" s="1">
-        <v>42927</v>
+        <v>42958</v>
       </c>
       <c r="C20">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
-        <v>5.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>13.9</v>
       </c>
       <c r="H20" s="2">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="I20" s="2">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J20" s="2">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="K20" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L20" s="3">
-        <v>39.299999999999997</v>
+        <v>9.5</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42800</v>
+        <v>42912</v>
       </c>
       <c r="B21" s="1">
-        <v>42815</v>
+        <v>42927</v>
       </c>
       <c r="C21">
         <v>1500</v>
@@ -1239,127 +1241,127 @@
         <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H21" s="2">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="I21" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J21" s="2">
-        <v>16.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K21" s="2">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L21" s="3">
-        <v>37</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42737</v>
+        <v>42800</v>
       </c>
       <c r="B22" s="1">
-        <v>42740</v>
+        <v>42815</v>
       </c>
       <c r="C22">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F22" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H22" s="2">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="I22" s="2">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J22" s="2">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K22" s="2">
-        <v>9.8000000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
+        <v>37</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42720</v>
+        <v>42737</v>
       </c>
       <c r="B23" s="1">
-        <v>42727</v>
+        <v>42740</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2">
-        <v>7.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F23" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G23" s="2">
-        <v>14.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H23" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I23" s="2">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="J23" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K23" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B24" s="1">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="C24">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2">
-        <v>6</v>
+        <v>7.2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>14.8</v>
       </c>
       <c r="H24" s="2">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I24" s="2">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="J24" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>9</v>
-      </c>
-      <c r="L24" s="3">
-        <v>37.6</v>
+        <v>9.1</v>
       </c>
       <c r="M24" s="4"/>
     </row>
@@ -1368,103 +1370,100 @@
         <v>42716</v>
       </c>
       <c r="B25" s="1">
-        <v>42718</v>
+        <v>42721</v>
       </c>
       <c r="C25">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="G25" s="2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I25" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="J25" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K25" s="2">
-        <v>8.1</v>
+        <v>9</v>
+      </c>
+      <c r="L25" s="3">
+        <v>37.6</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B26" s="1">
-        <v>42677</v>
+        <v>42718</v>
       </c>
       <c r="C26">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E26" s="2">
         <v>5.2</v>
       </c>
+      <c r="F26" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G26" s="2">
+        <v>11.5</v>
+      </c>
       <c r="H26" s="2">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="I26" s="2">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="J26" s="2">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="K26" s="2">
-        <v>10</v>
-      </c>
-      <c r="L26" s="3">
-        <v>37.4</v>
+        <v>8.1</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B27" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C27">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G27" s="2">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="H27" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I27" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J27" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K27" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L27" s="3">
+        <v>37.4</v>
       </c>
       <c r="M27" s="4"/>
     </row>
@@ -1482,7 +1481,13 @@
         <v>14</v>
       </c>
       <c r="E28" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>17.2</v>
       </c>
       <c r="H28" s="2">
         <v>13.9</v>
@@ -1496,251 +1501,245 @@
       <c r="K28" s="2">
         <v>9.1</v>
       </c>
-      <c r="L28" s="3">
-        <v>36</v>
-      </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B29" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C29">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="H29" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I29" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J29" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K29" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="L29" s="3">
-        <v>38.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42534</v>
+        <v>42549</v>
       </c>
       <c r="B30" s="1">
-        <v>42537</v>
+        <v>42564</v>
       </c>
       <c r="C30">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F30" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>19.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H30" s="2">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="I30" s="2">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="J30" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K30" s="2">
         <v>8.8000000000000007</v>
       </c>
+      <c r="L30" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="B31" s="1">
-        <v>42482</v>
+        <v>42537</v>
       </c>
       <c r="C31">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F31" s="2">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="G31" s="2">
-        <v>13.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H31" s="2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="I31" s="2">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="J31" s="2">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="K31" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="B32" s="1">
-        <v>42437</v>
+        <v>42482</v>
       </c>
       <c r="C32">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>13.3</v>
       </c>
       <c r="H32" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I32" s="2">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="J32" s="2">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="K32" s="2">
-        <v>7</v>
-      </c>
-      <c r="L32" s="3">
-        <v>35.799999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="B33" s="1">
-        <v>42369</v>
+        <v>42437</v>
       </c>
       <c r="C33">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E33" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H33" s="2">
-        <v>9.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I33" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="J33" s="2">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="K33" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L33" s="3">
-        <v>35.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42338</v>
+        <v>42366</v>
       </c>
       <c r="B34" s="1">
-        <v>42341</v>
+        <v>42369</v>
       </c>
       <c r="C34">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F34" s="2">
-        <v>24</v>
-      </c>
-      <c r="G34" s="2">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
       <c r="H34" s="2">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I34" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J34" s="2">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="K34" s="2">
-        <v>7.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="L34" s="3">
+        <v>35.6</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B35" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C35">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="F35" s="2">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="G35" s="2">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="H35" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="I35" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J35" s="2">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="K35" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="M35" s="4"/>
     </row>
@@ -1758,352 +1757,355 @@
         <v>23</v>
       </c>
       <c r="E36" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F36" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>15.9</v>
       </c>
       <c r="H36" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I36" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J36" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K36" s="2">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="I36" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="J36" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="K36" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L36" s="3">
-        <v>37.6</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B37" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C37">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E37" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H37" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I37" s="2">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="J37" s="2">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="K37" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L37" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42303</v>
+        <v>42324</v>
       </c>
       <c r="B38" s="1">
-        <v>42308</v>
+        <v>42331</v>
       </c>
       <c r="C38">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H38" s="2">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I38" s="2">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="J38" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K38" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="L38" s="3">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42282</v>
+        <v>42303</v>
       </c>
       <c r="B39" s="1">
-        <v>42304</v>
+        <v>42308</v>
       </c>
       <c r="C39">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="H39" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I39" s="2">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="J39" s="2">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="K39" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L39" s="3">
-        <v>39.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42274</v>
+        <v>42282</v>
       </c>
       <c r="B40" s="1">
-        <v>42274</v>
+        <v>42304</v>
       </c>
       <c r="C40">
-        <v>4130196</v>
+        <v>2000</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2">
-        <v>8.2100000000000009</v>
+        <v>11.1</v>
       </c>
       <c r="H40" s="2">
-        <v>8.94</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I40" s="2">
-        <v>12.72</v>
+        <v>10.6</v>
       </c>
       <c r="J40" s="2">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="K40" s="2">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="L40" s="3">
-        <v>39.590000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="B41" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="C41">
-        <v>1200</v>
+        <v>4130196</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="2">
-        <v>7</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H41" s="2">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="I41" s="2">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="J41" s="2">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K41" s="2">
-        <v>11</v>
+        <v>8.49</v>
       </c>
       <c r="L41" s="3">
-        <v>41</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B42" s="1">
-        <v>42272</v>
+        <v>42268</v>
       </c>
       <c r="C42">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2">
+        <v>12</v>
+      </c>
+      <c r="I42" s="2">
+        <v>12</v>
+      </c>
+      <c r="J42" s="2">
         <v>13</v>
       </c>
-      <c r="E42" s="2">
-        <v>8</v>
-      </c>
-      <c r="H42" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="I42" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J42" s="2">
-        <v>14.5</v>
-      </c>
       <c r="K42" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L42" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42257</v>
+        <v>42261</v>
       </c>
       <c r="B43" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C43">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H43" s="2">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="I43" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J43" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="K43" s="2">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="L43" s="3">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42258</v>
+        <v>42257</v>
       </c>
       <c r="B44" s="1">
-        <v>42266</v>
+        <v>42264</v>
       </c>
       <c r="C44">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E44" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H44" s="2">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="I44" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J44" s="2">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="K44" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L44" s="3">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42263</v>
+        <v>42258</v>
       </c>
       <c r="B45" s="1">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="C45">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="H45" s="2">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="I45" s="2">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="J45" s="2">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="K45" s="2">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="L45" s="3">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B46" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C46">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H46" s="2">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="I46" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="J46" s="2">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K46" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="L46" s="3">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="M46" s="4"/>
     </row>
@@ -2115,28 +2117,28 @@
         <v>42265</v>
       </c>
       <c r="C47">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H47" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="I47" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J47" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="K47" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L47" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M47" s="4"/>
     </row>
@@ -2145,28 +2147,28 @@
         <v>42261</v>
       </c>
       <c r="B48" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C48">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2">
         <v>6.4</v>
       </c>
       <c r="H48" s="2">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="I48" s="2">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="J48" s="2">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K48" s="2">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L48" s="3">
         <v>40.700000000000003</v>
@@ -2178,31 +2180,31 @@
         <v>42261</v>
       </c>
       <c r="B49" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C49">
-        <v>1717</v>
+        <v>1000</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E49" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H49" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I49" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="J49" s="2">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="K49" s="2">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="L49" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M49" s="4"/>
     </row>
@@ -2214,28 +2216,28 @@
         <v>42263</v>
       </c>
       <c r="C50">
-        <v>1157</v>
+        <v>1717</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E50" s="2">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H50" s="2">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I50" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J50" s="2">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="K50" s="2">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="L50" s="3">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -2247,193 +2249,193 @@
         <v>42263</v>
       </c>
       <c r="C51">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E51" s="2">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H51" s="2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="I51" s="2">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="J51" s="2">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="K51" s="2">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="L51" s="3">
-        <v>39.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B52" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C52">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E52" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H52" s="2">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="I52" s="2">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="J52" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="K52" s="2">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="L52" s="3">
-        <v>37.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42248</v>
+        <v>42254</v>
       </c>
       <c r="B53" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C53">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H53" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I53" s="2">
         <v>11.4</v>
       </c>
-      <c r="I53" s="2">
-        <v>11.1</v>
-      </c>
       <c r="J53" s="2">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="K53" s="2">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L53" s="3">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42250</v>
+        <v>42248</v>
       </c>
       <c r="B54" s="1">
         <v>42255</v>
       </c>
       <c r="C54">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" s="2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H54" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="I54" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="K54" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I54" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J54" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K54" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L54" s="3">
-        <v>42.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42246</v>
+        <v>42250</v>
       </c>
       <c r="B55" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C55">
-        <v>2999</v>
+        <v>750</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H55" s="2">
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I55" s="2">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J55" s="2">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="K55" s="2">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L55" s="3">
-        <v>38.1</v>
+        <v>42.1</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B56" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C56">
-        <v>1400</v>
+        <v>2999</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E56" s="2">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H56" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I56" s="2">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J56" s="2">
-        <v>12.7</v>
+        <v>14.8</v>
       </c>
       <c r="K56" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L56" s="3">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="M56" s="4"/>
     </row>
@@ -2442,273 +2444,306 @@
         <v>42247</v>
       </c>
       <c r="B57" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="C57">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H57" s="2">
         <v>12.4</v>
       </c>
       <c r="I57" s="2">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="J57" s="2">
-        <v>19.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K57" s="2">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L57" s="3">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B58" s="1">
-        <v>42250</v>
+        <v>42249</v>
       </c>
       <c r="C58">
-        <v>1221</v>
+        <v>800</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E58" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H58" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I58" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="J58" s="2">
-        <v>12.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K58" s="2">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="L58" s="3">
-        <v>43.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42233</v>
+        <v>42248</v>
       </c>
       <c r="B59" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C59">
-        <v>955</v>
+        <v>1221</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E59" s="2">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H59" s="2">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I59" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J59" s="2">
-        <v>17.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K59" s="2">
-        <v>9.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L59" s="3">
-        <v>36.299999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42201</v>
+        <v>42233</v>
       </c>
       <c r="B60" s="1">
-        <v>42208</v>
+        <v>42238</v>
       </c>
       <c r="C60">
-        <v>1255</v>
+        <v>955</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H60" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="I60" s="2">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="J60" s="2">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K60" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L60" s="3">
-        <v>35.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42191</v>
+        <v>42201</v>
       </c>
       <c r="B61" s="1">
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="C61">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E61" s="2">
-        <v>7</v>
-      </c>
-      <c r="F61" s="2">
-        <v>15</v>
-      </c>
-      <c r="G61" s="2">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="H61" s="2">
-        <v>16.5</v>
+        <v>12.8</v>
       </c>
       <c r="I61" s="2">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J61" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K61" s="2">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L61" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42186</v>
+        <v>42191</v>
       </c>
       <c r="B62" s="1">
-        <v>42188</v>
+        <v>42194</v>
       </c>
       <c r="C62">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E62" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F62" s="2">
+        <v>15</v>
+      </c>
+      <c r="G62" s="2">
+        <v>22</v>
       </c>
       <c r="H62" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I62" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J62" s="2">
         <v>16</v>
       </c>
       <c r="K62" s="2">
-        <v>9</v>
-      </c>
-      <c r="L62" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42202</v>
+        <v>42186</v>
       </c>
       <c r="B63" s="1">
-        <v>42206</v>
+        <v>42188</v>
       </c>
       <c r="C63">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E63" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F63" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G63" s="2">
-        <v>23.1</v>
+        <v>8</v>
       </c>
       <c r="H63" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" s="2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J63" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K63" s="2">
-        <v>5.9</v>
+        <v>9</v>
+      </c>
+      <c r="L63" s="3">
+        <v>32</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B64" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C64">
+        <v>800</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F64" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G64" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>18</v>
+      </c>
+      <c r="I64" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J64" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>42121</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B65" s="1">
         <v>42123</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>1000</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E65" s="2">
         <v>7.9</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F65" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G65" s="2">
         <v>22.6</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H65" s="2">
         <v>12.9</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I65" s="2">
         <v>9.9</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J65" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K65" s="2">
         <v>6.4</v>
       </c>
-      <c r="M64" s="4"/>
+      <c r="M65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,247 +593,247 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43066</v>
+        <v>43068</v>
       </c>
       <c r="B3" s="1">
-        <v>43069</v>
+        <v>43071</v>
       </c>
       <c r="C3">
         <v>800</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
         <v>6</v>
       </c>
       <c r="F3" s="2">
-        <v>23.1</v>
+        <v>20.5</v>
       </c>
       <c r="G3" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I3" s="2">
         <v>19</v>
       </c>
-      <c r="H3" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>15.2</v>
-      </c>
       <c r="J3" s="2">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="B4" s="1">
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>20.8</v>
+        <v>23.1</v>
       </c>
       <c r="G4" s="2">
-        <v>16.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="I4" s="2">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="J4" s="2">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="K4" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43052</v>
+        <v>43062</v>
       </c>
       <c r="B5" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="F5" s="2">
-        <v>24.1</v>
+        <v>20.8</v>
       </c>
       <c r="G5" s="2">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I5" s="2">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2">
-        <v>20.9</v>
+        <v>22.5</v>
       </c>
       <c r="K5" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43059</v>
+        <v>43052</v>
       </c>
       <c r="B6" s="1">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="C6">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F6" s="2">
-        <v>26.5</v>
+        <v>24.1</v>
       </c>
       <c r="G6" s="2">
         <v>13.6</v>
       </c>
       <c r="H6" s="2">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="I6" s="2">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="J6" s="2">
-        <v>25.3</v>
+        <v>20.9</v>
       </c>
       <c r="K6" s="2">
-        <v>5.8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43054</v>
+        <v>43059</v>
       </c>
       <c r="B7" s="1">
-        <v>43057</v>
+        <v>43061</v>
       </c>
       <c r="C7">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F7" s="2">
-        <v>23.9</v>
+        <v>26.5</v>
       </c>
       <c r="G7" s="2">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="H7" s="2">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="I7" s="2">
-        <v>18.100000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="J7" s="2">
-        <v>18.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K7" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43052</v>
+        <v>43054</v>
       </c>
       <c r="B8" s="1">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="C8">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F8" s="2">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="G8" s="2">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="H8" s="2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I8" s="2">
-        <v>15.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J8" s="2">
-        <v>22.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K8" s="2">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="B9" s="1">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F9" s="2">
-        <v>26.3</v>
+        <v>23.1</v>
       </c>
       <c r="G9" s="2">
-        <v>10.7</v>
+        <v>16.7</v>
       </c>
       <c r="H9" s="2">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="I9" s="2">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="J9" s="2">
-        <v>19.600000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="K9" s="2">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -844,170 +844,169 @@
         <v>43042</v>
       </c>
       <c r="C10">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>6.3</v>
       </c>
       <c r="F10" s="2">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="G10" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H10" s="2">
         <v>10.4</v>
       </c>
-      <c r="H10" s="2">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="I10" s="2">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="J10" s="2">
-        <v>20.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K10" s="2">
-        <v>8.6999999999999993</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B11" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F11" s="2">
-        <v>31.2</v>
+        <v>29.3</v>
       </c>
       <c r="G11" s="2">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="H11" s="2">
-        <v>10</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I11" s="2">
-        <v>12.2</v>
+        <v>14.6</v>
       </c>
       <c r="J11" s="2">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="K11" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43024</v>
+        <v>43035</v>
       </c>
       <c r="B12" s="1">
-        <v>43037</v>
+        <v>43039</v>
       </c>
       <c r="C12">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10.1</v>
       </c>
       <c r="H12" s="2">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="J12" s="2">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="K12" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L12" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M12" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="B13" s="1">
-        <v>43034</v>
+        <v>43037</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
         <v>6.3</v>
       </c>
-      <c r="F13" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="G13" s="2">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H13" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I13" s="2">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="J13" s="2">
-        <v>19.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K13" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L13" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B14" s="1">
-        <v>43029</v>
+        <v>43034</v>
       </c>
       <c r="C14">
         <v>1000</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F14" s="2">
-        <v>24.6</v>
+        <v>26.4</v>
       </c>
       <c r="G14" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H14" s="2">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J14" s="2">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K14" s="2">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M14" s="4"/>
     </row>
@@ -1016,256 +1015,259 @@
         <v>43024</v>
       </c>
       <c r="B15" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="C15">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="F15" s="2">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="G15" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H15" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I15" s="2">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="J15" s="2">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="K15" s="2">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B16" s="1">
-        <v>43017</v>
+        <v>43027</v>
       </c>
       <c r="C16">
         <v>800</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="F16" s="2">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="G16" s="2">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H16" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16" s="2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="J16" s="2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="K16" s="2">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42996</v>
+        <v>43012</v>
       </c>
       <c r="B17" s="1">
-        <v>43000</v>
+        <v>43017</v>
       </c>
       <c r="C17">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F17" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G17" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H17" s="2">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2">
-        <v>13.7</v>
+        <v>9.5</v>
       </c>
       <c r="J17" s="2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K17" s="2">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42990</v>
+        <v>42996</v>
       </c>
       <c r="B18" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="C18">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F18" s="2">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="G18" s="2">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="H18" s="2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I18" s="2">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="J18" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K18" s="2">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42975</v>
+        <v>42990</v>
       </c>
       <c r="B19" s="1">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="C19">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="F19" s="2">
-        <v>28</v>
+        <v>24.7</v>
       </c>
       <c r="G19" s="2">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H19" s="2">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="I19" s="2">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="J19" s="2">
-        <v>17.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K19" s="2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B20" s="1">
-        <v>42958</v>
+        <v>42979</v>
       </c>
       <c r="C20">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F20" s="2">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H20" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="I20" s="2">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="J20" s="2">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="K20" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42912</v>
+        <v>42951</v>
       </c>
       <c r="B21" s="1">
-        <v>42927</v>
+        <v>42958</v>
       </c>
       <c r="C21">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
-        <v>5.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G21" s="2">
+        <v>13.9</v>
       </c>
       <c r="H21" s="2">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="I21" s="2">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J21" s="2">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="K21" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L21" s="3">
-        <v>39.299999999999997</v>
+        <v>9.5</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42800</v>
+        <v>42912</v>
       </c>
       <c r="B22" s="1">
-        <v>42815</v>
+        <v>42927</v>
       </c>
       <c r="C22">
         <v>1500</v>
@@ -1274,127 +1276,127 @@
         <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H22" s="2">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="I22" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J22" s="2">
-        <v>16.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K22" s="2">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L22" s="3">
-        <v>37</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42737</v>
+        <v>42800</v>
       </c>
       <c r="B23" s="1">
-        <v>42740</v>
+        <v>42815</v>
       </c>
       <c r="C23">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F23" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H23" s="2">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="I23" s="2">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J23" s="2">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K23" s="2">
-        <v>9.8000000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="L23" s="3">
+        <v>37</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42720</v>
+        <v>42737</v>
       </c>
       <c r="B24" s="1">
-        <v>42727</v>
+        <v>42740</v>
       </c>
       <c r="C24">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>7.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F24" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G24" s="2">
-        <v>14.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H24" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I24" s="2">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="J24" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K24" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B25" s="1">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="C25">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>6</v>
+        <v>7.2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>14.8</v>
       </c>
       <c r="H25" s="2">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I25" s="2">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="J25" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="K25" s="2">
-        <v>9</v>
-      </c>
-      <c r="L25" s="3">
-        <v>37.6</v>
+        <v>9.1</v>
       </c>
       <c r="M25" s="4"/>
     </row>
@@ -1403,103 +1405,100 @@
         <v>42716</v>
       </c>
       <c r="B26" s="1">
-        <v>42718</v>
+        <v>42721</v>
       </c>
       <c r="C26">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="G26" s="2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I26" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="J26" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K26" s="2">
-        <v>8.1</v>
+        <v>9</v>
+      </c>
+      <c r="L26" s="3">
+        <v>37.6</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B27" s="1">
-        <v>42677</v>
+        <v>42718</v>
       </c>
       <c r="C27">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2">
         <v>5.2</v>
       </c>
+      <c r="F27" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G27" s="2">
+        <v>11.5</v>
+      </c>
       <c r="H27" s="2">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="I27" s="2">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="J27" s="2">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="K27" s="2">
-        <v>10</v>
-      </c>
-      <c r="L27" s="3">
-        <v>37.4</v>
+        <v>8.1</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B28" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C28">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F28" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G28" s="2">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="H28" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I28" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J28" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K28" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L28" s="3">
+        <v>37.4</v>
       </c>
       <c r="M28" s="4"/>
     </row>
@@ -1517,7 +1516,13 @@
         <v>14</v>
       </c>
       <c r="E29" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>17.2</v>
       </c>
       <c r="H29" s="2">
         <v>13.9</v>
@@ -1531,251 +1536,245 @@
       <c r="K29" s="2">
         <v>9.1</v>
       </c>
-      <c r="L29" s="3">
-        <v>36</v>
-      </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B30" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C30">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="H30" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I30" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J30" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K30" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="L30" s="3">
-        <v>38.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42534</v>
+        <v>42549</v>
       </c>
       <c r="B31" s="1">
-        <v>42537</v>
+        <v>42564</v>
       </c>
       <c r="C31">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F31" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G31" s="2">
-        <v>19.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H31" s="2">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="I31" s="2">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="J31" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K31" s="2">
         <v>8.8000000000000007</v>
       </c>
+      <c r="L31" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="B32" s="1">
-        <v>42482</v>
+        <v>42537</v>
       </c>
       <c r="C32">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F32" s="2">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="G32" s="2">
-        <v>13.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H32" s="2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="I32" s="2">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="J32" s="2">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="K32" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="B33" s="1">
-        <v>42437</v>
+        <v>42482</v>
       </c>
       <c r="C33">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E33" s="2">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>13.3</v>
       </c>
       <c r="H33" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I33" s="2">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="J33" s="2">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="K33" s="2">
-        <v>7</v>
-      </c>
-      <c r="L33" s="3">
-        <v>35.799999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="B34" s="1">
-        <v>42369</v>
+        <v>42437</v>
       </c>
       <c r="C34">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H34" s="2">
-        <v>9.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I34" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="J34" s="2">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="K34" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L34" s="3">
-        <v>35.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42338</v>
+        <v>42366</v>
       </c>
       <c r="B35" s="1">
-        <v>42341</v>
+        <v>42369</v>
       </c>
       <c r="C35">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F35" s="2">
-        <v>24</v>
-      </c>
-      <c r="G35" s="2">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
       <c r="H35" s="2">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I35" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J35" s="2">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="K35" s="2">
-        <v>7.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="L35" s="3">
+        <v>35.6</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B36" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C36">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="F36" s="2">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="G36" s="2">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="H36" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="I36" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J36" s="2">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="K36" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="M36" s="4"/>
     </row>
@@ -1793,352 +1792,355 @@
         <v>23</v>
       </c>
       <c r="E37" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F37" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>15.9</v>
       </c>
       <c r="H37" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I37" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J37" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K37" s="2">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="I37" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="J37" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="K37" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L37" s="3">
-        <v>37.6</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B38" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C38">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H38" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I38" s="2">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="J38" s="2">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="K38" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L38" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42303</v>
+        <v>42324</v>
       </c>
       <c r="B39" s="1">
-        <v>42308</v>
+        <v>42331</v>
       </c>
       <c r="C39">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E39" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H39" s="2">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I39" s="2">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="J39" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K39" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="L39" s="3">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42282</v>
+        <v>42303</v>
       </c>
       <c r="B40" s="1">
-        <v>42304</v>
+        <v>42308</v>
       </c>
       <c r="C40">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="H40" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I40" s="2">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="J40" s="2">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="K40" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L40" s="3">
-        <v>39.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42274</v>
+        <v>42282</v>
       </c>
       <c r="B41" s="1">
-        <v>42274</v>
+        <v>42304</v>
       </c>
       <c r="C41">
-        <v>4130196</v>
+        <v>2000</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2">
-        <v>8.2100000000000009</v>
+        <v>11.1</v>
       </c>
       <c r="H41" s="2">
-        <v>8.94</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I41" s="2">
-        <v>12.72</v>
+        <v>10.6</v>
       </c>
       <c r="J41" s="2">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="K41" s="2">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="L41" s="3">
-        <v>39.590000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="B42" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="C42">
-        <v>1200</v>
+        <v>4130196</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="2">
-        <v>7</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H42" s="2">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="I42" s="2">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="J42" s="2">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K42" s="2">
-        <v>11</v>
+        <v>8.49</v>
       </c>
       <c r="L42" s="3">
-        <v>41</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B43" s="1">
-        <v>42272</v>
+        <v>42268</v>
       </c>
       <c r="C43">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>7</v>
+      </c>
+      <c r="H43" s="2">
+        <v>12</v>
+      </c>
+      <c r="I43" s="2">
+        <v>12</v>
+      </c>
+      <c r="J43" s="2">
         <v>13</v>
       </c>
-      <c r="E43" s="2">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="I43" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J43" s="2">
-        <v>14.5</v>
-      </c>
       <c r="K43" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L43" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42257</v>
+        <v>42261</v>
       </c>
       <c r="B44" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C44">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H44" s="2">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="I44" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J44" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="K44" s="2">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="L44" s="3">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42258</v>
+        <v>42257</v>
       </c>
       <c r="B45" s="1">
-        <v>42266</v>
+        <v>42264</v>
       </c>
       <c r="C45">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E45" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H45" s="2">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="I45" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J45" s="2">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="K45" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L45" s="3">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42263</v>
+        <v>42258</v>
       </c>
       <c r="B46" s="1">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="C46">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="H46" s="2">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="I46" s="2">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="J46" s="2">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="K46" s="2">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="L46" s="3">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B47" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C47">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H47" s="2">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="I47" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="J47" s="2">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K47" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="L47" s="3">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="M47" s="4"/>
     </row>
@@ -2150,28 +2152,28 @@
         <v>42265</v>
       </c>
       <c r="C48">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E48" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H48" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="I48" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J48" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="K48" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L48" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M48" s="4"/>
     </row>
@@ -2180,28 +2182,28 @@
         <v>42261</v>
       </c>
       <c r="B49" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C49">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2">
         <v>6.4</v>
       </c>
       <c r="H49" s="2">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="I49" s="2">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="J49" s="2">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K49" s="2">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L49" s="3">
         <v>40.700000000000003</v>
@@ -2213,31 +2215,31 @@
         <v>42261</v>
       </c>
       <c r="B50" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C50">
-        <v>1717</v>
+        <v>1000</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E50" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H50" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I50" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="J50" s="2">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="K50" s="2">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="L50" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -2249,28 +2251,28 @@
         <v>42263</v>
       </c>
       <c r="C51">
-        <v>1157</v>
+        <v>1717</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E51" s="2">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H51" s="2">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I51" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J51" s="2">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="K51" s="2">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="L51" s="3">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="M51" s="4"/>
     </row>
@@ -2282,193 +2284,193 @@
         <v>42263</v>
       </c>
       <c r="C52">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E52" s="2">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H52" s="2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="I52" s="2">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="J52" s="2">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="K52" s="2">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="L52" s="3">
-        <v>39.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B53" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C53">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E53" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H53" s="2">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="I53" s="2">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="J53" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="K53" s="2">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="L53" s="3">
-        <v>37.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42248</v>
+        <v>42254</v>
       </c>
       <c r="B54" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C54">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E54" s="2">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H54" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I54" s="2">
         <v>11.4</v>
       </c>
-      <c r="I54" s="2">
-        <v>11.1</v>
-      </c>
       <c r="J54" s="2">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="K54" s="2">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L54" s="3">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42250</v>
+        <v>42248</v>
       </c>
       <c r="B55" s="1">
         <v>42255</v>
       </c>
       <c r="C55">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" s="2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H55" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="I55" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="K55" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I55" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J55" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K55" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L55" s="3">
-        <v>42.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42246</v>
+        <v>42250</v>
       </c>
       <c r="B56" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C56">
-        <v>2999</v>
+        <v>750</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H56" s="2">
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I56" s="2">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J56" s="2">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="K56" s="2">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L56" s="3">
-        <v>38.1</v>
+        <v>42.1</v>
       </c>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B57" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C57">
-        <v>1400</v>
+        <v>2999</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E57" s="2">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H57" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I57" s="2">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J57" s="2">
-        <v>12.7</v>
+        <v>14.8</v>
       </c>
       <c r="K57" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L57" s="3">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="M57" s="4"/>
     </row>
@@ -2477,273 +2479,306 @@
         <v>42247</v>
       </c>
       <c r="B58" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="C58">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E58" s="2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H58" s="2">
         <v>12.4</v>
       </c>
       <c r="I58" s="2">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="J58" s="2">
-        <v>19.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K58" s="2">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L58" s="3">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B59" s="1">
-        <v>42250</v>
+        <v>42249</v>
       </c>
       <c r="C59">
-        <v>1221</v>
+        <v>800</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E59" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H59" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I59" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="J59" s="2">
-        <v>12.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K59" s="2">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="L59" s="3">
-        <v>43.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42233</v>
+        <v>42248</v>
       </c>
       <c r="B60" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C60">
-        <v>955</v>
+        <v>1221</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E60" s="2">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H60" s="2">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I60" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J60" s="2">
-        <v>17.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K60" s="2">
-        <v>9.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L60" s="3">
-        <v>36.299999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42201</v>
+        <v>42233</v>
       </c>
       <c r="B61" s="1">
-        <v>42208</v>
+        <v>42238</v>
       </c>
       <c r="C61">
-        <v>1255</v>
+        <v>955</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H61" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="I61" s="2">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="J61" s="2">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K61" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L61" s="3">
-        <v>35.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42191</v>
+        <v>42201</v>
       </c>
       <c r="B62" s="1">
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="C62">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E62" s="2">
-        <v>7</v>
-      </c>
-      <c r="F62" s="2">
-        <v>15</v>
-      </c>
-      <c r="G62" s="2">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="H62" s="2">
-        <v>16.5</v>
+        <v>12.8</v>
       </c>
       <c r="I62" s="2">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J62" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K62" s="2">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L62" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42186</v>
+        <v>42191</v>
       </c>
       <c r="B63" s="1">
-        <v>42188</v>
+        <v>42194</v>
       </c>
       <c r="C63">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E63" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F63" s="2">
+        <v>15</v>
+      </c>
+      <c r="G63" s="2">
+        <v>22</v>
       </c>
       <c r="H63" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I63" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J63" s="2">
         <v>16</v>
       </c>
       <c r="K63" s="2">
-        <v>9</v>
-      </c>
-      <c r="L63" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42202</v>
+        <v>42186</v>
       </c>
       <c r="B64" s="1">
-        <v>42206</v>
+        <v>42188</v>
       </c>
       <c r="C64">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E64" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F64" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G64" s="2">
-        <v>23.1</v>
+        <v>8</v>
       </c>
       <c r="H64" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" s="2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J64" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K64" s="2">
-        <v>5.9</v>
+        <v>9</v>
+      </c>
+      <c r="L64" s="3">
+        <v>32</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B65" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C65">
+        <v>800</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F65" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G65" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>18</v>
+      </c>
+      <c r="I65" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J65" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>42121</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B66" s="1">
         <v>42123</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>1000</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E66" s="2">
         <v>7.9</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F66" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G66" s="2">
         <v>22.6</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H66" s="2">
         <v>12.9</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I66" s="2">
         <v>9.9</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J66" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K66" s="2">
         <v>6.4</v>
       </c>
-      <c r="M65" s="4"/>
+      <c r="M66" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20370" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,104 +558,104 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43070</v>
+        <v>43066</v>
       </c>
       <c r="B2" s="1">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="F2" s="2">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="G2" s="2">
-        <v>17.100000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="H2" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="I2" s="2">
-        <v>13.5</v>
+        <v>14.4</v>
       </c>
       <c r="J2" s="2">
-        <v>22.8</v>
+        <v>21.5</v>
       </c>
       <c r="K2" s="2">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43068</v>
+        <v>43072</v>
       </c>
       <c r="B3" s="1">
-        <v>43071</v>
+        <v>43076</v>
       </c>
       <c r="C3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="F3" s="2">
-        <v>20.5</v>
+        <v>23.1</v>
       </c>
       <c r="G3" s="2">
-        <v>19.3</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2">
-        <v>19</v>
+        <v>15.3</v>
       </c>
       <c r="J3" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43066</v>
+        <v>43070</v>
       </c>
       <c r="B4" s="1">
-        <v>43069</v>
+        <v>43074</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F4" s="2">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2">
-        <v>19</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H4" s="2">
-        <v>6.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I4" s="2">
-        <v>15.2</v>
+        <v>13.5</v>
       </c>
       <c r="J4" s="2">
-        <v>20.5</v>
+        <v>22.8</v>
       </c>
       <c r="K4" s="2">
         <v>6.2</v>
@@ -663,34 +663,34 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43062</v>
+        <v>43068</v>
       </c>
       <c r="B5" s="1">
-        <v>43066</v>
+        <v>43071</v>
       </c>
       <c r="C5">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="G5" s="2">
-        <v>16.899999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="H5" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="I5" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2">
-        <v>22.5</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2">
         <v>5.8</v>
@@ -698,69 +698,69 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43052</v>
+        <v>43066</v>
       </c>
       <c r="B6" s="1">
-        <v>43062</v>
+        <v>43069</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="G6" s="2">
-        <v>13.6</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="I6" s="2">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="J6" s="2">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="K6" s="2">
-        <v>9.3000000000000007</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43059</v>
+        <v>43062</v>
       </c>
       <c r="B7" s="1">
-        <v>43061</v>
+        <v>43066</v>
       </c>
       <c r="C7">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="F7" s="2">
-        <v>26.5</v>
+        <v>20.8</v>
       </c>
       <c r="G7" s="2">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="I7" s="2">
-        <v>14.9</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2">
-        <v>25.3</v>
+        <v>22.5</v>
       </c>
       <c r="K7" s="2">
         <v>5.8</v>
@@ -768,1445 +768,1449 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43054</v>
+        <v>43052</v>
       </c>
       <c r="B8" s="1">
-        <v>43057</v>
+        <v>43062</v>
       </c>
       <c r="C8">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="F8" s="2">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="G8" s="2">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="H8" s="2">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I8" s="2">
-        <v>18.100000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="J8" s="2">
-        <v>18.600000000000001</v>
+        <v>20.9</v>
       </c>
       <c r="K8" s="2">
-        <v>5.7</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43052</v>
+        <v>43059</v>
       </c>
       <c r="B9" s="1">
-        <v>43055</v>
+        <v>43061</v>
       </c>
       <c r="C9">
-        <v>801</v>
+        <v>1800</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="F9" s="2">
-        <v>23.1</v>
+        <v>26.5</v>
       </c>
       <c r="G9" s="2">
-        <v>16.7</v>
+        <v>13.6</v>
       </c>
       <c r="H9" s="2">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="I9" s="2">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="J9" s="2">
-        <v>22.3</v>
+        <v>25.3</v>
       </c>
       <c r="K9" s="2">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43038</v>
+        <v>43054</v>
       </c>
       <c r="B10" s="1">
-        <v>43042</v>
+        <v>43057</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2">
         <v>6.3</v>
       </c>
       <c r="F10" s="2">
-        <v>26.3</v>
+        <v>23.9</v>
       </c>
       <c r="G10" s="2">
-        <v>10.7</v>
+        <v>16.5</v>
       </c>
       <c r="H10" s="2">
-        <v>10.4</v>
+        <v>8.6</v>
       </c>
       <c r="I10" s="2">
-        <v>13.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>19.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K10" s="2">
-        <v>10.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="B11" s="1">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="C11">
-        <v>1233</v>
+        <v>801</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F11" s="2">
-        <v>29.3</v>
+        <v>23.1</v>
       </c>
       <c r="G11" s="2">
-        <v>10.4</v>
+        <v>16.7</v>
       </c>
       <c r="H11" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I11" s="2">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="J11" s="2">
-        <v>20.6</v>
+        <v>22.3</v>
       </c>
       <c r="K11" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B12" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C12">
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F12" s="2">
-        <v>31.2</v>
+        <v>26.3</v>
       </c>
       <c r="G12" s="2">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="I12" s="2">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="J12" s="2">
-        <v>18.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K12" s="2">
-        <v>9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43024</v>
+        <v>43038</v>
       </c>
       <c r="B13" s="1">
-        <v>43037</v>
+        <v>43042</v>
       </c>
       <c r="C13">
-        <v>1500</v>
+        <v>1233</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
         <v>6.3</v>
       </c>
+      <c r="F13" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10.4</v>
+      </c>
       <c r="H13" s="2">
-        <v>10.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I13" s="2">
-        <v>13.9</v>
+        <v>14.6</v>
       </c>
       <c r="J13" s="2">
-        <v>18.2</v>
+        <v>20.6</v>
       </c>
       <c r="K13" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L13" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M13" s="4"/>
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43031</v>
+        <v>43035</v>
       </c>
       <c r="B14" s="1">
-        <v>43034</v>
+        <v>43039</v>
       </c>
       <c r="C14">
         <v>1000</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="F14" s="2">
-        <v>26.4</v>
+        <v>31.2</v>
       </c>
       <c r="G14" s="2">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="H14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2">
-        <v>15.1</v>
+        <v>12.2</v>
       </c>
       <c r="J14" s="2">
-        <v>19.600000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="K14" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M14" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43024</v>
       </c>
       <c r="B15" s="1">
-        <v>43029</v>
+        <v>43037</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="F15" s="2">
-        <v>24.6</v>
-      </c>
-      <c r="G15" s="2">
-        <v>12.1</v>
+        <v>6.3</v>
       </c>
       <c r="H15" s="2">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="I15" s="2">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="J15" s="2">
-        <v>19.2</v>
+        <v>18.2</v>
       </c>
       <c r="K15" s="2">
-        <v>10.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L15" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B16" s="1">
-        <v>43027</v>
+        <v>43034</v>
       </c>
       <c r="C16">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="F16" s="2">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="G16" s="2">
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H16" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="J16" s="2">
-        <v>16.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K16" s="2">
-        <v>7.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B17" s="1">
-        <v>43017</v>
+        <v>43029</v>
       </c>
       <c r="C17">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F17" s="2">
-        <v>31.8</v>
+        <v>24.6</v>
       </c>
       <c r="G17" s="2">
-        <v>8.1</v>
+        <v>12.1</v>
       </c>
       <c r="H17" s="2">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="I17" s="2">
-        <v>9.5</v>
+        <v>13.1</v>
       </c>
       <c r="J17" s="2">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="K17" s="2">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42996</v>
+        <v>43024</v>
       </c>
       <c r="B18" s="1">
-        <v>43000</v>
+        <v>43027</v>
       </c>
       <c r="C18">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="F18" s="2">
-        <v>25.1</v>
+        <v>28.1</v>
       </c>
       <c r="G18" s="2">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="H18" s="2">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="I18" s="2">
-        <v>13.7</v>
+        <v>14.5</v>
       </c>
       <c r="J18" s="2">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="K18" s="2">
-        <v>10.8</v>
+        <v>7.5</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42990</v>
+        <v>43012</v>
       </c>
       <c r="B19" s="1">
-        <v>42993</v>
+        <v>43017</v>
       </c>
       <c r="C19">
         <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="F19" s="2">
-        <v>24.7</v>
+        <v>31.8</v>
       </c>
       <c r="G19" s="2">
-        <v>13.6</v>
+        <v>8.1</v>
       </c>
       <c r="H19" s="2">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2">
-        <v>14.8</v>
+        <v>9.5</v>
       </c>
       <c r="J19" s="2">
-        <v>17.399999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="K19" s="2">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42975</v>
+        <v>42996</v>
       </c>
       <c r="B20" s="1">
-        <v>42979</v>
+        <v>43000</v>
       </c>
       <c r="C20">
-        <v>700</v>
+        <v>1255</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="F20" s="2">
-        <v>28</v>
+        <v>25.1</v>
       </c>
       <c r="G20" s="2">
         <v>12.7</v>
       </c>
       <c r="H20" s="2">
-        <v>10.4</v>
+        <v>11.6</v>
       </c>
       <c r="I20" s="2">
-        <v>10.1</v>
+        <v>13.7</v>
       </c>
       <c r="J20" s="2">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="K20" s="2">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42951</v>
+        <v>42990</v>
       </c>
       <c r="B21" s="1">
-        <v>42958</v>
+        <v>42993</v>
       </c>
       <c r="C21">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E21" s="2">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="F21" s="2">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="G21" s="2">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="H21" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="I21" s="2">
-        <v>13.9</v>
+        <v>14.8</v>
       </c>
       <c r="J21" s="2">
-        <v>17.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K21" s="2">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42912</v>
+        <v>42975</v>
       </c>
       <c r="B22" s="1">
-        <v>42927</v>
+        <v>42979</v>
       </c>
       <c r="C22">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2">
-        <v>5.4</v>
+        <v>6.8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2">
+        <v>12.7</v>
       </c>
       <c r="H22" s="2">
-        <v>12.4</v>
+        <v>10.4</v>
       </c>
       <c r="I22" s="2">
-        <v>14.3</v>
+        <v>10.1</v>
       </c>
       <c r="J22" s="2">
-        <v>15.4</v>
+        <v>17.7</v>
       </c>
       <c r="K22" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L22" s="3">
-        <v>39.299999999999997</v>
+        <v>10.5</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42800</v>
+        <v>42951</v>
       </c>
       <c r="B23" s="1">
-        <v>42815</v>
+        <v>42958</v>
       </c>
       <c r="C23">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2">
-        <v>5.9</v>
+        <v>6.5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G23" s="2">
+        <v>13.9</v>
       </c>
       <c r="H23" s="2">
-        <v>15.3</v>
+        <v>12.1</v>
       </c>
       <c r="I23" s="2">
-        <v>12.3</v>
+        <v>13.9</v>
       </c>
       <c r="J23" s="2">
-        <v>16.100000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="K23" s="2">
-        <v>10</v>
-      </c>
-      <c r="L23" s="3">
-        <v>37</v>
+        <v>9.5</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42737</v>
+        <v>42912</v>
       </c>
       <c r="B24" s="1">
-        <v>42740</v>
+        <v>42927</v>
       </c>
       <c r="C24">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F24" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>17.899999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="H24" s="2">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="I24" s="2">
-        <v>11.4</v>
+        <v>14.3</v>
       </c>
       <c r="J24" s="2">
-        <v>16.600000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K24" s="2">
         <v>9.8000000000000007</v>
       </c>
+      <c r="L24" s="3">
+        <v>39.299999999999997</v>
+      </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42720</v>
+        <v>42800</v>
       </c>
       <c r="B25" s="1">
-        <v>42727</v>
+        <v>42815</v>
       </c>
       <c r="C25">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>14.8</v>
+        <v>5.9</v>
       </c>
       <c r="H25" s="2">
-        <v>11.9</v>
+        <v>15.3</v>
       </c>
       <c r="I25" s="2">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="J25" s="2">
-        <v>16.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K25" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L25" s="3">
+        <v>37</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42716</v>
+        <v>42737</v>
       </c>
       <c r="B26" s="1">
-        <v>42721</v>
+        <v>42740</v>
       </c>
       <c r="C26">
-        <v>1047</v>
+        <v>601</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2">
-        <v>6</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F26" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>17.899999999999999</v>
       </c>
       <c r="H26" s="2">
-        <v>12.2</v>
+        <v>10.7</v>
       </c>
       <c r="I26" s="2">
-        <v>13.8</v>
+        <v>11.4</v>
       </c>
       <c r="J26" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K26" s="2">
-        <v>9</v>
-      </c>
-      <c r="L26" s="3">
-        <v>37.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B27" s="1">
-        <v>42718</v>
+        <v>42727</v>
       </c>
       <c r="C27">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="F27" s="2">
-        <v>30.7</v>
+        <v>24.1</v>
       </c>
       <c r="G27" s="2">
-        <v>11.5</v>
+        <v>14.8</v>
       </c>
       <c r="H27" s="2">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="I27" s="2">
-        <v>14.4</v>
+        <v>12.1</v>
       </c>
       <c r="J27" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K27" s="2">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B28" s="1">
-        <v>42677</v>
+        <v>42721</v>
       </c>
       <c r="C28">
-        <v>1500</v>
+        <v>1047</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2">
-        <v>15.4</v>
+        <v>12.2</v>
       </c>
       <c r="I28" s="2">
-        <v>11.7</v>
+        <v>13.8</v>
       </c>
       <c r="J28" s="2">
-        <v>15.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L28" s="3">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42584</v>
+        <v>42716</v>
       </c>
       <c r="B29" s="1">
-        <v>42588</v>
+        <v>42718</v>
       </c>
       <c r="C29">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" s="2">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="F29" s="2">
-        <v>20.3</v>
+        <v>30.7</v>
       </c>
       <c r="G29" s="2">
-        <v>17.2</v>
+        <v>11.5</v>
       </c>
       <c r="H29" s="2">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="I29" s="2">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="J29" s="2">
-        <v>16.7</v>
+        <v>13.5</v>
       </c>
       <c r="K29" s="2">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B30" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C30">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="H30" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I30" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J30" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K30" s="2">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="L30" s="3">
-        <v>36</v>
+        <v>37.4</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B31" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C31">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E31" s="2">
-        <v>5.2</v>
+        <v>7.5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>17.2</v>
       </c>
       <c r="H31" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I31" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J31" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K31" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L31" s="3">
-        <v>38.200000000000003</v>
+        <v>9.1</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42534</v>
+        <v>42584</v>
       </c>
       <c r="B32" s="1">
-        <v>42537</v>
+        <v>42588</v>
       </c>
       <c r="C32">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F32" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G32" s="2">
-        <v>19.399999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H32" s="2">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="I32" s="2">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="J32" s="2">
-        <v>15.8</v>
+        <v>16.7</v>
       </c>
       <c r="K32" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>36</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42478</v>
+        <v>42549</v>
       </c>
       <c r="B33" s="1">
-        <v>42482</v>
+        <v>42564</v>
       </c>
       <c r="C33">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="G33" s="2">
-        <v>13.3</v>
+        <v>5.2</v>
       </c>
       <c r="H33" s="2">
-        <v>12.3</v>
+        <v>16.8</v>
       </c>
       <c r="I33" s="2">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="J33" s="2">
-        <v>16.2</v>
+        <v>14.8</v>
       </c>
       <c r="K33" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L33" s="3">
+        <v>38.200000000000003</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42422</v>
+        <v>42534</v>
       </c>
       <c r="B34" s="1">
-        <v>42437</v>
+        <v>42537</v>
       </c>
       <c r="C34">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2">
-        <v>7.5</v>
+        <v>3.6</v>
+      </c>
+      <c r="F34" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>19.399999999999999</v>
       </c>
       <c r="H34" s="2">
-        <v>17.899999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="I34" s="2">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="J34" s="2">
-        <v>16.7</v>
+        <v>15.8</v>
       </c>
       <c r="K34" s="2">
-        <v>7</v>
-      </c>
-      <c r="L34" s="3">
-        <v>35.799999999999997</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42366</v>
+        <v>42478</v>
       </c>
       <c r="B35" s="1">
-        <v>42369</v>
+        <v>42482</v>
       </c>
       <c r="C35">
-        <v>1255</v>
+        <v>1600</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2">
-        <v>8.9</v>
+        <v>6.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G35" s="2">
+        <v>13.3</v>
       </c>
       <c r="H35" s="2">
-        <v>9.5</v>
+        <v>12.3</v>
       </c>
       <c r="I35" s="2">
-        <v>12.1</v>
+        <v>13.7</v>
       </c>
       <c r="J35" s="2">
-        <v>21.2</v>
+        <v>16.2</v>
       </c>
       <c r="K35" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="L35" s="3">
-        <v>35.6</v>
+        <v>9.1</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42338</v>
+        <v>42422</v>
       </c>
       <c r="B36" s="1">
-        <v>42341</v>
+        <v>42437</v>
       </c>
       <c r="C36">
-        <v>504</v>
+        <v>1500</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F36" s="2">
-        <v>24</v>
-      </c>
-      <c r="G36" s="2">
-        <v>12.6</v>
+        <v>7.5</v>
       </c>
       <c r="H36" s="2">
-        <v>7.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I36" s="2">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="J36" s="2">
-        <v>23.5</v>
+        <v>16.7</v>
       </c>
       <c r="K36" s="2">
-        <v>7.2</v>
+        <v>7</v>
+      </c>
+      <c r="L36" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42328</v>
+        <v>42366</v>
       </c>
       <c r="B37" s="1">
-        <v>42335</v>
+        <v>42369</v>
       </c>
       <c r="C37">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F37" s="2">
-        <v>21.1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>15.9</v>
+        <v>8.9</v>
       </c>
       <c r="H37" s="2">
-        <v>8.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="I37" s="2">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="J37" s="2">
-        <v>19.899999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="K37" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
+      </c>
+      <c r="L37" s="3">
+        <v>35.6</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B38" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C38">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="2">
-        <v>9</v>
+        <v>11.8</v>
+      </c>
+      <c r="F38" s="2">
+        <v>24</v>
+      </c>
+      <c r="G38" s="2">
+        <v>12.6</v>
       </c>
       <c r="H38" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="I38" s="2">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="J38" s="2">
-        <v>19.7</v>
+        <v>23.5</v>
       </c>
       <c r="K38" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L38" s="3">
-        <v>37.6</v>
+        <v>7.2</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B39" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C39">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39" s="2">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F39" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15.9</v>
       </c>
       <c r="H39" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I39" s="2">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
       <c r="J39" s="2">
-        <v>21.1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K39" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="L39" s="3">
-        <v>38.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42303</v>
+        <v>42328</v>
       </c>
       <c r="B40" s="1">
-        <v>42308</v>
+        <v>42335</v>
       </c>
       <c r="C40">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E40" s="2">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2">
-        <v>7.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I40" s="2">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="J40" s="2">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="K40" s="2">
         <v>8.6999999999999993</v>
       </c>
       <c r="L40" s="3">
-        <v>36.4</v>
+        <v>37.6</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42282</v>
+        <v>42324</v>
       </c>
       <c r="B41" s="1">
-        <v>42304</v>
+        <v>42331</v>
       </c>
       <c r="C41">
-        <v>2000</v>
+        <v>1050</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41" s="2">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="H41" s="2">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2">
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
       <c r="J41" s="2">
-        <v>18</v>
+        <v>21.1</v>
       </c>
       <c r="K41" s="2">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L41" s="3">
-        <v>39.799999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42274</v>
+        <v>42303</v>
       </c>
       <c r="B42" s="1">
-        <v>42274</v>
+        <v>42308</v>
       </c>
       <c r="C42">
-        <v>4130196</v>
+        <v>1255</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2">
-        <v>8.2100000000000009</v>
+        <v>8.6</v>
       </c>
       <c r="H42" s="2">
-        <v>8.94</v>
+        <v>7.6</v>
       </c>
       <c r="I42" s="2">
-        <v>12.72</v>
+        <v>13</v>
       </c>
       <c r="J42" s="2">
-        <v>17.899999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="K42" s="2">
-        <v>8.49</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L42" s="3">
-        <v>39.590000000000003</v>
+        <v>36.4</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42268</v>
+        <v>42282</v>
       </c>
       <c r="B43" s="1">
-        <v>42268</v>
+        <v>42304</v>
       </c>
       <c r="C43">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I43" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="J43" s="2">
+        <v>18</v>
+      </c>
+      <c r="K43" s="2">
         <v>7</v>
       </c>
-      <c r="H43" s="2">
-        <v>12</v>
-      </c>
-      <c r="I43" s="2">
-        <v>12</v>
-      </c>
-      <c r="J43" s="2">
-        <v>13</v>
-      </c>
-      <c r="K43" s="2">
-        <v>11</v>
-      </c>
       <c r="L43" s="3">
-        <v>41</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42261</v>
+        <v>42274</v>
       </c>
       <c r="B44" s="1">
-        <v>42272</v>
+        <v>42274</v>
       </c>
       <c r="C44">
-        <v>3000</v>
+        <v>4130196</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E44" s="2">
-        <v>8</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H44" s="2">
-        <v>9.5</v>
+        <v>8.94</v>
       </c>
       <c r="I44" s="2">
-        <v>13.5</v>
+        <v>12.72</v>
       </c>
       <c r="J44" s="2">
-        <v>14.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K44" s="2">
-        <v>9</v>
+        <v>8.49</v>
       </c>
       <c r="L44" s="3">
-        <v>40</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42257</v>
+        <v>42268</v>
       </c>
       <c r="B45" s="1">
-        <v>42264</v>
+        <v>42268</v>
       </c>
       <c r="C45">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H45" s="2">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="I45" s="2">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="J45" s="2">
-        <v>15.4</v>
+        <v>13</v>
       </c>
       <c r="K45" s="2">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="L45" s="3">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="B46" s="1">
-        <v>42266</v>
+        <v>42272</v>
       </c>
       <c r="C46">
-        <v>1255</v>
+        <v>3000</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="H46" s="2">
-        <v>12.4</v>
+        <v>9.5</v>
       </c>
       <c r="I46" s="2">
-        <v>12.1</v>
+        <v>13.5</v>
       </c>
       <c r="J46" s="2">
-        <v>15.3</v>
+        <v>14.5</v>
       </c>
       <c r="K46" s="2">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="L46" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42263</v>
+        <v>42257</v>
       </c>
       <c r="B47" s="1">
         <v>42264</v>
       </c>
       <c r="C47">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E47" s="2">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="H47" s="2">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="I47" s="2">
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
       <c r="J47" s="2">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="K47" s="2">
-        <v>9.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L47" s="3">
-        <v>40.5</v>
+        <v>40.1</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42261</v>
+        <v>42258</v>
       </c>
       <c r="B48" s="1">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="C48">
-        <v>1100</v>
+        <v>1255</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2">
         <v>6.2</v>
       </c>
       <c r="H48" s="2">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="I48" s="2">
         <v>12.1</v>
       </c>
       <c r="J48" s="2">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="K48" s="2">
         <v>9.9</v>
       </c>
       <c r="L48" s="3">
-        <v>38.799999999999997</v>
+        <v>38</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B49" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C49">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E49" s="2">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="H49" s="2">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="I49" s="2">
-        <v>11.9</v>
+        <v>10.8</v>
       </c>
       <c r="J49" s="2">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="K49" s="2">
-        <v>10.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L49" s="3">
-        <v>40.700000000000003</v>
+        <v>40.5</v>
       </c>
       <c r="M49" s="4"/>
     </row>
@@ -2215,31 +2219,31 @@
         <v>42261</v>
       </c>
       <c r="B50" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C50">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E50" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H50" s="2">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
       <c r="I50" s="2">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="J50" s="2">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="K50" s="2">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="L50" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -2248,31 +2252,31 @@
         <v>42261</v>
       </c>
       <c r="B51" s="1">
-        <v>42263</v>
+        <v>42265</v>
       </c>
       <c r="C51">
-        <v>1717</v>
+        <v>800</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H51" s="2">
-        <v>11.4</v>
+        <v>10.3</v>
       </c>
       <c r="I51" s="2">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="J51" s="2">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="K51" s="2">
-        <v>7.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L51" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M51" s="4"/>
     </row>
@@ -2281,31 +2285,31 @@
         <v>42261</v>
       </c>
       <c r="B52" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C52">
-        <v>1157</v>
+        <v>1000</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E52" s="2">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="H52" s="2">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
       <c r="I52" s="2">
-        <v>7.5</v>
+        <v>10.1</v>
       </c>
       <c r="J52" s="2">
-        <v>18.3</v>
+        <v>14.4</v>
       </c>
       <c r="K52" s="2">
-        <v>11.9</v>
+        <v>10.6</v>
       </c>
       <c r="L52" s="3">
-        <v>42.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M52" s="4"/>
     </row>
@@ -2317,468 +2321,534 @@
         <v>42263</v>
       </c>
       <c r="C53">
-        <v>1000</v>
+        <v>1717</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53" s="2">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="H53" s="2">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="I53" s="2">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="J53" s="2">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K53" s="2">
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="L53" s="3">
-        <v>39.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B54" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C54">
-        <v>1255</v>
+        <v>1157</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E54" s="2">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="H54" s="2">
-        <v>12.7</v>
+        <v>10.4</v>
       </c>
       <c r="I54" s="2">
-        <v>11.4</v>
+        <v>7.5</v>
       </c>
       <c r="J54" s="2">
-        <v>16.5</v>
+        <v>18.3</v>
       </c>
       <c r="K54" s="2">
-        <v>9.4</v>
+        <v>11.9</v>
       </c>
       <c r="L54" s="3">
-        <v>37.6</v>
+        <v>42.4</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42248</v>
+        <v>42261</v>
       </c>
       <c r="B55" s="1">
-        <v>42255</v>
+        <v>42263</v>
       </c>
       <c r="C55">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55" s="2">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H55" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I55" s="2">
-        <v>11.1</v>
+        <v>13.2</v>
       </c>
       <c r="J55" s="2">
-        <v>13.4</v>
+        <v>15</v>
       </c>
       <c r="K55" s="2">
-        <v>10.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="L55" s="3">
-        <v>38.299999999999997</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="B56" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C56">
-        <v>750</v>
+        <v>1255</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E56" s="2">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="H56" s="2">
-        <v>10.199999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="I56" s="2">
-        <v>12.6</v>
+        <v>11.4</v>
       </c>
       <c r="J56" s="2">
-        <v>11.6</v>
+        <v>16.5</v>
       </c>
       <c r="K56" s="2">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="L56" s="3">
-        <v>42.1</v>
+        <v>37.6</v>
       </c>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42246</v>
+        <v>42248</v>
       </c>
       <c r="B57" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C57">
-        <v>2999</v>
+        <v>1200</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E57" s="2">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="H57" s="2">
-        <v>13.9</v>
+        <v>11.4</v>
       </c>
       <c r="I57" s="2">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="J57" s="2">
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="K57" s="2">
-        <v>9.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L57" s="3">
-        <v>38.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42247</v>
+        <v>42250</v>
       </c>
       <c r="B58" s="1">
-        <v>42250</v>
+        <v>42255</v>
       </c>
       <c r="C58">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E58" s="2">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="H58" s="2">
-        <v>12.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I58" s="2">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
       <c r="J58" s="2">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="K58" s="2">
-        <v>9.8000000000000007</v>
+        <v>11.5</v>
       </c>
       <c r="L58" s="3">
-        <v>39.4</v>
+        <v>42.1</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B59" s="1">
-        <v>42249</v>
+        <v>42251</v>
       </c>
       <c r="C59">
-        <v>800</v>
+        <v>2999</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E59" s="2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H59" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I59" s="2">
-        <v>10.3</v>
+        <v>12.2</v>
       </c>
       <c r="J59" s="2">
-        <v>19.899999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="K59" s="2">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="L59" s="3">
-        <v>38.799999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B60" s="1">
         <v>42250</v>
       </c>
       <c r="C60">
-        <v>1221</v>
+        <v>1400</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E60" s="2">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H60" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I60" s="2">
-        <v>9.5</v>
+        <v>11.1</v>
       </c>
       <c r="J60" s="2">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="K60" s="2">
-        <v>11.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L60" s="3">
-        <v>43.5</v>
+        <v>39.4</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42233</v>
+        <v>42247</v>
       </c>
       <c r="B61" s="1">
-        <v>42238</v>
+        <v>42249</v>
       </c>
       <c r="C61">
-        <v>955</v>
+        <v>800</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E61" s="2">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="H61" s="2">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="I61" s="2">
-        <v>11.7</v>
+        <v>10.3</v>
       </c>
       <c r="J61" s="2">
-        <v>17.899999999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K61" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="L61" s="3">
-        <v>36.299999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42201</v>
+        <v>42248</v>
       </c>
       <c r="B62" s="1">
-        <v>42208</v>
+        <v>42250</v>
       </c>
       <c r="C62">
-        <v>1255</v>
+        <v>1221</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E62" s="2">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="H62" s="2">
-        <v>12.8</v>
+        <v>11.5</v>
       </c>
       <c r="I62" s="2">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="J62" s="2">
-        <v>19.100000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="K62" s="2">
-        <v>8.1999999999999993</v>
+        <v>11.8</v>
       </c>
       <c r="L62" s="3">
-        <v>35.799999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42191</v>
+        <v>42233</v>
       </c>
       <c r="B63" s="1">
-        <v>42194</v>
+        <v>42238</v>
       </c>
       <c r="C63">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E63" s="2">
-        <v>7</v>
-      </c>
-      <c r="F63" s="2">
-        <v>15</v>
-      </c>
-      <c r="G63" s="2">
-        <v>22</v>
+        <v>4.7</v>
       </c>
       <c r="H63" s="2">
-        <v>16.5</v>
+        <v>12.3</v>
       </c>
       <c r="I63" s="2">
-        <v>9.6</v>
+        <v>11.7</v>
       </c>
       <c r="J63" s="2">
-        <v>16</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K63" s="2">
-        <v>7.3</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L63" s="3">
+        <v>36.299999999999997</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42186</v>
+        <v>42201</v>
       </c>
       <c r="B64" s="1">
-        <v>42188</v>
+        <v>42208</v>
       </c>
       <c r="C64">
-        <v>820</v>
+        <v>1255</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E64" s="2">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="H64" s="2">
-        <v>20</v>
+        <v>12.8</v>
       </c>
       <c r="I64" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J64" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K64" s="2">
-        <v>9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L64" s="3">
-        <v>32</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42202</v>
+        <v>42191</v>
       </c>
       <c r="B65" s="1">
-        <v>42206</v>
+        <v>42194</v>
       </c>
       <c r="C65">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E65" s="2">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="F65" s="2">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="G65" s="2">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H65" s="2">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="I65" s="2">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="J65" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K65" s="2">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42188</v>
+      </c>
+      <c r="C66">
+        <v>820</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="2">
+        <v>8</v>
+      </c>
+      <c r="H66" s="2">
+        <v>20</v>
+      </c>
+      <c r="I66" s="2">
+        <v>9</v>
+      </c>
+      <c r="J66" s="2">
+        <v>16</v>
+      </c>
+      <c r="K66" s="2">
+        <v>9</v>
+      </c>
+      <c r="L66" s="3">
+        <v>32</v>
+      </c>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B67" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C67">
+        <v>800</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F67" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G67" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>18</v>
+      </c>
+      <c r="I67" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J67" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>42121</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B68" s="1">
         <v>42123</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <v>1000</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D68" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E68" s="2">
         <v>7.9</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F68" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G68" s="2">
         <v>22.6</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H68" s="2">
         <v>12.9</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I68" s="2">
         <v>9.9</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J68" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K68" s="2">
         <v>6.4</v>
       </c>
-      <c r="M66" s="4"/>
+      <c r="M68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,352 +593,352 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="B3" s="1">
         <v>43076</v>
       </c>
       <c r="C3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="K3" s="2">
         <v>7.1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43070</v>
+        <v>43072</v>
       </c>
       <c r="B4" s="1">
-        <v>43074</v>
+        <v>43076</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="F4" s="2">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="G4" s="2">
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2">
-        <v>9.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2">
-        <v>13.5</v>
+        <v>15.3</v>
       </c>
       <c r="J4" s="2">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43068</v>
+        <v>43070</v>
       </c>
       <c r="B5" s="1">
-        <v>43071</v>
+        <v>43074</v>
       </c>
       <c r="C5">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F5" s="2">
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
-        <v>19.3</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>8.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I5" s="2">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="J5" s="2">
-        <v>19</v>
+        <v>22.8</v>
       </c>
       <c r="K5" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43066</v>
+        <v>43068</v>
       </c>
       <c r="B6" s="1">
-        <v>43069</v>
+        <v>43071</v>
       </c>
       <c r="C6">
         <v>800</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>23.1</v>
+        <v>20.5</v>
       </c>
       <c r="G6" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I6" s="2">
         <v>19</v>
       </c>
-      <c r="H6" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>15.2</v>
-      </c>
       <c r="J6" s="2">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="B7" s="1">
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="C7">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
-        <v>20.8</v>
+        <v>23.1</v>
       </c>
       <c r="G7" s="2">
-        <v>16.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="I7" s="2">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="J7" s="2">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="K7" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43052</v>
+        <v>43062</v>
       </c>
       <c r="B8" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="F8" s="2">
-        <v>24.1</v>
+        <v>20.8</v>
       </c>
       <c r="G8" s="2">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I8" s="2">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>20.9</v>
+        <v>22.5</v>
       </c>
       <c r="K8" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43059</v>
+        <v>43052</v>
       </c>
       <c r="B9" s="1">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="C9">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F9" s="2">
-        <v>26.5</v>
+        <v>24.1</v>
       </c>
       <c r="G9" s="2">
         <v>13.6</v>
       </c>
       <c r="H9" s="2">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="I9" s="2">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="J9" s="2">
-        <v>25.3</v>
+        <v>20.9</v>
       </c>
       <c r="K9" s="2">
-        <v>5.8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43054</v>
+        <v>43059</v>
       </c>
       <c r="B10" s="1">
-        <v>43057</v>
+        <v>43061</v>
       </c>
       <c r="C10">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F10" s="2">
-        <v>23.9</v>
+        <v>26.5</v>
       </c>
       <c r="G10" s="2">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="H10" s="2">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="I10" s="2">
-        <v>18.100000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="J10" s="2">
-        <v>18.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K10" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43052</v>
+        <v>43054</v>
       </c>
       <c r="B11" s="1">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="C11">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F11" s="2">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="G11" s="2">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="H11" s="2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I11" s="2">
-        <v>15.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J11" s="2">
-        <v>22.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="B12" s="1">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F12" s="2">
-        <v>26.3</v>
+        <v>23.1</v>
       </c>
       <c r="G12" s="2">
-        <v>10.7</v>
+        <v>16.7</v>
       </c>
       <c r="H12" s="2">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="I12" s="2">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="J12" s="2">
-        <v>19.600000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="K12" s="2">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -949,170 +949,169 @@
         <v>43042</v>
       </c>
       <c r="C13">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
         <v>6.3</v>
       </c>
       <c r="F13" s="2">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="G13" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H13" s="2">
         <v>10.4</v>
       </c>
-      <c r="H13" s="2">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="I13" s="2">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="J13" s="2">
-        <v>20.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K13" s="2">
-        <v>8.6999999999999993</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B14" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F14" s="2">
-        <v>31.2</v>
+        <v>29.3</v>
       </c>
       <c r="G14" s="2">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="H14" s="2">
-        <v>10</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I14" s="2">
-        <v>12.2</v>
+        <v>14.6</v>
       </c>
       <c r="J14" s="2">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="K14" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43024</v>
+        <v>43035</v>
       </c>
       <c r="B15" s="1">
-        <v>43037</v>
+        <v>43039</v>
       </c>
       <c r="C15">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="F15" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10.1</v>
       </c>
       <c r="H15" s="2">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="J15" s="2">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="K15" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L15" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M15" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="B16" s="1">
-        <v>43034</v>
+        <v>43037</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>6.3</v>
       </c>
-      <c r="F16" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="G16" s="2">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H16" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I16" s="2">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="J16" s="2">
-        <v>19.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K16" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L16" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B17" s="1">
-        <v>43029</v>
+        <v>43034</v>
       </c>
       <c r="C17">
         <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F17" s="2">
-        <v>24.6</v>
+        <v>26.4</v>
       </c>
       <c r="G17" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H17" s="2">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J17" s="2">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M17" s="4"/>
     </row>
@@ -1121,256 +1120,259 @@
         <v>43024</v>
       </c>
       <c r="B18" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="C18">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="F18" s="2">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="G18" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H18" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I18" s="2">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="J18" s="2">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="K18" s="2">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B19" s="1">
-        <v>43017</v>
+        <v>43027</v>
       </c>
       <c r="C19">
         <v>800</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="F19" s="2">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="G19" s="2">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H19" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I19" s="2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="J19" s="2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="K19" s="2">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42996</v>
+        <v>43012</v>
       </c>
       <c r="B20" s="1">
-        <v>43000</v>
+        <v>43017</v>
       </c>
       <c r="C20">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F20" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G20" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H20" s="2">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="I20" s="2">
-        <v>13.7</v>
+        <v>9.5</v>
       </c>
       <c r="J20" s="2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K20" s="2">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42990</v>
+        <v>42996</v>
       </c>
       <c r="B21" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="C21">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F21" s="2">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="G21" s="2">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="H21" s="2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I21" s="2">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="J21" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K21" s="2">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42975</v>
+        <v>42990</v>
       </c>
       <c r="B22" s="1">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="C22">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="F22" s="2">
-        <v>28</v>
+        <v>24.7</v>
       </c>
       <c r="G22" s="2">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H22" s="2">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="I22" s="2">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="J22" s="2">
-        <v>17.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K22" s="2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B23" s="1">
-        <v>42958</v>
+        <v>42979</v>
       </c>
       <c r="C23">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F23" s="2">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G23" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H23" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="I23" s="2">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="J23" s="2">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="K23" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42912</v>
+        <v>42951</v>
       </c>
       <c r="B24" s="1">
-        <v>42927</v>
+        <v>42958</v>
       </c>
       <c r="C24">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2">
-        <v>5.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>13.9</v>
       </c>
       <c r="H24" s="2">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="I24" s="2">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J24" s="2">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="K24" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L24" s="3">
-        <v>39.299999999999997</v>
+        <v>9.5</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42800</v>
+        <v>42912</v>
       </c>
       <c r="B25" s="1">
-        <v>42815</v>
+        <v>42927</v>
       </c>
       <c r="C25">
         <v>1500</v>
@@ -1379,127 +1381,127 @@
         <v>16</v>
       </c>
       <c r="E25" s="2">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H25" s="2">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="I25" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J25" s="2">
-        <v>16.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K25" s="2">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L25" s="3">
-        <v>37</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42737</v>
+        <v>42800</v>
       </c>
       <c r="B26" s="1">
-        <v>42740</v>
+        <v>42815</v>
       </c>
       <c r="C26">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F26" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H26" s="2">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="I26" s="2">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J26" s="2">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K26" s="2">
-        <v>9.8000000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="L26" s="3">
+        <v>37</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42720</v>
+        <v>42737</v>
       </c>
       <c r="B27" s="1">
-        <v>42727</v>
+        <v>42740</v>
       </c>
       <c r="C27">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2">
-        <v>7.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F27" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G27" s="2">
-        <v>14.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H27" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I27" s="2">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="J27" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K27" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B28" s="1">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="C28">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
+        <v>7.2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>14.8</v>
       </c>
       <c r="H28" s="2">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I28" s="2">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="J28" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="K28" s="2">
-        <v>9</v>
-      </c>
-      <c r="L28" s="3">
-        <v>37.6</v>
+        <v>9.1</v>
       </c>
       <c r="M28" s="4"/>
     </row>
@@ -1508,103 +1510,100 @@
         <v>42716</v>
       </c>
       <c r="B29" s="1">
-        <v>42718</v>
+        <v>42721</v>
       </c>
       <c r="C29">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="G29" s="2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H29" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I29" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="J29" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K29" s="2">
-        <v>8.1</v>
+        <v>9</v>
+      </c>
+      <c r="L29" s="3">
+        <v>37.6</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B30" s="1">
-        <v>42677</v>
+        <v>42718</v>
       </c>
       <c r="C30">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2">
         <v>5.2</v>
       </c>
+      <c r="F30" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G30" s="2">
+        <v>11.5</v>
+      </c>
       <c r="H30" s="2">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="I30" s="2">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="J30" s="2">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="K30" s="2">
-        <v>10</v>
-      </c>
-      <c r="L30" s="3">
-        <v>37.4</v>
+        <v>8.1</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B31" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C31">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F31" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G31" s="2">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="H31" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I31" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J31" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K31" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>37.4</v>
       </c>
       <c r="M31" s="4"/>
     </row>
@@ -1622,7 +1621,13 @@
         <v>14</v>
       </c>
       <c r="E32" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>17.2</v>
       </c>
       <c r="H32" s="2">
         <v>13.9</v>
@@ -1636,251 +1641,245 @@
       <c r="K32" s="2">
         <v>9.1</v>
       </c>
-      <c r="L32" s="3">
-        <v>36</v>
-      </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B33" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C33">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="H33" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I33" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J33" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K33" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="L33" s="3">
-        <v>38.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42534</v>
+        <v>42549</v>
       </c>
       <c r="B34" s="1">
-        <v>42537</v>
+        <v>42564</v>
       </c>
       <c r="C34">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F34" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G34" s="2">
-        <v>19.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H34" s="2">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="I34" s="2">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="J34" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K34" s="2">
         <v>8.8000000000000007</v>
       </c>
+      <c r="L34" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="B35" s="1">
-        <v>42482</v>
+        <v>42537</v>
       </c>
       <c r="C35">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F35" s="2">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="G35" s="2">
-        <v>13.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H35" s="2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="I35" s="2">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="J35" s="2">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="K35" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="B36" s="1">
-        <v>42437</v>
+        <v>42482</v>
       </c>
       <c r="C36">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G36" s="2">
+        <v>13.3</v>
       </c>
       <c r="H36" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I36" s="2">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="J36" s="2">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="K36" s="2">
-        <v>7</v>
-      </c>
-      <c r="L36" s="3">
-        <v>35.799999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="B37" s="1">
-        <v>42369</v>
+        <v>42437</v>
       </c>
       <c r="C37">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H37" s="2">
-        <v>9.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I37" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="J37" s="2">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="K37" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L37" s="3">
-        <v>35.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42338</v>
+        <v>42366</v>
       </c>
       <c r="B38" s="1">
-        <v>42341</v>
+        <v>42369</v>
       </c>
       <c r="C38">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F38" s="2">
-        <v>24</v>
-      </c>
-      <c r="G38" s="2">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
       <c r="H38" s="2">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I38" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J38" s="2">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="K38" s="2">
-        <v>7.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="L38" s="3">
+        <v>35.6</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B39" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C39">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="F39" s="2">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="G39" s="2">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="H39" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="I39" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J39" s="2">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="K39" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="M39" s="4"/>
     </row>
@@ -1898,352 +1897,355 @@
         <v>23</v>
       </c>
       <c r="E40" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F40" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15.9</v>
       </c>
       <c r="H40" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I40" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J40" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K40" s="2">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="I40" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="K40" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L40" s="3">
-        <v>37.6</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B41" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C41">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H41" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I41" s="2">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="J41" s="2">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="K41" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L41" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42303</v>
+        <v>42324</v>
       </c>
       <c r="B42" s="1">
-        <v>42308</v>
+        <v>42331</v>
       </c>
       <c r="C42">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E42" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H42" s="2">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I42" s="2">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="J42" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K42" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="L42" s="3">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42282</v>
+        <v>42303</v>
       </c>
       <c r="B43" s="1">
-        <v>42304</v>
+        <v>42308</v>
       </c>
       <c r="C43">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E43" s="2">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="H43" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I43" s="2">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="J43" s="2">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="K43" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L43" s="3">
-        <v>39.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42274</v>
+        <v>42282</v>
       </c>
       <c r="B44" s="1">
-        <v>42274</v>
+        <v>42304</v>
       </c>
       <c r="C44">
-        <v>4130196</v>
+        <v>2000</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2">
-        <v>8.2100000000000009</v>
+        <v>11.1</v>
       </c>
       <c r="H44" s="2">
-        <v>8.94</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I44" s="2">
-        <v>12.72</v>
+        <v>10.6</v>
       </c>
       <c r="J44" s="2">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="K44" s="2">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="L44" s="3">
-        <v>39.590000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="B45" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="C45">
-        <v>1200</v>
+        <v>4130196</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="2">
-        <v>7</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H45" s="2">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="I45" s="2">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="J45" s="2">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K45" s="2">
-        <v>11</v>
+        <v>8.49</v>
       </c>
       <c r="L45" s="3">
-        <v>41</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B46" s="1">
-        <v>42272</v>
+        <v>42268</v>
       </c>
       <c r="C46">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="2">
+        <v>7</v>
+      </c>
+      <c r="H46" s="2">
+        <v>12</v>
+      </c>
+      <c r="I46" s="2">
+        <v>12</v>
+      </c>
+      <c r="J46" s="2">
         <v>13</v>
       </c>
-      <c r="E46" s="2">
-        <v>8</v>
-      </c>
-      <c r="H46" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="I46" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J46" s="2">
-        <v>14.5</v>
-      </c>
       <c r="K46" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L46" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42257</v>
+        <v>42261</v>
       </c>
       <c r="B47" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C47">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E47" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H47" s="2">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="I47" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J47" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="K47" s="2">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="L47" s="3">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42258</v>
+        <v>42257</v>
       </c>
       <c r="B48" s="1">
-        <v>42266</v>
+        <v>42264</v>
       </c>
       <c r="C48">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E48" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H48" s="2">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="I48" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J48" s="2">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="K48" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L48" s="3">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42263</v>
+        <v>42258</v>
       </c>
       <c r="B49" s="1">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="C49">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E49" s="2">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="H49" s="2">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="I49" s="2">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="J49" s="2">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="K49" s="2">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="L49" s="3">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B50" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C50">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H50" s="2">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="I50" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="J50" s="2">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K50" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="L50" s="3">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -2255,28 +2257,28 @@
         <v>42265</v>
       </c>
       <c r="C51">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E51" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H51" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="I51" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J51" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="K51" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L51" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M51" s="4"/>
     </row>
@@ -2285,28 +2287,28 @@
         <v>42261</v>
       </c>
       <c r="B52" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C52">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2">
         <v>6.4</v>
       </c>
       <c r="H52" s="2">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="I52" s="2">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="J52" s="2">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K52" s="2">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L52" s="3">
         <v>40.700000000000003</v>
@@ -2318,31 +2320,31 @@
         <v>42261</v>
       </c>
       <c r="B53" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C53">
-        <v>1717</v>
+        <v>1000</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E53" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H53" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I53" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="J53" s="2">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="K53" s="2">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="L53" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M53" s="4"/>
     </row>
@@ -2354,28 +2356,28 @@
         <v>42263</v>
       </c>
       <c r="C54">
-        <v>1157</v>
+        <v>1717</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E54" s="2">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H54" s="2">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I54" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J54" s="2">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="K54" s="2">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="L54" s="3">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="M54" s="4"/>
     </row>
@@ -2387,193 +2389,193 @@
         <v>42263</v>
       </c>
       <c r="C55">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H55" s="2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="I55" s="2">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="J55" s="2">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="K55" s="2">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="L55" s="3">
-        <v>39.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B56" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C56">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E56" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H56" s="2">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="I56" s="2">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="J56" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="K56" s="2">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="L56" s="3">
-        <v>37.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42248</v>
+        <v>42254</v>
       </c>
       <c r="B57" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C57">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E57" s="2">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H57" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I57" s="2">
         <v>11.4</v>
       </c>
-      <c r="I57" s="2">
-        <v>11.1</v>
-      </c>
       <c r="J57" s="2">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="K57" s="2">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L57" s="3">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42250</v>
+        <v>42248</v>
       </c>
       <c r="B58" s="1">
         <v>42255</v>
       </c>
       <c r="C58">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" s="2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H58" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="I58" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="K58" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I58" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J58" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K58" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L58" s="3">
-        <v>42.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42246</v>
+        <v>42250</v>
       </c>
       <c r="B59" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C59">
-        <v>2999</v>
+        <v>750</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H59" s="2">
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I59" s="2">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J59" s="2">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="K59" s="2">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L59" s="3">
-        <v>38.1</v>
+        <v>42.1</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B60" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C60">
-        <v>1400</v>
+        <v>2999</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E60" s="2">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H60" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I60" s="2">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J60" s="2">
-        <v>12.7</v>
+        <v>14.8</v>
       </c>
       <c r="K60" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L60" s="3">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="M60" s="4"/>
     </row>
@@ -2582,273 +2584,306 @@
         <v>42247</v>
       </c>
       <c r="B61" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="C61">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E61" s="2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H61" s="2">
         <v>12.4</v>
       </c>
       <c r="I61" s="2">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="J61" s="2">
-        <v>19.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K61" s="2">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L61" s="3">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B62" s="1">
-        <v>42250</v>
+        <v>42249</v>
       </c>
       <c r="C62">
-        <v>1221</v>
+        <v>800</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E62" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H62" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I62" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="J62" s="2">
-        <v>12.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K62" s="2">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="L62" s="3">
-        <v>43.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42233</v>
+        <v>42248</v>
       </c>
       <c r="B63" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C63">
-        <v>955</v>
+        <v>1221</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E63" s="2">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H63" s="2">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I63" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J63" s="2">
-        <v>17.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K63" s="2">
-        <v>9.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L63" s="3">
-        <v>36.299999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42201</v>
+        <v>42233</v>
       </c>
       <c r="B64" s="1">
-        <v>42208</v>
+        <v>42238</v>
       </c>
       <c r="C64">
-        <v>1255</v>
+        <v>955</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H64" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="I64" s="2">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="J64" s="2">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K64" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L64" s="3">
-        <v>35.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42191</v>
+        <v>42201</v>
       </c>
       <c r="B65" s="1">
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="C65">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E65" s="2">
-        <v>7</v>
-      </c>
-      <c r="F65" s="2">
-        <v>15</v>
-      </c>
-      <c r="G65" s="2">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="H65" s="2">
-        <v>16.5</v>
+        <v>12.8</v>
       </c>
       <c r="I65" s="2">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J65" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K65" s="2">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L65" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42186</v>
+        <v>42191</v>
       </c>
       <c r="B66" s="1">
-        <v>42188</v>
+        <v>42194</v>
       </c>
       <c r="C66">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E66" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F66" s="2">
+        <v>15</v>
+      </c>
+      <c r="G66" s="2">
+        <v>22</v>
       </c>
       <c r="H66" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I66" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J66" s="2">
         <v>16</v>
       </c>
       <c r="K66" s="2">
-        <v>9</v>
-      </c>
-      <c r="L66" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42202</v>
+        <v>42186</v>
       </c>
       <c r="B67" s="1">
-        <v>42206</v>
+        <v>42188</v>
       </c>
       <c r="C67">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E67" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F67" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G67" s="2">
-        <v>23.1</v>
+        <v>8</v>
       </c>
       <c r="H67" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" s="2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J67" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K67" s="2">
-        <v>5.9</v>
+        <v>9</v>
+      </c>
+      <c r="L67" s="3">
+        <v>32</v>
       </c>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B68" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C68">
+        <v>800</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F68" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G68" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>18</v>
+      </c>
+      <c r="I68" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J68" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>42121</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B69" s="1">
         <v>42123</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>1000</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E69" s="2">
         <v>7.9</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F69" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G69" s="2">
         <v>22.6</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H69" s="2">
         <v>12.9</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I69" s="2">
         <v>9.9</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J69" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K69" s="2">
         <v>6.4</v>
       </c>
-      <c r="M68" s="4"/>
+      <c r="M69" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
     <col min="12" max="12" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,427 +556,427 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43066</v>
+        <v>43070</v>
       </c>
       <c r="B2" s="1">
         <v>43077</v>
       </c>
       <c r="C2">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="F2" s="2">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="G2" s="2">
-        <v>19.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H2" s="2">
         <v>7.4</v>
       </c>
       <c r="I2" s="2">
-        <v>14.4</v>
+        <v>15.9</v>
       </c>
       <c r="J2" s="2">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="K2" s="2">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43073</v>
+        <v>43066</v>
       </c>
       <c r="B3" s="1">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F3" s="2">
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="G3" s="2">
-        <v>18.2</v>
+        <v>19.8</v>
       </c>
       <c r="H3" s="2">
         <v>7.4</v>
       </c>
       <c r="I3" s="2">
-        <v>16.5</v>
+        <v>14.4</v>
       </c>
       <c r="J3" s="2">
-        <v>23.1</v>
+        <v>21.5</v>
       </c>
       <c r="K3" s="2">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="B4" s="1">
         <v>43076</v>
       </c>
       <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43072</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43076</v>
+      </c>
+      <c r="C5">
         <v>900</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43074</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43074</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
         <v>6.4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>24</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I6" s="2">
         <v>13.5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J6" s="2">
         <v>22.8</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K6" s="2">
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>43068</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>43071</v>
-      </c>
-      <c r="C6">
-        <v>800</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>19.3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43066</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43069</v>
       </c>
       <c r="C7">
         <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43066</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43069</v>
+      </c>
+      <c r="C8">
+        <v>800</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
         <v>23.1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>19</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>6.4</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>15.2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <v>20.5</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
         <v>6.2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>43062</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>43066</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>3000</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>6.7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>20.8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>8.6</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <v>16</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <v>22.5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K9" s="2">
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>43052</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>43062</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1000</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>5.7</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>24.1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="H9" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="J9" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="K9" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43059</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43061</v>
-      </c>
-      <c r="C10">
-        <v>1800</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="F10" s="2">
-        <v>26.5</v>
       </c>
       <c r="G10" s="2">
         <v>13.6</v>
       </c>
       <c r="H10" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43059</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43061</v>
+      </c>
+      <c r="C11">
+        <v>1800</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="H11" s="2">
         <v>6.7</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="2">
         <v>14.9</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J11" s="2">
         <v>25.3</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K11" s="2">
         <v>5.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>43054</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>43057</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>800</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>6.3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>23.9</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>16.5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>8.6</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="2">
         <v>5.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>43052</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>43055</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>801</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>5.6</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>23.1</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>16.7</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>7.6</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I13" s="2">
         <v>15.1</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J13" s="2">
         <v>22.3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K13" s="2">
         <v>7.8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43038</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43042</v>
-      </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>26.3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="I13" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="J13" s="2">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="K13" s="2">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43038</v>
       </c>
@@ -984,170 +984,169 @@
         <v>43042</v>
       </c>
       <c r="C14">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>6.3</v>
       </c>
       <c r="F14" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="J14" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43042</v>
+      </c>
+      <c r="C15">
+        <v>1233</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="F15" s="2">
         <v>29.3</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>10.4</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I15" s="2">
         <v>14.6</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J15" s="2">
         <v>20.6</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K15" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>43035</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>43039</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1000</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>5.7</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>31.2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>10.1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <v>10</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I16" s="2">
         <v>12.2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J16" s="2">
         <v>18.3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K16" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43024</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43037</v>
-      </c>
-      <c r="C16">
-        <v>1500</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="H16" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="J16" s="2">
-        <v>18.2</v>
-      </c>
-      <c r="K16" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L16" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="B17" s="1">
-        <v>43034</v>
+        <v>43037</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2">
         <v>6.3</v>
       </c>
-      <c r="F17" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="G17" s="2">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H17" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I17" s="2">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="J17" s="2">
-        <v>19.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K17" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L17" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B18" s="1">
-        <v>43029</v>
+        <v>43034</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F18" s="2">
-        <v>24.6</v>
+        <v>26.4</v>
       </c>
       <c r="G18" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H18" s="2">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J18" s="2">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K18" s="2">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M18" s="4"/>
     </row>
@@ -1156,256 +1155,259 @@
         <v>43024</v>
       </c>
       <c r="B19" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="C19">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="F19" s="2">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="G19" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H19" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I19" s="2">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="J19" s="2">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="K19" s="2">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B20" s="1">
-        <v>43017</v>
+        <v>43027</v>
       </c>
       <c r="C20">
         <v>800</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="F20" s="2">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="G20" s="2">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I20" s="2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="J20" s="2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="K20" s="2">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42996</v>
+        <v>43012</v>
       </c>
       <c r="B21" s="1">
-        <v>43000</v>
+        <v>43017</v>
       </c>
       <c r="C21">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F21" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G21" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H21" s="2">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="I21" s="2">
-        <v>13.7</v>
+        <v>9.5</v>
       </c>
       <c r="J21" s="2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K21" s="2">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42990</v>
+        <v>42996</v>
       </c>
       <c r="B22" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="C22">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F22" s="2">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="G22" s="2">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="H22" s="2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I22" s="2">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="J22" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K22" s="2">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42975</v>
+        <v>42990</v>
       </c>
       <c r="B23" s="1">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="C23">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="F23" s="2">
-        <v>28</v>
+        <v>24.7</v>
       </c>
       <c r="G23" s="2">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H23" s="2">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="I23" s="2">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="J23" s="2">
-        <v>17.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K23" s="2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B24" s="1">
-        <v>42958</v>
+        <v>42979</v>
       </c>
       <c r="C24">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F24" s="2">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G24" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H24" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="I24" s="2">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="J24" s="2">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="K24" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42912</v>
+        <v>42951</v>
       </c>
       <c r="B25" s="1">
-        <v>42927</v>
+        <v>42958</v>
       </c>
       <c r="C25">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>5.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G25" s="2">
+        <v>13.9</v>
       </c>
       <c r="H25" s="2">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="I25" s="2">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J25" s="2">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="K25" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L25" s="3">
-        <v>39.299999999999997</v>
+        <v>9.5</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42800</v>
+        <v>42912</v>
       </c>
       <c r="B26" s="1">
-        <v>42815</v>
+        <v>42927</v>
       </c>
       <c r="C26">
         <v>1500</v>
@@ -1414,127 +1416,127 @@
         <v>16</v>
       </c>
       <c r="E26" s="2">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H26" s="2">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="I26" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J26" s="2">
-        <v>16.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K26" s="2">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L26" s="3">
-        <v>37</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42737</v>
+        <v>42800</v>
       </c>
       <c r="B27" s="1">
-        <v>42740</v>
+        <v>42815</v>
       </c>
       <c r="C27">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F27" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H27" s="2">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="I27" s="2">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J27" s="2">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K27" s="2">
-        <v>9.8000000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="L27" s="3">
+        <v>37</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42720</v>
+        <v>42737</v>
       </c>
       <c r="B28" s="1">
-        <v>42727</v>
+        <v>42740</v>
       </c>
       <c r="C28">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2">
-        <v>7.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F28" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G28" s="2">
-        <v>14.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H28" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I28" s="2">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="J28" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K28" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B29" s="1">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="C29">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2">
-        <v>6</v>
+        <v>7.2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>14.8</v>
       </c>
       <c r="H29" s="2">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I29" s="2">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="J29" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="K29" s="2">
-        <v>9</v>
-      </c>
-      <c r="L29" s="3">
-        <v>37.6</v>
+        <v>9.1</v>
       </c>
       <c r="M29" s="4"/>
     </row>
@@ -1543,103 +1545,100 @@
         <v>42716</v>
       </c>
       <c r="B30" s="1">
-        <v>42718</v>
+        <v>42721</v>
       </c>
       <c r="C30">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="G30" s="2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I30" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="J30" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K30" s="2">
-        <v>8.1</v>
+        <v>9</v>
+      </c>
+      <c r="L30" s="3">
+        <v>37.6</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B31" s="1">
-        <v>42677</v>
+        <v>42718</v>
       </c>
       <c r="C31">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2">
         <v>5.2</v>
       </c>
+      <c r="F31" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G31" s="2">
+        <v>11.5</v>
+      </c>
       <c r="H31" s="2">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="I31" s="2">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="J31" s="2">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="K31" s="2">
-        <v>10</v>
-      </c>
-      <c r="L31" s="3">
-        <v>37.4</v>
+        <v>8.1</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B32" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C32">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F32" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G32" s="2">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="H32" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I32" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J32" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K32" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L32" s="3">
+        <v>37.4</v>
       </c>
       <c r="M32" s="4"/>
     </row>
@@ -1657,7 +1656,13 @@
         <v>14</v>
       </c>
       <c r="E33" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>17.2</v>
       </c>
       <c r="H33" s="2">
         <v>13.9</v>
@@ -1671,251 +1676,245 @@
       <c r="K33" s="2">
         <v>9.1</v>
       </c>
-      <c r="L33" s="3">
-        <v>36</v>
-      </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B34" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C34">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="H34" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I34" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J34" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K34" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="L34" s="3">
-        <v>38.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42534</v>
+        <v>42549</v>
       </c>
       <c r="B35" s="1">
-        <v>42537</v>
+        <v>42564</v>
       </c>
       <c r="C35">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F35" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G35" s="2">
-        <v>19.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H35" s="2">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="I35" s="2">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="J35" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K35" s="2">
         <v>8.8000000000000007</v>
       </c>
+      <c r="L35" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="B36" s="1">
-        <v>42482</v>
+        <v>42537</v>
       </c>
       <c r="C36">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F36" s="2">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="G36" s="2">
-        <v>13.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H36" s="2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="I36" s="2">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="J36" s="2">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="K36" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="B37" s="1">
-        <v>42437</v>
+        <v>42482</v>
       </c>
       <c r="C37">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E37" s="2">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G37" s="2">
+        <v>13.3</v>
       </c>
       <c r="H37" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I37" s="2">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="J37" s="2">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="K37" s="2">
-        <v>7</v>
-      </c>
-      <c r="L37" s="3">
-        <v>35.799999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="B38" s="1">
-        <v>42369</v>
+        <v>42437</v>
       </c>
       <c r="C38">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H38" s="2">
-        <v>9.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I38" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="J38" s="2">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="K38" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L38" s="3">
-        <v>35.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42338</v>
+        <v>42366</v>
       </c>
       <c r="B39" s="1">
-        <v>42341</v>
+        <v>42369</v>
       </c>
       <c r="C39">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F39" s="2">
-        <v>24</v>
-      </c>
-      <c r="G39" s="2">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
       <c r="H39" s="2">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I39" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J39" s="2">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="K39" s="2">
-        <v>7.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="L39" s="3">
+        <v>35.6</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B40" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C40">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="F40" s="2">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="G40" s="2">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="H40" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="I40" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J40" s="2">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="K40" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="M40" s="4"/>
     </row>
@@ -1933,352 +1932,355 @@
         <v>23</v>
       </c>
       <c r="E41" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F41" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>15.9</v>
       </c>
       <c r="H41" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I41" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J41" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K41" s="2">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="I41" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="K41" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L41" s="3">
-        <v>37.6</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B42" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C42">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E42" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H42" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I42" s="2">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="J42" s="2">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="K42" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L42" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42303</v>
+        <v>42324</v>
       </c>
       <c r="B43" s="1">
-        <v>42308</v>
+        <v>42331</v>
       </c>
       <c r="C43">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H43" s="2">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I43" s="2">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="J43" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K43" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="L43" s="3">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42282</v>
+        <v>42303</v>
       </c>
       <c r="B44" s="1">
-        <v>42304</v>
+        <v>42308</v>
       </c>
       <c r="C44">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="H44" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I44" s="2">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="J44" s="2">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="K44" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L44" s="3">
-        <v>39.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42274</v>
+        <v>42282</v>
       </c>
       <c r="B45" s="1">
-        <v>42274</v>
+        <v>42304</v>
       </c>
       <c r="C45">
-        <v>4130196</v>
+        <v>2000</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2">
-        <v>8.2100000000000009</v>
+        <v>11.1</v>
       </c>
       <c r="H45" s="2">
-        <v>8.94</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I45" s="2">
-        <v>12.72</v>
+        <v>10.6</v>
       </c>
       <c r="J45" s="2">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="K45" s="2">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="L45" s="3">
-        <v>39.590000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="B46" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="C46">
-        <v>1200</v>
+        <v>4130196</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="2">
-        <v>7</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H46" s="2">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="I46" s="2">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="J46" s="2">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K46" s="2">
-        <v>11</v>
+        <v>8.49</v>
       </c>
       <c r="L46" s="3">
-        <v>41</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B47" s="1">
-        <v>42272</v>
+        <v>42268</v>
       </c>
       <c r="C47">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="2">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2">
+        <v>12</v>
+      </c>
+      <c r="I47" s="2">
+        <v>12</v>
+      </c>
+      <c r="J47" s="2">
         <v>13</v>
       </c>
-      <c r="E47" s="2">
-        <v>8</v>
-      </c>
-      <c r="H47" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="I47" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J47" s="2">
-        <v>14.5</v>
-      </c>
       <c r="K47" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L47" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42257</v>
+        <v>42261</v>
       </c>
       <c r="B48" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C48">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H48" s="2">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="I48" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J48" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="K48" s="2">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="L48" s="3">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42258</v>
+        <v>42257</v>
       </c>
       <c r="B49" s="1">
-        <v>42266</v>
+        <v>42264</v>
       </c>
       <c r="C49">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E49" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H49" s="2">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="I49" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J49" s="2">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="K49" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L49" s="3">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42263</v>
+        <v>42258</v>
       </c>
       <c r="B50" s="1">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="C50">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E50" s="2">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="H50" s="2">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="I50" s="2">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="J50" s="2">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="K50" s="2">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="L50" s="3">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B51" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C51">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H51" s="2">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="I51" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="J51" s="2">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K51" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="L51" s="3">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="M51" s="4"/>
     </row>
@@ -2290,28 +2292,28 @@
         <v>42265</v>
       </c>
       <c r="C52">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E52" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H52" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="I52" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J52" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="K52" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L52" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M52" s="4"/>
     </row>
@@ -2320,28 +2322,28 @@
         <v>42261</v>
       </c>
       <c r="B53" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C53">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2">
         <v>6.4</v>
       </c>
       <c r="H53" s="2">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="I53" s="2">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="J53" s="2">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K53" s="2">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L53" s="3">
         <v>40.700000000000003</v>
@@ -2353,31 +2355,31 @@
         <v>42261</v>
       </c>
       <c r="B54" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C54">
-        <v>1717</v>
+        <v>1000</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E54" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H54" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I54" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="J54" s="2">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="K54" s="2">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="L54" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M54" s="4"/>
     </row>
@@ -2389,28 +2391,28 @@
         <v>42263</v>
       </c>
       <c r="C55">
-        <v>1157</v>
+        <v>1717</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E55" s="2">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H55" s="2">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I55" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J55" s="2">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="K55" s="2">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="L55" s="3">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="M55" s="4"/>
     </row>
@@ -2422,193 +2424,193 @@
         <v>42263</v>
       </c>
       <c r="C56">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E56" s="2">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H56" s="2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="I56" s="2">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="J56" s="2">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="K56" s="2">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="L56" s="3">
-        <v>39.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B57" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C57">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E57" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H57" s="2">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="I57" s="2">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="J57" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="K57" s="2">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="L57" s="3">
-        <v>37.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42248</v>
+        <v>42254</v>
       </c>
       <c r="B58" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C58">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E58" s="2">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H58" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I58" s="2">
         <v>11.4</v>
       </c>
-      <c r="I58" s="2">
-        <v>11.1</v>
-      </c>
       <c r="J58" s="2">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="K58" s="2">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L58" s="3">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42250</v>
+        <v>42248</v>
       </c>
       <c r="B59" s="1">
         <v>42255</v>
       </c>
       <c r="C59">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H59" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="I59" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="K59" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I59" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J59" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K59" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L59" s="3">
-        <v>42.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42246</v>
+        <v>42250</v>
       </c>
       <c r="B60" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C60">
-        <v>2999</v>
+        <v>750</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H60" s="2">
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I60" s="2">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J60" s="2">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="K60" s="2">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L60" s="3">
-        <v>38.1</v>
+        <v>42.1</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B61" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C61">
-        <v>1400</v>
+        <v>2999</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E61" s="2">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H61" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I61" s="2">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J61" s="2">
-        <v>12.7</v>
+        <v>14.8</v>
       </c>
       <c r="K61" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L61" s="3">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="M61" s="4"/>
     </row>
@@ -2617,273 +2619,306 @@
         <v>42247</v>
       </c>
       <c r="B62" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="C62">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E62" s="2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H62" s="2">
         <v>12.4</v>
       </c>
       <c r="I62" s="2">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="J62" s="2">
-        <v>19.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K62" s="2">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L62" s="3">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B63" s="1">
-        <v>42250</v>
+        <v>42249</v>
       </c>
       <c r="C63">
-        <v>1221</v>
+        <v>800</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E63" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H63" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I63" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="J63" s="2">
-        <v>12.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K63" s="2">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="L63" s="3">
-        <v>43.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42233</v>
+        <v>42248</v>
       </c>
       <c r="B64" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C64">
-        <v>955</v>
+        <v>1221</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E64" s="2">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H64" s="2">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I64" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J64" s="2">
-        <v>17.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K64" s="2">
-        <v>9.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L64" s="3">
-        <v>36.299999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42201</v>
+        <v>42233</v>
       </c>
       <c r="B65" s="1">
-        <v>42208</v>
+        <v>42238</v>
       </c>
       <c r="C65">
-        <v>1255</v>
+        <v>955</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H65" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="I65" s="2">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="J65" s="2">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K65" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L65" s="3">
-        <v>35.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42191</v>
+        <v>42201</v>
       </c>
       <c r="B66" s="1">
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="C66">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E66" s="2">
-        <v>7</v>
-      </c>
-      <c r="F66" s="2">
-        <v>15</v>
-      </c>
-      <c r="G66" s="2">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="H66" s="2">
-        <v>16.5</v>
+        <v>12.8</v>
       </c>
       <c r="I66" s="2">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J66" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K66" s="2">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L66" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42186</v>
+        <v>42191</v>
       </c>
       <c r="B67" s="1">
-        <v>42188</v>
+        <v>42194</v>
       </c>
       <c r="C67">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E67" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F67" s="2">
+        <v>15</v>
+      </c>
+      <c r="G67" s="2">
+        <v>22</v>
       </c>
       <c r="H67" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I67" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J67" s="2">
         <v>16</v>
       </c>
       <c r="K67" s="2">
-        <v>9</v>
-      </c>
-      <c r="L67" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42202</v>
+        <v>42186</v>
       </c>
       <c r="B68" s="1">
-        <v>42206</v>
+        <v>42188</v>
       </c>
       <c r="C68">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E68" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F68" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G68" s="2">
-        <v>23.1</v>
+        <v>8</v>
       </c>
       <c r="H68" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I68" s="2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J68" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K68" s="2">
-        <v>5.9</v>
+        <v>9</v>
+      </c>
+      <c r="L68" s="3">
+        <v>32</v>
       </c>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B69" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C69">
+        <v>800</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F69" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G69" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>18</v>
+      </c>
+      <c r="I69" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J69" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>42121</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B70" s="1">
         <v>42123</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>1000</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E70" s="2">
         <v>7.9</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F70" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G70" s="2">
         <v>22.6</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H70" s="2">
         <v>12.9</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I70" s="2">
         <v>9.9</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J70" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K70" s="2">
         <v>6.4</v>
       </c>
-      <c r="M69" s="4"/>
+      <c r="M70" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -561,31 +561,31 @@
         <v>43070</v>
       </c>
       <c r="B2" s="1">
-        <v>43077</v>
+        <v>43078</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="F2" s="2">
-        <v>22.3</v>
+        <v>21.4</v>
       </c>
       <c r="G2" s="2">
-        <v>18.899999999999999</v>
+        <v>21.3</v>
       </c>
       <c r="H2" s="2">
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I2" s="2">
-        <v>15.9</v>
+        <v>14.1</v>
       </c>
       <c r="J2" s="2">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="K2" s="2">
         <v>6.1</v>
@@ -593,422 +593,422 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43066</v>
+        <v>43070</v>
       </c>
       <c r="B3" s="1">
         <v>43077</v>
       </c>
       <c r="C3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="F3" s="2">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="G3" s="2">
-        <v>19.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H3" s="2">
         <v>7.4</v>
       </c>
       <c r="I3" s="2">
-        <v>14.4</v>
+        <v>15.9</v>
       </c>
       <c r="J3" s="2">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="K3" s="2">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43073</v>
+        <v>43066</v>
       </c>
       <c r="B4" s="1">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F4" s="2">
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="G4" s="2">
-        <v>18.2</v>
+        <v>19.8</v>
       </c>
       <c r="H4" s="2">
         <v>7.4</v>
       </c>
       <c r="I4" s="2">
-        <v>16.5</v>
+        <v>14.4</v>
       </c>
       <c r="J4" s="2">
-        <v>23.1</v>
+        <v>21.5</v>
       </c>
       <c r="K4" s="2">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="B5" s="1">
         <v>43076</v>
       </c>
       <c r="C5">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="K5" s="2">
         <v>7.1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2">
-        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43070</v>
+        <v>43072</v>
       </c>
       <c r="B6" s="1">
-        <v>43074</v>
+        <v>43076</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="F6" s="2">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="G6" s="2">
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2">
-        <v>9.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2">
-        <v>13.5</v>
+        <v>15.3</v>
       </c>
       <c r="J6" s="2">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43068</v>
+        <v>43070</v>
       </c>
       <c r="B7" s="1">
-        <v>43071</v>
+        <v>43074</v>
       </c>
       <c r="C7">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F7" s="2">
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2">
-        <v>19.3</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H7" s="2">
-        <v>8.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I7" s="2">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="J7" s="2">
-        <v>19</v>
+        <v>22.8</v>
       </c>
       <c r="K7" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43066</v>
+        <v>43068</v>
       </c>
       <c r="B8" s="1">
-        <v>43069</v>
+        <v>43071</v>
       </c>
       <c r="C8">
         <v>800</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>23.1</v>
+        <v>20.5</v>
       </c>
       <c r="G8" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I8" s="2">
         <v>19</v>
       </c>
-      <c r="H8" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>15.2</v>
-      </c>
       <c r="J8" s="2">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="2">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="B9" s="1">
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="C9">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>20.8</v>
+        <v>23.1</v>
       </c>
       <c r="G9" s="2">
-        <v>16.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="I9" s="2">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="J9" s="2">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="K9" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43052</v>
+        <v>43062</v>
       </c>
       <c r="B10" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="F10" s="2">
-        <v>24.1</v>
+        <v>20.8</v>
       </c>
       <c r="G10" s="2">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H10" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I10" s="2">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2">
-        <v>20.9</v>
+        <v>22.5</v>
       </c>
       <c r="K10" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43059</v>
+        <v>43052</v>
       </c>
       <c r="B11" s="1">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="C11">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F11" s="2">
-        <v>26.5</v>
+        <v>24.1</v>
       </c>
       <c r="G11" s="2">
         <v>13.6</v>
       </c>
       <c r="H11" s="2">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="I11" s="2">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="J11" s="2">
-        <v>25.3</v>
+        <v>20.9</v>
       </c>
       <c r="K11" s="2">
-        <v>5.8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43054</v>
+        <v>43059</v>
       </c>
       <c r="B12" s="1">
-        <v>43057</v>
+        <v>43061</v>
       </c>
       <c r="C12">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F12" s="2">
-        <v>23.9</v>
+        <v>26.5</v>
       </c>
       <c r="G12" s="2">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="H12" s="2">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="I12" s="2">
-        <v>18.100000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="J12" s="2">
-        <v>18.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K12" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43052</v>
+        <v>43054</v>
       </c>
       <c r="B13" s="1">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="C13">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F13" s="2">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="G13" s="2">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="H13" s="2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I13" s="2">
-        <v>15.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J13" s="2">
-        <v>22.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K13" s="2">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="B14" s="1">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F14" s="2">
-        <v>26.3</v>
+        <v>23.1</v>
       </c>
       <c r="G14" s="2">
-        <v>10.7</v>
+        <v>16.7</v>
       </c>
       <c r="H14" s="2">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="I14" s="2">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="J14" s="2">
-        <v>19.600000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="K14" s="2">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1019,170 +1019,169 @@
         <v>43042</v>
       </c>
       <c r="C15">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
         <v>6.3</v>
       </c>
       <c r="F15" s="2">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="G15" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H15" s="2">
         <v>10.4</v>
       </c>
-      <c r="H15" s="2">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="I15" s="2">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="J15" s="2">
-        <v>20.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>8.6999999999999993</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B16" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F16" s="2">
-        <v>31.2</v>
+        <v>29.3</v>
       </c>
       <c r="G16" s="2">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="H16" s="2">
-        <v>10</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I16" s="2">
-        <v>12.2</v>
+        <v>14.6</v>
       </c>
       <c r="J16" s="2">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="K16" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43024</v>
+        <v>43035</v>
       </c>
       <c r="B17" s="1">
-        <v>43037</v>
+        <v>43039</v>
       </c>
       <c r="C17">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="F17" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10.1</v>
       </c>
       <c r="H17" s="2">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="J17" s="2">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="K17" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L17" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M17" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="B18" s="1">
-        <v>43034</v>
+        <v>43037</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
         <v>6.3</v>
       </c>
-      <c r="F18" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="G18" s="2">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H18" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I18" s="2">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="J18" s="2">
-        <v>19.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K18" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L18" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B19" s="1">
-        <v>43029</v>
+        <v>43034</v>
       </c>
       <c r="C19">
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F19" s="2">
-        <v>24.6</v>
+        <v>26.4</v>
       </c>
       <c r="G19" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H19" s="2">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J19" s="2">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K19" s="2">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M19" s="4"/>
     </row>
@@ -1191,256 +1190,259 @@
         <v>43024</v>
       </c>
       <c r="B20" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="C20">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="F20" s="2">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="G20" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H20" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I20" s="2">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="J20" s="2">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="K20" s="2">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B21" s="1">
-        <v>43017</v>
+        <v>43027</v>
       </c>
       <c r="C21">
         <v>800</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="F21" s="2">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="G21" s="2">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I21" s="2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="J21" s="2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="K21" s="2">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42996</v>
+        <v>43012</v>
       </c>
       <c r="B22" s="1">
-        <v>43000</v>
+        <v>43017</v>
       </c>
       <c r="C22">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F22" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G22" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H22" s="2">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="I22" s="2">
-        <v>13.7</v>
+        <v>9.5</v>
       </c>
       <c r="J22" s="2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K22" s="2">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42990</v>
+        <v>42996</v>
       </c>
       <c r="B23" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="C23">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F23" s="2">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="G23" s="2">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="H23" s="2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I23" s="2">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="J23" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K23" s="2">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42975</v>
+        <v>42990</v>
       </c>
       <c r="B24" s="1">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="C24">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="F24" s="2">
-        <v>28</v>
+        <v>24.7</v>
       </c>
       <c r="G24" s="2">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H24" s="2">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="I24" s="2">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="J24" s="2">
-        <v>17.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B25" s="1">
-        <v>42958</v>
+        <v>42979</v>
       </c>
       <c r="C25">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F25" s="2">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G25" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H25" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="I25" s="2">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="J25" s="2">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="K25" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42912</v>
+        <v>42951</v>
       </c>
       <c r="B26" s="1">
-        <v>42927</v>
+        <v>42958</v>
       </c>
       <c r="C26">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2">
-        <v>5.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>13.9</v>
       </c>
       <c r="H26" s="2">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="I26" s="2">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J26" s="2">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="K26" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L26" s="3">
-        <v>39.299999999999997</v>
+        <v>9.5</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42800</v>
+        <v>42912</v>
       </c>
       <c r="B27" s="1">
-        <v>42815</v>
+        <v>42927</v>
       </c>
       <c r="C27">
         <v>1500</v>
@@ -1449,127 +1451,127 @@
         <v>16</v>
       </c>
       <c r="E27" s="2">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H27" s="2">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="I27" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J27" s="2">
-        <v>16.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K27" s="2">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L27" s="3">
-        <v>37</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42737</v>
+        <v>42800</v>
       </c>
       <c r="B28" s="1">
-        <v>42740</v>
+        <v>42815</v>
       </c>
       <c r="C28">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F28" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H28" s="2">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="I28" s="2">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J28" s="2">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K28" s="2">
-        <v>9.8000000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="L28" s="3">
+        <v>37</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42720</v>
+        <v>42737</v>
       </c>
       <c r="B29" s="1">
-        <v>42727</v>
+        <v>42740</v>
       </c>
       <c r="C29">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>7.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F29" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G29" s="2">
-        <v>14.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H29" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I29" s="2">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="J29" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K29" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B30" s="1">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="C30">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
+        <v>7.2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>14.8</v>
       </c>
       <c r="H30" s="2">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I30" s="2">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="J30" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="K30" s="2">
-        <v>9</v>
-      </c>
-      <c r="L30" s="3">
-        <v>37.6</v>
+        <v>9.1</v>
       </c>
       <c r="M30" s="4"/>
     </row>
@@ -1578,103 +1580,100 @@
         <v>42716</v>
       </c>
       <c r="B31" s="1">
-        <v>42718</v>
+        <v>42721</v>
       </c>
       <c r="C31">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="G31" s="2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H31" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I31" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="J31" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K31" s="2">
-        <v>8.1</v>
+        <v>9</v>
+      </c>
+      <c r="L31" s="3">
+        <v>37.6</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B32" s="1">
-        <v>42677</v>
+        <v>42718</v>
       </c>
       <c r="C32">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2">
         <v>5.2</v>
       </c>
+      <c r="F32" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G32" s="2">
+        <v>11.5</v>
+      </c>
       <c r="H32" s="2">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="I32" s="2">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="J32" s="2">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="K32" s="2">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>37.4</v>
+        <v>8.1</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B33" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C33">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G33" s="2">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="H33" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I33" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J33" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K33" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L33" s="3">
+        <v>37.4</v>
       </c>
       <c r="M33" s="4"/>
     </row>
@@ -1692,7 +1691,13 @@
         <v>14</v>
       </c>
       <c r="E34" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>17.2</v>
       </c>
       <c r="H34" s="2">
         <v>13.9</v>
@@ -1706,251 +1711,245 @@
       <c r="K34" s="2">
         <v>9.1</v>
       </c>
-      <c r="L34" s="3">
-        <v>36</v>
-      </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B35" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C35">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="H35" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I35" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J35" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K35" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="L35" s="3">
-        <v>38.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42534</v>
+        <v>42549</v>
       </c>
       <c r="B36" s="1">
-        <v>42537</v>
+        <v>42564</v>
       </c>
       <c r="C36">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F36" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G36" s="2">
-        <v>19.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H36" s="2">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="I36" s="2">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="J36" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K36" s="2">
         <v>8.8000000000000007</v>
       </c>
+      <c r="L36" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="B37" s="1">
-        <v>42482</v>
+        <v>42537</v>
       </c>
       <c r="C37">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F37" s="2">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="G37" s="2">
-        <v>13.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H37" s="2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="I37" s="2">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="J37" s="2">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="K37" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="B38" s="1">
-        <v>42437</v>
+        <v>42482</v>
       </c>
       <c r="C38">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G38" s="2">
+        <v>13.3</v>
       </c>
       <c r="H38" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I38" s="2">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="J38" s="2">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="K38" s="2">
-        <v>7</v>
-      </c>
-      <c r="L38" s="3">
-        <v>35.799999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="B39" s="1">
-        <v>42369</v>
+        <v>42437</v>
       </c>
       <c r="C39">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E39" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H39" s="2">
-        <v>9.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I39" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="J39" s="2">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="K39" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L39" s="3">
-        <v>35.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42338</v>
+        <v>42366</v>
       </c>
       <c r="B40" s="1">
-        <v>42341</v>
+        <v>42369</v>
       </c>
       <c r="C40">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F40" s="2">
-        <v>24</v>
-      </c>
-      <c r="G40" s="2">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
       <c r="H40" s="2">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I40" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J40" s="2">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="K40" s="2">
-        <v>7.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="L40" s="3">
+        <v>35.6</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B41" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C41">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="F41" s="2">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="G41" s="2">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="H41" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="I41" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J41" s="2">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="K41" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="M41" s="4"/>
     </row>
@@ -1968,352 +1967,355 @@
         <v>23</v>
       </c>
       <c r="E42" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F42" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>15.9</v>
       </c>
       <c r="H42" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I42" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J42" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K42" s="2">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="I42" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="K42" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L42" s="3">
-        <v>37.6</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B43" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C43">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E43" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H43" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I43" s="2">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="J43" s="2">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="K43" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L43" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42303</v>
+        <v>42324</v>
       </c>
       <c r="B44" s="1">
-        <v>42308</v>
+        <v>42331</v>
       </c>
       <c r="C44">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H44" s="2">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I44" s="2">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="J44" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K44" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="L44" s="3">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42282</v>
+        <v>42303</v>
       </c>
       <c r="B45" s="1">
-        <v>42304</v>
+        <v>42308</v>
       </c>
       <c r="C45">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="H45" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I45" s="2">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="J45" s="2">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="K45" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L45" s="3">
-        <v>39.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42274</v>
+        <v>42282</v>
       </c>
       <c r="B46" s="1">
-        <v>42274</v>
+        <v>42304</v>
       </c>
       <c r="C46">
-        <v>4130196</v>
+        <v>2000</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2">
-        <v>8.2100000000000009</v>
+        <v>11.1</v>
       </c>
       <c r="H46" s="2">
-        <v>8.94</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I46" s="2">
-        <v>12.72</v>
+        <v>10.6</v>
       </c>
       <c r="J46" s="2">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="K46" s="2">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="L46" s="3">
-        <v>39.590000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="B47" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="C47">
-        <v>1200</v>
+        <v>4130196</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="2">
-        <v>7</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H47" s="2">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="I47" s="2">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="J47" s="2">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K47" s="2">
-        <v>11</v>
+        <v>8.49</v>
       </c>
       <c r="L47" s="3">
-        <v>41</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B48" s="1">
-        <v>42272</v>
+        <v>42268</v>
       </c>
       <c r="C48">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7</v>
+      </c>
+      <c r="H48" s="2">
+        <v>12</v>
+      </c>
+      <c r="I48" s="2">
+        <v>12</v>
+      </c>
+      <c r="J48" s="2">
         <v>13</v>
       </c>
-      <c r="E48" s="2">
-        <v>8</v>
-      </c>
-      <c r="H48" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="I48" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J48" s="2">
-        <v>14.5</v>
-      </c>
       <c r="K48" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L48" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42257</v>
+        <v>42261</v>
       </c>
       <c r="B49" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C49">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H49" s="2">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="I49" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J49" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="K49" s="2">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="L49" s="3">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42258</v>
+        <v>42257</v>
       </c>
       <c r="B50" s="1">
-        <v>42266</v>
+        <v>42264</v>
       </c>
       <c r="C50">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E50" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H50" s="2">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="I50" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J50" s="2">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="K50" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L50" s="3">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42263</v>
+        <v>42258</v>
       </c>
       <c r="B51" s="1">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="C51">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E51" s="2">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="H51" s="2">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="I51" s="2">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="J51" s="2">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="K51" s="2">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="L51" s="3">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B52" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C52">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H52" s="2">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="I52" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="J52" s="2">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K52" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="L52" s="3">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="M52" s="4"/>
     </row>
@@ -2325,28 +2327,28 @@
         <v>42265</v>
       </c>
       <c r="C53">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E53" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H53" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="I53" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J53" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="K53" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L53" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M53" s="4"/>
     </row>
@@ -2355,28 +2357,28 @@
         <v>42261</v>
       </c>
       <c r="B54" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C54">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E54" s="2">
         <v>6.4</v>
       </c>
       <c r="H54" s="2">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="I54" s="2">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="J54" s="2">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K54" s="2">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L54" s="3">
         <v>40.700000000000003</v>
@@ -2388,31 +2390,31 @@
         <v>42261</v>
       </c>
       <c r="B55" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C55">
-        <v>1717</v>
+        <v>1000</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E55" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H55" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I55" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="J55" s="2">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="K55" s="2">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="L55" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M55" s="4"/>
     </row>
@@ -2424,28 +2426,28 @@
         <v>42263</v>
       </c>
       <c r="C56">
-        <v>1157</v>
+        <v>1717</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E56" s="2">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H56" s="2">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I56" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J56" s="2">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="K56" s="2">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="L56" s="3">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="M56" s="4"/>
     </row>
@@ -2457,193 +2459,193 @@
         <v>42263</v>
       </c>
       <c r="C57">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E57" s="2">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H57" s="2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="I57" s="2">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="J57" s="2">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="K57" s="2">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="L57" s="3">
-        <v>39.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B58" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C58">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E58" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H58" s="2">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="I58" s="2">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="J58" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="K58" s="2">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="L58" s="3">
-        <v>37.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42248</v>
+        <v>42254</v>
       </c>
       <c r="B59" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C59">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E59" s="2">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H59" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I59" s="2">
         <v>11.4</v>
       </c>
-      <c r="I59" s="2">
-        <v>11.1</v>
-      </c>
       <c r="J59" s="2">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="K59" s="2">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L59" s="3">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42250</v>
+        <v>42248</v>
       </c>
       <c r="B60" s="1">
         <v>42255</v>
       </c>
       <c r="C60">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H60" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="I60" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="K60" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I60" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J60" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K60" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L60" s="3">
-        <v>42.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42246</v>
+        <v>42250</v>
       </c>
       <c r="B61" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C61">
-        <v>2999</v>
+        <v>750</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H61" s="2">
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I61" s="2">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J61" s="2">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="K61" s="2">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L61" s="3">
-        <v>38.1</v>
+        <v>42.1</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B62" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C62">
-        <v>1400</v>
+        <v>2999</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E62" s="2">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H62" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I62" s="2">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J62" s="2">
-        <v>12.7</v>
+        <v>14.8</v>
       </c>
       <c r="K62" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L62" s="3">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="M62" s="4"/>
     </row>
@@ -2652,273 +2654,306 @@
         <v>42247</v>
       </c>
       <c r="B63" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="C63">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E63" s="2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H63" s="2">
         <v>12.4</v>
       </c>
       <c r="I63" s="2">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="J63" s="2">
-        <v>19.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K63" s="2">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L63" s="3">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B64" s="1">
-        <v>42250</v>
+        <v>42249</v>
       </c>
       <c r="C64">
-        <v>1221</v>
+        <v>800</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E64" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H64" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I64" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="J64" s="2">
-        <v>12.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K64" s="2">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="L64" s="3">
-        <v>43.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42233</v>
+        <v>42248</v>
       </c>
       <c r="B65" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C65">
-        <v>955</v>
+        <v>1221</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E65" s="2">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H65" s="2">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I65" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J65" s="2">
-        <v>17.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K65" s="2">
-        <v>9.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L65" s="3">
-        <v>36.299999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42201</v>
+        <v>42233</v>
       </c>
       <c r="B66" s="1">
-        <v>42208</v>
+        <v>42238</v>
       </c>
       <c r="C66">
-        <v>1255</v>
+        <v>955</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H66" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="I66" s="2">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="J66" s="2">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K66" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L66" s="3">
-        <v>35.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42191</v>
+        <v>42201</v>
       </c>
       <c r="B67" s="1">
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="C67">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E67" s="2">
-        <v>7</v>
-      </c>
-      <c r="F67" s="2">
-        <v>15</v>
-      </c>
-      <c r="G67" s="2">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="H67" s="2">
-        <v>16.5</v>
+        <v>12.8</v>
       </c>
       <c r="I67" s="2">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J67" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K67" s="2">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L67" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42186</v>
+        <v>42191</v>
       </c>
       <c r="B68" s="1">
-        <v>42188</v>
+        <v>42194</v>
       </c>
       <c r="C68">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E68" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F68" s="2">
+        <v>15</v>
+      </c>
+      <c r="G68" s="2">
+        <v>22</v>
       </c>
       <c r="H68" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I68" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J68" s="2">
         <v>16</v>
       </c>
       <c r="K68" s="2">
-        <v>9</v>
-      </c>
-      <c r="L68" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42202</v>
+        <v>42186</v>
       </c>
       <c r="B69" s="1">
-        <v>42206</v>
+        <v>42188</v>
       </c>
       <c r="C69">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E69" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F69" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G69" s="2">
-        <v>23.1</v>
+        <v>8</v>
       </c>
       <c r="H69" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I69" s="2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J69" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K69" s="2">
-        <v>5.9</v>
+        <v>9</v>
+      </c>
+      <c r="L69" s="3">
+        <v>32</v>
       </c>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B70" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C70">
+        <v>800</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F70" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G70" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>18</v>
+      </c>
+      <c r="I70" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J70" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>42121</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B71" s="1">
         <v>42123</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>1000</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>23</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E71" s="2">
         <v>7.9</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F71" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G71" s="2">
         <v>22.6</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H71" s="2">
         <v>12.9</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I71" s="2">
         <v>9.9</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J71" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K71" s="2">
         <v>6.4</v>
       </c>
-      <c r="M70" s="4"/>
+      <c r="M71" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,422 +628,422 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="B4" s="1">
-        <v>43077</v>
+        <v>43076</v>
       </c>
       <c r="C4">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="F4" s="2">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="G4" s="2">
-        <v>19.8</v>
+        <v>16.2</v>
       </c>
       <c r="H4" s="2">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="I4" s="2">
-        <v>14.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J4" s="2">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="K4" s="2">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43073</v>
+        <v>43066</v>
       </c>
       <c r="B5" s="1">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F5" s="2">
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="G5" s="2">
-        <v>18.2</v>
+        <v>19.8</v>
       </c>
       <c r="H5" s="2">
         <v>7.4</v>
       </c>
       <c r="I5" s="2">
-        <v>16.5</v>
+        <v>14.4</v>
       </c>
       <c r="J5" s="2">
-        <v>23.1</v>
+        <v>21.5</v>
       </c>
       <c r="K5" s="2">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="B6" s="1">
         <v>43076</v>
       </c>
       <c r="C6">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="K6" s="2">
         <v>7.1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2">
-        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43070</v>
+        <v>43072</v>
       </c>
       <c r="B7" s="1">
-        <v>43074</v>
+        <v>43076</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="F7" s="2">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="G7" s="2">
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2">
-        <v>9.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="I7" s="2">
-        <v>13.5</v>
+        <v>15.3</v>
       </c>
       <c r="J7" s="2">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43068</v>
+        <v>43070</v>
       </c>
       <c r="B8" s="1">
-        <v>43071</v>
+        <v>43074</v>
       </c>
       <c r="C8">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F8" s="2">
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2">
-        <v>19.3</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H8" s="2">
-        <v>8.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I8" s="2">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="J8" s="2">
-        <v>19</v>
+        <v>22.8</v>
       </c>
       <c r="K8" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43066</v>
+        <v>43068</v>
       </c>
       <c r="B9" s="1">
-        <v>43069</v>
+        <v>43071</v>
       </c>
       <c r="C9">
         <v>800</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>23.1</v>
+        <v>20.5</v>
       </c>
       <c r="G9" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I9" s="2">
         <v>19</v>
       </c>
-      <c r="H9" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>15.2</v>
-      </c>
       <c r="J9" s="2">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="2">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="B10" s="1">
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="C10">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2">
-        <v>20.8</v>
+        <v>23.1</v>
       </c>
       <c r="G10" s="2">
-        <v>16.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="I10" s="2">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="J10" s="2">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="K10" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43052</v>
+        <v>43062</v>
       </c>
       <c r="B11" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="F11" s="2">
-        <v>24.1</v>
+        <v>20.8</v>
       </c>
       <c r="G11" s="2">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H11" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I11" s="2">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="J11" s="2">
-        <v>20.9</v>
+        <v>22.5</v>
       </c>
       <c r="K11" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43059</v>
+        <v>43052</v>
       </c>
       <c r="B12" s="1">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="C12">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F12" s="2">
-        <v>26.5</v>
+        <v>24.1</v>
       </c>
       <c r="G12" s="2">
         <v>13.6</v>
       </c>
       <c r="H12" s="2">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="I12" s="2">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="J12" s="2">
-        <v>25.3</v>
+        <v>20.9</v>
       </c>
       <c r="K12" s="2">
-        <v>5.8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43054</v>
+        <v>43059</v>
       </c>
       <c r="B13" s="1">
-        <v>43057</v>
+        <v>43061</v>
       </c>
       <c r="C13">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F13" s="2">
-        <v>23.9</v>
+        <v>26.5</v>
       </c>
       <c r="G13" s="2">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="H13" s="2">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="I13" s="2">
-        <v>18.100000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="J13" s="2">
-        <v>18.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K13" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43052</v>
+        <v>43054</v>
       </c>
       <c r="B14" s="1">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="C14">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F14" s="2">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="G14" s="2">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="H14" s="2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I14" s="2">
-        <v>15.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J14" s="2">
-        <v>22.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K14" s="2">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="B15" s="1">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F15" s="2">
-        <v>26.3</v>
+        <v>23.1</v>
       </c>
       <c r="G15" s="2">
-        <v>10.7</v>
+        <v>16.7</v>
       </c>
       <c r="H15" s="2">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="I15" s="2">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="J15" s="2">
-        <v>19.600000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="K15" s="2">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1054,170 +1054,169 @@
         <v>43042</v>
       </c>
       <c r="C16">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>6.3</v>
       </c>
       <c r="F16" s="2">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="G16" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H16" s="2">
         <v>10.4</v>
       </c>
-      <c r="H16" s="2">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="I16" s="2">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="J16" s="2">
-        <v>20.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K16" s="2">
-        <v>8.6999999999999993</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B17" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F17" s="2">
-        <v>31.2</v>
+        <v>29.3</v>
       </c>
       <c r="G17" s="2">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="H17" s="2">
-        <v>10</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I17" s="2">
-        <v>12.2</v>
+        <v>14.6</v>
       </c>
       <c r="J17" s="2">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="K17" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43024</v>
+        <v>43035</v>
       </c>
       <c r="B18" s="1">
-        <v>43037</v>
+        <v>43039</v>
       </c>
       <c r="C18">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="F18" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10.1</v>
       </c>
       <c r="H18" s="2">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="J18" s="2">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="K18" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L18" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="B19" s="1">
-        <v>43034</v>
+        <v>43037</v>
       </c>
       <c r="C19">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
         <v>6.3</v>
       </c>
-      <c r="F19" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="G19" s="2">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H19" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I19" s="2">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="J19" s="2">
-        <v>19.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K19" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L19" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B20" s="1">
-        <v>43029</v>
+        <v>43034</v>
       </c>
       <c r="C20">
         <v>1000</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F20" s="2">
-        <v>24.6</v>
+        <v>26.4</v>
       </c>
       <c r="G20" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H20" s="2">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J20" s="2">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K20" s="2">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M20" s="4"/>
     </row>
@@ -1226,256 +1225,259 @@
         <v>43024</v>
       </c>
       <c r="B21" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="C21">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="F21" s="2">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="G21" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H21" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I21" s="2">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="J21" s="2">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="K21" s="2">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B22" s="1">
-        <v>43017</v>
+        <v>43027</v>
       </c>
       <c r="C22">
         <v>800</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="F22" s="2">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="G22" s="2">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H22" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I22" s="2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="J22" s="2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="K22" s="2">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42996</v>
+        <v>43012</v>
       </c>
       <c r="B23" s="1">
-        <v>43000</v>
+        <v>43017</v>
       </c>
       <c r="C23">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F23" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G23" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H23" s="2">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2">
-        <v>13.7</v>
+        <v>9.5</v>
       </c>
       <c r="J23" s="2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K23" s="2">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42990</v>
+        <v>42996</v>
       </c>
       <c r="B24" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="C24">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F24" s="2">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="G24" s="2">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="H24" s="2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I24" s="2">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="J24" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K24" s="2">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42975</v>
+        <v>42990</v>
       </c>
       <c r="B25" s="1">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="C25">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="F25" s="2">
-        <v>28</v>
+        <v>24.7</v>
       </c>
       <c r="G25" s="2">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H25" s="2">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="I25" s="2">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="J25" s="2">
-        <v>17.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K25" s="2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B26" s="1">
-        <v>42958</v>
+        <v>42979</v>
       </c>
       <c r="C26">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F26" s="2">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G26" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H26" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="I26" s="2">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="J26" s="2">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="K26" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42912</v>
+        <v>42951</v>
       </c>
       <c r="B27" s="1">
-        <v>42927</v>
+        <v>42958</v>
       </c>
       <c r="C27">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2">
-        <v>5.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>13.9</v>
       </c>
       <c r="H27" s="2">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="I27" s="2">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J27" s="2">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="K27" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L27" s="3">
-        <v>39.299999999999997</v>
+        <v>9.5</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42800</v>
+        <v>42912</v>
       </c>
       <c r="B28" s="1">
-        <v>42815</v>
+        <v>42927</v>
       </c>
       <c r="C28">
         <v>1500</v>
@@ -1484,127 +1486,127 @@
         <v>16</v>
       </c>
       <c r="E28" s="2">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H28" s="2">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="I28" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J28" s="2">
-        <v>16.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K28" s="2">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L28" s="3">
-        <v>37</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42737</v>
+        <v>42800</v>
       </c>
       <c r="B29" s="1">
-        <v>42740</v>
+        <v>42815</v>
       </c>
       <c r="C29">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F29" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H29" s="2">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="I29" s="2">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J29" s="2">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K29" s="2">
-        <v>9.8000000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
+        <v>37</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42720</v>
+        <v>42737</v>
       </c>
       <c r="B30" s="1">
-        <v>42727</v>
+        <v>42740</v>
       </c>
       <c r="C30">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2">
-        <v>7.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F30" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G30" s="2">
-        <v>14.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H30" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I30" s="2">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="J30" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K30" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B31" s="1">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="C31">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E31" s="2">
-        <v>6</v>
+        <v>7.2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>14.8</v>
       </c>
       <c r="H31" s="2">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I31" s="2">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="J31" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="K31" s="2">
-        <v>9</v>
-      </c>
-      <c r="L31" s="3">
-        <v>37.6</v>
+        <v>9.1</v>
       </c>
       <c r="M31" s="4"/>
     </row>
@@ -1613,103 +1615,100 @@
         <v>42716</v>
       </c>
       <c r="B32" s="1">
-        <v>42718</v>
+        <v>42721</v>
       </c>
       <c r="C32">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="G32" s="2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I32" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="J32" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K32" s="2">
-        <v>8.1</v>
+        <v>9</v>
+      </c>
+      <c r="L32" s="3">
+        <v>37.6</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B33" s="1">
-        <v>42677</v>
+        <v>42718</v>
       </c>
       <c r="C33">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E33" s="2">
         <v>5.2</v>
       </c>
+      <c r="F33" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>11.5</v>
+      </c>
       <c r="H33" s="2">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="I33" s="2">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="J33" s="2">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="K33" s="2">
-        <v>10</v>
-      </c>
-      <c r="L33" s="3">
-        <v>37.4</v>
+        <v>8.1</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B34" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C34">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F34" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G34" s="2">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="H34" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I34" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J34" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K34" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L34" s="3">
+        <v>37.4</v>
       </c>
       <c r="M34" s="4"/>
     </row>
@@ -1727,7 +1726,13 @@
         <v>14</v>
       </c>
       <c r="E35" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>17.2</v>
       </c>
       <c r="H35" s="2">
         <v>13.9</v>
@@ -1741,251 +1746,245 @@
       <c r="K35" s="2">
         <v>9.1</v>
       </c>
-      <c r="L35" s="3">
-        <v>36</v>
-      </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B36" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C36">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="H36" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I36" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J36" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K36" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="L36" s="3">
-        <v>38.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42534</v>
+        <v>42549</v>
       </c>
       <c r="B37" s="1">
-        <v>42537</v>
+        <v>42564</v>
       </c>
       <c r="C37">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F37" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G37" s="2">
-        <v>19.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H37" s="2">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="I37" s="2">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="J37" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K37" s="2">
         <v>8.8000000000000007</v>
       </c>
+      <c r="L37" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="B38" s="1">
-        <v>42482</v>
+        <v>42537</v>
       </c>
       <c r="C38">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F38" s="2">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="G38" s="2">
-        <v>13.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H38" s="2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="I38" s="2">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="J38" s="2">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="K38" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="B39" s="1">
-        <v>42437</v>
+        <v>42482</v>
       </c>
       <c r="C39">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G39" s="2">
+        <v>13.3</v>
       </c>
       <c r="H39" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I39" s="2">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="J39" s="2">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="K39" s="2">
-        <v>7</v>
-      </c>
-      <c r="L39" s="3">
-        <v>35.799999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="B40" s="1">
-        <v>42369</v>
+        <v>42437</v>
       </c>
       <c r="C40">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E40" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H40" s="2">
-        <v>9.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I40" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="J40" s="2">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="K40" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L40" s="3">
-        <v>35.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42338</v>
+        <v>42366</v>
       </c>
       <c r="B41" s="1">
-        <v>42341</v>
+        <v>42369</v>
       </c>
       <c r="C41">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F41" s="2">
-        <v>24</v>
-      </c>
-      <c r="G41" s="2">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
       <c r="H41" s="2">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I41" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J41" s="2">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="K41" s="2">
-        <v>7.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="L41" s="3">
+        <v>35.6</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B42" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C42">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="F42" s="2">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="G42" s="2">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="H42" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="I42" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J42" s="2">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="K42" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="M42" s="4"/>
     </row>
@@ -2003,352 +2002,355 @@
         <v>23</v>
       </c>
       <c r="E43" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F43" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>15.9</v>
       </c>
       <c r="H43" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I43" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J43" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K43" s="2">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="I43" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="J43" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="K43" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L43" s="3">
-        <v>37.6</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B44" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C44">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E44" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H44" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I44" s="2">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="J44" s="2">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="K44" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L44" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42303</v>
+        <v>42324</v>
       </c>
       <c r="B45" s="1">
-        <v>42308</v>
+        <v>42331</v>
       </c>
       <c r="C45">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H45" s="2">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I45" s="2">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="J45" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K45" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="L45" s="3">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42282</v>
+        <v>42303</v>
       </c>
       <c r="B46" s="1">
-        <v>42304</v>
+        <v>42308</v>
       </c>
       <c r="C46">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="H46" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I46" s="2">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="J46" s="2">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="K46" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L46" s="3">
-        <v>39.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42274</v>
+        <v>42282</v>
       </c>
       <c r="B47" s="1">
-        <v>42274</v>
+        <v>42304</v>
       </c>
       <c r="C47">
-        <v>4130196</v>
+        <v>2000</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2">
-        <v>8.2100000000000009</v>
+        <v>11.1</v>
       </c>
       <c r="H47" s="2">
-        <v>8.94</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I47" s="2">
-        <v>12.72</v>
+        <v>10.6</v>
       </c>
       <c r="J47" s="2">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="K47" s="2">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="L47" s="3">
-        <v>39.590000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="B48" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="C48">
-        <v>1200</v>
+        <v>4130196</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="2">
-        <v>7</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H48" s="2">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="I48" s="2">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="J48" s="2">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K48" s="2">
-        <v>11</v>
+        <v>8.49</v>
       </c>
       <c r="L48" s="3">
-        <v>41</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B49" s="1">
-        <v>42272</v>
+        <v>42268</v>
       </c>
       <c r="C49">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2">
+        <v>12</v>
+      </c>
+      <c r="I49" s="2">
+        <v>12</v>
+      </c>
+      <c r="J49" s="2">
         <v>13</v>
       </c>
-      <c r="E49" s="2">
-        <v>8</v>
-      </c>
-      <c r="H49" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="I49" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J49" s="2">
-        <v>14.5</v>
-      </c>
       <c r="K49" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L49" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42257</v>
+        <v>42261</v>
       </c>
       <c r="B50" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C50">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H50" s="2">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="I50" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J50" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="K50" s="2">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="L50" s="3">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42258</v>
+        <v>42257</v>
       </c>
       <c r="B51" s="1">
-        <v>42266</v>
+        <v>42264</v>
       </c>
       <c r="C51">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E51" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H51" s="2">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="I51" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J51" s="2">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="K51" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L51" s="3">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42263</v>
+        <v>42258</v>
       </c>
       <c r="B52" s="1">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="C52">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="H52" s="2">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="I52" s="2">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="J52" s="2">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="K52" s="2">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="L52" s="3">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B53" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C53">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H53" s="2">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="I53" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="J53" s="2">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K53" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="L53" s="3">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="M53" s="4"/>
     </row>
@@ -2360,28 +2362,28 @@
         <v>42265</v>
       </c>
       <c r="C54">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E54" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H54" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="I54" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J54" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="K54" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L54" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M54" s="4"/>
     </row>
@@ -2390,28 +2392,28 @@
         <v>42261</v>
       </c>
       <c r="B55" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C55">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E55" s="2">
         <v>6.4</v>
       </c>
       <c r="H55" s="2">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="I55" s="2">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="J55" s="2">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K55" s="2">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L55" s="3">
         <v>40.700000000000003</v>
@@ -2423,31 +2425,31 @@
         <v>42261</v>
       </c>
       <c r="B56" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C56">
-        <v>1717</v>
+        <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E56" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H56" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I56" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="J56" s="2">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="K56" s="2">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="L56" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M56" s="4"/>
     </row>
@@ -2459,28 +2461,28 @@
         <v>42263</v>
       </c>
       <c r="C57">
-        <v>1157</v>
+        <v>1717</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E57" s="2">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H57" s="2">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I57" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J57" s="2">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="K57" s="2">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="L57" s="3">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="M57" s="4"/>
     </row>
@@ -2492,193 +2494,193 @@
         <v>42263</v>
       </c>
       <c r="C58">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E58" s="2">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H58" s="2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="I58" s="2">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="J58" s="2">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="K58" s="2">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="L58" s="3">
-        <v>39.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B59" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C59">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E59" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H59" s="2">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="I59" s="2">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="J59" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="K59" s="2">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="L59" s="3">
-        <v>37.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42248</v>
+        <v>42254</v>
       </c>
       <c r="B60" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C60">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H60" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I60" s="2">
         <v>11.4</v>
       </c>
-      <c r="I60" s="2">
-        <v>11.1</v>
-      </c>
       <c r="J60" s="2">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="K60" s="2">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L60" s="3">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42250</v>
+        <v>42248</v>
       </c>
       <c r="B61" s="1">
         <v>42255</v>
       </c>
       <c r="C61">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61" s="2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H61" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="I61" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="K61" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I61" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J61" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K61" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L61" s="3">
-        <v>42.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42246</v>
+        <v>42250</v>
       </c>
       <c r="B62" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C62">
-        <v>2999</v>
+        <v>750</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H62" s="2">
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I62" s="2">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J62" s="2">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="K62" s="2">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L62" s="3">
-        <v>38.1</v>
+        <v>42.1</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B63" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C63">
-        <v>1400</v>
+        <v>2999</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E63" s="2">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H63" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I63" s="2">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J63" s="2">
-        <v>12.7</v>
+        <v>14.8</v>
       </c>
       <c r="K63" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L63" s="3">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="M63" s="4"/>
     </row>
@@ -2687,273 +2689,306 @@
         <v>42247</v>
       </c>
       <c r="B64" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="C64">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E64" s="2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H64" s="2">
         <v>12.4</v>
       </c>
       <c r="I64" s="2">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="J64" s="2">
-        <v>19.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K64" s="2">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L64" s="3">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B65" s="1">
-        <v>42250</v>
+        <v>42249</v>
       </c>
       <c r="C65">
-        <v>1221</v>
+        <v>800</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E65" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H65" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I65" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="J65" s="2">
-        <v>12.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K65" s="2">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="L65" s="3">
-        <v>43.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42233</v>
+        <v>42248</v>
       </c>
       <c r="B66" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C66">
-        <v>955</v>
+        <v>1221</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E66" s="2">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H66" s="2">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I66" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J66" s="2">
-        <v>17.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K66" s="2">
-        <v>9.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L66" s="3">
-        <v>36.299999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42201</v>
+        <v>42233</v>
       </c>
       <c r="B67" s="1">
-        <v>42208</v>
+        <v>42238</v>
       </c>
       <c r="C67">
-        <v>1255</v>
+        <v>955</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H67" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="I67" s="2">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="J67" s="2">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K67" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L67" s="3">
-        <v>35.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42191</v>
+        <v>42201</v>
       </c>
       <c r="B68" s="1">
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="C68">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E68" s="2">
-        <v>7</v>
-      </c>
-      <c r="F68" s="2">
-        <v>15</v>
-      </c>
-      <c r="G68" s="2">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="H68" s="2">
-        <v>16.5</v>
+        <v>12.8</v>
       </c>
       <c r="I68" s="2">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J68" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K68" s="2">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L68" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42186</v>
+        <v>42191</v>
       </c>
       <c r="B69" s="1">
-        <v>42188</v>
+        <v>42194</v>
       </c>
       <c r="C69">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E69" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F69" s="2">
+        <v>15</v>
+      </c>
+      <c r="G69" s="2">
+        <v>22</v>
       </c>
       <c r="H69" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I69" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J69" s="2">
         <v>16</v>
       </c>
       <c r="K69" s="2">
-        <v>9</v>
-      </c>
-      <c r="L69" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42202</v>
+        <v>42186</v>
       </c>
       <c r="B70" s="1">
-        <v>42206</v>
+        <v>42188</v>
       </c>
       <c r="C70">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E70" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F70" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G70" s="2">
-        <v>23.1</v>
+        <v>8</v>
       </c>
       <c r="H70" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I70" s="2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J70" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K70" s="2">
-        <v>5.9</v>
+        <v>9</v>
+      </c>
+      <c r="L70" s="3">
+        <v>32</v>
       </c>
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B71" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C71">
+        <v>800</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F71" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G71" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>18</v>
+      </c>
+      <c r="I71" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J71" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K71" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>42121</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B72" s="1">
         <v>42123</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>1000</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E72" s="2">
         <v>7.9</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F72" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G72" s="2">
         <v>22.6</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H72" s="2">
         <v>12.9</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I72" s="2">
         <v>9.9</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J72" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K72" s="2">
         <v>6.4</v>
       </c>
-      <c r="M71" s="4"/>
+      <c r="M72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>GAPS</t>
+  </si>
+  <si>
+    <t>Infortécnica</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
@@ -628,457 +631,457 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43069</v>
+        <v>43076</v>
       </c>
       <c r="B4" s="1">
         <v>43076</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>1216</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="F4" s="2">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="G4" s="2">
-        <v>16.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H4" s="2">
-        <v>8.1</v>
+        <v>5.2</v>
       </c>
       <c r="I4" s="2">
-        <v>16.100000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="J4" s="2">
-        <v>22.2</v>
+        <v>24.4</v>
       </c>
       <c r="K4" s="2">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="B5" s="1">
-        <v>43077</v>
+        <v>43076</v>
       </c>
       <c r="C5">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="F5" s="2">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="G5" s="2">
-        <v>19.8</v>
+        <v>16.2</v>
       </c>
       <c r="H5" s="2">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="I5" s="2">
-        <v>14.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="K5" s="2">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43073</v>
+        <v>43066</v>
       </c>
       <c r="B6" s="1">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F6" s="2">
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="G6" s="2">
-        <v>18.2</v>
+        <v>19.8</v>
       </c>
       <c r="H6" s="2">
         <v>7.4</v>
       </c>
       <c r="I6" s="2">
-        <v>16.5</v>
+        <v>14.4</v>
       </c>
       <c r="J6" s="2">
-        <v>23.1</v>
+        <v>21.5</v>
       </c>
       <c r="K6" s="2">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="B7" s="1">
         <v>43076</v>
       </c>
       <c r="C7">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="K7" s="2">
         <v>7.1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2">
-        <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43070</v>
+        <v>43072</v>
       </c>
       <c r="B8" s="1">
-        <v>43074</v>
+        <v>43076</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="F8" s="2">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="G8" s="2">
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2">
-        <v>9.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2">
-        <v>13.5</v>
+        <v>15.3</v>
       </c>
       <c r="J8" s="2">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43068</v>
+        <v>43070</v>
       </c>
       <c r="B9" s="1">
-        <v>43071</v>
+        <v>43074</v>
       </c>
       <c r="C9">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F9" s="2">
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2">
-        <v>19.3</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H9" s="2">
-        <v>8.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I9" s="2">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="J9" s="2">
-        <v>19</v>
+        <v>22.8</v>
       </c>
       <c r="K9" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43066</v>
+        <v>43068</v>
       </c>
       <c r="B10" s="1">
-        <v>43069</v>
+        <v>43071</v>
       </c>
       <c r="C10">
         <v>800</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>
       </c>
       <c r="F10" s="2">
-        <v>23.1</v>
+        <v>20.5</v>
       </c>
       <c r="G10" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I10" s="2">
         <v>19</v>
       </c>
-      <c r="H10" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="I10" s="2">
-        <v>15.2</v>
-      </c>
       <c r="J10" s="2">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="2">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="B11" s="1">
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="C11">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2">
-        <v>20.8</v>
+        <v>23.1</v>
       </c>
       <c r="G11" s="2">
-        <v>16.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="I11" s="2">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="J11" s="2">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="K11" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43052</v>
+        <v>43062</v>
       </c>
       <c r="B12" s="1">
-        <v>43062</v>
+        <v>43066</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="F12" s="2">
-        <v>24.1</v>
+        <v>20.8</v>
       </c>
       <c r="G12" s="2">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H12" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I12" s="2">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="J12" s="2">
-        <v>20.9</v>
+        <v>22.5</v>
       </c>
       <c r="K12" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43059</v>
+        <v>43052</v>
       </c>
       <c r="B13" s="1">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="C13">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F13" s="2">
-        <v>26.5</v>
+        <v>24.1</v>
       </c>
       <c r="G13" s="2">
         <v>13.6</v>
       </c>
       <c r="H13" s="2">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="I13" s="2">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="J13" s="2">
-        <v>25.3</v>
+        <v>20.9</v>
       </c>
       <c r="K13" s="2">
-        <v>5.8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43054</v>
+        <v>43059</v>
       </c>
       <c r="B14" s="1">
-        <v>43057</v>
+        <v>43061</v>
       </c>
       <c r="C14">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F14" s="2">
-        <v>23.9</v>
+        <v>26.5</v>
       </c>
       <c r="G14" s="2">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="H14" s="2">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="I14" s="2">
-        <v>18.100000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="J14" s="2">
-        <v>18.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K14" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43052</v>
+        <v>43054</v>
       </c>
       <c r="B15" s="1">
-        <v>43055</v>
+        <v>43057</v>
       </c>
       <c r="C15">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F15" s="2">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="G15" s="2">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="H15" s="2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I15" s="2">
-        <v>15.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J15" s="2">
-        <v>22.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="B16" s="1">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F16" s="2">
-        <v>26.3</v>
+        <v>23.1</v>
       </c>
       <c r="G16" s="2">
-        <v>10.7</v>
+        <v>16.7</v>
       </c>
       <c r="H16" s="2">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="I16" s="2">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="J16" s="2">
-        <v>19.600000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="K16" s="2">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1089,170 +1092,169 @@
         <v>43042</v>
       </c>
       <c r="C17">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>6.3</v>
       </c>
       <c r="F17" s="2">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="G17" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H17" s="2">
         <v>10.4</v>
       </c>
-      <c r="H17" s="2">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="I17" s="2">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="J17" s="2">
-        <v>20.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>8.6999999999999993</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B18" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F18" s="2">
-        <v>31.2</v>
+        <v>29.3</v>
       </c>
       <c r="G18" s="2">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="H18" s="2">
-        <v>10</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I18" s="2">
-        <v>12.2</v>
+        <v>14.6</v>
       </c>
       <c r="J18" s="2">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="K18" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43024</v>
+        <v>43035</v>
       </c>
       <c r="B19" s="1">
-        <v>43037</v>
+        <v>43039</v>
       </c>
       <c r="C19">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10.1</v>
       </c>
       <c r="H19" s="2">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="J19" s="2">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="K19" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L19" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M19" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="B20" s="1">
-        <v>43034</v>
+        <v>43037</v>
       </c>
       <c r="C20">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2">
         <v>6.3</v>
       </c>
-      <c r="F20" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="G20" s="2">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H20" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I20" s="2">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="J20" s="2">
-        <v>19.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K20" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L20" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B21" s="1">
-        <v>43029</v>
+        <v>43034</v>
       </c>
       <c r="C21">
         <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F21" s="2">
-        <v>24.6</v>
+        <v>26.4</v>
       </c>
       <c r="G21" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H21" s="2">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J21" s="2">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K21" s="2">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M21" s="4"/>
     </row>
@@ -1261,256 +1263,259 @@
         <v>43024</v>
       </c>
       <c r="B22" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="C22">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="F22" s="2">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="G22" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H22" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I22" s="2">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="J22" s="2">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="K22" s="2">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B23" s="1">
-        <v>43017</v>
+        <v>43027</v>
       </c>
       <c r="C23">
         <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="F23" s="2">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="G23" s="2">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H23" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I23" s="2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="J23" s="2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="K23" s="2">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42996</v>
+        <v>43012</v>
       </c>
       <c r="B24" s="1">
-        <v>43000</v>
+        <v>43017</v>
       </c>
       <c r="C24">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F24" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G24" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H24" s="2">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2">
-        <v>13.7</v>
+        <v>9.5</v>
       </c>
       <c r="J24" s="2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K24" s="2">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42990</v>
+        <v>42996</v>
       </c>
       <c r="B25" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="C25">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F25" s="2">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="G25" s="2">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="H25" s="2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I25" s="2">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="J25" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K25" s="2">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42975</v>
+        <v>42990</v>
       </c>
       <c r="B26" s="1">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="C26">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="F26" s="2">
-        <v>28</v>
+        <v>24.7</v>
       </c>
       <c r="G26" s="2">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H26" s="2">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="I26" s="2">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="J26" s="2">
-        <v>17.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K26" s="2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B27" s="1">
-        <v>42958</v>
+        <v>42979</v>
       </c>
       <c r="C27">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F27" s="2">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H27" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="I27" s="2">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="J27" s="2">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="K27" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42912</v>
+        <v>42951</v>
       </c>
       <c r="B28" s="1">
-        <v>42927</v>
+        <v>42958</v>
       </c>
       <c r="C28">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2">
-        <v>5.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G28" s="2">
+        <v>13.9</v>
       </c>
       <c r="H28" s="2">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="I28" s="2">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J28" s="2">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="K28" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L28" s="3">
-        <v>39.299999999999997</v>
+        <v>9.5</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42800</v>
+        <v>42912</v>
       </c>
       <c r="B29" s="1">
-        <v>42815</v>
+        <v>42927</v>
       </c>
       <c r="C29">
         <v>1500</v>
@@ -1519,127 +1524,127 @@
         <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H29" s="2">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="I29" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J29" s="2">
-        <v>16.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K29" s="2">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L29" s="3">
-        <v>37</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42737</v>
+        <v>42800</v>
       </c>
       <c r="B30" s="1">
-        <v>42740</v>
+        <v>42815</v>
       </c>
       <c r="C30">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F30" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H30" s="2">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="I30" s="2">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J30" s="2">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K30" s="2">
-        <v>9.8000000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="L30" s="3">
+        <v>37</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42720</v>
+        <v>42737</v>
       </c>
       <c r="B31" s="1">
-        <v>42727</v>
+        <v>42740</v>
       </c>
       <c r="C31">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2">
-        <v>7.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F31" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G31" s="2">
-        <v>14.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H31" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I31" s="2">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="J31" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K31" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B32" s="1">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="C32">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2">
-        <v>6</v>
+        <v>7.2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>14.8</v>
       </c>
       <c r="H32" s="2">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I32" s="2">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="J32" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="K32" s="2">
-        <v>9</v>
-      </c>
-      <c r="L32" s="3">
-        <v>37.6</v>
+        <v>9.1</v>
       </c>
       <c r="M32" s="4"/>
     </row>
@@ -1648,103 +1653,100 @@
         <v>42716</v>
       </c>
       <c r="B33" s="1">
-        <v>42718</v>
+        <v>42721</v>
       </c>
       <c r="C33">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F33" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="G33" s="2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H33" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I33" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="J33" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K33" s="2">
-        <v>8.1</v>
+        <v>9</v>
+      </c>
+      <c r="L33" s="3">
+        <v>37.6</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B34" s="1">
-        <v>42677</v>
+        <v>42718</v>
       </c>
       <c r="C34">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2">
         <v>5.2</v>
       </c>
+      <c r="F34" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G34" s="2">
+        <v>11.5</v>
+      </c>
       <c r="H34" s="2">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="I34" s="2">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="J34" s="2">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="K34" s="2">
-        <v>10</v>
-      </c>
-      <c r="L34" s="3">
-        <v>37.4</v>
+        <v>8.1</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B35" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C35">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F35" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G35" s="2">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="H35" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I35" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J35" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K35" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L35" s="3">
+        <v>37.4</v>
       </c>
       <c r="M35" s="4"/>
     </row>
@@ -1762,7 +1764,13 @@
         <v>14</v>
       </c>
       <c r="E36" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>17.2</v>
       </c>
       <c r="H36" s="2">
         <v>13.9</v>
@@ -1776,251 +1784,245 @@
       <c r="K36" s="2">
         <v>9.1</v>
       </c>
-      <c r="L36" s="3">
-        <v>36</v>
-      </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B37" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C37">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="H37" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I37" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J37" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K37" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="L37" s="3">
-        <v>38.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42534</v>
+        <v>42549</v>
       </c>
       <c r="B38" s="1">
-        <v>42537</v>
+        <v>42564</v>
       </c>
       <c r="C38">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F38" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G38" s="2">
-        <v>19.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H38" s="2">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="I38" s="2">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="J38" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K38" s="2">
         <v>8.8000000000000007</v>
       </c>
+      <c r="L38" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="B39" s="1">
-        <v>42482</v>
+        <v>42537</v>
       </c>
       <c r="C39">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F39" s="2">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="G39" s="2">
-        <v>13.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H39" s="2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="I39" s="2">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="J39" s="2">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="K39" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="B40" s="1">
-        <v>42437</v>
+        <v>42482</v>
       </c>
       <c r="C40">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G40" s="2">
+        <v>13.3</v>
       </c>
       <c r="H40" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I40" s="2">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="J40" s="2">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="K40" s="2">
-        <v>7</v>
-      </c>
-      <c r="L40" s="3">
-        <v>35.799999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="B41" s="1">
-        <v>42369</v>
+        <v>42437</v>
       </c>
       <c r="C41">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E41" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H41" s="2">
-        <v>9.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I41" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="J41" s="2">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="K41" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L41" s="3">
-        <v>35.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42338</v>
+        <v>42366</v>
       </c>
       <c r="B42" s="1">
-        <v>42341</v>
+        <v>42369</v>
       </c>
       <c r="C42">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F42" s="2">
-        <v>24</v>
-      </c>
-      <c r="G42" s="2">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
       <c r="H42" s="2">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I42" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J42" s="2">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="K42" s="2">
-        <v>7.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="L42" s="3">
+        <v>35.6</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B43" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C43">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="F43" s="2">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="G43" s="2">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="H43" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="I43" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J43" s="2">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="K43" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="M43" s="4"/>
     </row>
@@ -2038,352 +2040,355 @@
         <v>23</v>
       </c>
       <c r="E44" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F44" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>15.9</v>
       </c>
       <c r="H44" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I44" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J44" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K44" s="2">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="I44" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="J44" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="K44" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L44" s="3">
-        <v>37.6</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B45" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C45">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E45" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H45" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I45" s="2">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="J45" s="2">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="K45" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L45" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42303</v>
+        <v>42324</v>
       </c>
       <c r="B46" s="1">
-        <v>42308</v>
+        <v>42331</v>
       </c>
       <c r="C46">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E46" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H46" s="2">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I46" s="2">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="J46" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K46" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="L46" s="3">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42282</v>
+        <v>42303</v>
       </c>
       <c r="B47" s="1">
-        <v>42304</v>
+        <v>42308</v>
       </c>
       <c r="C47">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="H47" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I47" s="2">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="J47" s="2">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="K47" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L47" s="3">
-        <v>39.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42274</v>
+        <v>42282</v>
       </c>
       <c r="B48" s="1">
-        <v>42274</v>
+        <v>42304</v>
       </c>
       <c r="C48">
-        <v>4130196</v>
+        <v>2000</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2">
-        <v>8.2100000000000009</v>
+        <v>11.1</v>
       </c>
       <c r="H48" s="2">
-        <v>8.94</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I48" s="2">
-        <v>12.72</v>
+        <v>10.6</v>
       </c>
       <c r="J48" s="2">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="K48" s="2">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="L48" s="3">
-        <v>39.590000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="B49" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="C49">
-        <v>1200</v>
+        <v>4130196</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="2">
-        <v>7</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H49" s="2">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="I49" s="2">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="J49" s="2">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K49" s="2">
-        <v>11</v>
+        <v>8.49</v>
       </c>
       <c r="L49" s="3">
-        <v>41</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B50" s="1">
-        <v>42272</v>
+        <v>42268</v>
       </c>
       <c r="C50">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7</v>
+      </c>
+      <c r="H50" s="2">
+        <v>12</v>
+      </c>
+      <c r="I50" s="2">
+        <v>12</v>
+      </c>
+      <c r="J50" s="2">
         <v>13</v>
       </c>
-      <c r="E50" s="2">
-        <v>8</v>
-      </c>
-      <c r="H50" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="I50" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J50" s="2">
-        <v>14.5</v>
-      </c>
       <c r="K50" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L50" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42257</v>
+        <v>42261</v>
       </c>
       <c r="B51" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C51">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H51" s="2">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="I51" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J51" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="K51" s="2">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="L51" s="3">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42258</v>
+        <v>42257</v>
       </c>
       <c r="B52" s="1">
-        <v>42266</v>
+        <v>42264</v>
       </c>
       <c r="C52">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E52" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H52" s="2">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="I52" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J52" s="2">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="K52" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L52" s="3">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42263</v>
+        <v>42258</v>
       </c>
       <c r="B53" s="1">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="C53">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="H53" s="2">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="I53" s="2">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="J53" s="2">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="K53" s="2">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="L53" s="3">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B54" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C54">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H54" s="2">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="I54" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="J54" s="2">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K54" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="L54" s="3">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="M54" s="4"/>
     </row>
@@ -2395,28 +2400,28 @@
         <v>42265</v>
       </c>
       <c r="C55">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E55" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H55" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="I55" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J55" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="K55" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L55" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M55" s="4"/>
     </row>
@@ -2425,28 +2430,28 @@
         <v>42261</v>
       </c>
       <c r="B56" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C56">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E56" s="2">
         <v>6.4</v>
       </c>
       <c r="H56" s="2">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="I56" s="2">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="J56" s="2">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K56" s="2">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L56" s="3">
         <v>40.700000000000003</v>
@@ -2458,31 +2463,31 @@
         <v>42261</v>
       </c>
       <c r="B57" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C57">
-        <v>1717</v>
+        <v>1000</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E57" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H57" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I57" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="J57" s="2">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="K57" s="2">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="L57" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M57" s="4"/>
     </row>
@@ -2494,28 +2499,28 @@
         <v>42263</v>
       </c>
       <c r="C58">
-        <v>1157</v>
+        <v>1717</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E58" s="2">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H58" s="2">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I58" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J58" s="2">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="K58" s="2">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="L58" s="3">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="M58" s="4"/>
     </row>
@@ -2527,193 +2532,193 @@
         <v>42263</v>
       </c>
       <c r="C59">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E59" s="2">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H59" s="2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="I59" s="2">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="J59" s="2">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="K59" s="2">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="L59" s="3">
-        <v>39.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B60" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C60">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E60" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H60" s="2">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="I60" s="2">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="J60" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="K60" s="2">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="L60" s="3">
-        <v>37.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42248</v>
+        <v>42254</v>
       </c>
       <c r="B61" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C61">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E61" s="2">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H61" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I61" s="2">
         <v>11.4</v>
       </c>
-      <c r="I61" s="2">
-        <v>11.1</v>
-      </c>
       <c r="J61" s="2">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="K61" s="2">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L61" s="3">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42250</v>
+        <v>42248</v>
       </c>
       <c r="B62" s="1">
         <v>42255</v>
       </c>
       <c r="C62">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" s="2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H62" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="I62" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="K62" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I62" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J62" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K62" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L62" s="3">
-        <v>42.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42246</v>
+        <v>42250</v>
       </c>
       <c r="B63" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C63">
-        <v>2999</v>
+        <v>750</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H63" s="2">
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I63" s="2">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J63" s="2">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="K63" s="2">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L63" s="3">
-        <v>38.1</v>
+        <v>42.1</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B64" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C64">
-        <v>1400</v>
+        <v>2999</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E64" s="2">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H64" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I64" s="2">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J64" s="2">
-        <v>12.7</v>
+        <v>14.8</v>
       </c>
       <c r="K64" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L64" s="3">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="M64" s="4"/>
     </row>
@@ -2722,273 +2727,306 @@
         <v>42247</v>
       </c>
       <c r="B65" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="C65">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E65" s="2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H65" s="2">
         <v>12.4</v>
       </c>
       <c r="I65" s="2">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="J65" s="2">
-        <v>19.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K65" s="2">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L65" s="3">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B66" s="1">
-        <v>42250</v>
+        <v>42249</v>
       </c>
       <c r="C66">
-        <v>1221</v>
+        <v>800</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E66" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H66" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I66" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="J66" s="2">
-        <v>12.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K66" s="2">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="L66" s="3">
-        <v>43.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42233</v>
+        <v>42248</v>
       </c>
       <c r="B67" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C67">
-        <v>955</v>
+        <v>1221</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E67" s="2">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H67" s="2">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I67" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J67" s="2">
-        <v>17.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K67" s="2">
-        <v>9.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L67" s="3">
-        <v>36.299999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42201</v>
+        <v>42233</v>
       </c>
       <c r="B68" s="1">
-        <v>42208</v>
+        <v>42238</v>
       </c>
       <c r="C68">
-        <v>1255</v>
+        <v>955</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H68" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="I68" s="2">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="J68" s="2">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K68" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L68" s="3">
-        <v>35.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42191</v>
+        <v>42201</v>
       </c>
       <c r="B69" s="1">
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="C69">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E69" s="2">
-        <v>7</v>
-      </c>
-      <c r="F69" s="2">
-        <v>15</v>
-      </c>
-      <c r="G69" s="2">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="H69" s="2">
-        <v>16.5</v>
+        <v>12.8</v>
       </c>
       <c r="I69" s="2">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J69" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K69" s="2">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L69" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42186</v>
+        <v>42191</v>
       </c>
       <c r="B70" s="1">
-        <v>42188</v>
+        <v>42194</v>
       </c>
       <c r="C70">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E70" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F70" s="2">
+        <v>15</v>
+      </c>
+      <c r="G70" s="2">
+        <v>22</v>
       </c>
       <c r="H70" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I70" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J70" s="2">
         <v>16</v>
       </c>
       <c r="K70" s="2">
-        <v>9</v>
-      </c>
-      <c r="L70" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42202</v>
+        <v>42186</v>
       </c>
       <c r="B71" s="1">
-        <v>42206</v>
+        <v>42188</v>
       </c>
       <c r="C71">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E71" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F71" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G71" s="2">
-        <v>23.1</v>
+        <v>8</v>
       </c>
       <c r="H71" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I71" s="2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J71" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K71" s="2">
-        <v>5.9</v>
+        <v>9</v>
+      </c>
+      <c r="L71" s="3">
+        <v>32</v>
       </c>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B72" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C72">
+        <v>800</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F72" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G72" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>18</v>
+      </c>
+      <c r="I72" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J72" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>42121</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B73" s="1">
         <v>42123</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>1000</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E73" s="2">
         <v>7.9</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F73" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G73" s="2">
         <v>22.6</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H73" s="2">
         <v>12.9</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I73" s="2">
         <v>9.9</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J73" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K73" s="2">
         <v>6.4</v>
       </c>
-      <c r="M72" s="4"/>
+      <c r="M73" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>43070</v>
       </c>
       <c r="B2" s="1">
-        <v>43078</v>
+        <v>43081</v>
       </c>
       <c r="C2">
         <v>1100</v>
@@ -573,33 +573,33 @@
         <v>15</v>
       </c>
       <c r="E2" s="2">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="F2" s="2">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="G2" s="2">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="H2" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="I2" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="J2" s="2">
-        <v>21.2</v>
+        <v>21.9</v>
       </c>
       <c r="K2" s="2">
-        <v>6.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43070</v>
+        <v>43074</v>
       </c>
       <c r="B3" s="1">
-        <v>43077</v>
+        <v>43081</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -608,302 +608,302 @@
         <v>23</v>
       </c>
       <c r="E3" s="2">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="F3" s="2">
-        <v>22.3</v>
+        <v>20.9</v>
       </c>
       <c r="G3" s="2">
-        <v>18.899999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="H3" s="2">
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I3" s="2">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="J3" s="2">
-        <v>21.3</v>
+        <v>23.6</v>
       </c>
       <c r="K3" s="2">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43076</v>
+        <v>43068</v>
       </c>
       <c r="B4" s="1">
-        <v>43076</v>
+        <v>43079</v>
       </c>
       <c r="C4">
-        <v>1216</v>
+        <v>1100</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F4" s="2">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="G4" s="2">
-        <v>18.899999999999999</v>
+        <v>21.3</v>
       </c>
       <c r="H4" s="2">
-        <v>5.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I4" s="2">
-        <v>16.3</v>
+        <v>14.1</v>
       </c>
       <c r="J4" s="2">
-        <v>24.4</v>
+        <v>21.2</v>
       </c>
       <c r="K4" s="2">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="B5" s="1">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="C5">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="F5" s="2">
-        <v>22.9</v>
+        <v>22.3</v>
       </c>
       <c r="G5" s="2">
-        <v>16.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="I5" s="2">
-        <v>16.100000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="J5" s="2">
-        <v>22.2</v>
+        <v>21.3</v>
       </c>
       <c r="K5" s="2">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43066</v>
+        <v>43070</v>
       </c>
       <c r="B6" s="1">
-        <v>43077</v>
+        <v>43076</v>
       </c>
       <c r="C6">
-        <v>1100</v>
+        <v>1216</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="F6" s="2">
-        <v>22.5</v>
+        <v>23.3</v>
       </c>
       <c r="G6" s="2">
-        <v>19.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H6" s="2">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="I6" s="2">
-        <v>14.4</v>
+        <v>16.3</v>
       </c>
       <c r="J6" s="2">
-        <v>21.5</v>
+        <v>24.4</v>
       </c>
       <c r="K6" s="2">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43073</v>
+        <v>43069</v>
       </c>
       <c r="B7" s="1">
         <v>43076</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="F7" s="2">
-        <v>21.5</v>
+        <v>22.9</v>
       </c>
       <c r="G7" s="2">
-        <v>18.2</v>
+        <v>16.2</v>
       </c>
       <c r="H7" s="2">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="I7" s="2">
-        <v>16.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>23.1</v>
+        <v>22.2</v>
       </c>
       <c r="K7" s="2">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43072</v>
+        <v>43066</v>
       </c>
       <c r="B8" s="1">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="C8">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="F8" s="2">
-        <v>23.1</v>
+        <v>22.5</v>
       </c>
       <c r="G8" s="2">
-        <v>17</v>
+        <v>19.8</v>
       </c>
       <c r="H8" s="2">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="I8" s="2">
-        <v>15.3</v>
+        <v>14.4</v>
       </c>
       <c r="J8" s="2">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="K8" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="B9" s="1">
-        <v>43074</v>
+        <v>43076</v>
       </c>
       <c r="C9">
         <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
-        <v>24</v>
+        <v>21.5</v>
       </c>
       <c r="G9" s="2">
-        <v>17.100000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="H9" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="I9" s="2">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="J9" s="2">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="K9" s="2">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43068</v>
+        <v>43072</v>
       </c>
       <c r="B10" s="1">
-        <v>43071</v>
+        <v>43076</v>
       </c>
       <c r="C10">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="F10" s="2">
-        <v>20.5</v>
+        <v>23.1</v>
       </c>
       <c r="G10" s="2">
-        <v>19.3</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2">
-        <v>19</v>
+        <v>15.3</v>
       </c>
       <c r="J10" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43066</v>
+        <v>43070</v>
       </c>
       <c r="B11" s="1">
-        <v>43069</v>
+        <v>43074</v>
       </c>
       <c r="C11">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F11" s="2">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2">
-        <v>19</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H11" s="2">
-        <v>6.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I11" s="2">
-        <v>15.2</v>
+        <v>13.5</v>
       </c>
       <c r="J11" s="2">
-        <v>20.5</v>
+        <v>22.8</v>
       </c>
       <c r="K11" s="2">
         <v>6.2</v>
@@ -911,34 +911,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43062</v>
+        <v>43068</v>
       </c>
       <c r="B12" s="1">
-        <v>43066</v>
+        <v>43071</v>
       </c>
       <c r="C12">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="G12" s="2">
-        <v>16.899999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="H12" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="I12" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2">
-        <v>22.5</v>
+        <v>19</v>
       </c>
       <c r="K12" s="2">
         <v>5.8</v>
@@ -946,69 +946,69 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43052</v>
+        <v>43066</v>
       </c>
       <c r="B13" s="1">
-        <v>43062</v>
+        <v>43069</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="G13" s="2">
-        <v>13.6</v>
+        <v>19</v>
       </c>
       <c r="H13" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="I13" s="2">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="J13" s="2">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="K13" s="2">
-        <v>9.3000000000000007</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43059</v>
+        <v>43062</v>
       </c>
       <c r="B14" s="1">
-        <v>43061</v>
+        <v>43066</v>
       </c>
       <c r="C14">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="F14" s="2">
-        <v>26.5</v>
+        <v>20.8</v>
       </c>
       <c r="G14" s="2">
-        <v>13.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H14" s="2">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="I14" s="2">
-        <v>14.9</v>
+        <v>16</v>
       </c>
       <c r="J14" s="2">
-        <v>25.3</v>
+        <v>22.5</v>
       </c>
       <c r="K14" s="2">
         <v>5.8</v>
@@ -1016,1445 +1016,1449 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43054</v>
+        <v>43052</v>
       </c>
       <c r="B15" s="1">
-        <v>43057</v>
+        <v>43062</v>
       </c>
       <c r="C15">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="F15" s="2">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="G15" s="2">
-        <v>16.5</v>
+        <v>13.6</v>
       </c>
       <c r="H15" s="2">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I15" s="2">
-        <v>18.100000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="J15" s="2">
-        <v>18.600000000000001</v>
+        <v>20.9</v>
       </c>
       <c r="K15" s="2">
-        <v>5.7</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43052</v>
+        <v>43059</v>
       </c>
       <c r="B16" s="1">
-        <v>43055</v>
+        <v>43061</v>
       </c>
       <c r="C16">
-        <v>801</v>
+        <v>1800</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="F16" s="2">
-        <v>23.1</v>
+        <v>26.5</v>
       </c>
       <c r="G16" s="2">
-        <v>16.7</v>
+        <v>13.6</v>
       </c>
       <c r="H16" s="2">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="I16" s="2">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="J16" s="2">
-        <v>22.3</v>
+        <v>25.3</v>
       </c>
       <c r="K16" s="2">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43038</v>
+        <v>43054</v>
       </c>
       <c r="B17" s="1">
-        <v>43042</v>
+        <v>43057</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2">
         <v>6.3</v>
       </c>
       <c r="F17" s="2">
-        <v>26.3</v>
+        <v>23.9</v>
       </c>
       <c r="G17" s="2">
-        <v>10.7</v>
+        <v>16.5</v>
       </c>
       <c r="H17" s="2">
-        <v>10.4</v>
+        <v>8.6</v>
       </c>
       <c r="I17" s="2">
-        <v>13.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J17" s="2">
-        <v>19.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>10.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43038</v>
+        <v>43052</v>
       </c>
       <c r="B18" s="1">
-        <v>43042</v>
+        <v>43055</v>
       </c>
       <c r="C18">
-        <v>1233</v>
+        <v>801</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F18" s="2">
-        <v>29.3</v>
+        <v>23.1</v>
       </c>
       <c r="G18" s="2">
-        <v>10.4</v>
+        <v>16.7</v>
       </c>
       <c r="H18" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I18" s="2">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="J18" s="2">
-        <v>20.6</v>
+        <v>22.3</v>
       </c>
       <c r="K18" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43035</v>
+        <v>43038</v>
       </c>
       <c r="B19" s="1">
-        <v>43039</v>
+        <v>43042</v>
       </c>
       <c r="C19">
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="F19" s="2">
-        <v>31.2</v>
+        <v>26.3</v>
       </c>
       <c r="G19" s="2">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="H19" s="2">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="I19" s="2">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="J19" s="2">
-        <v>18.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K19" s="2">
-        <v>9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43024</v>
+        <v>43038</v>
       </c>
       <c r="B20" s="1">
-        <v>43037</v>
+        <v>43042</v>
       </c>
       <c r="C20">
-        <v>1500</v>
+        <v>1233</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2">
         <v>6.3</v>
       </c>
+      <c r="F20" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10.4</v>
+      </c>
       <c r="H20" s="2">
-        <v>10.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I20" s="2">
-        <v>13.9</v>
+        <v>14.6</v>
       </c>
       <c r="J20" s="2">
-        <v>18.2</v>
+        <v>20.6</v>
       </c>
       <c r="K20" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L20" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M20" s="4"/>
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43031</v>
+        <v>43035</v>
       </c>
       <c r="B21" s="1">
-        <v>43034</v>
+        <v>43039</v>
       </c>
       <c r="C21">
         <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="F21" s="2">
-        <v>26.4</v>
+        <v>31.2</v>
       </c>
       <c r="G21" s="2">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="H21" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2">
-        <v>15.1</v>
+        <v>12.2</v>
       </c>
       <c r="J21" s="2">
-        <v>19.600000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="K21" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M21" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43024</v>
       </c>
       <c r="B22" s="1">
-        <v>43029</v>
+        <v>43037</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="F22" s="2">
-        <v>24.6</v>
-      </c>
-      <c r="G22" s="2">
-        <v>12.1</v>
+        <v>6.3</v>
       </c>
       <c r="H22" s="2">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="I22" s="2">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="J22" s="2">
-        <v>19.2</v>
+        <v>18.2</v>
       </c>
       <c r="K22" s="2">
-        <v>10.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L22" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B23" s="1">
-        <v>43027</v>
+        <v>43034</v>
       </c>
       <c r="C23">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="F23" s="2">
-        <v>28.1</v>
+        <v>26.4</v>
       </c>
       <c r="G23" s="2">
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H23" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I23" s="2">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="J23" s="2">
-        <v>16.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K23" s="2">
-        <v>7.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B24" s="1">
-        <v>43017</v>
+        <v>43029</v>
       </c>
       <c r="C24">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="F24" s="2">
-        <v>31.8</v>
+        <v>24.6</v>
       </c>
       <c r="G24" s="2">
-        <v>8.1</v>
+        <v>12.1</v>
       </c>
       <c r="H24" s="2">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="I24" s="2">
-        <v>9.5</v>
+        <v>13.1</v>
       </c>
       <c r="J24" s="2">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="K24" s="2">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42996</v>
+        <v>43024</v>
       </c>
       <c r="B25" s="1">
-        <v>43000</v>
+        <v>43027</v>
       </c>
       <c r="C25">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="2">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="F25" s="2">
-        <v>25.1</v>
+        <v>28.1</v>
       </c>
       <c r="G25" s="2">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="H25" s="2">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
-        <v>13.7</v>
+        <v>14.5</v>
       </c>
       <c r="J25" s="2">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="K25" s="2">
-        <v>10.8</v>
+        <v>7.5</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42990</v>
+        <v>43012</v>
       </c>
       <c r="B26" s="1">
-        <v>42993</v>
+        <v>43017</v>
       </c>
       <c r="C26">
         <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="F26" s="2">
-        <v>24.7</v>
+        <v>31.8</v>
       </c>
       <c r="G26" s="2">
-        <v>13.6</v>
+        <v>8.1</v>
       </c>
       <c r="H26" s="2">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="I26" s="2">
-        <v>14.8</v>
+        <v>9.5</v>
       </c>
       <c r="J26" s="2">
-        <v>17.399999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="K26" s="2">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42975</v>
+        <v>42996</v>
       </c>
       <c r="B27" s="1">
-        <v>42979</v>
+        <v>43000</v>
       </c>
       <c r="C27">
-        <v>700</v>
+        <v>1255</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="F27" s="2">
-        <v>28</v>
+        <v>25.1</v>
       </c>
       <c r="G27" s="2">
         <v>12.7</v>
       </c>
       <c r="H27" s="2">
-        <v>10.4</v>
+        <v>11.6</v>
       </c>
       <c r="I27" s="2">
-        <v>10.1</v>
+        <v>13.7</v>
       </c>
       <c r="J27" s="2">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="K27" s="2">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42951</v>
+        <v>42990</v>
       </c>
       <c r="B28" s="1">
-        <v>42958</v>
+        <v>42993</v>
       </c>
       <c r="C28">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E28" s="2">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="F28" s="2">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="G28" s="2">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="H28" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="I28" s="2">
-        <v>13.9</v>
+        <v>14.8</v>
       </c>
       <c r="J28" s="2">
-        <v>17.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K28" s="2">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42912</v>
+        <v>42975</v>
       </c>
       <c r="B29" s="1">
-        <v>42927</v>
+        <v>42979</v>
       </c>
       <c r="C29">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2">
-        <v>5.4</v>
+        <v>6.8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2">
+        <v>12.7</v>
       </c>
       <c r="H29" s="2">
-        <v>12.4</v>
+        <v>10.4</v>
       </c>
       <c r="I29" s="2">
-        <v>14.3</v>
+        <v>10.1</v>
       </c>
       <c r="J29" s="2">
-        <v>15.4</v>
+        <v>17.7</v>
       </c>
       <c r="K29" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L29" s="3">
-        <v>39.299999999999997</v>
+        <v>10.5</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42800</v>
+        <v>42951</v>
       </c>
       <c r="B30" s="1">
-        <v>42815</v>
+        <v>42958</v>
       </c>
       <c r="C30">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2">
-        <v>5.9</v>
+        <v>6.5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G30" s="2">
+        <v>13.9</v>
       </c>
       <c r="H30" s="2">
-        <v>15.3</v>
+        <v>12.1</v>
       </c>
       <c r="I30" s="2">
-        <v>12.3</v>
+        <v>13.9</v>
       </c>
       <c r="J30" s="2">
-        <v>16.100000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="K30" s="2">
-        <v>10</v>
-      </c>
-      <c r="L30" s="3">
-        <v>37</v>
+        <v>9.5</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42737</v>
+        <v>42912</v>
       </c>
       <c r="B31" s="1">
-        <v>42740</v>
+        <v>42927</v>
       </c>
       <c r="C31">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F31" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>17.899999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="H31" s="2">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="I31" s="2">
-        <v>11.4</v>
+        <v>14.3</v>
       </c>
       <c r="J31" s="2">
-        <v>16.600000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K31" s="2">
         <v>9.8000000000000007</v>
       </c>
+      <c r="L31" s="3">
+        <v>39.299999999999997</v>
+      </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42720</v>
+        <v>42800</v>
       </c>
       <c r="B32" s="1">
-        <v>42727</v>
+        <v>42815</v>
       </c>
       <c r="C32">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>14.8</v>
+        <v>5.9</v>
       </c>
       <c r="H32" s="2">
-        <v>11.9</v>
+        <v>15.3</v>
       </c>
       <c r="I32" s="2">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="J32" s="2">
-        <v>16.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K32" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L32" s="3">
+        <v>37</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42716</v>
+        <v>42737</v>
       </c>
       <c r="B33" s="1">
-        <v>42721</v>
+        <v>42740</v>
       </c>
       <c r="C33">
-        <v>1047</v>
+        <v>601</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2">
-        <v>6</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F33" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>17.899999999999999</v>
       </c>
       <c r="H33" s="2">
-        <v>12.2</v>
+        <v>10.7</v>
       </c>
       <c r="I33" s="2">
-        <v>13.8</v>
+        <v>11.4</v>
       </c>
       <c r="J33" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K33" s="2">
-        <v>9</v>
-      </c>
-      <c r="L33" s="3">
-        <v>37.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B34" s="1">
-        <v>42718</v>
+        <v>42727</v>
       </c>
       <c r="C34">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="F34" s="2">
-        <v>30.7</v>
+        <v>24.1</v>
       </c>
       <c r="G34" s="2">
-        <v>11.5</v>
+        <v>14.8</v>
       </c>
       <c r="H34" s="2">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="I34" s="2">
-        <v>14.4</v>
+        <v>12.1</v>
       </c>
       <c r="J34" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K34" s="2">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B35" s="1">
-        <v>42677</v>
+        <v>42721</v>
       </c>
       <c r="C35">
-        <v>1500</v>
+        <v>1047</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2">
-        <v>15.4</v>
+        <v>12.2</v>
       </c>
       <c r="I35" s="2">
-        <v>11.7</v>
+        <v>13.8</v>
       </c>
       <c r="J35" s="2">
-        <v>15.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K35" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L35" s="3">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42584</v>
+        <v>42716</v>
       </c>
       <c r="B36" s="1">
-        <v>42588</v>
+        <v>42718</v>
       </c>
       <c r="C36">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="F36" s="2">
-        <v>20.3</v>
+        <v>30.7</v>
       </c>
       <c r="G36" s="2">
-        <v>17.2</v>
+        <v>11.5</v>
       </c>
       <c r="H36" s="2">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="I36" s="2">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="J36" s="2">
-        <v>16.7</v>
+        <v>13.5</v>
       </c>
       <c r="K36" s="2">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B37" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C37">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="H37" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I37" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J37" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K37" s="2">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="L37" s="3">
-        <v>36</v>
+        <v>37.4</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B38" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C38">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
-        <v>5.2</v>
+        <v>7.5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>17.2</v>
       </c>
       <c r="H38" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I38" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J38" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K38" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L38" s="3">
-        <v>38.200000000000003</v>
+        <v>9.1</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42534</v>
+        <v>42584</v>
       </c>
       <c r="B39" s="1">
-        <v>42537</v>
+        <v>42588</v>
       </c>
       <c r="C39">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F39" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G39" s="2">
-        <v>19.399999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H39" s="2">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="I39" s="2">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="J39" s="2">
-        <v>15.8</v>
+        <v>16.7</v>
       </c>
       <c r="K39" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
+      </c>
+      <c r="L39" s="3">
+        <v>36</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42478</v>
+        <v>42549</v>
       </c>
       <c r="B40" s="1">
-        <v>42482</v>
+        <v>42564</v>
       </c>
       <c r="C40">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="F40" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="G40" s="2">
-        <v>13.3</v>
+        <v>5.2</v>
       </c>
       <c r="H40" s="2">
-        <v>12.3</v>
+        <v>16.8</v>
       </c>
       <c r="I40" s="2">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="J40" s="2">
-        <v>16.2</v>
+        <v>14.8</v>
       </c>
       <c r="K40" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L40" s="3">
+        <v>38.200000000000003</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42422</v>
+        <v>42534</v>
       </c>
       <c r="B41" s="1">
-        <v>42437</v>
+        <v>42537</v>
       </c>
       <c r="C41">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2">
-        <v>7.5</v>
+        <v>3.6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>19.399999999999999</v>
       </c>
       <c r="H41" s="2">
-        <v>17.899999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="I41" s="2">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="J41" s="2">
-        <v>16.7</v>
+        <v>15.8</v>
       </c>
       <c r="K41" s="2">
-        <v>7</v>
-      </c>
-      <c r="L41" s="3">
-        <v>35.799999999999997</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42366</v>
+        <v>42478</v>
       </c>
       <c r="B42" s="1">
-        <v>42369</v>
+        <v>42482</v>
       </c>
       <c r="C42">
-        <v>1255</v>
+        <v>1600</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2">
-        <v>8.9</v>
+        <v>6.5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G42" s="2">
+        <v>13.3</v>
       </c>
       <c r="H42" s="2">
-        <v>9.5</v>
+        <v>12.3</v>
       </c>
       <c r="I42" s="2">
-        <v>12.1</v>
+        <v>13.7</v>
       </c>
       <c r="J42" s="2">
-        <v>21.2</v>
+        <v>16.2</v>
       </c>
       <c r="K42" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="L42" s="3">
-        <v>35.6</v>
+        <v>9.1</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42338</v>
+        <v>42422</v>
       </c>
       <c r="B43" s="1">
-        <v>42341</v>
+        <v>42437</v>
       </c>
       <c r="C43">
-        <v>504</v>
+        <v>1500</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F43" s="2">
-        <v>24</v>
-      </c>
-      <c r="G43" s="2">
-        <v>12.6</v>
+        <v>7.5</v>
       </c>
       <c r="H43" s="2">
-        <v>7.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I43" s="2">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="J43" s="2">
-        <v>23.5</v>
+        <v>16.7</v>
       </c>
       <c r="K43" s="2">
-        <v>7.2</v>
+        <v>7</v>
+      </c>
+      <c r="L43" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42328</v>
+        <v>42366</v>
       </c>
       <c r="B44" s="1">
-        <v>42335</v>
+        <v>42369</v>
       </c>
       <c r="C44">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F44" s="2">
-        <v>21.1</v>
-      </c>
-      <c r="G44" s="2">
-        <v>15.9</v>
+        <v>8.9</v>
       </c>
       <c r="H44" s="2">
-        <v>8.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="I44" s="2">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="J44" s="2">
-        <v>19.899999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="K44" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>35.6</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B45" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C45">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" s="2">
-        <v>9</v>
+        <v>11.8</v>
+      </c>
+      <c r="F45" s="2">
+        <v>24</v>
+      </c>
+      <c r="G45" s="2">
+        <v>12.6</v>
       </c>
       <c r="H45" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="I45" s="2">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="J45" s="2">
-        <v>19.7</v>
+        <v>23.5</v>
       </c>
       <c r="K45" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L45" s="3">
-        <v>37.6</v>
+        <v>7.2</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B46" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C46">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E46" s="2">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F46" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>15.9</v>
       </c>
       <c r="H46" s="2">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I46" s="2">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
       <c r="J46" s="2">
-        <v>21.1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K46" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="L46" s="3">
-        <v>38.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42303</v>
+        <v>42328</v>
       </c>
       <c r="B47" s="1">
-        <v>42308</v>
+        <v>42335</v>
       </c>
       <c r="C47">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E47" s="2">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="H47" s="2">
-        <v>7.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I47" s="2">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="J47" s="2">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="K47" s="2">
         <v>8.6999999999999993</v>
       </c>
       <c r="L47" s="3">
-        <v>36.4</v>
+        <v>37.6</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42282</v>
+        <v>42324</v>
       </c>
       <c r="B48" s="1">
-        <v>42304</v>
+        <v>42331</v>
       </c>
       <c r="C48">
-        <v>2000</v>
+        <v>1050</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="H48" s="2">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="I48" s="2">
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
       <c r="J48" s="2">
-        <v>18</v>
+        <v>21.1</v>
       </c>
       <c r="K48" s="2">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L48" s="3">
-        <v>39.799999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42274</v>
+        <v>42303</v>
       </c>
       <c r="B49" s="1">
-        <v>42274</v>
+        <v>42308</v>
       </c>
       <c r="C49">
-        <v>4130196</v>
+        <v>1255</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E49" s="2">
-        <v>8.2100000000000009</v>
+        <v>8.6</v>
       </c>
       <c r="H49" s="2">
-        <v>8.94</v>
+        <v>7.6</v>
       </c>
       <c r="I49" s="2">
-        <v>12.72</v>
+        <v>13</v>
       </c>
       <c r="J49" s="2">
-        <v>17.899999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="K49" s="2">
-        <v>8.49</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L49" s="3">
-        <v>39.590000000000003</v>
+        <v>36.4</v>
       </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42268</v>
+        <v>42282</v>
       </c>
       <c r="B50" s="1">
-        <v>42268</v>
+        <v>42304</v>
       </c>
       <c r="C50">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="J50" s="2">
+        <v>18</v>
+      </c>
+      <c r="K50" s="2">
         <v>7</v>
       </c>
-      <c r="H50" s="2">
-        <v>12</v>
-      </c>
-      <c r="I50" s="2">
-        <v>12</v>
-      </c>
-      <c r="J50" s="2">
-        <v>13</v>
-      </c>
-      <c r="K50" s="2">
-        <v>11</v>
-      </c>
       <c r="L50" s="3">
-        <v>41</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42261</v>
+        <v>42274</v>
       </c>
       <c r="B51" s="1">
-        <v>42272</v>
+        <v>42274</v>
       </c>
       <c r="C51">
-        <v>3000</v>
+        <v>4130196</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E51" s="2">
-        <v>8</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H51" s="2">
-        <v>9.5</v>
+        <v>8.94</v>
       </c>
       <c r="I51" s="2">
-        <v>13.5</v>
+        <v>12.72</v>
       </c>
       <c r="J51" s="2">
-        <v>14.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K51" s="2">
-        <v>9</v>
+        <v>8.49</v>
       </c>
       <c r="L51" s="3">
-        <v>40</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42257</v>
+        <v>42268</v>
       </c>
       <c r="B52" s="1">
-        <v>42264</v>
+        <v>42268</v>
       </c>
       <c r="C52">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52" s="2">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H52" s="2">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="I52" s="2">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="J52" s="2">
-        <v>15.4</v>
+        <v>13</v>
       </c>
       <c r="K52" s="2">
-        <v>8.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="L52" s="3">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="B53" s="1">
-        <v>42266</v>
+        <v>42272</v>
       </c>
       <c r="C53">
-        <v>1255</v>
+        <v>3000</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="H53" s="2">
-        <v>12.4</v>
+        <v>9.5</v>
       </c>
       <c r="I53" s="2">
-        <v>12.1</v>
+        <v>13.5</v>
       </c>
       <c r="J53" s="2">
-        <v>15.3</v>
+        <v>14.5</v>
       </c>
       <c r="K53" s="2">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="L53" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42263</v>
+        <v>42257</v>
       </c>
       <c r="B54" s="1">
         <v>42264</v>
       </c>
       <c r="C54">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E54" s="2">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="H54" s="2">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="I54" s="2">
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
       <c r="J54" s="2">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="K54" s="2">
-        <v>9.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L54" s="3">
-        <v>40.5</v>
+        <v>40.1</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42261</v>
+        <v>42258</v>
       </c>
       <c r="B55" s="1">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="C55">
-        <v>1100</v>
+        <v>1255</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E55" s="2">
         <v>6.2</v>
       </c>
       <c r="H55" s="2">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="I55" s="2">
         <v>12.1</v>
       </c>
       <c r="J55" s="2">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="K55" s="2">
         <v>9.9</v>
       </c>
       <c r="L55" s="3">
-        <v>38.799999999999997</v>
+        <v>38</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B56" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C56">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E56" s="2">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="H56" s="2">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="I56" s="2">
-        <v>11.9</v>
+        <v>10.8</v>
       </c>
       <c r="J56" s="2">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="K56" s="2">
-        <v>10.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="L56" s="3">
-        <v>40.700000000000003</v>
+        <v>40.5</v>
       </c>
       <c r="M56" s="4"/>
     </row>
@@ -2463,31 +2467,31 @@
         <v>42261</v>
       </c>
       <c r="B57" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C57">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E57" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H57" s="2">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
       <c r="I57" s="2">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="J57" s="2">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="K57" s="2">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="L57" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M57" s="4"/>
     </row>
@@ -2496,31 +2500,31 @@
         <v>42261</v>
       </c>
       <c r="B58" s="1">
-        <v>42263</v>
+        <v>42265</v>
       </c>
       <c r="C58">
-        <v>1717</v>
+        <v>800</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E58" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H58" s="2">
-        <v>11.4</v>
+        <v>10.3</v>
       </c>
       <c r="I58" s="2">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="J58" s="2">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="K58" s="2">
-        <v>7.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L58" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M58" s="4"/>
     </row>
@@ -2529,31 +2533,31 @@
         <v>42261</v>
       </c>
       <c r="B59" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C59">
-        <v>1157</v>
+        <v>1000</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E59" s="2">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="H59" s="2">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
       <c r="I59" s="2">
-        <v>7.5</v>
+        <v>10.1</v>
       </c>
       <c r="J59" s="2">
-        <v>18.3</v>
+        <v>14.4</v>
       </c>
       <c r="K59" s="2">
-        <v>11.9</v>
+        <v>10.6</v>
       </c>
       <c r="L59" s="3">
-        <v>42.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M59" s="4"/>
     </row>
@@ -2565,468 +2569,534 @@
         <v>42263</v>
       </c>
       <c r="C60">
-        <v>1000</v>
+        <v>1717</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" s="2">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="H60" s="2">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="I60" s="2">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="J60" s="2">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K60" s="2">
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="L60" s="3">
-        <v>39.200000000000003</v>
+        <v>41.2</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B61" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C61">
-        <v>1255</v>
+        <v>1157</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E61" s="2">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="H61" s="2">
-        <v>12.7</v>
+        <v>10.4</v>
       </c>
       <c r="I61" s="2">
-        <v>11.4</v>
+        <v>7.5</v>
       </c>
       <c r="J61" s="2">
-        <v>16.5</v>
+        <v>18.3</v>
       </c>
       <c r="K61" s="2">
-        <v>9.4</v>
+        <v>11.9</v>
       </c>
       <c r="L61" s="3">
-        <v>37.6</v>
+        <v>42.4</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42248</v>
+        <v>42261</v>
       </c>
       <c r="B62" s="1">
-        <v>42255</v>
+        <v>42263</v>
       </c>
       <c r="C62">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E62" s="2">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H62" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I62" s="2">
-        <v>11.1</v>
+        <v>13.2</v>
       </c>
       <c r="J62" s="2">
-        <v>13.4</v>
+        <v>15</v>
       </c>
       <c r="K62" s="2">
-        <v>10.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="L62" s="3">
-        <v>38.299999999999997</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="B63" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C63">
-        <v>750</v>
+        <v>1255</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E63" s="2">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="H63" s="2">
-        <v>10.199999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="I63" s="2">
-        <v>12.6</v>
+        <v>11.4</v>
       </c>
       <c r="J63" s="2">
-        <v>11.6</v>
+        <v>16.5</v>
       </c>
       <c r="K63" s="2">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="L63" s="3">
-        <v>42.1</v>
+        <v>37.6</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42246</v>
+        <v>42248</v>
       </c>
       <c r="B64" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C64">
-        <v>2999</v>
+        <v>1200</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E64" s="2">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="H64" s="2">
-        <v>13.9</v>
+        <v>11.4</v>
       </c>
       <c r="I64" s="2">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="J64" s="2">
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="K64" s="2">
-        <v>9.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L64" s="3">
-        <v>38.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42247</v>
+        <v>42250</v>
       </c>
       <c r="B65" s="1">
-        <v>42250</v>
+        <v>42255</v>
       </c>
       <c r="C65">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E65" s="2">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="H65" s="2">
-        <v>12.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I65" s="2">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
       <c r="J65" s="2">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="K65" s="2">
-        <v>9.8000000000000007</v>
+        <v>11.5</v>
       </c>
       <c r="L65" s="3">
-        <v>39.4</v>
+        <v>42.1</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B66" s="1">
-        <v>42249</v>
+        <v>42251</v>
       </c>
       <c r="C66">
-        <v>800</v>
+        <v>2999</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E66" s="2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H66" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I66" s="2">
-        <v>10.3</v>
+        <v>12.2</v>
       </c>
       <c r="J66" s="2">
-        <v>19.899999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="K66" s="2">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="L66" s="3">
-        <v>38.799999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B67" s="1">
         <v>42250</v>
       </c>
       <c r="C67">
-        <v>1221</v>
+        <v>1400</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E67" s="2">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H67" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I67" s="2">
-        <v>9.5</v>
+        <v>11.1</v>
       </c>
       <c r="J67" s="2">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="K67" s="2">
-        <v>11.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L67" s="3">
-        <v>43.5</v>
+        <v>39.4</v>
       </c>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42233</v>
+        <v>42247</v>
       </c>
       <c r="B68" s="1">
-        <v>42238</v>
+        <v>42249</v>
       </c>
       <c r="C68">
-        <v>955</v>
+        <v>800</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E68" s="2">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="H68" s="2">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="I68" s="2">
-        <v>11.7</v>
+        <v>10.3</v>
       </c>
       <c r="J68" s="2">
-        <v>17.899999999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K68" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="L68" s="3">
-        <v>36.299999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42201</v>
+        <v>42248</v>
       </c>
       <c r="B69" s="1">
-        <v>42208</v>
+        <v>42250</v>
       </c>
       <c r="C69">
-        <v>1255</v>
+        <v>1221</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E69" s="2">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="H69" s="2">
-        <v>12.8</v>
+        <v>11.5</v>
       </c>
       <c r="I69" s="2">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="J69" s="2">
-        <v>19.100000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="K69" s="2">
-        <v>8.1999999999999993</v>
+        <v>11.8</v>
       </c>
       <c r="L69" s="3">
-        <v>35.799999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42191</v>
+        <v>42233</v>
       </c>
       <c r="B70" s="1">
-        <v>42194</v>
+        <v>42238</v>
       </c>
       <c r="C70">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E70" s="2">
-        <v>7</v>
-      </c>
-      <c r="F70" s="2">
-        <v>15</v>
-      </c>
-      <c r="G70" s="2">
-        <v>22</v>
+        <v>4.7</v>
       </c>
       <c r="H70" s="2">
-        <v>16.5</v>
+        <v>12.3</v>
       </c>
       <c r="I70" s="2">
-        <v>9.6</v>
+        <v>11.7</v>
       </c>
       <c r="J70" s="2">
-        <v>16</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K70" s="2">
-        <v>7.3</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L70" s="3">
+        <v>36.299999999999997</v>
       </c>
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42186</v>
+        <v>42201</v>
       </c>
       <c r="B71" s="1">
-        <v>42188</v>
+        <v>42208</v>
       </c>
       <c r="C71">
-        <v>820</v>
+        <v>1255</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E71" s="2">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="H71" s="2">
-        <v>20</v>
+        <v>12.8</v>
       </c>
       <c r="I71" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J71" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K71" s="2">
-        <v>9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L71" s="3">
-        <v>32</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42202</v>
+        <v>42191</v>
       </c>
       <c r="B72" s="1">
-        <v>42206</v>
+        <v>42194</v>
       </c>
       <c r="C72">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E72" s="2">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="F72" s="2">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="G72" s="2">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H72" s="2">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="I72" s="2">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="J72" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K72" s="2">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B73" s="1">
+        <v>42188</v>
+      </c>
+      <c r="C73">
+        <v>820</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="2">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2">
+        <v>20</v>
+      </c>
+      <c r="I73" s="2">
+        <v>9</v>
+      </c>
+      <c r="J73" s="2">
+        <v>16</v>
+      </c>
+      <c r="K73" s="2">
+        <v>9</v>
+      </c>
+      <c r="L73" s="3">
+        <v>32</v>
+      </c>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C74">
+        <v>800</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F74" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G74" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>18</v>
+      </c>
+      <c r="I74" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J74" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>42121</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B75" s="1">
         <v>42123</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <v>1000</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D75" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E75" s="2">
         <v>7.9</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F75" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G75" s="2">
         <v>22.6</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H75" s="2">
         <v>12.9</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I75" s="2">
         <v>9.9</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J75" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K75" s="2">
         <v>6.4</v>
       </c>
-      <c r="M73" s="4"/>
+      <c r="M75" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,107 +561,107 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43070</v>
+        <v>43081</v>
       </c>
       <c r="B2" s="1">
-        <v>43081</v>
+        <v>43083</v>
       </c>
       <c r="C2">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="F2" s="2">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="G2" s="2">
-        <v>20.6</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H2" s="2">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="I2" s="2">
-        <v>14.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J2" s="2">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="K2" s="2">
-        <v>5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43074</v>
+        <v>43080</v>
       </c>
       <c r="B3" s="1">
-        <v>43081</v>
+        <v>43082</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H3" s="2">
         <v>7.7</v>
       </c>
-      <c r="F3" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="G3" s="2">
-        <v>18.3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>8.1999999999999993</v>
-      </c>
       <c r="I3" s="2">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="J3" s="2">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="K3" s="2">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43068</v>
+        <v>43073</v>
       </c>
       <c r="B4" s="1">
-        <v>43079</v>
+        <v>43082</v>
       </c>
       <c r="C4">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="F4" s="2">
-        <v>21.4</v>
+        <v>23.1</v>
       </c>
       <c r="G4" s="2">
-        <v>21.3</v>
+        <v>14.3</v>
       </c>
       <c r="H4" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I4" s="2">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="J4" s="2">
-        <v>21.2</v>
+        <v>25.2</v>
       </c>
       <c r="K4" s="2">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -669,454 +669,454 @@
         <v>43070</v>
       </c>
       <c r="B5" s="1">
-        <v>43077</v>
+        <v>43081</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="F5" s="2">
-        <v>22.3</v>
+        <v>21.5</v>
       </c>
       <c r="G5" s="2">
-        <v>18.899999999999999</v>
+        <v>20.6</v>
       </c>
       <c r="H5" s="2">
-        <v>7.4</v>
+        <v>9.1</v>
       </c>
       <c r="I5" s="2">
-        <v>15.9</v>
+        <v>14.6</v>
       </c>
       <c r="J5" s="2">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="K5" s="2">
-        <v>6.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43070</v>
+        <v>43074</v>
       </c>
       <c r="B6" s="1">
-        <v>43076</v>
+        <v>43081</v>
       </c>
       <c r="C6">
-        <v>1216</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="F6" s="2">
-        <v>23.3</v>
+        <v>20.9</v>
       </c>
       <c r="G6" s="2">
-        <v>18.899999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="H6" s="2">
-        <v>5.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I6" s="2">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="J6" s="2">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="K6" s="2">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43069</v>
+        <v>43068</v>
       </c>
       <c r="B7" s="1">
-        <v>43076</v>
+        <v>43079</v>
       </c>
       <c r="C7">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="F7" s="2">
-        <v>22.9</v>
+        <v>21.4</v>
       </c>
       <c r="G7" s="2">
-        <v>16.2</v>
+        <v>21.3</v>
       </c>
       <c r="H7" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I7" s="2">
-        <v>16.100000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="J7" s="2">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="K7" s="2">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43066</v>
+        <v>43070</v>
       </c>
       <c r="B8" s="1">
         <v>43077</v>
       </c>
       <c r="C8">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="F8" s="2">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="G8" s="2">
-        <v>19.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H8" s="2">
         <v>7.4</v>
       </c>
       <c r="I8" s="2">
-        <v>14.4</v>
+        <v>15.9</v>
       </c>
       <c r="J8" s="2">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="K8" s="2">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43073</v>
+        <v>43070</v>
       </c>
       <c r="B9" s="1">
         <v>43076</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>1216</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="F9" s="2">
-        <v>21.5</v>
+        <v>23.3</v>
       </c>
       <c r="G9" s="2">
-        <v>18.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="I9" s="2">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="J9" s="2">
-        <v>23.1</v>
+        <v>24.4</v>
       </c>
       <c r="K9" s="2">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43072</v>
+        <v>43069</v>
       </c>
       <c r="B10" s="1">
         <v>43076</v>
       </c>
       <c r="C10">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="F10" s="2">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="G10" s="2">
-        <v>17</v>
+        <v>16.2</v>
       </c>
       <c r="H10" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="I10" s="2">
-        <v>15.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="K10" s="2">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43070</v>
+        <v>43066</v>
       </c>
       <c r="B11" s="1">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="F11" s="2">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="G11" s="2">
-        <v>17.100000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="H11" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="I11" s="2">
-        <v>13.5</v>
+        <v>14.4</v>
       </c>
       <c r="J11" s="2">
-        <v>22.8</v>
+        <v>21.5</v>
       </c>
       <c r="K11" s="2">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43068</v>
+        <v>43073</v>
       </c>
       <c r="B12" s="1">
-        <v>43071</v>
+        <v>43076</v>
       </c>
       <c r="C12">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="G12" s="2">
-        <v>19.3</v>
+        <v>18.2</v>
       </c>
       <c r="H12" s="2">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="I12" s="2">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="J12" s="2">
-        <v>19</v>
+        <v>23.1</v>
       </c>
       <c r="K12" s="2">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43066</v>
+        <v>43072</v>
       </c>
       <c r="B13" s="1">
-        <v>43069</v>
+        <v>43076</v>
       </c>
       <c r="C13">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="F13" s="2">
         <v>23.1</v>
       </c>
       <c r="G13" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="J13" s="2">
-        <v>20.5</v>
+        <v>23</v>
       </c>
       <c r="K13" s="2">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43062</v>
+        <v>43070</v>
       </c>
       <c r="B14" s="1">
-        <v>43066</v>
+        <v>43074</v>
       </c>
       <c r="C14">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F14" s="2">
-        <v>20.8</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2">
-        <v>16.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H14" s="2">
-        <v>8.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I14" s="2">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="J14" s="2">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="K14" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43052</v>
+        <v>43068</v>
       </c>
       <c r="B15" s="1">
-        <v>43062</v>
+        <v>43071</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2">
-        <v>24.1</v>
+        <v>20.5</v>
       </c>
       <c r="G15" s="2">
-        <v>13.6</v>
+        <v>19.3</v>
       </c>
       <c r="H15" s="2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="I15" s="2">
-        <v>14.7</v>
+        <v>19</v>
       </c>
       <c r="J15" s="2">
-        <v>20.9</v>
+        <v>19</v>
       </c>
       <c r="K15" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43059</v>
+        <v>43066</v>
       </c>
       <c r="B16" s="1">
-        <v>43061</v>
+        <v>43069</v>
       </c>
       <c r="C16">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2">
-        <v>26.5</v>
+        <v>23.1</v>
       </c>
       <c r="G16" s="2">
-        <v>13.6</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="I16" s="2">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="J16" s="2">
-        <v>25.3</v>
+        <v>20.5</v>
       </c>
       <c r="K16" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43054</v>
+        <v>43062</v>
       </c>
       <c r="B17" s="1">
-        <v>43057</v>
+        <v>43066</v>
       </c>
       <c r="C17">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="F17" s="2">
-        <v>23.9</v>
+        <v>20.8</v>
       </c>
       <c r="G17" s="2">
-        <v>16.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H17" s="2">
         <v>8.6</v>
       </c>
       <c r="I17" s="2">
-        <v>18.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="J17" s="2">
-        <v>18.600000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="K17" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1124,327 +1124,324 @@
         <v>43052</v>
       </c>
       <c r="B18" s="1">
-        <v>43055</v>
+        <v>43062</v>
       </c>
       <c r="C18">
-        <v>801</v>
+        <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F18" s="2">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="G18" s="2">
-        <v>16.7</v>
+        <v>13.6</v>
       </c>
       <c r="H18" s="2">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="I18" s="2">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="J18" s="2">
-        <v>22.3</v>
+        <v>20.9</v>
       </c>
       <c r="K18" s="2">
-        <v>7.8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43038</v>
+        <v>43059</v>
       </c>
       <c r="B19" s="1">
-        <v>43042</v>
+        <v>43061</v>
       </c>
       <c r="C19">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F19" s="2">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="G19" s="2">
-        <v>10.7</v>
+        <v>13.6</v>
       </c>
       <c r="H19" s="2">
-        <v>10.4</v>
+        <v>6.7</v>
       </c>
       <c r="I19" s="2">
-        <v>13.6</v>
+        <v>14.9</v>
       </c>
       <c r="J19" s="2">
-        <v>19.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K19" s="2">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43038</v>
+        <v>43054</v>
       </c>
       <c r="B20" s="1">
-        <v>43042</v>
+        <v>43057</v>
       </c>
       <c r="C20">
-        <v>1233</v>
+        <v>800</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2">
         <v>6.3</v>
       </c>
       <c r="F20" s="2">
-        <v>29.3</v>
+        <v>23.9</v>
       </c>
       <c r="G20" s="2">
-        <v>10.4</v>
+        <v>16.5</v>
       </c>
       <c r="H20" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="I20" s="2">
-        <v>14.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J20" s="2">
-        <v>20.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K20" s="2">
-        <v>8.6999999999999993</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43035</v>
+        <v>43052</v>
       </c>
       <c r="B21" s="1">
-        <v>43039</v>
+        <v>43055</v>
       </c>
       <c r="C21">
-        <v>1000</v>
+        <v>801</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="F21" s="2">
-        <v>31.2</v>
+        <v>23.1</v>
       </c>
       <c r="G21" s="2">
-        <v>10.1</v>
+        <v>16.7</v>
       </c>
       <c r="H21" s="2">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="I21" s="2">
-        <v>12.2</v>
+        <v>15.1</v>
       </c>
       <c r="J21" s="2">
-        <v>18.3</v>
+        <v>22.3</v>
       </c>
       <c r="K21" s="2">
-        <v>9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43024</v>
+        <v>43038</v>
       </c>
       <c r="B22" s="1">
-        <v>43037</v>
+        <v>43042</v>
       </c>
       <c r="C22">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
         <v>6.3</v>
       </c>
+      <c r="F22" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10.7</v>
+      </c>
       <c r="H22" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="J22" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K22" s="2">
         <v>10.5</v>
       </c>
-      <c r="I22" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="J22" s="2">
-        <v>18.2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L22" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43031</v>
+        <v>43038</v>
       </c>
       <c r="B23" s="1">
-        <v>43034</v>
+        <v>43042</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2">
         <v>6.3</v>
       </c>
       <c r="F23" s="2">
-        <v>26.4</v>
+        <v>29.3</v>
       </c>
       <c r="G23" s="2">
-        <v>9.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="H23" s="2">
-        <v>11</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I23" s="2">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="J23" s="2">
-        <v>19.600000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="K23" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43024</v>
+        <v>43035</v>
       </c>
       <c r="B24" s="1">
-        <v>43029</v>
+        <v>43039</v>
       </c>
       <c r="C24">
         <v>1000</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F24" s="2">
-        <v>24.6</v>
+        <v>31.2</v>
       </c>
       <c r="G24" s="2">
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="H24" s="2">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="I24" s="2">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="J24" s="2">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="K24" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="M24" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43024</v>
       </c>
       <c r="B25" s="1">
-        <v>43027</v>
+        <v>43037</v>
       </c>
       <c r="C25">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="F25" s="2">
-        <v>28.1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>12</v>
+        <v>6.3</v>
       </c>
       <c r="H25" s="2">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I25" s="2">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="J25" s="2">
-        <v>16.8</v>
+        <v>18.2</v>
       </c>
       <c r="K25" s="2">
-        <v>7.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L25" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43012</v>
+        <v>43031</v>
       </c>
       <c r="B26" s="1">
-        <v>43017</v>
+        <v>43034</v>
       </c>
       <c r="C26">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" s="2">
         <v>6.3</v>
       </c>
       <c r="F26" s="2">
-        <v>31.8</v>
+        <v>26.4</v>
       </c>
       <c r="G26" s="2">
-        <v>8.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H26" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2">
-        <v>9.5</v>
+        <v>15.1</v>
       </c>
       <c r="J26" s="2">
-        <v>18.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K26" s="2">
-        <v>10.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42996</v>
+        <v>43024</v>
       </c>
       <c r="B27" s="1">
-        <v>43000</v>
+        <v>43029</v>
       </c>
       <c r="C27">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1453,103 +1450,103 @@
         <v>5.6</v>
       </c>
       <c r="F27" s="2">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="G27" s="2">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="H27" s="2">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="I27" s="2">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
       <c r="J27" s="2">
-        <v>17.2</v>
+        <v>19.2</v>
       </c>
       <c r="K27" s="2">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42990</v>
+        <v>43024</v>
       </c>
       <c r="B28" s="1">
-        <v>42993</v>
+        <v>43027</v>
       </c>
       <c r="C28">
         <v>800</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="F28" s="2">
-        <v>24.7</v>
+        <v>28.1</v>
       </c>
       <c r="G28" s="2">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="H28" s="2">
-        <v>12.2</v>
+        <v>9</v>
       </c>
       <c r="I28" s="2">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="J28" s="2">
-        <v>17.399999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="K28" s="2">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42975</v>
+        <v>43012</v>
       </c>
       <c r="B29" s="1">
-        <v>42979</v>
+        <v>43017</v>
       </c>
       <c r="C29">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="2">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="F29" s="2">
-        <v>28</v>
+        <v>31.8</v>
       </c>
       <c r="G29" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H29" s="2">
-        <v>10.4</v>
+        <v>12</v>
       </c>
       <c r="I29" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J29" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="K29" s="2">
         <v>10.1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>17.7</v>
-      </c>
-      <c r="K29" s="2">
-        <v>10.5</v>
       </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42951</v>
+        <v>42996</v>
       </c>
       <c r="B30" s="1">
-        <v>42958</v>
+        <v>43000</v>
       </c>
       <c r="C30">
         <v>1255</v>
@@ -1558,343 +1555,349 @@
         <v>14</v>
       </c>
       <c r="E30" s="2">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="F30" s="2">
-        <v>23.9</v>
+        <v>25.1</v>
       </c>
       <c r="G30" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H30" s="2">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="I30" s="2">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="J30" s="2">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="K30" s="2">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42912</v>
+        <v>42990</v>
       </c>
       <c r="B31" s="1">
-        <v>42927</v>
+        <v>42993</v>
       </c>
       <c r="C31">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31" s="2">
-        <v>5.4</v>
+        <v>5.9</v>
+      </c>
+      <c r="F31" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="G31" s="2">
+        <v>13.6</v>
       </c>
       <c r="H31" s="2">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="I31" s="2">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="J31" s="2">
-        <v>15.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K31" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L31" s="3">
-        <v>39.299999999999997</v>
+        <v>9.4</v>
       </c>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42800</v>
+        <v>42975</v>
       </c>
       <c r="B32" s="1">
-        <v>42815</v>
+        <v>42979</v>
       </c>
       <c r="C32">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2">
-        <v>5.9</v>
+        <v>6.8</v>
+      </c>
+      <c r="F32" s="2">
+        <v>28</v>
+      </c>
+      <c r="G32" s="2">
+        <v>12.7</v>
       </c>
       <c r="H32" s="2">
-        <v>15.3</v>
+        <v>10.4</v>
       </c>
       <c r="I32" s="2">
-        <v>12.3</v>
+        <v>10.1</v>
       </c>
       <c r="J32" s="2">
-        <v>16.100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="K32" s="2">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>37</v>
+        <v>10.5</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42737</v>
+        <v>42951</v>
       </c>
       <c r="B33" s="1">
-        <v>42740</v>
+        <v>42958</v>
       </c>
       <c r="C33">
-        <v>601</v>
+        <v>1255</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2">
-        <v>4.9000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="F33" s="2">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="G33" s="2">
-        <v>17.899999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="H33" s="2">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="I33" s="2">
-        <v>11.4</v>
+        <v>13.9</v>
       </c>
       <c r="J33" s="2">
-        <v>16.600000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="K33" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42720</v>
+        <v>42912</v>
       </c>
       <c r="B34" s="1">
-        <v>42727</v>
+        <v>42927</v>
       </c>
       <c r="C34">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="F34" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>14.8</v>
+        <v>5.4</v>
       </c>
       <c r="H34" s="2">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="I34" s="2">
-        <v>12.1</v>
+        <v>14.3</v>
       </c>
       <c r="J34" s="2">
-        <v>16.899999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="K34" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L34" s="3">
+        <v>39.299999999999997</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42716</v>
+        <v>42800</v>
       </c>
       <c r="B35" s="1">
-        <v>42721</v>
+        <v>42815</v>
       </c>
       <c r="C35">
-        <v>1047</v>
+        <v>1500</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E35" s="2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H35" s="2">
-        <v>12.2</v>
+        <v>15.3</v>
       </c>
       <c r="I35" s="2">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="J35" s="2">
-        <v>16.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K35" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L35" s="3">
-        <v>37.6</v>
+        <v>37</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42716</v>
+        <v>42737</v>
       </c>
       <c r="B36" s="1">
-        <v>42718</v>
+        <v>42740</v>
       </c>
       <c r="C36">
-        <v>800</v>
+        <v>601</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F36" s="2">
-        <v>30.7</v>
+        <v>25.1</v>
       </c>
       <c r="G36" s="2">
-        <v>11.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H36" s="2">
-        <v>12.3</v>
+        <v>10.7</v>
       </c>
       <c r="I36" s="2">
-        <v>14.4</v>
+        <v>11.4</v>
       </c>
       <c r="J36" s="2">
-        <v>13.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K36" s="2">
-        <v>8.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42660</v>
+        <v>42720</v>
       </c>
       <c r="B37" s="1">
-        <v>42677</v>
+        <v>42727</v>
       </c>
       <c r="C37">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2">
-        <v>5.2</v>
+        <v>7.2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>14.8</v>
       </c>
       <c r="H37" s="2">
-        <v>15.4</v>
+        <v>11.9</v>
       </c>
       <c r="I37" s="2">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="J37" s="2">
-        <v>15.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K37" s="2">
-        <v>10</v>
-      </c>
-      <c r="L37" s="3">
-        <v>37.4</v>
+        <v>9.1</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42584</v>
+        <v>42716</v>
       </c>
       <c r="B38" s="1">
-        <v>42588</v>
+        <v>42721</v>
       </c>
       <c r="C38">
-        <v>1255</v>
+        <v>1047</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F38" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G38" s="2">
-        <v>17.2</v>
+        <v>6</v>
       </c>
       <c r="H38" s="2">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="I38" s="2">
-        <v>12.3</v>
+        <v>13.8</v>
       </c>
       <c r="J38" s="2">
-        <v>16.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K38" s="2">
-        <v>9.1</v>
+        <v>9</v>
+      </c>
+      <c r="L38" s="3">
+        <v>37.6</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42584</v>
+        <v>42716</v>
       </c>
       <c r="B39" s="1">
-        <v>42588</v>
+        <v>42718</v>
       </c>
       <c r="C39">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2">
-        <v>7.7</v>
+        <v>5.2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G39" s="2">
+        <v>11.5</v>
       </c>
       <c r="H39" s="2">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="I39" s="2">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="J39" s="2">
-        <v>16.7</v>
+        <v>13.5</v>
       </c>
       <c r="K39" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="L39" s="3">
-        <v>36</v>
+        <v>8.1</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42549</v>
+        <v>42660</v>
       </c>
       <c r="B40" s="1">
-        <v>42564</v>
+        <v>42677</v>
       </c>
       <c r="C40">
         <v>1500</v>
@@ -1906,658 +1909,661 @@
         <v>5.2</v>
       </c>
       <c r="H40" s="2">
-        <v>16.8</v>
+        <v>15.4</v>
       </c>
       <c r="I40" s="2">
-        <v>12.8</v>
+        <v>11.7</v>
       </c>
       <c r="J40" s="2">
-        <v>14.8</v>
+        <v>15.7</v>
       </c>
       <c r="K40" s="2">
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="L40" s="3">
-        <v>38.200000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42534</v>
+        <v>42584</v>
       </c>
       <c r="B41" s="1">
-        <v>42537</v>
+        <v>42588</v>
       </c>
       <c r="C41">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="F41" s="2">
-        <v>21.5</v>
+        <v>20.3</v>
       </c>
       <c r="G41" s="2">
-        <v>19.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="H41" s="2">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="I41" s="2">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="J41" s="2">
-        <v>15.8</v>
+        <v>16.7</v>
       </c>
       <c r="K41" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42478</v>
+        <v>42584</v>
       </c>
       <c r="B42" s="1">
-        <v>42482</v>
+        <v>42588</v>
       </c>
       <c r="C42">
-        <v>1600</v>
+        <v>1255</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="F42" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="G42" s="2">
-        <v>13.3</v>
+        <v>7.7</v>
       </c>
       <c r="H42" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="I42" s="2">
         <v>12.3</v>
       </c>
-      <c r="I42" s="2">
-        <v>13.7</v>
-      </c>
       <c r="J42" s="2">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="K42" s="2">
         <v>9.1</v>
       </c>
+      <c r="L42" s="3">
+        <v>36</v>
+      </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42422</v>
+        <v>42549</v>
       </c>
       <c r="B43" s="1">
-        <v>42437</v>
+        <v>42564</v>
       </c>
       <c r="C43">
         <v>1500</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="H43" s="2">
-        <v>17.899999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="I43" s="2">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="J43" s="2">
-        <v>16.7</v>
+        <v>14.8</v>
       </c>
       <c r="K43" s="2">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L43" s="3">
-        <v>35.799999999999997</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42366</v>
+        <v>42534</v>
       </c>
       <c r="B44" s="1">
-        <v>42369</v>
+        <v>42537</v>
       </c>
       <c r="C44">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2">
-        <v>8.9</v>
+        <v>3.6</v>
+      </c>
+      <c r="F44" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>19.399999999999999</v>
       </c>
       <c r="H44" s="2">
-        <v>9.5</v>
+        <v>14.1</v>
       </c>
       <c r="I44" s="2">
-        <v>12.1</v>
+        <v>13</v>
       </c>
       <c r="J44" s="2">
-        <v>21.2</v>
+        <v>15.8</v>
       </c>
       <c r="K44" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>35.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42338</v>
+        <v>42478</v>
       </c>
       <c r="B45" s="1">
-        <v>42341</v>
+        <v>42482</v>
       </c>
       <c r="C45">
-        <v>504</v>
+        <v>1600</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E45" s="2">
-        <v>11.8</v>
+        <v>6.5</v>
       </c>
       <c r="F45" s="2">
-        <v>24</v>
+        <v>25.6</v>
       </c>
       <c r="G45" s="2">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="H45" s="2">
-        <v>7.4</v>
+        <v>12.3</v>
       </c>
       <c r="I45" s="2">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="J45" s="2">
-        <v>23.5</v>
+        <v>16.2</v>
       </c>
       <c r="K45" s="2">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42328</v>
+        <v>42422</v>
       </c>
       <c r="B46" s="1">
-        <v>42335</v>
+        <v>42437</v>
       </c>
       <c r="C46">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F46" s="2">
-        <v>21.1</v>
-      </c>
-      <c r="G46" s="2">
-        <v>15.9</v>
+        <v>7.5</v>
       </c>
       <c r="H46" s="2">
-        <v>8.6999999999999993</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I46" s="2">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="J46" s="2">
-        <v>19.899999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="K46" s="2">
-        <v>8.3000000000000007</v>
+        <v>7</v>
+      </c>
+      <c r="L46" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42328</v>
+        <v>42366</v>
       </c>
       <c r="B47" s="1">
-        <v>42335</v>
+        <v>42369</v>
       </c>
       <c r="C47">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="H47" s="2">
-        <v>8.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="I47" s="2">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="J47" s="2">
-        <v>19.7</v>
+        <v>21.2</v>
       </c>
       <c r="K47" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="L47" s="3">
-        <v>37.6</v>
+        <v>35.6</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42324</v>
+        <v>42338</v>
       </c>
       <c r="B48" s="1">
-        <v>42331</v>
+        <v>42341</v>
       </c>
       <c r="C48">
-        <v>1050</v>
+        <v>504</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" s="2">
-        <v>8.5</v>
+        <v>11.8</v>
+      </c>
+      <c r="F48" s="2">
+        <v>24</v>
+      </c>
+      <c r="G48" s="2">
+        <v>12.6</v>
       </c>
       <c r="H48" s="2">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="I48" s="2">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="J48" s="2">
-        <v>21.1</v>
+        <v>23.5</v>
       </c>
       <c r="K48" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>38.1</v>
+        <v>7.2</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42303</v>
+        <v>42328</v>
       </c>
       <c r="B49" s="1">
-        <v>42308</v>
+        <v>42335</v>
       </c>
       <c r="C49">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E49" s="2">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F49" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>15.9</v>
       </c>
       <c r="H49" s="2">
-        <v>7.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I49" s="2">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J49" s="2">
-        <v>20.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K49" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L49" s="3">
-        <v>36.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42282</v>
+        <v>42328</v>
       </c>
       <c r="B50" s="1">
-        <v>42304</v>
+        <v>42335</v>
       </c>
       <c r="C50">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E50" s="2">
-        <v>11.1</v>
+        <v>9</v>
       </c>
       <c r="H50" s="2">
-        <v>9.3000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I50" s="2">
-        <v>10.6</v>
+        <v>13.1</v>
       </c>
       <c r="J50" s="2">
-        <v>18</v>
+        <v>19.7</v>
       </c>
       <c r="K50" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L50" s="3">
-        <v>39.799999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42274</v>
+        <v>42324</v>
       </c>
       <c r="B51" s="1">
-        <v>42274</v>
+        <v>42331</v>
       </c>
       <c r="C51">
-        <v>4130196</v>
+        <v>1050</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E51" s="2">
-        <v>8.2100000000000009</v>
+        <v>8.5</v>
       </c>
       <c r="H51" s="2">
-        <v>8.94</v>
+        <v>9</v>
       </c>
       <c r="I51" s="2">
-        <v>12.72</v>
+        <v>12.4</v>
       </c>
       <c r="J51" s="2">
-        <v>17.899999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="K51" s="2">
-        <v>8.49</v>
+        <v>7.4</v>
       </c>
       <c r="L51" s="3">
-        <v>39.590000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42268</v>
+        <v>42303</v>
       </c>
       <c r="B52" s="1">
-        <v>42268</v>
+        <v>42308</v>
       </c>
       <c r="C52">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="H52" s="2">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="I52" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J52" s="2">
-        <v>13</v>
+        <v>20.9</v>
       </c>
       <c r="K52" s="2">
-        <v>11</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L52" s="3">
-        <v>41</v>
+        <v>36.4</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42261</v>
+        <v>42282</v>
       </c>
       <c r="B53" s="1">
-        <v>42272</v>
+        <v>42304</v>
       </c>
       <c r="C53">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2">
-        <v>8</v>
+        <v>11.1</v>
       </c>
       <c r="H53" s="2">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I53" s="2">
-        <v>13.5</v>
+        <v>10.6</v>
       </c>
       <c r="J53" s="2">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="K53" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L53" s="3">
-        <v>40</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42257</v>
+        <v>42274</v>
       </c>
       <c r="B54" s="1">
-        <v>42264</v>
+        <v>42274</v>
       </c>
       <c r="C54">
-        <v>1000</v>
+        <v>4130196</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E54" s="2">
-        <v>8.1</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H54" s="2">
-        <v>12.6</v>
+        <v>8.94</v>
       </c>
       <c r="I54" s="2">
-        <v>11.7</v>
+        <v>12.72</v>
       </c>
       <c r="J54" s="2">
-        <v>15.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K54" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.49</v>
       </c>
       <c r="L54" s="3">
-        <v>40.1</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42258</v>
+        <v>42268</v>
       </c>
       <c r="B55" s="1">
-        <v>42266</v>
+        <v>42268</v>
       </c>
       <c r="C55">
-        <v>1255</v>
+        <v>1200</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E55" s="2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="H55" s="2">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="I55" s="2">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="J55" s="2">
-        <v>15.3</v>
+        <v>13</v>
       </c>
       <c r="K55" s="2">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="L55" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42263</v>
+        <v>42261</v>
       </c>
       <c r="B56" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C56">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E56" s="2">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="H56" s="2">
-        <v>11.2</v>
+        <v>9.5</v>
       </c>
       <c r="I56" s="2">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="J56" s="2">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="K56" s="2">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="L56" s="3">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42261</v>
+        <v>42257</v>
       </c>
       <c r="B57" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C57">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E57" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H57" s="2">
         <v>12.6</v>
       </c>
       <c r="I57" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J57" s="2">
-        <v>14.6</v>
+        <v>15.4</v>
       </c>
       <c r="K57" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L57" s="3">
-        <v>38.799999999999997</v>
+        <v>40.1</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42261</v>
+        <v>42258</v>
       </c>
       <c r="B58" s="1">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="C58">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H58" s="2">
-        <v>10.3</v>
+        <v>12.4</v>
       </c>
       <c r="I58" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J58" s="2">
-        <v>14.1</v>
+        <v>15.3</v>
       </c>
       <c r="K58" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L58" s="3">
-        <v>40.700000000000003</v>
+        <v>38</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B59" s="1">
         <v>42264</v>
       </c>
       <c r="C59">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E59" s="2">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="H59" s="2">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="I59" s="2">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="J59" s="2">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="K59" s="2">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="L59" s="3">
-        <v>40.700000000000003</v>
+        <v>40.5</v>
       </c>
       <c r="M59" s="4"/>
     </row>
@@ -2566,31 +2572,31 @@
         <v>42261</v>
       </c>
       <c r="B60" s="1">
-        <v>42263</v>
+        <v>42265</v>
       </c>
       <c r="C60">
-        <v>1717</v>
+        <v>1100</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E60" s="2">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="H60" s="2">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
       <c r="I60" s="2">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="J60" s="2">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="K60" s="2">
-        <v>7.3</v>
+        <v>9.9</v>
       </c>
       <c r="L60" s="3">
-        <v>41.2</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M60" s="4"/>
     </row>
@@ -2599,31 +2605,31 @@
         <v>42261</v>
       </c>
       <c r="B61" s="1">
-        <v>42263</v>
+        <v>42265</v>
       </c>
       <c r="C61">
-        <v>1157</v>
+        <v>800</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E61" s="2">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="H61" s="2">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="I61" s="2">
-        <v>7.5</v>
+        <v>11.9</v>
       </c>
       <c r="J61" s="2">
-        <v>18.3</v>
+        <v>14.1</v>
       </c>
       <c r="K61" s="2">
-        <v>11.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L61" s="3">
-        <v>42.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M61" s="4"/>
     </row>
@@ -2632,13 +2638,13 @@
         <v>42261</v>
       </c>
       <c r="B62" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C62">
         <v>1000</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E62" s="2">
         <v>6.4</v>
@@ -2647,427 +2653,421 @@
         <v>11.1</v>
       </c>
       <c r="I62" s="2">
-        <v>13.2</v>
+        <v>10.1</v>
       </c>
       <c r="J62" s="2">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="K62" s="2">
-        <v>8.9</v>
+        <v>10.6</v>
       </c>
       <c r="L62" s="3">
-        <v>39.200000000000003</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B63" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C63">
-        <v>1255</v>
+        <v>1717</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E63" s="2">
-        <v>5.2</v>
+        <v>8.4</v>
       </c>
       <c r="H63" s="2">
-        <v>12.7</v>
+        <v>11.4</v>
       </c>
       <c r="I63" s="2">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="J63" s="2">
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
       <c r="K63" s="2">
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="L63" s="3">
-        <v>37.6</v>
+        <v>41.2</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42248</v>
+        <v>42261</v>
       </c>
       <c r="B64" s="1">
-        <v>42255</v>
+        <v>42263</v>
       </c>
       <c r="C64">
-        <v>1200</v>
+        <v>1157</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="H64" s="2">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="I64" s="2">
-        <v>11.1</v>
+        <v>7.5</v>
       </c>
       <c r="J64" s="2">
-        <v>13.4</v>
+        <v>18.3</v>
       </c>
       <c r="K64" s="2">
-        <v>10.199999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="L64" s="3">
-        <v>38.299999999999997</v>
+        <v>42.4</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42250</v>
+        <v>42261</v>
       </c>
       <c r="B65" s="1">
-        <v>42255</v>
+        <v>42263</v>
       </c>
       <c r="C65">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E65" s="2">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="H65" s="2">
-        <v>10.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="I65" s="2">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="J65" s="2">
-        <v>11.6</v>
+        <v>15</v>
       </c>
       <c r="K65" s="2">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
       <c r="L65" s="3">
-        <v>42.1</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42246</v>
+        <v>42254</v>
       </c>
       <c r="B66" s="1">
-        <v>42251</v>
+        <v>42262</v>
       </c>
       <c r="C66">
-        <v>2999</v>
+        <v>1255</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E66" s="2">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="H66" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="I66" s="2">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="J66" s="2">
-        <v>14.8</v>
+        <v>16.5</v>
       </c>
       <c r="K66" s="2">
         <v>9.4</v>
       </c>
       <c r="L66" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42247</v>
+        <v>42248</v>
       </c>
       <c r="B67" s="1">
-        <v>42250</v>
+        <v>42255</v>
       </c>
       <c r="C67">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E67" s="2">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H67" s="2">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="I67" s="2">
         <v>11.1</v>
       </c>
       <c r="J67" s="2">
-        <v>12.7</v>
+        <v>13.4</v>
       </c>
       <c r="K67" s="2">
-        <v>9.8000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L67" s="3">
-        <v>39.4</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42247</v>
+        <v>42250</v>
       </c>
       <c r="B68" s="1">
-        <v>42249</v>
+        <v>42255</v>
       </c>
       <c r="C68">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E68" s="2">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="H68" s="2">
-        <v>12.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I68" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="J68" s="2">
-        <v>19.899999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="K68" s="2">
-        <v>7.9</v>
+        <v>11.5</v>
       </c>
       <c r="L68" s="3">
-        <v>38.799999999999997</v>
+        <v>42.1</v>
       </c>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42248</v>
+        <v>42246</v>
       </c>
       <c r="B69" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C69">
-        <v>1221</v>
+        <v>2999</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69" s="2">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="H69" s="2">
-        <v>11.5</v>
+        <v>13.9</v>
       </c>
       <c r="I69" s="2">
-        <v>9.5</v>
+        <v>12.2</v>
       </c>
       <c r="J69" s="2">
-        <v>12.6</v>
+        <v>14.8</v>
       </c>
       <c r="K69" s="2">
-        <v>11.8</v>
+        <v>9.4</v>
       </c>
       <c r="L69" s="3">
-        <v>43.5</v>
+        <v>38.1</v>
       </c>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42233</v>
+        <v>42247</v>
       </c>
       <c r="B70" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C70">
-        <v>955</v>
+        <v>1400</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E70" s="2">
-        <v>4.7</v>
+        <v>6.7</v>
       </c>
       <c r="H70" s="2">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="I70" s="2">
-        <v>11.7</v>
+        <v>11.1</v>
       </c>
       <c r="J70" s="2">
-        <v>17.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K70" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L70" s="3">
-        <v>36.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42201</v>
+        <v>42247</v>
       </c>
       <c r="B71" s="1">
-        <v>42208</v>
+        <v>42249</v>
       </c>
       <c r="C71">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E71" s="2">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H71" s="2">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="I71" s="2">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="J71" s="2">
-        <v>19.100000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K71" s="2">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="L71" s="3">
-        <v>35.799999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42191</v>
+        <v>42248</v>
       </c>
       <c r="B72" s="1">
-        <v>42194</v>
+        <v>42250</v>
       </c>
       <c r="C72">
-        <v>1000</v>
+        <v>1221</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E72" s="2">
-        <v>7</v>
-      </c>
-      <c r="F72" s="2">
-        <v>15</v>
-      </c>
-      <c r="G72" s="2">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="H72" s="2">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="I72" s="2">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="J72" s="2">
-        <v>16</v>
+        <v>12.6</v>
       </c>
       <c r="K72" s="2">
-        <v>7.3</v>
+        <v>11.8</v>
+      </c>
+      <c r="L72" s="3">
+        <v>43.5</v>
       </c>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42186</v>
+        <v>42233</v>
       </c>
       <c r="B73" s="1">
-        <v>42188</v>
+        <v>42238</v>
       </c>
       <c r="C73">
-        <v>820</v>
+        <v>955</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E73" s="2">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="H73" s="2">
-        <v>20</v>
+        <v>12.3</v>
       </c>
       <c r="I73" s="2">
-        <v>9</v>
+        <v>11.7</v>
       </c>
       <c r="J73" s="2">
-        <v>16</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K73" s="2">
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L73" s="3">
-        <v>32</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42202</v>
+        <v>42201</v>
       </c>
       <c r="B74" s="1">
-        <v>42206</v>
+        <v>42208</v>
       </c>
       <c r="C74">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H74" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="I74" s="2">
         <v>12</v>
       </c>
-      <c r="E74" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F74" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G74" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="H74" s="2">
-        <v>18</v>
-      </c>
-      <c r="I74" s="2">
-        <v>7.8</v>
-      </c>
       <c r="J74" s="2">
-        <v>15.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K74" s="2">
-        <v>5.9</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L74" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42121</v>
+        <v>42191</v>
       </c>
       <c r="B75" s="1">
-        <v>42123</v>
+        <v>42194</v>
       </c>
       <c r="C75">
         <v>1000</v>
@@ -3076,27 +3076,132 @@
         <v>23</v>
       </c>
       <c r="E75" s="2">
+        <v>7</v>
+      </c>
+      <c r="F75" s="2">
+        <v>15</v>
+      </c>
+      <c r="G75" s="2">
+        <v>22</v>
+      </c>
+      <c r="H75" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="I75" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="J75" s="2">
+        <v>16</v>
+      </c>
+      <c r="K75" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B76" s="1">
+        <v>42188</v>
+      </c>
+      <c r="C76">
+        <v>820</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="2">
+        <v>8</v>
+      </c>
+      <c r="H76" s="2">
+        <v>20</v>
+      </c>
+      <c r="I76" s="2">
+        <v>9</v>
+      </c>
+      <c r="J76" s="2">
+        <v>16</v>
+      </c>
+      <c r="K76" s="2">
+        <v>9</v>
+      </c>
+      <c r="L76" s="3">
+        <v>32</v>
+      </c>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B77" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C77">
+        <v>800</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F77" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G77" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H77" s="2">
+        <v>18</v>
+      </c>
+      <c r="I77" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J77" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K77" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>42121</v>
+      </c>
+      <c r="B78" s="1">
+        <v>42123</v>
+      </c>
+      <c r="C78">
+        <v>1000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="2">
         <v>7.9</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F78" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G78" s="2">
         <v>22.6</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H78" s="2">
         <v>12.9</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I78" s="2">
         <v>9.9</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J78" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K78" s="2">
         <v>6.4</v>
       </c>
-      <c r="M75" s="4"/>
+      <c r="M78" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -102,9 +102,6 @@
     <t>MyWord</t>
   </si>
   <si>
-    <t>Metroscopica</t>
-  </si>
-  <si>
     <t>Opinòmetre</t>
   </si>
   <si>
@@ -121,6 +118,15 @@
   </si>
   <si>
     <t>Infortécnica</t>
+  </si>
+  <si>
+    <t>Metroscopia</t>
+  </si>
+  <si>
+    <t>Top Position</t>
+  </si>
+  <si>
+    <t>A+M</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,168 +573,168 @@
         <v>43083</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="F2" s="2">
-        <v>22.2</v>
+        <v>20.3</v>
       </c>
       <c r="G2" s="2">
-        <v>17.899999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="H2" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="I2" s="2">
-        <v>16.899999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="J2" s="2">
-        <v>21.2</v>
+        <v>23.2</v>
       </c>
       <c r="K2" s="2">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43080</v>
+        <v>43081</v>
       </c>
       <c r="B3" s="1">
-        <v>43082</v>
+        <v>43083</v>
       </c>
       <c r="C3">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="F3" s="2">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="G3" s="2">
-        <v>16.600000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="I3" s="2">
-        <v>15.4</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>22.8</v>
+        <v>21.2</v>
       </c>
       <c r="K3" s="2">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43073</v>
+        <v>43080</v>
       </c>
       <c r="B4" s="1">
-        <v>43082</v>
+        <v>43083</v>
       </c>
       <c r="C4">
-        <v>3300</v>
+        <v>1200</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>23.1</v>
+        <v>18.2</v>
       </c>
       <c r="G4" s="2">
-        <v>14.3</v>
+        <v>22.4</v>
       </c>
       <c r="H4" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.9</v>
       </c>
       <c r="I4" s="2">
-        <v>14.3</v>
+        <v>11.7</v>
       </c>
       <c r="J4" s="2">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
       <c r="K4" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43070</v>
+        <v>43076</v>
       </c>
       <c r="B5" s="1">
-        <v>43081</v>
+        <v>43083</v>
       </c>
       <c r="C5">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="F5" s="2">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="G5" s="2">
-        <v>20.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="I5" s="2">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="J5" s="2">
-        <v>21.9</v>
+        <v>23.1</v>
       </c>
       <c r="K5" s="2">
-        <v>5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43074</v>
+        <v>43080</v>
       </c>
       <c r="B6" s="1">
-        <v>43081</v>
+        <v>43082</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="F6" s="2">
-        <v>20.9</v>
+        <v>24.6</v>
       </c>
       <c r="G6" s="2">
-        <v>18.3</v>
+        <v>17.7</v>
       </c>
       <c r="H6" s="2">
-        <v>8.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="J6" s="2">
-        <v>23.6</v>
+        <v>24.4</v>
       </c>
       <c r="K6" s="2">
         <v>5.4</v>
@@ -736,174 +742,174 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43068</v>
+        <v>43080</v>
       </c>
       <c r="B7" s="1">
-        <v>43079</v>
+        <v>43082</v>
       </c>
       <c r="C7">
-        <v>1100</v>
+        <v>1550</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="F7" s="2">
-        <v>21.4</v>
+        <v>22.5</v>
       </c>
       <c r="G7" s="2">
-        <v>21.3</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H7" s="2">
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="I7" s="2">
-        <v>14.1</v>
+        <v>15.4</v>
       </c>
       <c r="J7" s="2">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="K7" s="2">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43070</v>
+        <v>43074</v>
       </c>
       <c r="B8" s="1">
-        <v>43077</v>
+        <v>43082</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
-        <v>7.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F8" s="2">
-        <v>22.3</v>
+        <v>24.3</v>
       </c>
       <c r="G8" s="2">
-        <v>18.899999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2">
-        <v>15.9</v>
+        <v>15.1</v>
       </c>
       <c r="J8" s="2">
-        <v>21.3</v>
+        <v>22.4</v>
       </c>
       <c r="K8" s="2">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="B9" s="1">
-        <v>43076</v>
+        <v>43082</v>
       </c>
       <c r="C9">
         <v>1216</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="K9" s="2">
         <v>6.3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>23.3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>16.3</v>
-      </c>
-      <c r="J9" s="2">
-        <v>24.4</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5.6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43069</v>
+        <v>43073</v>
       </c>
       <c r="B10" s="1">
-        <v>43076</v>
+        <v>43082</v>
       </c>
       <c r="C10">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="F10" s="2">
-        <v>22.9</v>
+        <v>22.4</v>
       </c>
       <c r="G10" s="2">
-        <v>16.2</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H10" s="2">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="I10" s="2">
-        <v>16.100000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="J10" s="2">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="K10" s="2">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43066</v>
+        <v>43073</v>
       </c>
       <c r="B11" s="1">
-        <v>43077</v>
+        <v>43082</v>
       </c>
       <c r="C11">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="F11" s="2">
-        <v>22.5</v>
+        <v>23.1</v>
       </c>
       <c r="G11" s="2">
-        <v>19.8</v>
+        <v>14.3</v>
       </c>
       <c r="H11" s="2">
-        <v>7.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I11" s="2">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="J11" s="2">
-        <v>21.5</v>
+        <v>25.2</v>
       </c>
       <c r="K11" s="2">
         <v>5.4</v>
@@ -911,1758 +917,1772 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43073</v>
+        <v>43070</v>
       </c>
       <c r="B12" s="1">
-        <v>43076</v>
+        <v>43081</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="F12" s="2">
         <v>21.5</v>
       </c>
       <c r="G12" s="2">
-        <v>18.2</v>
+        <v>20.6</v>
       </c>
       <c r="H12" s="2">
-        <v>7.4</v>
+        <v>9.1</v>
       </c>
       <c r="I12" s="2">
-        <v>16.5</v>
+        <v>14.6</v>
       </c>
       <c r="J12" s="2">
-        <v>23.1</v>
+        <v>21.9</v>
       </c>
       <c r="K12" s="2">
-        <v>7.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43072</v>
+        <v>43074</v>
       </c>
       <c r="B13" s="1">
-        <v>43076</v>
+        <v>43081</v>
       </c>
       <c r="C13">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="F13" s="2">
-        <v>23.1</v>
+        <v>20.9</v>
       </c>
       <c r="G13" s="2">
-        <v>17</v>
+        <v>18.3</v>
       </c>
       <c r="H13" s="2">
-        <v>8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I13" s="2">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="J13" s="2">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="K13" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43070</v>
+        <v>43068</v>
       </c>
       <c r="B14" s="1">
-        <v>43074</v>
+        <v>43079</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="F14" s="2">
-        <v>24</v>
+        <v>21.4</v>
       </c>
       <c r="G14" s="2">
-        <v>17.100000000000001</v>
+        <v>21.3</v>
       </c>
       <c r="H14" s="2">
-        <v>9.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I14" s="2">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="J14" s="2">
-        <v>22.8</v>
+        <v>21.2</v>
       </c>
       <c r="K14" s="2">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43068</v>
+        <v>43070</v>
       </c>
       <c r="B15" s="1">
-        <v>43071</v>
+        <v>43077</v>
       </c>
       <c r="C15">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="F15" s="2">
-        <v>20.5</v>
+        <v>22.3</v>
       </c>
       <c r="G15" s="2">
-        <v>19.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H15" s="2">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="I15" s="2">
-        <v>19</v>
+        <v>15.9</v>
       </c>
       <c r="J15" s="2">
-        <v>19</v>
+        <v>21.3</v>
       </c>
       <c r="K15" s="2">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43066</v>
+        <v>43070</v>
       </c>
       <c r="B16" s="1">
-        <v>43069</v>
+        <v>43076</v>
       </c>
       <c r="C16">
-        <v>800</v>
+        <v>1216</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="F16" s="2">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="G16" s="2">
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H16" s="2">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="I16" s="2">
-        <v>15.2</v>
+        <v>16.3</v>
       </c>
       <c r="J16" s="2">
-        <v>20.5</v>
+        <v>24.4</v>
       </c>
       <c r="K16" s="2">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43062</v>
+        <v>43069</v>
       </c>
       <c r="B17" s="1">
-        <v>43066</v>
+        <v>43076</v>
       </c>
       <c r="C17">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="G17" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="K17" s="2">
         <v>6.7</v>
-      </c>
-      <c r="F17" s="2">
-        <v>20.8</v>
-      </c>
-      <c r="G17" s="2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="I17" s="2">
-        <v>16</v>
-      </c>
-      <c r="J17" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="K17" s="2">
-        <v>5.8</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43052</v>
+        <v>43066</v>
       </c>
       <c r="B18" s="1">
-        <v>43062</v>
+        <v>43077</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="F18" s="2">
-        <v>24.1</v>
+        <v>22.5</v>
       </c>
       <c r="G18" s="2">
-        <v>13.6</v>
+        <v>19.8</v>
       </c>
       <c r="H18" s="2">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="I18" s="2">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="J18" s="2">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="K18" s="2">
-        <v>9.3000000000000007</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43059</v>
+        <v>43073</v>
       </c>
       <c r="B19" s="1">
-        <v>43061</v>
+        <v>43076</v>
       </c>
       <c r="C19">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2">
-        <v>26.5</v>
+        <v>21.5</v>
       </c>
       <c r="G19" s="2">
-        <v>13.6</v>
+        <v>18.2</v>
       </c>
       <c r="H19" s="2">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="I19" s="2">
-        <v>14.9</v>
+        <v>16.5</v>
       </c>
       <c r="J19" s="2">
-        <v>25.3</v>
+        <v>23.1</v>
       </c>
       <c r="K19" s="2">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43054</v>
+        <v>43072</v>
       </c>
       <c r="B20" s="1">
-        <v>43057</v>
+        <v>43076</v>
       </c>
       <c r="C20">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="F20" s="2">
-        <v>23.9</v>
+        <v>23.1</v>
       </c>
       <c r="G20" s="2">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I20" s="2">
-        <v>18.100000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="J20" s="2">
-        <v>18.600000000000001</v>
+        <v>23</v>
       </c>
       <c r="K20" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43052</v>
+        <v>43070</v>
       </c>
       <c r="B21" s="1">
-        <v>43055</v>
+        <v>43074</v>
       </c>
       <c r="C21">
-        <v>801</v>
+        <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="F21" s="2">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2">
-        <v>16.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H21" s="2">
-        <v>7.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I21" s="2">
-        <v>15.1</v>
+        <v>13.5</v>
       </c>
       <c r="J21" s="2">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="K21" s="2">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43038</v>
+        <v>43068</v>
       </c>
       <c r="B22" s="1">
-        <v>43042</v>
+        <v>43071</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
-        <v>26.3</v>
+        <v>20.5</v>
       </c>
       <c r="G22" s="2">
-        <v>10.7</v>
+        <v>19.3</v>
       </c>
       <c r="H22" s="2">
-        <v>10.4</v>
+        <v>8.5</v>
       </c>
       <c r="I22" s="2">
-        <v>13.6</v>
+        <v>19</v>
       </c>
       <c r="J22" s="2">
-        <v>19.600000000000001</v>
+        <v>19</v>
       </c>
       <c r="K22" s="2">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43038</v>
+        <v>43066</v>
       </c>
       <c r="B23" s="1">
-        <v>43042</v>
+        <v>43069</v>
       </c>
       <c r="C23">
-        <v>1233</v>
+        <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2">
-        <v>29.3</v>
+        <v>23.1</v>
       </c>
       <c r="G23" s="2">
-        <v>10.4</v>
+        <v>19</v>
       </c>
       <c r="H23" s="2">
-        <v>8.3000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="I23" s="2">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="J23" s="2">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="K23" s="2">
-        <v>8.6999999999999993</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43035</v>
+        <v>43062</v>
       </c>
       <c r="B24" s="1">
-        <v>43039</v>
+        <v>43066</v>
       </c>
       <c r="C24">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="F24" s="2">
-        <v>31.2</v>
+        <v>20.8</v>
       </c>
       <c r="G24" s="2">
-        <v>10.1</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H24" s="2">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="I24" s="2">
-        <v>12.2</v>
+        <v>16</v>
       </c>
       <c r="J24" s="2">
-        <v>18.3</v>
+        <v>22.5</v>
       </c>
       <c r="K24" s="2">
-        <v>9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43024</v>
+        <v>43052</v>
       </c>
       <c r="B25" s="1">
-        <v>43037</v>
+        <v>43062</v>
       </c>
       <c r="C25">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2">
-        <v>6.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>13.6</v>
       </c>
       <c r="H25" s="2">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="I25" s="2">
-        <v>13.9</v>
+        <v>14.7</v>
       </c>
       <c r="J25" s="2">
-        <v>18.2</v>
+        <v>20.9</v>
       </c>
       <c r="K25" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L25" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M25" s="4"/>
+        <v>9.3000000000000007</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43031</v>
+        <v>43059</v>
       </c>
       <c r="B26" s="1">
-        <v>43034</v>
+        <v>43061</v>
       </c>
       <c r="C26">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="F26" s="2">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="G26" s="2">
-        <v>9.8000000000000007</v>
+        <v>13.6</v>
       </c>
       <c r="H26" s="2">
-        <v>11</v>
+        <v>6.7</v>
       </c>
       <c r="I26" s="2">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="J26" s="2">
-        <v>19.600000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="K26" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M26" s="4"/>
+        <v>5.8</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43024</v>
+        <v>43054</v>
       </c>
       <c r="B27" s="1">
-        <v>43029</v>
+        <v>43057</v>
       </c>
       <c r="C27">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F27" s="2">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="G27" s="2">
-        <v>12.1</v>
+        <v>16.5</v>
       </c>
       <c r="H27" s="2">
-        <v>11.4</v>
+        <v>8.6</v>
       </c>
       <c r="I27" s="2">
-        <v>13.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J27" s="2">
-        <v>19.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K27" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="M27" s="4"/>
+        <v>5.7</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43024</v>
+        <v>43052</v>
       </c>
       <c r="B28" s="1">
-        <v>43027</v>
+        <v>43055</v>
       </c>
       <c r="C28">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="H28" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="I28" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="K28" s="2">
         <v>7.8</v>
       </c>
-      <c r="F28" s="2">
-        <v>28.1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>12</v>
-      </c>
-      <c r="H28" s="2">
-        <v>9</v>
-      </c>
-      <c r="I28" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="J28" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="K28" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43012</v>
+        <v>43038</v>
       </c>
       <c r="B29" s="1">
-        <v>43017</v>
+        <v>43042</v>
       </c>
       <c r="C29">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2">
         <v>6.3</v>
       </c>
       <c r="F29" s="2">
-        <v>31.8</v>
+        <v>26.3</v>
       </c>
       <c r="G29" s="2">
-        <v>8.1</v>
+        <v>10.7</v>
       </c>
       <c r="H29" s="2">
-        <v>12</v>
+        <v>10.4</v>
       </c>
       <c r="I29" s="2">
-        <v>9.5</v>
+        <v>13.6</v>
       </c>
       <c r="J29" s="2">
-        <v>18.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K29" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="M29" s="4"/>
+        <v>10.5</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42996</v>
+        <v>43038</v>
       </c>
       <c r="B30" s="1">
-        <v>43000</v>
+        <v>43042</v>
       </c>
       <c r="C30">
-        <v>1255</v>
+        <v>1233</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F30" s="2">
-        <v>25.1</v>
+        <v>29.3</v>
       </c>
       <c r="G30" s="2">
-        <v>12.7</v>
+        <v>10.4</v>
       </c>
       <c r="H30" s="2">
-        <v>11.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I30" s="2">
-        <v>13.7</v>
+        <v>14.6</v>
       </c>
       <c r="J30" s="2">
-        <v>17.2</v>
+        <v>20.6</v>
       </c>
       <c r="K30" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="M30" s="4"/>
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42990</v>
+        <v>43035</v>
       </c>
       <c r="B31" s="1">
-        <v>42993</v>
+        <v>43039</v>
       </c>
       <c r="C31">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F31" s="2">
-        <v>24.7</v>
+        <v>31.2</v>
       </c>
       <c r="G31" s="2">
-        <v>13.6</v>
+        <v>10.1</v>
       </c>
       <c r="H31" s="2">
+        <v>10</v>
+      </c>
+      <c r="I31" s="2">
         <v>12.2</v>
       </c>
-      <c r="I31" s="2">
-        <v>14.8</v>
-      </c>
       <c r="J31" s="2">
-        <v>17.399999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="K31" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="M31" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42975</v>
+        <v>43024</v>
       </c>
       <c r="B32" s="1">
-        <v>42979</v>
+        <v>43037</v>
       </c>
       <c r="C32">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="F32" s="2">
-        <v>28</v>
-      </c>
-      <c r="G32" s="2">
-        <v>12.7</v>
+        <v>6.3</v>
       </c>
       <c r="H32" s="2">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="I32" s="2">
-        <v>10.1</v>
+        <v>13.9</v>
       </c>
       <c r="J32" s="2">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
       <c r="K32" s="2">
-        <v>10.5</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L32" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42951</v>
+        <v>43031</v>
       </c>
       <c r="B33" s="1">
-        <v>42958</v>
+        <v>43034</v>
       </c>
       <c r="C33">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F33" s="2">
-        <v>23.9</v>
+        <v>26.4</v>
       </c>
       <c r="G33" s="2">
-        <v>13.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H33" s="2">
-        <v>12.1</v>
+        <v>11</v>
       </c>
       <c r="I33" s="2">
-        <v>13.9</v>
+        <v>15.1</v>
       </c>
       <c r="J33" s="2">
-        <v>17.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K33" s="2">
-        <v>9.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42912</v>
+        <v>43024</v>
       </c>
       <c r="B34" s="1">
-        <v>42927</v>
+        <v>43029</v>
       </c>
       <c r="C34">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
-        <v>5.4</v>
+        <v>5.6</v>
+      </c>
+      <c r="F34" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="G34" s="2">
+        <v>12.1</v>
       </c>
       <c r="H34" s="2">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="I34" s="2">
-        <v>14.3</v>
+        <v>13.1</v>
       </c>
       <c r="J34" s="2">
-        <v>15.4</v>
+        <v>19.2</v>
       </c>
       <c r="K34" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L34" s="3">
-        <v>39.299999999999997</v>
+        <v>10.5</v>
       </c>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42800</v>
+        <v>43024</v>
       </c>
       <c r="B35" s="1">
-        <v>42815</v>
+        <v>43027</v>
       </c>
       <c r="C35">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2">
-        <v>5.9</v>
+        <v>7.8</v>
+      </c>
+      <c r="F35" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>12</v>
       </c>
       <c r="H35" s="2">
-        <v>15.3</v>
+        <v>9</v>
       </c>
       <c r="I35" s="2">
-        <v>12.3</v>
+        <v>14.5</v>
       </c>
       <c r="J35" s="2">
-        <v>16.100000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="K35" s="2">
-        <v>10</v>
-      </c>
-      <c r="L35" s="3">
-        <v>37</v>
+        <v>7.5</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42737</v>
+        <v>43012</v>
       </c>
       <c r="B36" s="1">
-        <v>42740</v>
+        <v>43017</v>
       </c>
       <c r="C36">
-        <v>601</v>
+        <v>800</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2">
-        <v>4.9000000000000004</v>
+        <v>6.3</v>
       </c>
       <c r="F36" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G36" s="2">
-        <v>17.899999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H36" s="2">
-        <v>10.7</v>
+        <v>12</v>
       </c>
       <c r="I36" s="2">
-        <v>11.4</v>
+        <v>9.5</v>
       </c>
       <c r="J36" s="2">
-        <v>16.600000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="K36" s="2">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42720</v>
+        <v>42996</v>
       </c>
       <c r="B37" s="1">
-        <v>42727</v>
+        <v>43000</v>
       </c>
       <c r="C37">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="2">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="F37" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G37" s="2">
-        <v>14.8</v>
+        <v>12.7</v>
       </c>
       <c r="H37" s="2">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="I37" s="2">
-        <v>12.1</v>
+        <v>13.7</v>
       </c>
       <c r="J37" s="2">
-        <v>16.899999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K37" s="2">
-        <v>9.1</v>
+        <v>10.8</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42716</v>
+        <v>42990</v>
       </c>
       <c r="B38" s="1">
-        <v>42721</v>
+        <v>42993</v>
       </c>
       <c r="C38">
-        <v>1047</v>
+        <v>800</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2">
-        <v>6</v>
+        <v>5.9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="G38" s="2">
+        <v>13.6</v>
       </c>
       <c r="H38" s="2">
         <v>12.2</v>
       </c>
       <c r="I38" s="2">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="J38" s="2">
-        <v>16.899999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K38" s="2">
-        <v>9</v>
-      </c>
-      <c r="L38" s="3">
-        <v>37.6</v>
+        <v>9.4</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42716</v>
+        <v>42975</v>
       </c>
       <c r="B39" s="1">
-        <v>42718</v>
+        <v>42979</v>
       </c>
       <c r="C39">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E39" s="2">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="F39" s="2">
-        <v>30.7</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
       <c r="H39" s="2">
-        <v>12.3</v>
+        <v>10.4</v>
       </c>
       <c r="I39" s="2">
-        <v>14.4</v>
+        <v>10.1</v>
       </c>
       <c r="J39" s="2">
-        <v>13.5</v>
+        <v>17.7</v>
       </c>
       <c r="K39" s="2">
-        <v>8.1</v>
+        <v>10.5</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42660</v>
+        <v>42951</v>
       </c>
       <c r="B40" s="1">
-        <v>42677</v>
+        <v>42958</v>
       </c>
       <c r="C40">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
-        <v>5.2</v>
+        <v>6.5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G40" s="2">
+        <v>13.9</v>
       </c>
       <c r="H40" s="2">
-        <v>15.4</v>
+        <v>12.1</v>
       </c>
       <c r="I40" s="2">
-        <v>11.7</v>
+        <v>13.9</v>
       </c>
       <c r="J40" s="2">
-        <v>15.7</v>
+        <v>17.5</v>
       </c>
       <c r="K40" s="2">
-        <v>10</v>
-      </c>
-      <c r="L40" s="3">
-        <v>37.4</v>
+        <v>9.5</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42584</v>
+        <v>42912</v>
       </c>
       <c r="B41" s="1">
-        <v>42588</v>
+        <v>42927</v>
       </c>
       <c r="C41">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F41" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G41" s="2">
-        <v>17.2</v>
+        <v>5.4</v>
       </c>
       <c r="H41" s="2">
-        <v>13.9</v>
+        <v>12.4</v>
       </c>
       <c r="I41" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J41" s="2">
-        <v>16.7</v>
+        <v>15.4</v>
       </c>
       <c r="K41" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L41" s="3">
+        <v>39.299999999999997</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42584</v>
+        <v>42800</v>
       </c>
       <c r="B42" s="1">
-        <v>42588</v>
+        <v>42815</v>
       </c>
       <c r="C42">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
       <c r="H42" s="2">
-        <v>13.9</v>
+        <v>15.3</v>
       </c>
       <c r="I42" s="2">
         <v>12.3</v>
       </c>
       <c r="J42" s="2">
-        <v>16.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K42" s="2">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="L42" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42549</v>
+        <v>42737</v>
       </c>
       <c r="B43" s="1">
-        <v>42564</v>
+        <v>42740</v>
       </c>
       <c r="C43">
-        <v>1500</v>
+        <v>601</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F43" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>17.899999999999999</v>
       </c>
       <c r="H43" s="2">
-        <v>16.8</v>
+        <v>10.7</v>
       </c>
       <c r="I43" s="2">
-        <v>12.8</v>
+        <v>11.4</v>
       </c>
       <c r="J43" s="2">
-        <v>14.8</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K43" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L43" s="3">
-        <v>38.200000000000003</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42534</v>
+        <v>42720</v>
       </c>
       <c r="B44" s="1">
-        <v>42537</v>
+        <v>42727</v>
       </c>
       <c r="C44">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="F44" s="2">
-        <v>21.5</v>
+        <v>24.1</v>
       </c>
       <c r="G44" s="2">
-        <v>19.399999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="H44" s="2">
-        <v>14.1</v>
+        <v>11.9</v>
       </c>
       <c r="I44" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J44" s="2">
-        <v>15.8</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K44" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42478</v>
+        <v>42716</v>
       </c>
       <c r="B45" s="1">
-        <v>42482</v>
+        <v>42721</v>
       </c>
       <c r="C45">
-        <v>1600</v>
+        <v>1047</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="F45" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="G45" s="2">
-        <v>13.3</v>
+        <v>6</v>
       </c>
       <c r="H45" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I45" s="2">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="J45" s="2">
-        <v>16.2</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K45" s="2">
-        <v>9.1</v>
+        <v>9</v>
+      </c>
+      <c r="L45" s="3">
+        <v>37.6</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42422</v>
+        <v>42716</v>
       </c>
       <c r="B46" s="1">
-        <v>42437</v>
+        <v>42718</v>
       </c>
       <c r="C46">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2">
-        <v>7.5</v>
+        <v>5.2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G46" s="2">
+        <v>11.5</v>
       </c>
       <c r="H46" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I46" s="2">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="J46" s="2">
-        <v>16.7</v>
+        <v>13.5</v>
       </c>
       <c r="K46" s="2">
-        <v>7</v>
-      </c>
-      <c r="L46" s="3">
-        <v>35.799999999999997</v>
+        <v>8.1</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42366</v>
+        <v>42660</v>
       </c>
       <c r="B47" s="1">
-        <v>42369</v>
+        <v>42677</v>
       </c>
       <c r="C47">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2">
-        <v>8.9</v>
+        <v>5.2</v>
       </c>
       <c r="H47" s="2">
-        <v>9.5</v>
+        <v>15.4</v>
       </c>
       <c r="I47" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J47" s="2">
-        <v>21.2</v>
+        <v>15.7</v>
       </c>
       <c r="K47" s="2">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="L47" s="3">
-        <v>35.6</v>
+        <v>37.4</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42338</v>
+        <v>42584</v>
       </c>
       <c r="B48" s="1">
-        <v>42341</v>
+        <v>42588</v>
       </c>
       <c r="C48">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2">
-        <v>11.8</v>
+        <v>7.5</v>
       </c>
       <c r="F48" s="2">
-        <v>24</v>
+        <v>20.3</v>
       </c>
       <c r="G48" s="2">
-        <v>12.6</v>
+        <v>17.2</v>
       </c>
       <c r="H48" s="2">
-        <v>7.4</v>
+        <v>13.9</v>
       </c>
       <c r="I48" s="2">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="J48" s="2">
-        <v>23.5</v>
+        <v>16.7</v>
       </c>
       <c r="K48" s="2">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42328</v>
+        <v>42584</v>
       </c>
       <c r="B49" s="1">
-        <v>42335</v>
+        <v>42588</v>
       </c>
       <c r="C49">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E49" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F49" s="2">
-        <v>21.1</v>
-      </c>
-      <c r="G49" s="2">
-        <v>15.9</v>
+        <v>7.7</v>
       </c>
       <c r="H49" s="2">
-        <v>8.6999999999999993</v>
+        <v>13.9</v>
       </c>
       <c r="I49" s="2">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="J49" s="2">
-        <v>19.899999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="K49" s="2">
-        <v>8.3000000000000007</v>
+        <v>9.1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>36</v>
       </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42328</v>
+        <v>42549</v>
       </c>
       <c r="B50" s="1">
-        <v>42335</v>
+        <v>42564</v>
       </c>
       <c r="C50">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2">
-        <v>9</v>
+        <v>5.2</v>
       </c>
       <c r="H50" s="2">
-        <v>8.3000000000000007</v>
+        <v>16.8</v>
       </c>
       <c r="I50" s="2">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="J50" s="2">
-        <v>19.7</v>
+        <v>14.8</v>
       </c>
       <c r="K50" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L50" s="3">
-        <v>37.6</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42324</v>
+        <v>42534</v>
       </c>
       <c r="B51" s="1">
-        <v>42331</v>
+        <v>42537</v>
       </c>
       <c r="C51">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2">
-        <v>8.5</v>
+        <v>3.6</v>
+      </c>
+      <c r="F51" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>19.399999999999999</v>
       </c>
       <c r="H51" s="2">
-        <v>9</v>
+        <v>14.1</v>
       </c>
       <c r="I51" s="2">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="J51" s="2">
-        <v>21.1</v>
+        <v>15.8</v>
       </c>
       <c r="K51" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="L51" s="3">
-        <v>38.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42303</v>
+        <v>42478</v>
       </c>
       <c r="B52" s="1">
-        <v>42308</v>
+        <v>42482</v>
       </c>
       <c r="C52">
-        <v>1255</v>
+        <v>1600</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E52" s="2">
-        <v>8.6</v>
+        <v>6.5</v>
+      </c>
+      <c r="F52" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G52" s="2">
+        <v>13.3</v>
       </c>
       <c r="H52" s="2">
-        <v>7.6</v>
+        <v>12.3</v>
       </c>
       <c r="I52" s="2">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="J52" s="2">
-        <v>20.9</v>
+        <v>16.2</v>
       </c>
       <c r="K52" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L52" s="3">
-        <v>36.4</v>
+        <v>9.1</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42282</v>
+        <v>42422</v>
       </c>
       <c r="B53" s="1">
-        <v>42304</v>
+        <v>42437</v>
       </c>
       <c r="C53">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2">
-        <v>11.1</v>
+        <v>7.5</v>
       </c>
       <c r="H53" s="2">
-        <v>9.3000000000000007</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I53" s="2">
-        <v>10.6</v>
+        <v>12.2</v>
       </c>
       <c r="J53" s="2">
-        <v>18</v>
+        <v>16.7</v>
       </c>
       <c r="K53" s="2">
         <v>7</v>
       </c>
       <c r="L53" s="3">
-        <v>39.799999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42274</v>
+        <v>42366</v>
       </c>
       <c r="B54" s="1">
-        <v>42274</v>
+        <v>42369</v>
       </c>
       <c r="C54">
-        <v>4130196</v>
+        <v>1255</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E54" s="2">
-        <v>8.2100000000000009</v>
+        <v>8.9</v>
       </c>
       <c r="H54" s="2">
-        <v>8.94</v>
+        <v>9.5</v>
       </c>
       <c r="I54" s="2">
-        <v>12.72</v>
+        <v>12.1</v>
       </c>
       <c r="J54" s="2">
-        <v>17.899999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="K54" s="2">
-        <v>8.49</v>
+        <v>8.4</v>
       </c>
       <c r="L54" s="3">
-        <v>39.590000000000003</v>
+        <v>35.6</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42268</v>
+        <v>42338</v>
       </c>
       <c r="B55" s="1">
-        <v>42268</v>
+        <v>42341</v>
       </c>
       <c r="C55">
-        <v>1200</v>
+        <v>504</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2">
-        <v>7</v>
+        <v>11.8</v>
+      </c>
+      <c r="F55" s="2">
+        <v>24</v>
+      </c>
+      <c r="G55" s="2">
+        <v>12.6</v>
       </c>
       <c r="H55" s="2">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="I55" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J55" s="2">
-        <v>13</v>
+        <v>23.5</v>
       </c>
       <c r="K55" s="2">
-        <v>11</v>
-      </c>
-      <c r="L55" s="3">
-        <v>41</v>
+        <v>7.2</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42261</v>
+        <v>42328</v>
       </c>
       <c r="B56" s="1">
-        <v>42272</v>
+        <v>42335</v>
       </c>
       <c r="C56">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E56" s="2">
-        <v>8</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F56" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>15.9</v>
       </c>
       <c r="H56" s="2">
-        <v>9.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I56" s="2">
         <v>13.5</v>
       </c>
       <c r="J56" s="2">
-        <v>14.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K56" s="2">
-        <v>9</v>
-      </c>
-      <c r="L56" s="3">
-        <v>40</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42257</v>
+        <v>42328</v>
       </c>
       <c r="B57" s="1">
-        <v>42264</v>
+        <v>42335</v>
       </c>
       <c r="C57">
         <v>1000</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E57" s="2">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="H57" s="2">
-        <v>12.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I57" s="2">
-        <v>11.7</v>
+        <v>13.1</v>
       </c>
       <c r="J57" s="2">
-        <v>15.4</v>
+        <v>19.7</v>
       </c>
       <c r="K57" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L57" s="3">
-        <v>40.1</v>
+        <v>37.6</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42258</v>
+        <v>42324</v>
       </c>
       <c r="B58" s="1">
-        <v>42266</v>
+        <v>42331</v>
       </c>
       <c r="C58">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E58" s="2">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="H58" s="2">
+        <v>9</v>
+      </c>
+      <c r="I58" s="2">
         <v>12.4</v>
       </c>
-      <c r="I58" s="2">
-        <v>12.1</v>
-      </c>
       <c r="J58" s="2">
-        <v>15.3</v>
+        <v>21.1</v>
       </c>
       <c r="K58" s="2">
-        <v>9.9</v>
+        <v>7.4</v>
       </c>
       <c r="L58" s="3">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42263</v>
+        <v>42303</v>
       </c>
       <c r="B59" s="1">
-        <v>42264</v>
+        <v>42308</v>
       </c>
       <c r="C59">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E59" s="2">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="H59" s="2">
-        <v>11.2</v>
+        <v>7.6</v>
       </c>
       <c r="I59" s="2">
-        <v>10.8</v>
+        <v>13</v>
       </c>
       <c r="J59" s="2">
-        <v>14.8</v>
+        <v>20.9</v>
       </c>
       <c r="K59" s="2">
-        <v>9.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L59" s="3">
-        <v>40.5</v>
+        <v>36.4</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42261</v>
+        <v>42282</v>
       </c>
       <c r="B60" s="1">
-        <v>42265</v>
+        <v>42304</v>
       </c>
       <c r="C60">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I60" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="J60" s="2">
         <v>18</v>
       </c>
-      <c r="E60" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="H60" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="I60" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="J60" s="2">
-        <v>14.6</v>
-      </c>
       <c r="K60" s="2">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="L60" s="3">
-        <v>38.799999999999997</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42261</v>
+        <v>42274</v>
       </c>
       <c r="B61" s="1">
-        <v>42265</v>
+        <v>42274</v>
       </c>
       <c r="C61">
-        <v>800</v>
+        <v>4130196</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E61" s="2">
-        <v>6.4</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H61" s="2">
-        <v>10.3</v>
+        <v>8.94</v>
       </c>
       <c r="I61" s="2">
-        <v>11.9</v>
+        <v>12.72</v>
       </c>
       <c r="J61" s="2">
-        <v>14.1</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K61" s="2">
-        <v>10.199999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="L61" s="3">
-        <v>40.700000000000003</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B62" s="1">
-        <v>42264</v>
+        <v>42268</v>
       </c>
       <c r="C62">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E62" s="2">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H62" s="2">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="I62" s="2">
-        <v>10.1</v>
+        <v>12</v>
       </c>
       <c r="J62" s="2">
-        <v>14.4</v>
+        <v>13</v>
       </c>
       <c r="K62" s="2">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="L62" s="3">
-        <v>40.700000000000003</v>
+        <v>41</v>
       </c>
       <c r="M62" s="4"/>
     </row>
@@ -2671,537 +2691,768 @@
         <v>42261</v>
       </c>
       <c r="B63" s="1">
-        <v>42263</v>
+        <v>42272</v>
       </c>
       <c r="C63">
-        <v>1717</v>
+        <v>3000</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H63" s="2">
-        <v>11.4</v>
+        <v>9.5</v>
       </c>
       <c r="I63" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J63" s="2">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="K63" s="2">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="L63" s="3">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42261</v>
+        <v>42257</v>
       </c>
       <c r="B64" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C64">
-        <v>1157</v>
+        <v>1000</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E64" s="2">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="H64" s="2">
-        <v>10.4</v>
+        <v>12.6</v>
       </c>
       <c r="I64" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J64" s="2">
-        <v>18.3</v>
+        <v>15.4</v>
       </c>
       <c r="K64" s="2">
-        <v>11.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L64" s="3">
-        <v>42.4</v>
+        <v>40.1</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42261</v>
+        <v>42258</v>
       </c>
       <c r="B65" s="1">
-        <v>42263</v>
+        <v>42266</v>
       </c>
       <c r="C65">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E65" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H65" s="2">
-        <v>11.1</v>
+        <v>12.4</v>
       </c>
       <c r="I65" s="2">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="J65" s="2">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="K65" s="2">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="L65" s="3">
-        <v>39.200000000000003</v>
+        <v>38</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42254</v>
+        <v>42263</v>
       </c>
       <c r="B66" s="1">
-        <v>42262</v>
+        <v>42264</v>
       </c>
       <c r="C66">
-        <v>1255</v>
+        <v>1400</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E66" s="2">
-        <v>5.2</v>
+        <v>7.3</v>
       </c>
       <c r="H66" s="2">
-        <v>12.7</v>
+        <v>11.2</v>
       </c>
       <c r="I66" s="2">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="J66" s="2">
-        <v>16.5</v>
+        <v>14.8</v>
       </c>
       <c r="K66" s="2">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="L66" s="3">
-        <v>37.6</v>
+        <v>40.5</v>
       </c>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42248</v>
+        <v>42261</v>
       </c>
       <c r="B67" s="1">
-        <v>42255</v>
+        <v>42265</v>
       </c>
       <c r="C67">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="H67" s="2">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
       <c r="I67" s="2">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="J67" s="2">
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="K67" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L67" s="3">
-        <v>38.299999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42250</v>
+        <v>42261</v>
       </c>
       <c r="B68" s="1">
-        <v>42255</v>
+        <v>42265</v>
       </c>
       <c r="C68">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E68" s="2">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="H68" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="I68" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="J68" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="K68" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I68" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J68" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K68" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L68" s="3">
-        <v>42.1</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42246</v>
+        <v>42261</v>
       </c>
       <c r="B69" s="1">
-        <v>42251</v>
+        <v>42264</v>
       </c>
       <c r="C69">
-        <v>2999</v>
+        <v>1000</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E69" s="2">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="H69" s="2">
-        <v>13.9</v>
+        <v>11.1</v>
       </c>
       <c r="I69" s="2">
-        <v>12.2</v>
+        <v>10.1</v>
       </c>
       <c r="J69" s="2">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="K69" s="2">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="L69" s="3">
-        <v>38.1</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42247</v>
+        <v>42261</v>
       </c>
       <c r="B70" s="1">
-        <v>42250</v>
+        <v>42263</v>
       </c>
       <c r="C70">
-        <v>1400</v>
+        <v>1717</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E70" s="2">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="H70" s="2">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="I70" s="2">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="J70" s="2">
-        <v>12.7</v>
+        <v>14.9</v>
       </c>
       <c r="K70" s="2">
-        <v>9.8000000000000007</v>
+        <v>7.3</v>
       </c>
       <c r="L70" s="3">
-        <v>39.4</v>
+        <v>41.2</v>
       </c>
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42247</v>
+        <v>42261</v>
       </c>
       <c r="B71" s="1">
-        <v>42249</v>
+        <v>42263</v>
       </c>
       <c r="C71">
-        <v>800</v>
+        <v>1157</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E71" s="2">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="H71" s="2">
-        <v>12.4</v>
+        <v>10.4</v>
       </c>
       <c r="I71" s="2">
-        <v>10.3</v>
+        <v>7.5</v>
       </c>
       <c r="J71" s="2">
-        <v>19.899999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="K71" s="2">
-        <v>7.9</v>
+        <v>11.9</v>
       </c>
       <c r="L71" s="3">
-        <v>38.799999999999997</v>
+        <v>42.4</v>
       </c>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42248</v>
+        <v>42261</v>
       </c>
       <c r="B72" s="1">
-        <v>42250</v>
+        <v>42263</v>
       </c>
       <c r="C72">
-        <v>1221</v>
+        <v>1000</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E72" s="2">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="H72" s="2">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="I72" s="2">
-        <v>9.5</v>
+        <v>13.2</v>
       </c>
       <c r="J72" s="2">
-        <v>12.6</v>
+        <v>15</v>
       </c>
       <c r="K72" s="2">
-        <v>11.8</v>
+        <v>8.9</v>
       </c>
       <c r="L72" s="3">
-        <v>43.5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42233</v>
+        <v>42254</v>
       </c>
       <c r="B73" s="1">
-        <v>42238</v>
+        <v>42262</v>
       </c>
       <c r="C73">
-        <v>955</v>
+        <v>1255</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="2">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H73" s="2">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="I73" s="2">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="J73" s="2">
-        <v>17.899999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="K73" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L73" s="3">
-        <v>36.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42201</v>
+        <v>42248</v>
       </c>
       <c r="B74" s="1">
-        <v>42208</v>
+        <v>42255</v>
       </c>
       <c r="C74">
-        <v>1255</v>
+        <v>1200</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E74" s="2">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="H74" s="2">
-        <v>12.8</v>
+        <v>11.4</v>
       </c>
       <c r="I74" s="2">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="J74" s="2">
-        <v>19.100000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="K74" s="2">
-        <v>8.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L74" s="3">
-        <v>35.799999999999997</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42191</v>
+        <v>42250</v>
       </c>
       <c r="B75" s="1">
-        <v>42194</v>
+        <v>42255</v>
       </c>
       <c r="C75">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E75" s="2">
-        <v>7</v>
-      </c>
-      <c r="F75" s="2">
-        <v>15</v>
-      </c>
-      <c r="G75" s="2">
-        <v>22</v>
+        <v>7.4</v>
       </c>
       <c r="H75" s="2">
-        <v>16.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I75" s="2">
-        <v>9.6</v>
+        <v>12.6</v>
       </c>
       <c r="J75" s="2">
-        <v>16</v>
+        <v>11.6</v>
       </c>
       <c r="K75" s="2">
-        <v>7.3</v>
+        <v>11.5</v>
+      </c>
+      <c r="L75" s="3">
+        <v>42.1</v>
       </c>
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>42186</v>
+        <v>42246</v>
       </c>
       <c r="B76" s="1">
-        <v>42188</v>
+        <v>42251</v>
       </c>
       <c r="C76">
-        <v>820</v>
+        <v>2999</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E76" s="2">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="H76" s="2">
-        <v>20</v>
+        <v>13.9</v>
       </c>
       <c r="I76" s="2">
-        <v>9</v>
+        <v>12.2</v>
       </c>
       <c r="J76" s="2">
-        <v>16</v>
+        <v>14.8</v>
       </c>
       <c r="K76" s="2">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="L76" s="3">
-        <v>32</v>
+        <v>38.1</v>
       </c>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>42202</v>
+        <v>42247</v>
       </c>
       <c r="B77" s="1">
-        <v>42206</v>
+        <v>42250</v>
       </c>
       <c r="C77">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E77" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F77" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G77" s="2">
-        <v>23.1</v>
+        <v>6.7</v>
       </c>
       <c r="H77" s="2">
-        <v>18</v>
+        <v>12.4</v>
       </c>
       <c r="I77" s="2">
-        <v>7.8</v>
+        <v>11.1</v>
       </c>
       <c r="J77" s="2">
-        <v>15.1</v>
+        <v>12.7</v>
       </c>
       <c r="K77" s="2">
-        <v>5.9</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L77" s="3">
+        <v>39.4</v>
       </c>
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B78" s="1">
+        <v>42249</v>
+      </c>
+      <c r="C78">
+        <v>800</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6</v>
+      </c>
+      <c r="H78" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="I78" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="J78" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K78" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="L78" s="3">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B79" s="1">
+        <v>42250</v>
+      </c>
+      <c r="C79">
+        <v>1221</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H79" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="I79" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J79" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="K79" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="L79" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>42233</v>
+      </c>
+      <c r="B80" s="1">
+        <v>42238</v>
+      </c>
+      <c r="C80">
+        <v>955</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="H80" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="I80" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="J80" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K80" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L80" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>42201</v>
+      </c>
+      <c r="B81" s="1">
+        <v>42208</v>
+      </c>
+      <c r="C81">
+        <v>1255</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H81" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="I81" s="2">
+        <v>12</v>
+      </c>
+      <c r="J81" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K81" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L81" s="3">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>42191</v>
+      </c>
+      <c r="B82" s="1">
+        <v>42194</v>
+      </c>
+      <c r="C82">
+        <v>1000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="2">
+        <v>7</v>
+      </c>
+      <c r="F82" s="2">
+        <v>15</v>
+      </c>
+      <c r="G82" s="2">
+        <v>22</v>
+      </c>
+      <c r="H82" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="I82" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="J82" s="2">
+        <v>16</v>
+      </c>
+      <c r="K82" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42188</v>
+      </c>
+      <c r="C83">
+        <v>820</v>
+      </c>
+      <c r="D83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="2">
+        <v>8</v>
+      </c>
+      <c r="H83" s="2">
+        <v>20</v>
+      </c>
+      <c r="I83" s="2">
+        <v>9</v>
+      </c>
+      <c r="J83" s="2">
+        <v>16</v>
+      </c>
+      <c r="K83" s="2">
+        <v>9</v>
+      </c>
+      <c r="L83" s="3">
+        <v>32</v>
+      </c>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C84">
+        <v>800</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F84" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G84" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>18</v>
+      </c>
+      <c r="I84" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J84" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K84" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>42121</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B85" s="1">
         <v>42123</v>
       </c>
-      <c r="C78">
+      <c r="C85">
         <v>1000</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D85" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E85" s="2">
         <v>7.9</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F85" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G85" s="2">
         <v>22.6</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H85" s="2">
         <v>12.9</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I85" s="2">
         <v>9.9</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J85" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K85" s="2">
         <v>6.4</v>
       </c>
-      <c r="M78" s="4"/>
+      <c r="M85" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,37 +567,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43081</v>
+        <v>43080</v>
       </c>
       <c r="B2" s="1">
-        <v>43083</v>
+        <v>43084</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1510</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="F2" s="2">
         <v>20.3</v>
       </c>
       <c r="G2" s="2">
-        <v>19.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H2" s="2">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="I2" s="2">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="J2" s="2">
-        <v>23.2</v>
+        <v>25.1</v>
       </c>
       <c r="K2" s="2">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/Cat21D/Encuestas.xlsx
+++ b/Cat21D/Encuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,37 +707,37 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43080</v>
+        <v>43070</v>
       </c>
       <c r="B6" s="1">
-        <v>43082</v>
+        <v>43083</v>
       </c>
       <c r="C6">
         <v>1500</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="F6" s="2">
-        <v>24.6</v>
+        <v>21.1</v>
       </c>
       <c r="G6" s="2">
-        <v>17.7</v>
+        <v>20.3</v>
       </c>
       <c r="H6" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2">
-        <v>15.3</v>
+        <v>13.9</v>
       </c>
       <c r="J6" s="2">
-        <v>24.4</v>
+        <v>22.9</v>
       </c>
       <c r="K6" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -748,101 +748,101 @@
         <v>43082</v>
       </c>
       <c r="C7">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="F7" s="2">
-        <v>22.5</v>
+        <v>24.6</v>
       </c>
       <c r="G7" s="2">
-        <v>16.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="H7" s="2">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="J7" s="2">
-        <v>22.8</v>
+        <v>24.4</v>
       </c>
       <c r="K7" s="2">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43074</v>
+        <v>43080</v>
       </c>
       <c r="B8" s="1">
         <v>43082</v>
       </c>
       <c r="C8">
-        <v>1004</v>
+        <v>1550</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="F8" s="2">
-        <v>24.3</v>
+        <v>22.5</v>
       </c>
       <c r="G8" s="2">
-        <v>17.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H8" s="2">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="I8" s="2">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="J8" s="2">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="K8" s="2">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="B9" s="1">
         <v>43082</v>
       </c>
       <c r="C9">
-        <v>1216</v>
+        <v>1004</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F9" s="2">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="G9" s="2">
-        <v>18.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="I9" s="2">
-        <v>17.3</v>
+        <v>15.1</v>
       </c>
       <c r="J9" s="2">
-        <v>23.6</v>
+        <v>22.4</v>
       </c>
       <c r="K9" s="2">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -853,31 +853,31 @@
         <v>43082</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>1216</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="F10" s="2">
-        <v>22.4</v>
+        <v>23.6</v>
       </c>
       <c r="G10" s="2">
-        <v>16.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="H10" s="2">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="I10" s="2">
-        <v>15.9</v>
+        <v>17.3</v>
       </c>
       <c r="J10" s="2">
-        <v>21.8</v>
+        <v>23.6</v>
       </c>
       <c r="K10" s="2">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -888,168 +888,168 @@
         <v>43082</v>
       </c>
       <c r="C11">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="F11" s="2">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="G11" s="2">
-        <v>14.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H11" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I11" s="2">
-        <v>14.3</v>
+        <v>15.9</v>
       </c>
       <c r="J11" s="2">
-        <v>25.2</v>
+        <v>21.8</v>
       </c>
       <c r="K11" s="2">
-        <v>5.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="B12" s="1">
-        <v>43081</v>
+        <v>43082</v>
       </c>
       <c r="C12">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="F12" s="2">
-        <v>21.5</v>
+        <v>23.1</v>
       </c>
       <c r="G12" s="2">
-        <v>20.6</v>
+        <v>14.3</v>
       </c>
       <c r="H12" s="2">
-        <v>9.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I12" s="2">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="J12" s="2">
-        <v>21.9</v>
+        <v>25.2</v>
       </c>
       <c r="K12" s="2">
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43074</v>
+        <v>43070</v>
       </c>
       <c r="B13" s="1">
         <v>43081</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="F13" s="2">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="G13" s="2">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="H13" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="I13" s="2">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="J13" s="2">
-        <v>23.6</v>
+        <v>21.9</v>
       </c>
       <c r="K13" s="2">
-        <v>5.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43068</v>
+        <v>43074</v>
       </c>
       <c r="B14" s="1">
-        <v>43079</v>
+        <v>43081</v>
       </c>
       <c r="C14">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="F14" s="2">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="G14" s="2">
-        <v>21.3</v>
+        <v>18.3</v>
       </c>
       <c r="H14" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="I14" s="2">
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
       <c r="J14" s="2">
-        <v>21.2</v>
+        <v>23.6</v>
       </c>
       <c r="K14" s="2">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43070</v>
+        <v>43068</v>
       </c>
       <c r="B15" s="1">
-        <v>43077</v>
+        <v>43079</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="F15" s="2">
-        <v>22.3</v>
+        <v>21.4</v>
       </c>
       <c r="G15" s="2">
-        <v>18.899999999999999</v>
+        <v>21.3</v>
       </c>
       <c r="H15" s="2">
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I15" s="2">
-        <v>15.9</v>
+        <v>14.1</v>
       </c>
       <c r="J15" s="2">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="K15" s="2">
         <v>6.1</v>
@@ -1060,492 +1060,492 @@
         <v>43070</v>
       </c>
       <c r="B16" s="1">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="C16">
-        <v>1216</v>
+        <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="F16" s="2">
-        <v>23.3</v>
+        <v>22.3</v>
       </c>
       <c r="G16" s="2">
         <v>18.899999999999999</v>
       </c>
       <c r="H16" s="2">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="I16" s="2">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="J16" s="2">
-        <v>24.4</v>
+        <v>21.3</v>
       </c>
       <c r="K16" s="2">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="B17" s="1">
         <v>43076</v>
       </c>
       <c r="C17">
+        <v>1216</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43076</v>
+      </c>
+      <c r="C18">
         <v>800</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>6.6</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>22.9</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>16.2</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <v>8.1</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I18" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J18" s="2">
         <v>22.2</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K18" s="2">
         <v>6.7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>43066</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>43077</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>1100</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>5.5</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <v>22.5</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>19.8</v>
-      </c>
-      <c r="H18" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="I18" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="J18" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="K18" s="2">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43073</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43076</v>
-      </c>
-      <c r="C19">
-        <v>1000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>18.2</v>
       </c>
       <c r="H19" s="2">
         <v>7.4</v>
       </c>
       <c r="I19" s="2">
-        <v>16.5</v>
+        <v>14.4</v>
       </c>
       <c r="J19" s="2">
-        <v>23.1</v>
+        <v>21.5</v>
       </c>
       <c r="K19" s="2">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="B20" s="1">
         <v>43076</v>
       </c>
       <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43072</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43076</v>
+      </c>
+      <c r="C21">
         <v>900</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>17</v>
-      </c>
-      <c r="H20" s="2">
-        <v>8</v>
-      </c>
-      <c r="I20" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="J20" s="2">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43074</v>
-      </c>
-      <c r="C21">
-        <v>1000</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2">
+        <v>8</v>
+      </c>
+      <c r="I21" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>23</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43074</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2">
         <v>6.4</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>24</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I22" s="2">
         <v>13.5</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J22" s="2">
         <v>22.8</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K22" s="2">
         <v>6.2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>43068</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>43071</v>
-      </c>
-      <c r="C22">
-        <v>800</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2">
-        <v>6</v>
-      </c>
-      <c r="F22" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>19.3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="I22" s="2">
-        <v>19</v>
-      </c>
-      <c r="J22" s="2">
-        <v>19</v>
-      </c>
-      <c r="K22" s="2">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43066</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43069</v>
       </c>
       <c r="C23">
         <v>800</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2">
         <v>6</v>
       </c>
       <c r="F23" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>19</v>
+      </c>
+      <c r="J23" s="2">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43066</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43069</v>
+      </c>
+      <c r="C24">
+        <v>800</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2">
         <v>23.1</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>19</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>6.4</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I24" s="2">
         <v>15.2</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J24" s="2">
         <v>20.5</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="2">
         <v>6.2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43062</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>43066</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>3000</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>6.7</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>20.8</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <v>8.6</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I25" s="2">
         <v>16</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J25" s="2">
         <v>22.5</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K25" s="2">
         <v>5.8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>43052</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>43062</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1000</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>5.7</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <v>24.1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="H25" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="I25" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="J25" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="K25" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43059</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43061</v>
-      </c>
-      <c r="C26">
-        <v>1800</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="F26" s="2">
-        <v>26.5</v>
       </c>
       <c r="G26" s="2">
         <v>13.6</v>
       </c>
       <c r="H26" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="I26" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="J26" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="K26" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43059</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43061</v>
+      </c>
+      <c r="C27">
+        <v>1800</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="F27" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="H27" s="2">
         <v>6.7</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I27" s="2">
         <v>14.9</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J27" s="2">
         <v>25.3</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K27" s="2">
         <v>5.8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>43054</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>43057</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>800</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>6.3</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="2">
         <v>23.9</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="2">
         <v>16.5</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H28" s="2">
         <v>8.6</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I28" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J28" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K28" s="2">
         <v>5.7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>43052</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>43055</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>801</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>5.6</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <v>23.1</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>16.7</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <v>7.6</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I29" s="2">
         <v>15.1</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J29" s="2">
         <v>22.3</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K29" s="2">
         <v>7.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43038</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43042</v>
-      </c>
-      <c r="C29">
-        <v>1000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="F29" s="2">
-        <v>26.3</v>
-      </c>
-      <c r="G29" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="H29" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="I29" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="J29" s="2">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="K29" s="2">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43038</v>
       </c>
@@ -1553,170 +1553,169 @@
         <v>43042</v>
       </c>
       <c r="C30">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2">
         <v>6.3</v>
       </c>
       <c r="F30" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H30" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="J30" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K30" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43042</v>
+      </c>
+      <c r="C31">
+        <v>1233</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="F31" s="2">
         <v>29.3</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="2">
         <v>10.4</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H31" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I31" s="2">
         <v>14.6</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J31" s="2">
         <v>20.6</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>43035</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>43039</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>1000</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>5.7</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <v>31.2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="2">
         <v>10.1</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H32" s="2">
         <v>10</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I32" s="2">
         <v>12.2</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J32" s="2">
         <v>18.3</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K32" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43024</v>
-      </c>
-      <c r="B32" s="1">
-        <v>43037</v>
-      </c>
-      <c r="C32">
-        <v>1500</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="H32" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="I32" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="J32" s="2">
-        <v>18.2</v>
-      </c>
-      <c r="K32" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L32" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43031</v>
+        <v>43024</v>
       </c>
       <c r="B33" s="1">
-        <v>43034</v>
+        <v>43037</v>
       </c>
       <c r="C33">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2">
         <v>6.3</v>
       </c>
-      <c r="F33" s="2">
-        <v>26.4</v>
-      </c>
-      <c r="G33" s="2">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H33" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I33" s="2">
-        <v>15.1</v>
+        <v>13.9</v>
       </c>
       <c r="J33" s="2">
-        <v>19.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K33" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L33" s="3">
+        <v>39.700000000000003</v>
       </c>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43024</v>
+        <v>43031</v>
       </c>
       <c r="B34" s="1">
-        <v>43029</v>
+        <v>43034</v>
       </c>
       <c r="C34">
         <v>1000</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F34" s="2">
-        <v>24.6</v>
+        <v>26.4</v>
       </c>
       <c r="G34" s="2">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H34" s="2">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="I34" s="2">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J34" s="2">
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K34" s="2">
-        <v>10.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M34" s="4"/>
     </row>
@@ -1725,256 +1724,259 @@
         <v>43024</v>
       </c>
       <c r="B35" s="1">
-        <v>43027</v>
+        <v>43029</v>
       </c>
       <c r="C35">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="F35" s="2">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="G35" s="2">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="H35" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I35" s="2">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="J35" s="2">
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
       <c r="K35" s="2">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43012</v>
+        <v>43024</v>
       </c>
       <c r="B36" s="1">
-        <v>43017</v>
+        <v>43027</v>
       </c>
       <c r="C36">
         <v>800</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="F36" s="2">
-        <v>31.8</v>
+        <v>28.1</v>
       </c>
       <c r="G36" s="2">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H36" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I36" s="2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="J36" s="2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="K36" s="2">
-        <v>10.1</v>
+        <v>7.5</v>
       </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42996</v>
+        <v>43012</v>
       </c>
       <c r="B37" s="1">
-        <v>43000</v>
+        <v>43017</v>
       </c>
       <c r="C37">
-        <v>1255</v>
+        <v>800</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="F37" s="2">
-        <v>25.1</v>
+        <v>31.8</v>
       </c>
       <c r="G37" s="2">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H37" s="2">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="I37" s="2">
-        <v>13.7</v>
+        <v>9.5</v>
       </c>
       <c r="J37" s="2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K37" s="2">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42990</v>
+        <v>42996</v>
       </c>
       <c r="B38" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="C38">
-        <v>800</v>
+        <v>1255</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F38" s="2">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="G38" s="2">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="H38" s="2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="I38" s="2">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
       <c r="J38" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="K38" s="2">
-        <v>9.4</v>
+        <v>10.8</v>
       </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42975</v>
+        <v>42990</v>
       </c>
       <c r="B39" s="1">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="C39">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E39" s="2">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="F39" s="2">
-        <v>28</v>
+        <v>24.7</v>
       </c>
       <c r="G39" s="2">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H39" s="2">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="I39" s="2">
-        <v>10.1</v>
+        <v>14.8</v>
       </c>
       <c r="J39" s="2">
-        <v>17.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K39" s="2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B40" s="1">
-        <v>42958</v>
+        <v>42979</v>
       </c>
       <c r="C40">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F40" s="2">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="G40" s="2">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="H40" s="2">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="I40" s="2">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="J40" s="2">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="K40" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42912</v>
+        <v>42951</v>
       </c>
       <c r="B41" s="1">
-        <v>42927</v>
+        <v>42958</v>
       </c>
       <c r="C41">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2">
-        <v>5.4</v>
+        <v>6.5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="G41" s="2">
+        <v>13.9</v>
       </c>
       <c r="H41" s="2">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="I41" s="2">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J41" s="2">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="K41" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L41" s="3">
-        <v>39.299999999999997</v>
+        <v>9.5</v>
       </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42800</v>
+        <v>42912</v>
       </c>
       <c r="B42" s="1">
-        <v>42815</v>
+        <v>42927</v>
       </c>
       <c r="C42">
         <v>1500</v>
@@ -1983,127 +1985,127 @@
         <v>16</v>
       </c>
       <c r="E42" s="2">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H42" s="2">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="I42" s="2">
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="J42" s="2">
-        <v>16.100000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K42" s="2">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L42" s="3">
-        <v>37</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42737</v>
+        <v>42800</v>
       </c>
       <c r="B43" s="1">
-        <v>42740</v>
+        <v>42815</v>
       </c>
       <c r="C43">
-        <v>601</v>
+        <v>1500</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F43" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H43" s="2">
-        <v>10.7</v>
+        <v>15.3</v>
       </c>
       <c r="I43" s="2">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J43" s="2">
-        <v>16.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K43" s="2">
-        <v>9.8000000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="L43" s="3">
+        <v>37</v>
       </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42720</v>
+        <v>42737</v>
       </c>
       <c r="B44" s="1">
-        <v>42727</v>
+        <v>42740</v>
       </c>
       <c r="C44">
-        <v>1000</v>
+        <v>601</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2">
-        <v>7.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F44" s="2">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="G44" s="2">
-        <v>14.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H44" s="2">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="I44" s="2">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="J44" s="2">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K44" s="2">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42716</v>
+        <v>42720</v>
       </c>
       <c r="B45" s="1">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="C45">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>6</v>
+        <v>7.2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>14.8</v>
       </c>
       <c r="H45" s="2">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I45" s="2">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="J45" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="K45" s="2">
-        <v>9</v>
-      </c>
-      <c r="L45" s="3">
-        <v>37.6</v>
+        <v>9.1</v>
       </c>
       <c r="M45" s="4"/>
     </row>
@@ -2112,103 +2114,100 @@
         <v>42716</v>
       </c>
       <c r="B46" s="1">
-        <v>42718</v>
+        <v>42721</v>
       </c>
       <c r="C46">
-        <v>800</v>
+        <v>1047</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F46" s="2">
-        <v>30.7</v>
-      </c>
-      <c r="G46" s="2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H46" s="2">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="I46" s="2">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="J46" s="2">
-        <v>13.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K46" s="2">
-        <v>8.1</v>
+        <v>9</v>
+      </c>
+      <c r="L46" s="3">
+        <v>37.6</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42660</v>
+        <v>42716</v>
       </c>
       <c r="B47" s="1">
-        <v>42677</v>
+        <v>42718</v>
       </c>
       <c r="C47">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E47" s="2">
         <v>5.2</v>
       </c>
+      <c r="F47" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G47" s="2">
+        <v>11.5</v>
+      </c>
       <c r="H47" s="2">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="I47" s="2">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="J47" s="2">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="K47" s="2">
-        <v>10</v>
-      </c>
-      <c r="L47" s="3">
-        <v>37.4</v>
+        <v>8.1</v>
       </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42584</v>
+        <v>42660</v>
       </c>
       <c r="B48" s="1">
-        <v>42588</v>
+        <v>42677</v>
       </c>
       <c r="C48">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F48" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G48" s="2">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="H48" s="2">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="I48" s="2">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J48" s="2">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="K48" s="2">
-        <v>9.1</v>
+        <v>10</v>
+      </c>
+      <c r="L48" s="3">
+        <v>37.4</v>
       </c>
       <c r="M48" s="4"/>
     </row>
@@ -2226,7 +2225,13 @@
         <v>14</v>
       </c>
       <c r="E49" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F49" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G49" s="2">
+        <v>17.2</v>
       </c>
       <c r="H49" s="2">
         <v>13.9</v>
@@ -2240,251 +2245,245 @@
       <c r="K49" s="2">
         <v>9.1</v>
       </c>
-      <c r="L49" s="3">
-        <v>36</v>
-      </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42549</v>
+        <v>42584</v>
       </c>
       <c r="B50" s="1">
-        <v>42564</v>
+        <v>42588</v>
       </c>
       <c r="C50">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E50" s="2">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="H50" s="2">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I50" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="J50" s="2">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="K50" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="L50" s="3">
-        <v>38.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42534</v>
+        <v>42549</v>
       </c>
       <c r="B51" s="1">
-        <v>42537</v>
+        <v>42564</v>
       </c>
       <c r="C51">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F51" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="G51" s="2">
-        <v>19.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H51" s="2">
-        <v>14.1</v>
+        <v>16.8</v>
       </c>
       <c r="I51" s="2">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="J51" s="2">
-        <v>15.8</v>
+        <v>14.8</v>
       </c>
       <c r="K51" s="2">
         <v>8.8000000000000007</v>
       </c>
+      <c r="L51" s="3">
+        <v>38.200000000000003</v>
+      </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="B52" s="1">
-        <v>42482</v>
+        <v>42537</v>
       </c>
       <c r="C52">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F52" s="2">
-        <v>25.6</v>
+        <v>21.5</v>
       </c>
       <c r="G52" s="2">
-        <v>13.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H52" s="2">
-        <v>12.3</v>
+        <v>14.1</v>
       </c>
       <c r="I52" s="2">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="J52" s="2">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="K52" s="2">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="B53" s="1">
-        <v>42437</v>
+        <v>42482</v>
       </c>
       <c r="C53">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E53" s="2">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="F53" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G53" s="2">
+        <v>13.3</v>
       </c>
       <c r="H53" s="2">
-        <v>17.899999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="I53" s="2">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
       <c r="J53" s="2">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="K53" s="2">
-        <v>7</v>
-      </c>
-      <c r="L53" s="3">
-        <v>35.799999999999997</v>
+        <v>9.1</v>
       </c>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42366</v>
+        <v>42422</v>
       </c>
       <c r="B54" s="1">
-        <v>42369</v>
+        <v>42437</v>
       </c>
       <c r="C54">
-        <v>1255</v>
+        <v>1500</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E54" s="2">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="H54" s="2">
-        <v>9.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I54" s="2">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="J54" s="2">
-        <v>21.2</v>
+        <v>16.7</v>
       </c>
       <c r="K54" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L54" s="3">
-        <v>35.6</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42338</v>
+        <v>42366</v>
       </c>
       <c r="B55" s="1">
-        <v>42341</v>
+        <v>42369</v>
       </c>
       <c r="C55">
-        <v>504</v>
+        <v>1255</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E55" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="F55" s="2">
-        <v>24</v>
-      </c>
-      <c r="G55" s="2">
-        <v>12.6</v>
+        <v>8.9</v>
       </c>
       <c r="H55" s="2">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I55" s="2">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="J55" s="2">
-        <v>23.5</v>
+        <v>21.2</v>
       </c>
       <c r="K55" s="2">
-        <v>7.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="L55" s="3">
+        <v>35.6</v>
       </c>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="B56" s="1">
-        <v>42335</v>
+        <v>42341</v>
       </c>
       <c r="C56">
-        <v>1000</v>
+        <v>504</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="F56" s="2">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="G56" s="2">
-        <v>15.9</v>
+        <v>12.6</v>
       </c>
       <c r="H56" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="I56" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J56" s="2">
-        <v>19.899999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="K56" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="M56" s="4"/>
     </row>
@@ -2502,352 +2501,355 @@
         <v>23</v>
       </c>
       <c r="E57" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F57" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>15.9</v>
       </c>
       <c r="H57" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I57" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J57" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K57" s="2">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="I57" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="J57" s="2">
-        <v>19.7</v>
-      </c>
-      <c r="K57" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L57" s="3">
-        <v>37.6</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42324</v>
+        <v>42328</v>
       </c>
       <c r="B58" s="1">
-        <v>42331</v>
+        <v>42335</v>
       </c>
       <c r="C58">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E58" s="2">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H58" s="2">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I58" s="2">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="J58" s="2">
-        <v>21.1</v>
+        <v>19.7</v>
       </c>
       <c r="K58" s="2">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L58" s="3">
-        <v>38.1</v>
+        <v>37.6</v>
       </c>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42303</v>
+        <v>42324</v>
       </c>
       <c r="B59" s="1">
-        <v>42308</v>
+        <v>42331</v>
       </c>
       <c r="C59">
-        <v>1255</v>
+        <v>1050</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E59" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H59" s="2">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I59" s="2">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="J59" s="2">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K59" s="2">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="L59" s="3">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42282</v>
+        <v>42303</v>
       </c>
       <c r="B60" s="1">
-        <v>42304</v>
+        <v>42308</v>
       </c>
       <c r="C60">
-        <v>2000</v>
+        <v>1255</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
       <c r="H60" s="2">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="I60" s="2">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="J60" s="2">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="K60" s="2">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L60" s="3">
-        <v>39.799999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42274</v>
+        <v>42282</v>
       </c>
       <c r="B61" s="1">
-        <v>42274</v>
+        <v>42304</v>
       </c>
       <c r="C61">
-        <v>4130196</v>
+        <v>2000</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2">
-        <v>8.2100000000000009</v>
+        <v>11.1</v>
       </c>
       <c r="H61" s="2">
-        <v>8.94</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I61" s="2">
-        <v>12.72</v>
+        <v>10.6</v>
       </c>
       <c r="J61" s="2">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="K61" s="2">
-        <v>8.49</v>
+        <v>7</v>
       </c>
       <c r="L61" s="3">
-        <v>39.590000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="B62" s="1">
-        <v>42268</v>
+        <v>42274</v>
       </c>
       <c r="C62">
-        <v>1200</v>
+        <v>4130196</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="2">
-        <v>7</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H62" s="2">
-        <v>12</v>
+        <v>8.94</v>
       </c>
       <c r="I62" s="2">
-        <v>12</v>
+        <v>12.72</v>
       </c>
       <c r="J62" s="2">
-        <v>13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K62" s="2">
-        <v>11</v>
+        <v>8.49</v>
       </c>
       <c r="L62" s="3">
-        <v>41</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="B63" s="1">
-        <v>42272</v>
+        <v>42268</v>
       </c>
       <c r="C63">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="2">
+        <v>7</v>
+      </c>
+      <c r="H63" s="2">
+        <v>12</v>
+      </c>
+      <c r="I63" s="2">
+        <v>12</v>
+      </c>
+      <c r="J63" s="2">
         <v>13</v>
       </c>
-      <c r="E63" s="2">
-        <v>8</v>
-      </c>
-      <c r="H63" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="I63" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="J63" s="2">
-        <v>14.5</v>
-      </c>
       <c r="K63" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L63" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42257</v>
+        <v>42261</v>
       </c>
       <c r="B64" s="1">
-        <v>42264</v>
+        <v>42272</v>
       </c>
       <c r="C64">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E64" s="2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H64" s="2">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="I64" s="2">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="J64" s="2">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="K64" s="2">
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="L64" s="3">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42258</v>
+        <v>42257</v>
       </c>
       <c r="B65" s="1">
-        <v>42266</v>
+        <v>42264</v>
       </c>
       <c r="C65">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E65" s="2">
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="H65" s="2">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="I65" s="2">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J65" s="2">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="K65" s="2">
-        <v>9.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L65" s="3">
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42263</v>
+        <v>42258</v>
       </c>
       <c r="B66" s="1">
-        <v>42264</v>
+        <v>42266</v>
       </c>
       <c r="C66">
-        <v>1400</v>
+        <v>1255</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E66" s="2">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="H66" s="2">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="I66" s="2">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="J66" s="2">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="K66" s="2">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="L66" s="3">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42261</v>
+        <v>42263</v>
       </c>
       <c r="B67" s="1">
-        <v>42265</v>
+        <v>42264</v>
       </c>
       <c r="C67">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="H67" s="2">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="I67" s="2">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="J67" s="2">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K67" s="2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="L67" s="3">
-        <v>38.799999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="M67" s="4"/>
     </row>
@@ -2859,28 +2861,28 @@
         <v>42265</v>
       </c>
       <c r="C68">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E68" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H68" s="2">
-        <v>10.3</v>
+        <v>12.6</v>
       </c>
       <c r="I68" s="2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="J68" s="2">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="K68" s="2">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="L68" s="3">
-        <v>40.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M68" s="4"/>
     </row>
@@ -2889,28 +2891,28 @@
         <v>42261</v>
       </c>
       <c r="B69" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="C69">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2">
         <v>6.4</v>
       </c>
       <c r="H69" s="2">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="I69" s="2">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="J69" s="2">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K69" s="2">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L69" s="3">
         <v>40.700000000000003</v>
@@ -2922,31 +2924,31 @@
         <v>42261</v>
       </c>
       <c r="B70" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="C70">
-        <v>1717</v>
+        <v>1000</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E70" s="2">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="H70" s="2">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="I70" s="2">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="J70" s="2">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="K70" s="2">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="L70" s="3">
-        <v>41.2</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M70" s="4"/>
     </row>
@@ -2958,28 +2960,28 @@
         <v>42263</v>
       </c>
       <c r="C71">
-        <v>1157</v>
+        <v>1717</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E71" s="2">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H71" s="2">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I71" s="2">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="J71" s="2">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="K71" s="2">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="L71" s="3">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="M71" s="4"/>
     </row>
@@ -2991,193 +2993,193 @@
         <v>42263</v>
       </c>
       <c r="C72">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E72" s="2">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="H72" s="2">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="I72" s="2">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="J72" s="2">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="K72" s="2">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="L72" s="3">
-        <v>39.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42254</v>
+        <v>42261</v>
       </c>
       <c r="B73" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="C73">
-        <v>1255</v>
+        <v>1000</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E73" s="2">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H73" s="2">
-        <v>12.7</v>
+        <v>11.1</v>
       </c>
       <c r="I73" s="2">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="J73" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="K73" s="2">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="L73" s="3">
-        <v>37.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42248</v>
+        <v>42254</v>
       </c>
       <c r="B74" s="1">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="C74">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E74" s="2">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H74" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I74" s="2">
         <v>11.4</v>
       </c>
-      <c r="I74" s="2">
-        <v>11.1</v>
-      </c>
       <c r="J74" s="2">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="K74" s="2">
-        <v>10.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L74" s="3">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42250</v>
+        <v>42248</v>
       </c>
       <c r="B75" s="1">
         <v>42255</v>
       </c>
       <c r="C75">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" s="2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H75" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="I75" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J75" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="K75" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I75" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="J75" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="K75" s="2">
-        <v>11.5</v>
-      </c>
       <c r="L75" s="3">
-        <v>42.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>42246</v>
+        <v>42250</v>
       </c>
       <c r="B76" s="1">
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="C76">
-        <v>2999</v>
+        <v>750</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E76" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H76" s="2">
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I76" s="2">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J76" s="2">
-        <v>14.8</v>
+        <v>11.6</v>
       </c>
       <c r="K76" s="2">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="L76" s="3">
-        <v>38.1</v>
+        <v>42.1</v>
       </c>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B77" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="C77">
-        <v>1400</v>
+        <v>2999</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E77" s="2">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H77" s="2">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I77" s="2">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="J77" s="2">
-        <v>12.7</v>
+        <v>14.8</v>
       </c>
       <c r="K77" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="L77" s="3">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="M77" s="4"/>
     </row>
@@ -3186,273 +3188,306 @@
         <v>42247</v>
       </c>
       <c r="B78" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="C78">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E78" s="2">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H78" s="2">
         <v>12.4</v>
       </c>
       <c r="I78" s="2">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="J78" s="2">
-        <v>19.899999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="K78" s="2">
-        <v>7.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L78" s="3">
-        <v>38.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>42248</v>
+        <v>42247</v>
       </c>
       <c r="B79" s="1">
-        <v>42250</v>
+        <v>42249</v>
       </c>
       <c r="C79">
-        <v>1221</v>
+        <v>800</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E79" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H79" s="2">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="I79" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="J79" s="2">
-        <v>12.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K79" s="2">
-        <v>11.8</v>
+        <v>7.9</v>
       </c>
       <c r="L79" s="3">
-        <v>43.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M79" s="4"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>42233</v>
+        <v>42248</v>
       </c>
       <c r="B80" s="1">
-        <v>42238</v>
+        <v>42250</v>
       </c>
       <c r="C80">
-        <v>955</v>
+        <v>1221</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E80" s="2">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H80" s="2">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="I80" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="J80" s="2">
-        <v>17.899999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="K80" s="2">
-        <v>9.3000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L80" s="3">
-        <v>36.299999999999997</v>
+        <v>43.5</v>
       </c>
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>42201</v>
+        <v>42233</v>
       </c>
       <c r="B81" s="1">
-        <v>42208</v>
+        <v>42238</v>
       </c>
       <c r="C81">
-        <v>1255</v>
+        <v>955</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H81" s="2">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="I81" s="2">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="J81" s="2">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K81" s="2">
-        <v>8.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L81" s="3">
-        <v>35.799999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>42191</v>
+        <v>42201</v>
       </c>
       <c r="B82" s="1">
-        <v>42194</v>
+        <v>42208</v>
       </c>
       <c r="C82">
-        <v>1000</v>
+        <v>1255</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E82" s="2">
-        <v>7</v>
-      </c>
-      <c r="F82" s="2">
-        <v>15</v>
-      </c>
-      <c r="G82" s="2">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="H82" s="2">
-        <v>16.5</v>
+        <v>12.8</v>
       </c>
       <c r="I82" s="2">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J82" s="2">
-        <v>16</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K82" s="2">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L82" s="3">
+        <v>35.799999999999997</v>
       </c>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>42186</v>
+        <v>42191</v>
       </c>
       <c r="B83" s="1">
-        <v>42188</v>
+        <v>42194</v>
       </c>
       <c r="C83">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E83" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F83" s="2">
+        <v>15</v>
+      </c>
+      <c r="G83" s="2">
+        <v>22</v>
       </c>
       <c r="H83" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I83" s="2">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J83" s="2">
         <v>16</v>
       </c>
       <c r="K83" s="2">
-        <v>9</v>
-      </c>
-      <c r="L83" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>42202</v>
+        <v>42186</v>
       </c>
       <c r="B84" s="1">
-        <v>42206</v>
+        <v>42188</v>
       </c>
       <c r="C84">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E84" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="F84" s="2">
-        <v>13.8</v>
-      </c>
-      <c r="G84" s="2">
-        <v>23.1</v>
+        <v>8</v>
       </c>
       <c r="H84" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I84" s="2">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="J84" s="2">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="K84" s="2">
-        <v>5.9</v>
+        <v>9</v>
+      </c>
+      <c r="L84" s="3">
+        <v>32</v>
       </c>
       <c r="M84" s="4"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
+        <v>42202</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42206</v>
+      </c>
+      <c r="C85">
+        <v>800</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="F85" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G85" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>18</v>
+      </c>
+      <c r="I85" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J85" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="K85" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>42121</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="1">
         <v>42123</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>1000</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>23</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E86" s="2">
         <v>7.9</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F86" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G86" s="2">
         <v>22.6</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H86" s="2">
         <v>12.9</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I86" s="2">
         <v>9.9</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J86" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K86" s="2">
         <v>6.4</v>
       </c>
-      <c r="M85" s="4"/>
+      <c r="M86" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
